--- a/ipring-060-investigate-image/src/main/resources/template/img_convert.xlsx
+++ b/ipring-060-investigate-image/src/main/resources/template/img_convert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27876" windowHeight="13020"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
   <si>
     <t>POD图片地址</t>
   </si>
@@ -38,154 +38,3004 @@
     <t>POD图片完整地址地址</t>
   </si>
   <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740573233470B24A4E9F-DBFE-4ECC-8A12-535E6CA33829-2015-0000021AEA024DBE.jpg,sys-mod-file/2025-02-26/app-file/174057323357448C0C20C-B295-444E-8EA4-6FD665E2B77C-2015-0000021AF49DE304.jpg,sys-mod-file/2025-02-26/app-file/1740573234091DABF5581-8B82-4F2D-93E3-97092B932E5F-2015-0000021AD6F57002.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405732257469A87753A-ABF4-4809-9BA8-D1F991D5FE6F.jpg,sys-mod-file/2025-02-26/app-file/1740573226585E5BB10D4-6ECC-4C97-830C-00F8185D1D03.jpg,sys-mod-file/2025-02-26/app-file/174057322736205784DAF-69B3-4924-998D-6AAC46BD7DC8-2420-000003627C0B3C35.jpg,sys-mod-file/2025-02-26/app-file/1740573227615A06BA056-BA9F-4ADC-AC10-AE285C1CEFC0.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405731970311740573173923rn_image_picker_lib_temp_b9379401-e23c-4a9c-84b2-852fff3ba70f.jpg,sys-mod-file/2025-02-26/app-file/17405731972151740573180697rn_image_picker_lib_temp_9721ab92-0948-4541-8a84-edb56b2ce109.jpg,sys-mod-file/2025-02-26/app-file/17405731972151740573190908rn_image_picker_lib_temp_417f8d69-f48d-4fa9-b4cf-ac5c61f22568.jpg,sys-mod-file/2025-02-26/app-file/17405731981261740573154401rn_image_picker_lib_temp_9f53f505-cb7b-46e0-b016-eae9cbf48e6c.jpg,sys-mod-file/2025-02-26/app-file/17405731978841740573162528rn_image_picker_lib_temp_41b5745f-5034-4e56-a3d2-fcafe0e30904.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740573191461267793B1-D108-4086-9E65-16F720FD7527-1248-0000013D1D7E9126.jpg,sys-mod-file/2025-02-26/app-file/17405731914449951FCDA-218E-4511-8F3D-4443D13C6539-1248-0000013D242574E9.jpg,sys-mod-file/2025-02-26/app-file/174057319187625B5AE03-B3DD-433B-8F9A-2AAD0FEFB4F9-1248-0000013D01A27BBF.jpg,sys-mod-file/2025-02-26/app-file/174057319209760A04ACE-1F1E-4BE2-B446-D80CA2A5D51B.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/174057315295577E327C3-C42A-4D6D-8EA1-AAD56E475E08-36935-000018AF28FEB639.jpg,sys-mod-file/2025-02-26/app-file/1740573152957BB3EFA68-F2E5-4045-AB1C-B53DADF984C6-36935-000018AF307DA11B.jpg,sys-mod-file/2025-02-26/app-file/17405731527457DACC488-D374-48EA-9ACC-89E4ACF8F496-36935-000018AF3716E2AC.jpg,sys-mod-file/2025-02-26/app-file/1740573153804518ABE06-80B4-43B5-ABE4-2C498E4BFA70-36935-000018AF0EE1684D.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740573143329ckcap8841809634753011743.jpg,sys-mod-file/2025-02-26/app-file/1740573143458ckcap1229746171649327611.jpg,sys-mod-file/2025-02-26/app-file/1740573144249ckcap828387624648088142.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740573077708A22B8B93-17ED-48DD-9233-7A271295B5EC.jpg,sys-mod-file/2025-02-26/app-file/1740573077540F9753D64-F499-4574-8296-19535760FB85.jpg,sys-mod-file/2025-02-26/app-file/174057307899458F88E9E-551B-4AC9-9DDB-2B029258D4AB-2420-00000361A6B27866.jpg,sys-mod-file/2025-02-26/app-file/17405730784102D2A903F-0B67-49F3-9929-F2EF6A3E3AF4.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/174057307448817405730700011000029166.jpg,sys-mod-file/2025-02-26/app-file/174057307451817405730700061000029168.jpg,sys-mod-file/2025-02-26/app-file/174057307455817405730700091000029169.jpg,sys-mod-file/2025-02-26/app-file/1740573075413ckcap237894902631816545.jpg,sys-mod-file/2025-02-26/app-file/174057307542817405730634701000029170.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405730486705F64A0B1-FF07-426B-8F90-3067B51CD2BF-16395-00000F67EBF77DEF.jpg,sys-mod-file/2025-02-26/app-file/1740573048572B7AA4E1E-E1D5-4FA6-9E2B-137F2950D259-16395-00000F67FC88F353.jpg,sys-mod-file/2025-02-26/app-file/1740573048941892D0868-10EF-4858-8DDC-354EE04B957A-16395-00000F67DB719627.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/174057301130671FB318A-0A82-4944-B3D6-38AC1B07F246.jpg,sys-mod-file/2025-02-26/app-file/17405730109003B059B2C-B9AF-460A-8B7F-583BE5B3F8BB.jpg,sys-mod-file/2025-02-26/app-file/1740573011434955BA30A-53A8-4B92-950A-8DAAB33C7B1F.jpg,sys-mod-file/2025-02-26/app-file/1740573012837E73462E5-BEEF-44A3-8590-9ACA9042C83C-2420-00000361569E47DF.jpg,sys-mod-file/2025-02-26/app-file/1740573012492B5B2BDAD-08A3-4B40-B6EE-0A5765471AD3.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/174057300448199211C9E-D8BF-44D6-99FC-A9539E83F92A-3166-000001DC81500FD9.jpg,sys-mod-file/2025-02-26/app-file/1740573004571D3B225C3-48DE-42A3-9A2C-5A24CE1727BA-3166-000001DC9384450A.jpg,sys-mod-file/2025-02-26/app-file/174057300552776FB6D85-846E-49E7-8830-2FC546B1B9C4-3166-000001DCA4300F4A.jpg,sys-mod-file/2025-02-26/app-file/1740573006052CF6682BD-FB21-4983-819C-932E378A9BB7-3166-000001DC543FAC20.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/174057300252099211C9E-D8BF-44D6-99FC-A9539E83F92A-3166-000001DC81500FD9.jpg,sys-mod-file/2025-02-26/app-file/1740573002498D3B225C3-48DE-42A3-9A2C-5A24CE1727BA-3166-000001DC9384450A.jpg,sys-mod-file/2025-02-26/app-file/174057300205476FB6D85-846E-49E7-8830-2FC546B1B9C4-3166-000001DCA4300F4A.jpg,sys-mod-file/2025-02-26/app-file/1740573003018318C9800-3A5E-40EB-9C8E-71D5B55CED26-3166-000001DC4D243159.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572996717ckcap4203866554417700722.jpg,sys-mod-file/2025-02-26/app-file/1740572997690ckcap4302109120717630921.jpg,sys-mod-file/2025-02-26/app-file/1740572999389ckcap2092962736670055668.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572968157ckcap6651424523344714446.jpg,sys-mod-file/2025-02-26/app-file/1740572967453ckcap4204462863046114796.jpg,sys-mod-file/2025-02-26/app-file/17405729634011740572934707rn_image_picker_lib_temp_b8030e52-3a6f-4b73-b3d5-5b9b46f310a4.jpg,sys-mod-file/2025-02-26/app-file/1740572971348ckcap2493868644326727613.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572990432435A80F3-F221-429C-8235-FD66DDC3BDA6-30587-00001086EC08FA67.jpg,sys-mod-file/2025-02-26/app-file/17405729904117ED7CD36-4792-4AD5-B1E3-95B787EADB9B-30587-000010870E81C340.jpg,sys-mod-file/2025-02-26/app-file/17405729908680BD14EE8-6740-4C47-915A-4E7535CA33EE-30587-000010869CB19B8C.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405729650693A01745A-D804-4E75-A328-A642F6DB962C.jpg,sys-mod-file/2025-02-26/app-file/17405729649396F87FCD6-7C72-4719-B616-B66374B0C2A4.jpg,sys-mod-file/2025-02-26/app-file/17405729652578DFD3567-0AD0-4C60-9671-1BB14827F21D.jpg,sys-mod-file/2025-02-26/app-file/1740572966190C1B5A670-2C3C-4951-9D99-DF00355587D1-2420-000003611467CE53.jpg,sys-mod-file/2025-02-26/app-file/17405729668980CE6CB1E-58C6-4DDB-ADCD-43DAC616F6E8.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405729491802497E933-75D0-49A1-B043-A737800A27DA-10818-000006739746FC39.jpg,sys-mod-file/2025-02-26/app-file/17405729488602F51EF1F-1073-4203-82CF-D48D51FFC77C-10818-000006739C438D71.jpg,sys-mod-file/2025-02-26/app-file/17405729525529A4B815B-922B-4387-9D68-8A8D9BF29001-10818-000006736CBA8BA8.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572951123ckcap7747141451116556234.jpg,sys-mod-file/2025-02-26/app-file/1740572950203ckcap1116974348389661979.jpg,sys-mod-file/2025-02-26/app-file/17405729507021740572936863rn_image_picker_lib_temp_1e23a070-6f85-492c-bb85-b911a9bd0982.jpg,sys-mod-file/2025-02-26/app-file/1740572951791ckcap7780923661550095277.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572945449CA171062-EBE5-43B5-8DE9-77D1865C4659-42801-000034C06AFED271.jpg,sys-mod-file/2025-02-26/app-file/1740572945606E8594089-F6D8-4594-B778-4535B99E46F0.jpg,sys-mod-file/2025-02-26/app-file/174057294620236C01E9E-9020-4164-9E16-D647ECE25BA1-42801-000034BFFCD1069D.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572883195ckcap7559852156126349243.jpg,sys-mod-file/2025-02-26/app-file/1740572878037ckcap3605938973452985128.jpg,sys-mod-file/2025-02-26/app-file/17405728768221740572812010rn_image_picker_lib_temp_342cc57e-6fc5-45e4-9a91-c3979c9a4506.jpg,sys-mod-file/2025-02-26/app-file/1740572885281ckcap419537839156814285.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405728707162C83FF02-DB9D-43BB-A9E7-EE3368EA562F-36935-000018AD984706C6.jpg,sys-mod-file/2025-02-26/app-file/17405728703491B3877FE-8876-4158-A0E3-27E6CC42D488-36935-000018AD9C3E189D.jpg,sys-mod-file/2025-02-26/app-file/1740572871115326E71B9-4022-401A-804C-798277E14688-36935-000018ADA1DB1635.jpg,sys-mod-file/2025-02-26/app-file/1740572872133C35EB746-398F-4103-B65D-E5BC876785CB-36935-000018AD8F992152.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572814312ckcap1420228501848419250.jpg,sys-mod-file/2025-02-26/app-file/1740572814292ckcap5837806912734818677.jpg,sys-mod-file/2025-02-26/app-file/17405728146471740572811562rn_image_picker_lib_temp_27eb6d1f-8731-403d-91a0-725f1b817328.jpg,sys-mod-file/2025-02-26/app-file/1740572815357ckcap8350254181740622584.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572810690BD3B0A47-23A9-4DDD-BEFC-653A8BAF3ACE.jpg,sys-mod-file/2025-02-26/app-file/17405728108831DFB79DB-2637-4B17-A962-2451EAF50C51.jpg,sys-mod-file/2025-02-26/app-file/17405728112671ECC67E4-829C-4C56-86C5-C01C355EE780.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572809551BD3B0A47-23A9-4DDD-BEFC-653A8BAF3ACE.jpg,sys-mod-file/2025-02-26/app-file/17405728096751DFB79DB-2637-4B17-A962-2451EAF50C51.jpg,sys-mod-file/2025-02-26/app-file/17405728101368F94E84B-4544-454A-8B3C-9C1B8F061CEE.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405727581270E0171A8-2025-454B-828E-B983E8B436CC-39460-000007ADB8ED5FE7.jpg,sys-mod-file/2025-02-26/app-file/1740572758024E6DCE9FE-BAC7-4345-9D5D-A4EA4EB91048-39460-000007ADCAC851EC.jpg,sys-mod-file/2025-02-26/app-file/1740572758934991DFC6E-156E-4C79-AA3D-1F05466F3634-39460-000007ADA23125A1.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572746047ckcap8235650542963210146.jpg,sys-mod-file/2025-02-26/app-file/1740572746549ckcap1185363580077134336.jpg,sys-mod-file/2025-02-26/app-file/17405727460411740572733121rn_image_picker_lib_temp_d5098dc8-b22a-4907-b009-8408802b5429.jpg,sys-mod-file/2025-02-26/app-file/1740572747186ckcap3762535118874181492.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405727204971740572705137rn_image_picker_lib_temp_7c2a2905-b2da-4e0d-a380-842bfd71e8ae.jpg,sys-mod-file/2025-02-26/app-file/17405727205191740572709593rn_image_picker_lib_temp_08f89f8f-be45-4abd-b0a4-5a326741532f.jpg,sys-mod-file/2025-02-26/app-file/17405727208981740572717531rn_image_picker_lib_temp_a4c45164-0948-408a-8c37-d55664c8299e.jpg,sys-mod-file/2025-02-26/app-file/1740572721531ckcap4355033276001553634.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405727116342097C29A-5F03-4990-8FC3-E61B884C7EB5-1433-000000799757F7B0.jpg,sys-mod-file/2025-02-26/app-file/174057271171656881149-E54F-4C4A-80FF-812E341F6000-1433-00000079A04DDD22.jpg,sys-mod-file/2025-02-26/app-file/17405727120342742FB18-C8B3-478B-95F3-4FBE6FAE23D5-1433-0000007993C75B38.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/174057268873517405726832101000029150.jpg,sys-mod-file/2025-02-26/app-file/174057268827717405726832281000029152.jpg,sys-mod-file/2025-02-26/app-file/174057268837417405726832351000029159.jpg,sys-mod-file/2025-02-26/app-file/174057268923317405726610071000029149.jpg,sys-mod-file/2025-02-26/app-file/174057268923217405726745951000029151.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572687048E2E68657-2C98-4C96-93DD-726D4A7D6691.jpg,sys-mod-file/2025-02-26/app-file/1740572687425BB07C191-3343-4403-AF30-04DC864D7579.jpg,sys-mod-file/2025-02-26/app-file/1740572688619DF8C04FE-4E13-48DD-BC6C-5B10400DE16D.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572683458ckcap7471052853008066487.jpg,sys-mod-file/2025-02-26/app-file/174057268345117405762321041000059815.jpg,sys-mod-file/2025-02-26/app-file/174057268332117405762321141000059816.jpg,sys-mod-file/2025-02-26/app-file/1740572683969ckcap6142397750632605587.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572639554ckcap650314652248449976.jpg,sys-mod-file/2025-02-26/app-file/1740572640241ckcap8132352528419574417.jpg,sys-mod-file/2025-02-26/app-file/1740572641081ckcap3139600644214416145.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572635292C70A7AB4-26AD-4A69-A231-867C0CA48392-2015-00000217A4D834AA.jpg,sys-mod-file/2025-02-26/app-file/174057263531568E986E4-82C5-4398-A3DB-32219B95A288-2015-00000217C58FF900.jpg,sys-mod-file/2025-02-26/app-file/17405726359067A283890-801B-4686-B8A4-34AAFDADB465-2015-0000021794710033.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405726176172C8111F5-E5EE-47BE-9C45-7197B66B0343-36935-000018AC2D136010.jpg,sys-mod-file/2025-02-26/app-file/1740572617054389EE88B-2A7B-449B-AAB5-200B4FAB0FE7-36935-000018AC31D9D4C4.jpg,sys-mod-file/2025-02-26/app-file/17405726164834FD06198-EB43-464F-A401-49126008B4FE-36935-000018AC36714CE3.jpg,sys-mod-file/2025-02-26/app-file/1740572618027A2638F9F-2289-4580-94AB-5245F4C63D91-36935-000018AC0BED5D19.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405726146772C8111F5-E5EE-47BE-9C45-7197B66B0343-36935-000018AC2D136010.jpg,sys-mod-file/2025-02-26/app-file/1740572614642389EE88B-2A7B-449B-AAB5-200B4FAB0FE7-36935-000018AC31D9D4C4.jpg,sys-mod-file/2025-02-26/app-file/17405726146454FD06198-EB43-464F-A401-49126008B4FE-36935-000018AC36714CE3.jpg,sys-mod-file/2025-02-26/app-file/1740572615444F74E2DA0-3BC6-4EFA-BA9C-E460DC2772CE-36935-000018AC057F8AF0.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405726095281740572585997rn_image_picker_lib_temp_6ab589ee-df14-454b-a047-48a96f68b0a6.jpg,sys-mod-file/2025-02-26/app-file/17405726092621740572603956rn_image_picker_lib_temp_20a270ef-998c-4414-b20d-816d4aa1d957.jpg,sys-mod-file/2025-02-26/app-file/1740572610170ckcap7248278945612547770.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572566633ckcap5936413545618149481.jpg,sys-mod-file/2025-02-26/app-file/1740572566727ckcap8670656326667921492.jpg,sys-mod-file/2025-02-26/app-file/1740572566756ckcap2541636931108531393.jpg,sys-mod-file/2025-02-26/app-file/1740572567394ckcap3314292822323879135.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572555800ckcap8346856156816221884.jpg,sys-mod-file/2025-02-26/app-file/1740572555986ckcap8146164502796578034.jpg,sys-mod-file/2025-02-26/app-file/1740572556379ckcap8444169130651686904.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572522251D1855989-2311-485F-9557-0990A73185A5.jpg,sys-mod-file/2025-02-26/app-file/1740572522189E46572EB-2A17-4127-86CA-5D28CD0B6357.jpg,sys-mod-file/2025-02-26/app-file/1740572523307729EC971-29CA-4711-82B3-5A5957E8E0BF.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572519806ckcap6844507552142342391.jpg,sys-mod-file/2025-02-26/app-file/1740572519691ckcap6956189074499687230.jpg,sys-mod-file/2025-02-26/app-file/17405725201521740572513079rn_image_picker_lib_temp_c3a7d6b3-65d9-4a78-9924-3035948dcdd0.jpg,sys-mod-file/2025-02-26/app-file/1740572521056ckcap7866959592025720853.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572516919BA7A2D7D-A9A4-4812-AB8D-8EB9F269E9CF-3194-000002D8C1229FBE.jpg,sys-mod-file/2025-02-26/app-file/1740572516889797192D6-FA23-4502-931C-F7BD174A2D25-3194-000002D8C56791E2.jpg,sys-mod-file/2025-02-26/app-file/1740572517454FBC1AD05-B8DF-4F28-97D8-38BE0C74B103-3194-000002D8A546E689.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405725096543F42F2FE-8ED7-4F14-8A83-B42F66EFE0D4-2015-00000216F841F194.jpg,sys-mod-file/2025-02-26/app-file/1740572509805567B992F-92D5-48D7-B47D-AEF2C14C57F4-2015-000002170F7A8F4A.jpg,sys-mod-file/2025-02-26/app-file/1740572510411C9351EE5-B31A-4BEE-ADBA-6C12F34BB739-2015-00000216EECF0A37.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/174057250908317405725049541000029155.jpg,sys-mod-file/2025-02-26/app-file/174057250941717405725049651000029156.jpg,sys-mod-file/2025-02-26/app-file/174057250927217405725049701000029157.jpg,sys-mod-file/2025-02-26/app-file/1740572509783ckcap2772088573746394384.jpg,sys-mod-file/2025-02-26/app-file/174057250989117405724990161000029158.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/17405724841071740572470643rn_image_picker_lib_temp_a8f9ac97-202a-43dd-8fd8-648bd22b3fca.jpg,sys-mod-file/2025-02-26/app-file/17405724839791740572476069rn_image_picker_lib_temp_e0042f08-a387-4c3d-b582-05b5ee0a1bd0.jpg,sys-mod-file/2025-02-26/app-file/17405724840271740572482302rn_image_picker_lib_temp_82fe248f-9341-46d7-ac8b-587fb685cfb3.jpg,sys-mod-file/2025-02-26/app-file/17405724846961740572439360rn_image_picker_lib_temp_95089cd5-2295-4c33-bf32-1c9317428fbb.jpg,sys-mod-file/2025-02-26/app-file/17405724846971740572458063rn_image_picker_lib_temp_2e6d87d5-bb2c-4db1-bf47-07c128262dae.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572442100C8942966-01FC-429F-9613-C6E07C1D682F-4585-000004AB619BA855.jpg,sys-mod-file/2025-02-26/app-file/17405724329398EF3E515-A5D8-4477-8EFA-8B5B49416706-4585-000004AB6BE8F727.jpg,sys-mod-file/2025-02-26/app-file/17405724595511DA8A2EC-C4EF-4F2B-9D1B-E1AAF053F9B3.jpg,sys-mod-file/2025-02-26/app-file/1740572461763C6D037A9-8FC2-4299-B0FB-5C1D56E1F934-4585-000004AB5B49D4BC.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572429752074D7487-2602-474D-8D63-E37B4548DA95-35137-00000F7B27F76FF3.jpg,sys-mod-file/2025-02-26/app-file/17405724297505CEB39C5-06E8-4327-9C57-351F98385360-35137-00000F7B2E530DB1.jpg,sys-mod-file/2025-02-26/app-file/1740572429782F12F64E2-9CD7-4239-93AC-3FC47CF53E58.jpg,sys-mod-file/2025-02-26/app-file/1740572430179AAD4F46F-A923-461D-806A-9A342357704B-35137-00000F7B12E6FF51.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572408316F4AC23AB-8B7E-44F7-B973-5B10E6CE9868-6914-000003600212A560.jpg,sys-mod-file/2025-02-26/app-file/17405724084381B196CFA-1924-4955-B8C8-D23E5206B917-6914-000003602DDFBC46.jpg,sys-mod-file/2025-02-26/app-file/17405724096627A648B2E-A270-47D0-A932-A6CD4BD6067E-6914-0000035FF98D7E86.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572224081C8942966-01FC-429F-9613-C6E07C1D682F-4585-000004AB619BA855.jpg,sys-mod-file/2025-02-26/app-file/17405722385448EF3E515-A5D8-4477-8EFA-8B5B49416706-4585-000004AB6BE8F727.jpg,sys-mod-file/2025-02-26/app-file/17405722737961DA8A2EC-C4EF-4F2B-9D1B-E1AAF053F9B3.jpg,sys-mod-file/2025-02-26/app-file/1740572278775A571D794-8E7C-4316-B4FC-9E0D682E4EA1-4585-000004AB579E113C.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572405716ckcap3379138360703536525.jpg,sys-mod-file/2025-02-26/app-file/1740572405571ckcap8595662728681375525.jpg,sys-mod-file/2025-02-26/app-file/1740572406319ckcap5746762954560231798.jpg,sys-mod-file/2025-02-26/app-file/1740572406869ckcap8766362403909700582.jpg</t>
-  </si>
-  <si>
-    <t>sys-mod-file/2025-02-26/app-file/1740572405332F4AC23AB-8B7E-44F7-B973-5B10E6CE9868-6914-000003600212A560.jpg,sys-mod-file/2025-02-26/app-file/17405724054281B196CFA-1924-4955-B8C8-D23E5206B917-6914-000003602DDFBC46.jpg,sys-mod-file/2025-02-26/app-file/1740572406052F128049A-1B85-4291-8CFD-CAF93EAAAC7E-6914-0000035FF6ECDF08.jpg</t>
+    <t>sys-mod-file/2025-03-18/app-file/1742362731385022C7A36-9130-48A9-82D7-2C0548C6321D-2359-000006A945988026.jpg,sys-mod-file/2025-03-18/app-file/17423627316785E370607-FB22-4C2C-9089-F03B686646D2-2359-000006A9E71EB022.jpg,sys-mod-file/2025-03-18/app-file/17423627327205B67BA7E-FAE2-470E-80C6-74CA7B327D33-2359-000006A917F2C7F5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362729989ckcap259305970232978961.jpg,sys-mod-file/2025-03-18/app-file/1742362729594ckcap3715864536002411582.jpg,sys-mod-file/2025-03-18/app-file/1742362731125ckcap9100484295424025792.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362725133957F59B7-F7C3-407B-A42F-6598B3E983A4-4452-0000037D09B820FA.jpg,sys-mod-file/2025-03-18/app-file/1742362725170BCFAC55A-093F-43E9-92A1-C262DD891AE1-4452-0000037D1A1AD0F4.jpg,sys-mod-file/2025-03-18/app-file/1742362725651A2C8262D-BDDB-4F06-82A7-0777A0EA55AD-4452-0000037CFFBD4FDC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236271777121367185-D4A6-490E-8D54-2E3684EB0B4C-4977-000005616AF0AB90.jpg,sys-mod-file/2025-03-18/app-file/1742362718146090317B6-5BBA-41CE-A781-7D0B3749C103-4977-000005617A1A1EF5.jpg,sys-mod-file/2025-03-18/app-file/17423627188571E2FB055-7E69-4330-A9D6-3C0D48734811-4977-0000056101BEC1B5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236271512321367185-D4A6-490E-8D54-2E3684EB0B4C-4977-000005616AF0AB90.jpg,sys-mod-file/2025-03-18/app-file/1742362715588090317B6-5BBA-41CE-A781-7D0B3749C103-4977-000005617A1A1EF5.jpg,sys-mod-file/2025-03-18/app-file/1742362716538660E5335-B353-41C9-AD18-41F0CDA30DC3-4977-00000560FA09A9DC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362715024AECD5DD5-424E-4491-B5AF-F56A7BE3A1C3-65998-0000101693A037DD.jpg,sys-mod-file/2025-03-18/app-file/174236271536455B88B1A-27F7-493D-BC57-73C44187DE26-65998-000010169863612B.jpg,sys-mod-file/2025-03-18/app-file/1742362715913E077EA89-605C-4E02-BFB4-0C3E08DC41BA-65998-000010168B5636A6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236271364706D95EFE-7E3F-422D-BC69-F3F6F0128CB4.jpg,sys-mod-file/2025-03-18/app-file/174236271367467215985-2D1F-40EA-8337-347BC66B99A8.jpg,sys-mod-file/2025-03-18/app-file/1742362714053FEA4602C-1105-42A4-BC4B-E133847B5F3E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236270951011234134-E6A0-4CCD-8C95-70EAF0253FD6-19174-0000022B5F529E3F.jpg,sys-mod-file/2025-03-18/app-file/1742362709750F7FA2450-BA92-4D3D-805B-07A3997DD39B-19174-0000022B647DB6BC.jpg,sys-mod-file/2025-03-18/app-file/174236271133709BB23B4-A902-4C57-9B4D-89BE432E3536-19174-0000022B4524E9C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362704229AF12A8B2-0740-4AB4-AEE0-CEAA26081836.jpg,sys-mod-file/2025-03-18/app-file/174236270409777343D1A-46FD-4C3B-BC10-66001324F221.jpg,sys-mod-file/2025-03-18/app-file/1742362703856549C6BA2-7307-4EE8-A288-09CADF57805D.jpg,sys-mod-file/2025-03-18/app-file/17423627064522572D2E2-9276-4D1F-9D5B-1B82F0097D46.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362695789ckcap8578978255276005907.jpg,sys-mod-file/2025-03-18/app-file/1742362695983ckcap3572755565720015523.jpg,sys-mod-file/2025-03-18/app-file/17423626952301742362688011rn_image_picker_lib_temp_b2d6cf8c-0af2-4b39-b812-793109e4d34a.jpg,sys-mod-file/2025-03-18/app-file/1742362698721ckcap6214928535393082175.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236269605817423626933081000242063.jpg,sys-mod-file/2025-03-18/app-file/174236269600317423626933131000242064.jpg,sys-mod-file/2025-03-18/app-file/1742362696331ckcap4730858283890897826.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362694101F79A9CEC-CCBB-4024-B4AE-61A67D32A589-2596-000001ACEB706674.jpg,sys-mod-file/2025-03-18/app-file/174236269409970CA146C-6F81-4CE0-8664-0CB6781E2273-2596-000001ACEF6AEA39.jpg,sys-mod-file/2025-03-18/app-file/1742362695357A0C7D72D-17C2-4EA3-8B60-2B0DA0D2D086-2596-000001ACD5F623FD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362690019E8C38BBE-F83A-4708-9944-EC73D7228702-2785-00000311DFE13ECE.jpg,sys-mod-file/2025-03-18/app-file/1742362689774022C3C29-A40D-43CA-9652-0BBD9B0F7BDD-2785-00000311ED9A1E32.jpg,sys-mod-file/2025-03-18/app-file/1742362690972BD55EEB4-5A95-4664-AE79-DEE73B89A3E6-2785-00000311C4C01697.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626884191B969C8F-50BC-4F2D-96B7-E04B612E7796-4312-000002C3BD8C430D.jpg,sys-mod-file/2025-03-18/app-file/1742362687962dm_A625A5CA-AF89-4F11-8D2F-0CA88CCE9120-4312-000002C3CB860626.jpg,sys-mod-file/2025-03-18/app-file/17423626889570CC014C3-3E7F-4A6E-9729-F614666D1F93-4312-000002C383610795.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626855851B969C8F-50BC-4F2D-96B7-E04B612E7796-4312-000002C3BD8C430D.jpg,sys-mod-file/2025-03-18/app-file/1742362685768dm_A625A5CA-AF89-4F11-8D2F-0CA88CCE9120-4312-000002C3CB860626.jpg,sys-mod-file/2025-03-18/app-file/17423626866054F1A85E2-08CE-43D1-B510-530B3216E9C8-4312-000002C37590C48B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362680067ckcap4668735163481485654.jpg,sys-mod-file/2025-03-18/app-file/1742362685666ckcap8628019522656040326.jpg,sys-mod-file/2025-03-18/app-file/1742362686282ckcap5967510699636937668.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626832111B969C8F-50BC-4F2D-96B7-E04B612E7796-4312-000002C3BD8C430D.jpg,sys-mod-file/2025-03-18/app-file/1742362683054dm_A625A5CA-AF89-4F11-8D2F-0CA88CCE9120-4312-000002C3CB860626.jpg,sys-mod-file/2025-03-18/app-file/174236268424765E54CEC-387E-4495-B98D-A252FFA6D7A8-4312-000002C36BBA915F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236267912074CF7651-ABE3-4A53-985E-D1E7603BC209-20738-00000BD29952BB95.jpg,sys-mod-file/2025-03-18/app-file/1742362679819F5577E87-2FDD-4D25-AA8C-CD3D26FB1846-20738-00000BD2A84076EC.jpg,sys-mod-file/2025-03-18/app-file/1742362681342CC9991C7-876F-40B5-A12F-55BFF8C87473-20738-00000BD293155D98.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236266837114D71491-AA15-453A-A760-08D0B0BB7D00-1538-000000F6CFB9F0D9.jpg,sys-mod-file/2025-03-18/app-file/174236266833816977303-56E1-4D6E-B75F-18CB1DEDCE3D.jpg,sys-mod-file/2025-03-18/app-file/1742362669353E27302A2-C1EB-4833-B1E6-38682A313B12-1538-000000F6B6EB613D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362666614B007D31E-F309-4FE9-86AC-D3741F04DA86-10309-000002CD23F0091A.jpg,sys-mod-file/2025-03-18/app-file/17423626673941B1DF0B7-96D8-473E-A211-793B8714C683-10309-000002CD38E699A6.jpg,sys-mod-file/2025-03-18/app-file/17423626684795628AFE5-5B7D-42CB-9A45-9CC254387BEE-10309-000002CD02DC2BDB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626533531E96F297-096C-45C0-AD62-AF45B449596E-24500-0000154F7F177D1A.jpg,sys-mod-file/2025-03-18/app-file/1742362653197E7A676B0-8B01-4C83-AF52-59C9F2C4B6F9-24500-0000154F86FA326C.jpg,sys-mod-file/2025-03-18/app-file/1742362652699BB591DA5-C9CC-4CD8-B971-E006DA6FBF48-24500-0000154F8954865C.jpg,sys-mod-file/2025-03-18/app-file/17423626538553B2ED207-081C-458A-8DC0-20532650475E-24500-0000154F2656E5B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362649823672DA62B-EE9E-4F52-A3AC-28256B1B4C28-314-0000001DF421E0CF.jpg,sys-mod-file/2025-03-18/app-file/1742362650155B9FF0D4E-8FC7-4308-AAC9-E0DA4FE2B625-314-0000001DFC5064B1.jpg,sys-mod-file/2025-03-18/app-file/174236265049500B76752-F042-499D-B2A4-E5478150DBEA-314-0000001DDBFF52B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236264712497FECE6A-6356-4F4D-B35A-BD84210FC58A-65998-000010162E3328AD.jpg,sys-mod-file/2025-03-18/app-file/174236264709767695D6A-D204-45D5-884C-8EB83036F633-65998-0000101636621AF2.jpg,sys-mod-file/2025-03-18/app-file/1742362649449B308A92F-6212-46EF-BAE7-5385F8D5DC64-65998-0000101627E27248.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362636587ckcap5115989680885068467.jpg,sys-mod-file/2025-03-18/app-file/1742362641653ckcap369266164384992608.jpg,sys-mod-file/2025-03-18/app-file/1742362641965ckcap4280303670775239418.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236264955617423626468831000242063.jpg,sys-mod-file/2025-03-18/app-file/174236264952617423626468891000242064.jpg,sys-mod-file/2025-03-18/app-file/1742362649844ckcap3753145913918332698.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362643409E506BFA8-297F-4A2F-BA1E-B15CA1EA430B-6843-0000054A7D1BEA74.jpg,sys-mod-file/2025-03-18/app-file/1742362642287B7E4D54C-92EA-4CBA-8F4A-3CB36847B612-6843-0000054AAEABBA80.jpg,sys-mod-file/2025-03-18/app-file/174236264671032FCA1CC-B2EA-4C06-8A12-524332FB5129-6843-0000054A6FC0F9E4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626313225DBD7946-9A44-4425-ACE9-9A17BA8857D3-1536-000000D9B91C32B9.jpg,sys-mod-file/2025-03-18/app-file/1742362629022A2581CE3-ABC4-4C76-B047-89545A233845-1536-000000D9BEABF0BD.jpg,sys-mod-file/2025-03-18/app-file/17423626458179BD2B0E9-3915-44EC-AD1E-86B3A05A87F1-1536-000000D9AC6953CA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362638394DD6AAE83-D9D4-4A73-8AAF-65F8D473D9D4-2648-000003BABA878504.jpg,sys-mod-file/2025-03-18/app-file/174236263843763B9EEE6-9DCF-4C29-B6DC-B2AB6FA95122-2648-000003BAE042A8DF.jpg,sys-mod-file/2025-03-18/app-file/1742362644466698D677F-26C2-49C3-9192-98B36B71C88B-2648-000003BA9E53956E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362634579661157DE-5BCE-4D11-B895-610B3CFA4DE6-10847-00000D1193EF77B9.jpg,sys-mod-file/2025-03-18/app-file/17423626303718F4854ED-4D6D-4E8B-B4B7-543FE932EB16-10847-00000D11974B435C.jpg,sys-mod-file/2025-03-18/app-file/1742362637406AB203DA2-EF10-467E-B92C-2E859C3C5448-10847-00000D118E2883F1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626254827BE6FC05-397D-4C81-BB2D-D17548CB2984-614-00004306EA29351D.jpg,sys-mod-file/2025-03-18/app-file/1742362625905dm_9AFBE1E6-CC6E-4E1A-8D53-3FB86E7EA4BA-614-0000430706906C68.jpg,sys-mod-file/2025-03-18/app-file/1742362632393514865B8-F967-409B-AB07-DF968511CED2-614-00004306E1760C47.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362631577DCD32447-70D2-479B-A7BB-03F21D21F9D4.jpg,sys-mod-file/2025-03-18/app-file/1742362632124B1BAB97A-734D-4F73-AC61-CE82F72AD27E.jpg,sys-mod-file/2025-03-18/app-file/174236263208831C5B5B3-3887-4E2B-9DB3-D2138FE925E8.jpg,sys-mod-file/2025-03-18/app-file/1742362632899C0E0EE99-4DC6-49B5-B1F1-7D23E2C46CFF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626246083595B674-8425-4747-B9F5-9ED30D50E8BD-19098-000037055CCA0472.jpg,sys-mod-file/2025-03-18/app-file/174236262472598E49D89-354C-4823-B03A-3F6EB13F6A6B-19098-00003705627708A0.jpg,sys-mod-file/2025-03-18/app-file/1742362625951302B2828-B2F0-426C-ACF2-5BFDBA08510F-19098-000037050C2DD752.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362617406F31C0378-2A09-4259-9554-5F15B9B636F0-3762-0000026DE3C985AC.jpg,sys-mod-file/2025-03-18/app-file/1742362617451EAF1B4CD-6D57-4301-8D2E-51E663BFB518-3762-0000026DED6700AD.jpg,sys-mod-file/2025-03-18/app-file/1742362617778F11B9B27-8EE3-4A13-A09A-73EF0D970219-3762-0000026DC4A4E6D0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423626130565DC3640E-7F78-40A7-B19D-F86F05BED516-1423-0000007C68781F90.jpg,sys-mod-file/2025-03-18/app-file/1742362614376CCD0ED26-EC78-4591-BA02-EA925503B790-1423-0000007C7980A965.jpg,sys-mod-file/2025-03-18/app-file/174236261502014F6270E-325C-40E8-8B15-0B67BB567A50-1423-0000007C6163D516.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362612047E205BD02-A6A6-4B3D-8B79-D1EAB70D544F-1033-000000D5D7191FBA.jpg,sys-mod-file/2025-03-18/app-file/1742362612262D6426DA0-69E2-4F20-BC7D-C51281D5F641-1033-000000D5E14166F0.jpg,sys-mod-file/2025-03-18/app-file/1742362613280D25EF219-DA33-4F2B-9E84-9B7E710174A1-1033-000000D5CB63ACBD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236260346732F00C05-43C0-4DCD-88AA-9EBD48286AE2-4452-0000037C5F6A5978.jpg,sys-mod-file/2025-03-18/app-file/17423626034747B373BD8-F223-4E3D-BD20-15EE3C74C087-4452-0000037C6A90F4E0.jpg,sys-mod-file/2025-03-18/app-file/174236260415412F39D6D-7FA8-49DB-A2CF-6415C935DCDD-4452-0000037C4E025B4F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362601648EE05B3A1-FD16-4C44-BF4E-C06FF49C46A3-1991-00001D6CF4233991.jpg,sys-mod-file/2025-03-18/app-file/17423626015556479E412-9A47-4C76-A433-D3376C072365-1991-00001D6D03321957.jpg,sys-mod-file/2025-03-18/app-file/1742362602270B326E491-DDDC-4C19-BC5A-1E66156C60F2-1991-00001D6CEACB3218.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362599323ckcap4074256737600100470.jpg,sys-mod-file/2025-03-18/app-file/1742362599821ckcap177967325785108203.jpg,sys-mod-file/2025-03-18/app-file/1742362601056ckcap946042295259383007.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236259718017423625948021000242064.jpg,sys-mod-file/2025-03-18/app-file/174236259719417423625948061000242063.jpg,sys-mod-file/2025-03-18/app-file/1742362597686ckcap5608816296660189765.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362593566929E91D8-7E1A-4949-A20E-79B90282AC4B-4670-00000504854F1657.jpg,sys-mod-file/2025-03-18/app-file/17423625933870BDAAEA4-EE56-4EFD-9237-E3A1110E1E66-4670-0000050489BC4F9D.jpg,sys-mod-file/2025-03-18/app-file/17423625945556C322AAC-E126-499A-B81E-41600610D267-4670-0000050472932870.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362568904B1D14399-3E06-4CDF-941F-5E8696729EDC-19174-0000022A897EE2AD.jpg,sys-mod-file/2025-03-18/app-file/17423625688896CBF7057-F693-4C66-8838-E3B61910A067-19174-0000022A9C33BF1D.jpg,sys-mod-file/2025-03-18/app-file/17423625693785A4B31DF-4D8D-40C8-841B-843754DCD3ED-19174-0000022A648ABD05.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362564132BC97872D-B3F0-436B-8037-77517559140E-13094-00000C06C3896892.jpg,sys-mod-file/2025-03-18/app-file/17423625633031D6F3180-2DDA-4BB0-857F-4F80994C0CF1-13094-00000C06CC181416.jpg,sys-mod-file/2025-03-18/app-file/1742362565617F806068F-FCDF-49B3-ADB9-774BC84C644B-13094-00000C06AEC5ADEF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362561882E748F47A-A83F-4A34-B2AC-19E7AD1CC69A-24500-0000154EFC8B6724.jpg,sys-mod-file/2025-03-18/app-file/1742362562348F5947AC6-12AD-42D1-9DE0-AAE696BA855F-24500-0000154F07ECE388.jpg,sys-mod-file/2025-03-18/app-file/174236256352105E37010-26F6-420B-A131-4EDD9FB94468-24500-0000154E2F205151.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362561535dm_BBE6FF06-21E4-4F49-8D5B-7F227F523964-18111-000008EB0C673D88.jpg,sys-mod-file/2025-03-18/app-file/1742362561690B36031EC-896C-4242-A39F-A3F595A17A4D.jpg,sys-mod-file/2025-03-18/app-file/174236256191202DF6EC4-2411-49A5-ABAC-8F7041C205CE-18111-000008EB019DFF87.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362557354982EBC16-EAAC-4B4B-8621-F8DAA8531ABC.jpg,sys-mod-file/2025-03-18/app-file/1742362557995A7EBD456-4B68-4543-A191-10A3B604AAA2.jpg,sys-mod-file/2025-03-18/app-file/17423625613477B7BFE05-481C-4153-B17E-796B06DC7DF1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362552661EEBC55D5-AB9D-4F9F-AB7D-18F5692CFDA7-5354-00000427DB7FC6B9.jpg,sys-mod-file/2025-03-18/app-file/1742362552585B5741C4B-9F6F-425F-8EDA-4B8DDD4C28AF-5354-00000427EE6C3D37.jpg,sys-mod-file/2025-03-18/app-file/174236255303767FF119C-04BE-44CC-9164-F2B510C2C0D2-5354-00000427D46C25C0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362548966C7DD07AF-9EF9-4F84-A8FF-DDAFE0FEA5B8-1538-000000F63624F309.jpg,sys-mod-file/2025-03-18/app-file/17423625490212247AB29-7D78-4307-93BD-6100615D5873-1538-000000F64BE68484.jpg,sys-mod-file/2025-03-18/app-file/1742362549581006C827B-3749-4F99-88CC-09ADEB015E9A-1538-000000F60F803AB2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423625305821E05F5C3-9D34-4C1F-A424-0CC3F02D4E21.jpg,sys-mod-file/2025-03-18/app-file/174236253038166DC7DB4-9CE4-4FAE-8306-E9235F090F1B.jpg,sys-mod-file/2025-03-18/app-file/174236253133347091DE0-67DE-4546-BDCE-0D5F7A91D4B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423625288793BF4AE98-2C50-4804-BF40-D2EC32FF52D0-626-00000095C1BE521F.jpg,sys-mod-file/2025-03-18/app-file/174236252888735DEAED5-C07E-482C-8122-C9D9275E6516-626-00000095D0B29423.jpg,sys-mod-file/2025-03-18/app-file/174236252941647057904-8AAB-40F5-BA4E-2F3471483433-626-00000095AFFBBBB4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362523227DA17A0ED-8757-4D4E-B566-075020E7B16E-5872-000003690706DE93.jpg,sys-mod-file/2025-03-18/app-file/1742362523589EF622CC0-CAD1-4BAB-B2F2-DAA943669056-5872-0000036918772BA1.jpg,sys-mod-file/2025-03-18/app-file/17423625238132515039D-FB18-4488-8CF9-74E0C613DFEC-5872-00000368DC96A2FA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236251590517423625121721000242063.jpg,sys-mod-file/2025-03-18/app-file/174236251586117423625121801000242064.jpg,sys-mod-file/2025-03-18/app-file/1742362516160ckcap4169908267455404523.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362512107A78CEBA2-217D-4EBE-8AD5-4A68BF4F4C3D.jpg,sys-mod-file/2025-03-18/app-file/174236251296424B14D0E-EEC2-449C-960E-0C2932659CE9.jpg,sys-mod-file/2025-03-18/app-file/17423625139307FC4A4BD-1C21-49E9-B3D1-1741D7A26967.jpg,sys-mod-file/2025-03-18/app-file/1742362514860F434DFD1-8013-4496-9077-4E947C6C6C4D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362512475ckcap418794135303608258.jpg,sys-mod-file/2025-03-18/app-file/1742362512491ckcap726692271242389031.jpg,sys-mod-file/2025-03-18/app-file/1742362512802ckcap8874442556790710735.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362488173117DB0B4-2B72-4CF1-BD6B-21CE38E11EA9-3397-0000025C28399A6C.jpg,sys-mod-file/2025-03-18/app-file/1742362487834E96F9BCA-39AB-425F-84D8-119D06338D40-3397-0000025C3EB7E2C8.jpg,sys-mod-file/2025-03-18/app-file/1742362487802B1EF2B10-4A47-4D82-B088-AE6A9F11B78E-3397-0000025C4C02F95A.jpg,sys-mod-file/2025-03-18/app-file/1742362511742F9CA0AAC-18F6-4F62-BD7A-15E25F610065-3397-0000025C155C59EC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362509360D4F2C53D-EAF5-4BCD-BAD2-6BC19AFB6BE2-7559-00000AA59001F18B.jpg,sys-mod-file/2025-03-18/app-file/1742362509963E5805E49-DDA2-4C8C-B047-B8788491B0EB-7559-00000AA5B99EE8A6.jpg,sys-mod-file/2025-03-18/app-file/1742362510483F4E68605-8483-4693-8029-A9F79BD0C732-7559-00000AA570C775E1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362509689CE865ADC-01B4-4CEB-AA64-A17F4A68D31C-6544-0000031CB38089F4.jpg,sys-mod-file/2025-03-18/app-file/17423625096578118EE36-3666-4458-84CC-5F4F2BA8F4D2-6544-0000031CCBA6B37B.jpg,sys-mod-file/2025-03-18/app-file/17423625099724DE99ABB-F6B0-4F1F-B3E5-51A8A3D148DB-6544-0000031C9539307F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236250660200CF7E4B-D432-4DA7-A16B-9B2510B281E3-13867-0000060EC51208EC.jpg,sys-mod-file/2025-03-18/app-file/1742362506754dm_9371C6C8-3D40-4852-862A-F764773A928C-13867-0000060ED051BBF0.jpg,sys-mod-file/2025-03-18/app-file/1742362507301648EAD81-B67B-4098-A91C-FB50EFE24849-13867-0000060EAA6FE7E9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362496864A7321B7F-01D9-446C-8F40-668EAEE08D5A-3320-000005EC7537A989.jpg,sys-mod-file/2025-03-18/app-file/1742362497082A36D9A38-C85B-41DA-869B-093E95A0EBBC-3320-000005EC7EBCE022.jpg,sys-mod-file/2025-03-18/app-file/1742362497547481E5D7E-70BC-4368-BB6A-89928EC228F7-3320-000005EC6EF251C3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624929761742362469807rn_image_picker_lib_temp_2ee9e573-8c87-4f10-b652-af4ebb9ecb70.jpg,sys-mod-file/2025-03-18/app-file/17423624930931742362485465rn_image_picker_lib_temp_4751f47d-1bfc-4343-b260-7ca57381f7d2.jpg,sys-mod-file/2025-03-18/app-file/1742362495179ckcap1467083118400229721.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624887629D60CC22-1374-437B-9F12-F78005C76BCD-2785-0000031087394A24.jpg,sys-mod-file/2025-03-18/app-file/17423624864674FCA11BB-B8F2-4774-885B-B4D3C0AFC88D-2785-000003109F0FC343.jpg,sys-mod-file/2025-03-18/app-file/17423624901599A4CD4DE-109D-4B51-9F16-58A1822731C5-2785-000003107458FE90.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362485316CE05B5A4-90DA-425B-9002-3824F5D52DFC-9817-000005E302463E0C.jpg,sys-mod-file/2025-03-18/app-file/17423624852575E18B546-D3DD-4B68-92AE-018ADF16A2CA-9817-000005E32CD004C6.jpg,sys-mod-file/2025-03-18/app-file/1742362485840B4D5FD46-97F1-44DF-AA1B-A49EF1058EFB-9817-000005E2E728459D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624775453A9DDE2B-A2AD-48F5-BEA6-FE04465FAC6B.jpg,sys-mod-file/2025-03-18/app-file/17423624774216CAAF81B-4650-4ABD-957E-82DF479F0713.jpg,sys-mod-file/2025-03-18/app-file/1742362481376A80A220D-0110-4E52-BE4F-D04FE10F0F89.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362477630A4F5F3E7-5537-4B0F-A53E-BBB70149EE9E.jpg,sys-mod-file/2025-03-18/app-file/1742362477978DE10BD86-9A6A-47B7-BDBE-3F7D4A20D106.jpg,sys-mod-file/2025-03-18/app-file/1742362478363dm_D12E9EE0-7808-46E4-983A-B8D70A967C09.jpg,sys-mod-file/2025-03-18/app-file/17423624803512DEF4EBF-3A4A-4FBE-8D4A-33EDACA1938F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362477495AEB59F69-8DD6-4630-A6ED-904EF8F0D065-65998-000010153E44F05F.jpg,sys-mod-file/2025-03-18/app-file/174236247754401B40CE5-3E59-409E-9108-39C482877327-65998-0000101545A61896.jpg,sys-mod-file/2025-03-18/app-file/1742362477820AA9AFF04-670D-4206-9F17-229B7EE231AA-65998-000010152EEEE5A6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624711209BDD864D-FE1F-436A-AA3B-1523CC3D0990-50620-00001F5EC5A8E677.jpg,sys-mod-file/2025-03-18/app-file/1742362470041EB2B7520-20C1-41F0-A052-11043EED1B67-50620-00001F5ED6FD0CCE.jpg,sys-mod-file/2025-03-18/app-file/174236247440606FBAA02-A69A-4731-BB3A-1F13E39346A5-50620-00001F5EB9C45C4E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362459135EC79CEC6-F3D2-4E43-9480-F9A2CB92CCC3-1536-000000D81D35CA4B.jpg,sys-mod-file/2025-03-18/app-file/1742362457014B95D9176-19FD-4892-98B0-AD8D099A56C8-1536-000000D82572BF2E.jpg,sys-mod-file/2025-03-18/app-file/1742362464083957626C5-83A1-4713-A128-87CD08DE9C09-1536-000000D818307D54.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236246040731BD1396-4F87-43AF-801A-F030C3D3F219-19098-000037037D634016.jpg,sys-mod-file/2025-03-18/app-file/1742362460478804EC7E8-4F7A-40C7-AE5F-70C5A6F4D2BE-19098-000037038386B8D1.jpg,sys-mod-file/2025-03-18/app-file/1742362461368E6134037-B387-4D56-9835-DAB9B577A6CE-19098-00003703449AF773.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362451930CE158481-9B6F-498A-8B23-2C3E3C42D7CF-10680-00000D0EDA0356D4.jpg,sys-mod-file/2025-03-18/app-file/1742362451832CF5CDA5D-29C5-47B6-9819-DBCA5E8E85F9-10680-00000D0EE1EF3EBC.jpg,sys-mod-file/2025-03-18/app-file/174236245283354EABB63-DADC-49DC-920B-54B3AC962606-10680-00000D0ED49B4407.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362449706B6EDBCA5-AA9E-453A-90F5-00E65086FB55-10680-00000D0D9312DDF2.jpg,sys-mod-file/2025-03-18/app-file/1742362449802E6BDBB6B-985E-4067-A875-BED88ACFDB55-10680-00000D0DA3C55874.jpg,sys-mod-file/2025-03-18/app-file/1742362450520CDB13493-C512-47FA-BDF4-0396C9026275-10680-00000D0D81139F45.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362264075ckcap233704414884307844.jpg,sys-mod-file/2025-03-18/app-file/1742362266234ckcap8679848491662062483.jpg,sys-mod-file/2025-03-18/app-file/1742362267476ckcap7867649619418498780.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362446672B6EDBCA5-AA9E-453A-90F5-00E65086FB55-10680-00000D0D9312DDF2.jpg,sys-mod-file/2025-03-18/app-file/1742362447212E6BDBB6B-985E-4067-A875-BED88ACFDB55-10680-00000D0DA3C55874.jpg,sys-mod-file/2025-03-18/app-file/174236244821944BB9912-5FC3-4B2E-9945-7ED6E38331BB-10680-00000D0D7D9B3878.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624444304FEF37F9-F278-4339-BC2D-DFC66A26440B-10680-00000CF1F8BD86AE.jpg,sys-mod-file/2025-03-18/app-file/174236244450040BD94DC-AA50-45CA-932D-16B967D15745-10680-00000CF1FF8BF39E.jpg,sys-mod-file/2025-03-18/app-file/17423624449647FB2D52D-0C16-407B-AD32-CE5F7AE020C9-10680-00000CF1DA8A9774.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362442248035D1ADC-6054-4A62-B7DB-9893952EDEFC-10680-00000CF0F093170B.jpg,sys-mod-file/2025-03-18/app-file/174236244267175E08DF3-0D40-4353-A866-98D9F9003D7F-10680-00000CF101192C21.jpg,sys-mod-file/2025-03-18/app-file/1742362443052A816806C-FB7E-4862-9B13-BE1F314E1802-10680-00000CF0E51524CC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236244072580B500E0-E17C-47B9-AD33-94C0E51E2FE2-10680-00000CEF94FE9F9F.jpg,sys-mod-file/2025-03-18/app-file/1742362440988C9C52EAA-F583-42B3-B2C7-C0AF8EE742CD-10680-00000CEFAF43DE94.jpg,sys-mod-file/2025-03-18/app-file/1742362441423A2F2D2BE-C541-4382-8BC5-65760444FF46-10680-00000CEF91E0A0EC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362440851E4BC5BE0-55B1-4B7E-BEEE-5D75188EF15D-62059-000022B0E81F309D.jpg,sys-mod-file/2025-03-18/app-file/17423624411123E065287-1BAC-4102-9A7B-29AFCC932072-62059-000022B0FAE3EA58.jpg,sys-mod-file/2025-03-18/app-file/174236244131399C7EC37-BECF-4288-934E-EE06B7F430C0-62059-000022B0C42805FB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362438831915DD048-B062-41E3-81F3-C2115A22E408.jpg,sys-mod-file/2025-03-18/app-file/1742362439670DA093D77-C0B9-4790-A21A-5A6FBE87C383.jpg,sys-mod-file/2025-03-18/app-file/1742362439644BBEB9A68-33F7-41BB-8921-DE0E73D40293.jpg,sys-mod-file/2025-03-18/app-file/17423624406019E3ABAC7-231D-4D90-97A6-4B982BC60C55.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236243968497E364A3-752E-413D-B5CC-FF3766F579D1-10680-00000CED93A6B23B.jpg,sys-mod-file/2025-03-18/app-file/17423624397465EB3A01B-3C84-44FC-BEDB-400F6BC8555E-10680-00000CED96B15215.jpg,sys-mod-file/2025-03-18/app-file/1742362439990791971CB-164D-4D92-8A95-9CB4462A70F6-10680-00000CED6D5E0FCF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236243811569E17450-2836-405C-B0E1-B496E01434C8-10680-00000D0C3083AA35.jpg,sys-mod-file/2025-03-18/app-file/17423624385420D609082-DADE-4EEF-9A76-3E4AD1ACECF3-10680-00000D0C3C69521A.jpg,sys-mod-file/2025-03-18/app-file/1742362438949F2720482-A8C4-4E7F-AF0D-82810852BC46-10680-00000D0C2528E4E5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624359941FB9E282-112E-484B-9A7C-7D473093EFD7-10680-00000D0B5E7C1828.jpg,sys-mod-file/2025-03-18/app-file/1742362436370dm_4143DDE2-AEBC-4C46-AAB0-665AC699487C-10680-00000D0B6420538F.jpg,sys-mod-file/2025-03-18/app-file/1742362437024EC05B891-D03D-456E-8FC6-16CE7D662F41-10680-00000D09E4DD13F6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362435567E73F225E-2243-463B-9D2F-513E0DFEB772-20738-00000BD1407250B4.jpg,sys-mod-file/2025-03-18/app-file/174236243536985213149-F01E-4C14-A241-0C329C65B4DA-20738-00000BD14B7A7BB7.jpg,sys-mod-file/2025-03-18/app-file/17423624369971FB8F33E-4F5B-41CC-A52D-37547342C74D-20738-00000BD13CB5ECC8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236243264048448738-613D-4F61-88B2-E2784D42A465-10680-00000D0929C70E2D.jpg,sys-mod-file/2025-03-18/app-file/1742362433222F6F9DEC8-9F25-4903-803A-E508AFBF2EB7-10680-00000D0941547C01.jpg,sys-mod-file/2025-03-18/app-file/174236243415706F1924B-05C4-4141-88FA-F5E566AB6C06-10680-00000D091B296EEC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362431723CE8D433B-10B9-40BC-9F47-94AC7495FB3D-2363-000001610AD88C0D.jpg,sys-mod-file/2025-03-18/app-file/1742362432241A550F4A5-60AD-440E-BAB8-28E3BCD64E98-2363-00000161166CD0CF.jpg,sys-mod-file/2025-03-18/app-file/1742362432776CCD160A0-664C-4099-8CC4-24A7B11A7F7A-2363-00000160EF7E5429.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362430559ABB8B159-584A-4823-954E-3839BAC8089B-10680-00000D07BFBAF1BF.jpg,sys-mod-file/2025-03-18/app-file/1742362430946C522E25A-F59A-4F32-92E1-641E22164E9C-10680-00000D07C5A97B18.jpg,sys-mod-file/2025-03-18/app-file/1742362431579D2865F7C-4A93-4ACB-A58D-1C7B1F9AAB1E-10680-00000D074F5F28C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624309402CAD901E-D742-490B-848C-9359820BF4C8-4670-000005037E0EAA0A.jpg,sys-mod-file/2025-03-18/app-file/17423624305615D2B6834-77DE-4715-9C0F-03C046732832-4670-000005038FA8D9DD.jpg,sys-mod-file/2025-03-18/app-file/1742362431891F4E6101C-17FD-45A9-A142-8CBA47487F99-4670-000005036AC3CFB7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362427708FE0BB6DD-1CA5-4B9E-8CF3-A8B16E3DF573-10680-00000D06FA9BDB8A.jpg,sys-mod-file/2025-03-18/app-file/17423624281049F3FEDCB-5705-405F-A6FC-B4283933F8DF-10680-00000D0701E89CAC.jpg,sys-mod-file/2025-03-18/app-file/17423624288714B5D53C9-2B7C-469E-AF0B-B3BE89DC003B-10680-00000D06F4E510E5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362424172413F2F01-3B13-404C-A8E1-FDBCCF4B4EE0-1923-0000016562576531.jpg,sys-mod-file/2025-03-18/app-file/1742362427045F26CC8AD-AEBA-4CF6-A34D-E03C9D7251B5-1923-0000016575C0B5EB.jpg,sys-mod-file/2025-03-18/app-file/174236242811714BAC8DD-94E9-406E-A18E-A6486E820241-1923-000001653BACCCAA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236242522399CDC1FF-EDDF-40B6-B6C2-7AFE59700201-10680-00000D064CDCDA47.jpg,sys-mod-file/2025-03-18/app-file/174236242558755026A34-4106-4F56-B6D5-6099C1010F24-10680-00000D065567795A.jpg,sys-mod-file/2025-03-18/app-file/17423624261635FD0C365-4823-4F05-A439-84052049A0CD-10680-00000D062A9D7BFC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362425383114B717D-B79F-40F7-8064-710C1FE77DDD-69301-00000C07BDB03874.jpg,sys-mod-file/2025-03-18/app-file/1742362425372dm_854652CC-156F-4FFB-881A-D9F5D2BF52CA-69301-00000C07DB963250.jpg,sys-mod-file/2025-03-18/app-file/174236242559875FAD240-05FD-4476-89AA-FEC51F530DD0-69301-00000C078A8A6394.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236242266687476347-79E9-4A0E-9F27-71E2A5C45B4C-10680-00000D056226BF0F.jpg,sys-mod-file/2025-03-18/app-file/1742362423146B9B6C9AD-4F24-4344-81FC-5659886F6504.jpg,sys-mod-file/2025-03-18/app-file/17423624237454291025A-DCF5-466F-9335-764C944F9640-10680-00000D04C5427520.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624190391C5C670F-B313-471B-A2CF-065B1EB65FCF-10680-00000D0401F2DFF9.jpg,sys-mod-file/2025-03-18/app-file/1742362419414194C4A60-15FF-447A-8FAF-30A5203B12A9-10680-00000D0405ED7095.jpg,sys-mod-file/2025-03-18/app-file/174236242033744958CBF-90F1-4C83-A0DD-B7B7EACE72AE-10680-00000D03FBDF0040.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362415866A46A5DAD-4DFF-4054-ACF1-6D019F0E1C65-10680-00000D035FCE44C3.jpg,sys-mod-file/2025-03-18/app-file/1742362415861BA1DB6F4-5409-45C2-9C4D-47EE25486B4D-10680-00000D03644F5A79.jpg,sys-mod-file/2025-03-18/app-file/1742362417151501DEC01-761B-49FE-8317-D0D4822BA01E-10680-00000D035A04D187.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362413303ABFF1228-1B7C-4129-81D2-474F96115700-3762-0000026CBF2D4419.jpg,sys-mod-file/2025-03-18/app-file/17423624144929A45F73C-0F93-4986-A288-BEE49913EDD0-3762-0000026CC94593B4.jpg,sys-mod-file/2025-03-18/app-file/1742362415990F55B2319-54CD-47F7-9CF1-AAE7229EDD41-3762-0000026CA1D1902D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362411763ckcap3015363148149046490.jpg,sys-mod-file/2025-03-18/app-file/1742362412746ckcap1838523864240850867.jpg,sys-mod-file/2025-03-18/app-file/1742362413656ckcap4335849524460196403.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362412641AAD5A98C-F95F-4D50-AE18-1BA0B5716358-2695-000001C129472521.jpg,sys-mod-file/2025-03-18/app-file/1742362412112C9B488EF-1A21-4692-8688-B47C7058E4D1-2695-000001C17EB93D64.jpg,sys-mod-file/2025-03-18/app-file/1742362413413C58F4195-0EBD-4D6D-ACA2-D9A7FA53141A-2695-000001BF70DCFC0A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236240851301846349-B0B6-4B2B-9E8B-D8BCEC1653D9-10680-00000D029E3B3E07.jpg,sys-mod-file/2025-03-18/app-file/1742362408656D01C9C04-EB99-41F4-A32D-EC53378BE969-10680-00000D02A7924E07.jpg,sys-mod-file/2025-03-18/app-file/17423624091473A67BF3C-2B98-4B48-B21A-740FAA01EF22.jpg,sys-mod-file/2025-03-18/app-file/1742362410612333A3E7E-058F-43A5-972B-8B61432C2EF6-10680-00000D025CF5DA8B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362410868F130B676-8101-47DC-9BB2-8113103494FF.jpg,sys-mod-file/2025-03-18/app-file/174236241091009BBA54D-51D3-423C-B168-E882277D21B4.jpg,sys-mod-file/2025-03-18/app-file/1742362411233513571DA-3C41-456E-A131-F1749A927CC6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362407356DB883BB7-154C-4DCB-BBF7-6AD9BF76D2B7.jpg,sys-mod-file/2025-03-18/app-file/17423624083235973DFF3-E823-4F4A-B51B-7E9CA234CBB1.jpg,sys-mod-file/2025-03-18/app-file/174236240721826E33E2C-BC0D-48CA-AD67-5B186F647C0C.jpg,sys-mod-file/2025-03-18/app-file/17423624093253963B81B-1D82-4355-B162-0B2B597302B5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362406069BB9D7605-4725-4F10-AEC8-D570EED15210.jpg,sys-mod-file/2025-03-18/app-file/1742362406626F45582A4-2474-4D9D-8DE2-550ED2E312EC.jpg,sys-mod-file/2025-03-18/app-file/174236240718876A9CF25-D9C8-4657-B98A-9B3957FB3E8A-10680-00000D0175C50A99.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362406863689329EC-04B9-49B9-9E81-2C69E0826BD3-13867-0000060E299450EF.jpg,sys-mod-file/2025-03-18/app-file/1742362407246E5A8E53C-483B-4E6F-BEE8-DE5AD07611C9-13867-0000060E37FB3330.jpg,sys-mod-file/2025-03-18/app-file/17423624076313417858D-E786-4D1B-843B-F564285F37A7-13867-0000060E1D696DAA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423624041771742362154684rn_image_picker_lib_temp_00af2122-e149-43bf-a025-0e3860898d2f.jpg,sys-mod-file/2025-03-18/app-file/17423624044411742362243555rn_image_picker_lib_temp_4a60ac63-dc1c-4b73-9666-6d10ae1ff27b.jpg,sys-mod-file/2025-03-18/app-file/17423624046601742362401535rn_image_picker_lib_temp_2c45cf90-316e-40dc-aa86-d1d3df989981.jpg,sys-mod-file/2025-03-18/app-file/174236240529517423621425071000003041.png,sys-mod-file/2025-03-18/app-file/17423624056611742362212160rn_image_picker_lib_temp_9423fb7f-6710-4cce-8ffe-39507d0d4344.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236240270163596D64-305D-4081-B808-3E6C7922509E-10680-00000D007CB0F02A.jpg,sys-mod-file/2025-03-18/app-file/174236240356458037991-98D0-49A6-9F85-257C08210C6E-10680-00000D0084FBAF47.jpg,sys-mod-file/2025-03-18/app-file/174236240441894CE4A5A-0EF4-42A0-836D-5490709BDE12-10680-00000D0009A83655.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362361267ECB3DEB1-1B57-40EC-84E3-1AD1CBB5BDE1-5640-000003E4598D7714.jpg,sys-mod-file/2025-03-18/app-file/174236234877363E3D461-B208-4E9D-9DD0-B8826273D3FE-5640-000003E4C729DA21.jpg,sys-mod-file/2025-03-18/app-file/174236240138394465215-0F27-41D6-939C-79B07C25AA47-5640-000003E450DC1BB4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623957608EAB46EB-112C-4F26-8D89-F060201B5381-10680-00000CFF63285821.jpg,sys-mod-file/2025-03-18/app-file/174236239625096739436-2B95-42FE-A27C-3B0C1830A855-10680-00000CFF7063E332.jpg,sys-mod-file/2025-03-18/app-file/174236239667727EE9D30-CF7C-4809-87BB-ED17B36E11DC-10680-00000CFF5DA9F677.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362402159ckcap3208474885406496129.jpg,sys-mod-file/2025-03-18/app-file/1742362402265ckcap1279510384857143124.jpg,sys-mod-file/2025-03-18/app-file/1742362402775ckcap1387317246056948489.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362349464D89E3F8C-6E2E-4A4D-84FB-482D07E28AAF-2785-0000030FC34DF26E.jpg,sys-mod-file/2025-03-18/app-file/1742362317100F4D9F1BA-B1FE-4FE3-9374-D03138F1F93E-2785-0000030FD7292979.jpg,sys-mod-file/2025-03-18/app-file/1742362387972A6CF466D-8CBF-4544-8008-41D197F0B9BE-2785-0000030FAB6DA5CD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236240057706014003-9E73-4D0C-BD17-B4479268A333-10680-00000CFFC54F4CBF.jpg,sys-mod-file/2025-03-18/app-file/174236240065703426B73-E0EB-4C6F-A2EA-5768AB5F867A-10680-00000CFFCF012BFD.jpg,sys-mod-file/2025-03-18/app-file/174236240122554004B52-9073-43A1-B9D1-2405B3C3435A-10680-00000CFFC03AA053.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362381137FE20E69E-EAFB-4E14-8AD1-B9BEC74F672C-676-0000006E2B24897A.jpg,sys-mod-file/2025-03-18/app-file/1742362381197A245827B-A817-41BA-ADAE-5EC68E291C63-676-0000006E5039A15A.jpg,sys-mod-file/2025-03-18/app-file/17423623831776D548F6E-A6A6-47C7-B938-8B6326F5A4A1-676-0000006DEF3659FC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362380115F6C359DB-1FE1-4E46-8D29-3BA3045F3B62-24500-0000154DF4C467E7.jpg,sys-mod-file/2025-03-18/app-file/1742362380078C3D8D0E1-304A-4FFB-88E4-B50D498018ED-24500-0000154E04988FCB.jpg,sys-mod-file/2025-03-18/app-file/17423623803629DB912FD-38F1-4D52-BFA9-B8754EAADB42-24500-0000154D5D3CC446.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623987466EEC8158-CE31-4B7E-B718-E1858AB2888F-4452-0000037B36DD2684.jpg,sys-mod-file/2025-03-18/app-file/1742362398851C0DC89F9-7BAB-47FE-BF9D-9D9F4963CA17-4452-0000037B470BCE5F.jpg,sys-mod-file/2025-03-18/app-file/1742362400321CCD1E376-D80A-4FFC-ABEC-BEBB73C6C80D-4452-0000037B2C918A74.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362368048DDB53EBC-8245-4A69-BA5A-04C230E4078E-10680-00000CFB0F3D88DB.jpg,sys-mod-file/2025-03-18/app-file/1742362369761944C291D-C7E8-4056-BC9F-03F7D3FD7194-10680-00000CFB17B31A12.jpg,sys-mod-file/2025-03-18/app-file/1742362371386CB2CF184-4557-4110-B766-A2915254819C-10680-00000CFAF7EB1DD6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362355593CB636F7B-F04A-4BD6-A723-E79B6516D082-1033-000000D45452762D.jpg,sys-mod-file/2025-03-18/app-file/1742362355769C19A7E38-AE69-4C19-993B-BA5EEED21026-1033-000000D47314C136.jpg,sys-mod-file/2025-03-18/app-file/174236235628165DCA657-E9CC-43A3-8A0E-070B04836D0E-1033-000000D3473C1AB5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623930161CD587A9-96A2-4CED-98FA-AF92DBA6EAE2-10680-00000CFED8CE7EA4.jpg,sys-mod-file/2025-03-18/app-file/17423623935893EB15D4B-F2C7-42A5-8596-266FBF423CA9-10680-00000CFEDEAC1E90.jpg,sys-mod-file/2025-03-18/app-file/1742362393966059BF245-6CC3-4A3A-A86C-89EC5AE0B545-10680-00000CFED08EC225.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236239095734DAFA9A-C120-4B4E-AA30-43B9487F19E3-10680-00000CFE4381A621.jpg,sys-mod-file/2025-03-18/app-file/1742362391549CB07BE02-34D3-4621-8A38-3566CAB6B580-10680-00000CFE47F51976.jpg,sys-mod-file/2025-03-18/app-file/174236239212287E31E85-D3E8-4428-B1A1-6DB32CE98D46-10680-00000CFE3E84296E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362390765C779ADFC-4D6D-4FD6-8D92-BDC312EA8FB4-2746-0000017A727AE53B.jpg,sys-mod-file/2025-03-18/app-file/17423623910637DF2BD64-F1BA-4A35-8B4F-47904AB2BCB4-2746-0000017AA55FF88C.jpg,sys-mod-file/2025-03-18/app-file/17423623922139016C6F4-93DC-4A76-8FC1-3D943107DBF7-2746-0000017A6C07138E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362390141B4C0CB85-D3CD-42F9-9E96-23CE94845074.png,sys-mod-file/2025-03-18/app-file/17423623902809C138EA3-0867-41F5-85F8-6C4EE9E5AD80-8723-0000017AC7E977A9.jpg,sys-mod-file/2025-03-18/app-file/1742362390906F6CB825C-2F11-4921-B2C8-680715E6C9A6-8723-0000017A677B9141.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362388739A4A4CDA4-C1E6-41D1-B14E-5E68855B1035-10680-00000CFD3B36E084.jpg,sys-mod-file/2025-03-18/app-file/1742362389247F2B2B800-BF3F-4204-9BA8-9479ED3F9EC6-10680-00000CFD46C99528.jpg,sys-mod-file/2025-03-18/app-file/174236238979929736145-C775-4113-9DF2-1DE850127717-10680-00000CFD36884AAA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623866496FE1EAF8-6B9C-42CB-857F-E498D45D2AD2-10680-00000CFCFC2F5A24.jpg,sys-mod-file/2025-03-18/app-file/1742362387109B2AE19D8-7BF0-4E30-B0F9-1218499CC634-10680-00000CFD00FD798B.jpg,sys-mod-file/2025-03-18/app-file/1742362387857B4AAE4E5-BA79-4B2C-8553-C6DE8277F5BB-10680-00000CFCF8E80AE2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236238250946F3589D-C9F6-406C-BDFF-E7EA209392BF-10680-00000CFCA4D7ABDB.jpg,sys-mod-file/2025-03-18/app-file/174236238284667C27C5E-2852-4AF4-B112-6CE82A579711-10680-00000CFCA845461B.jpg,sys-mod-file/2025-03-18/app-file/17423623848035D134F8B-5FFC-442E-94C8-86AA63D45C5C-10680-00000CFC1230E991.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362379007E363E4A5-80D0-4BAC-A77E-977240115C26-10680-00000CFBD1A49A02.jpg,sys-mod-file/2025-03-18/app-file/1742362379371A78F08F0-63CC-4182-988C-22B8FB987FA9-10680-00000CFBDAFB42DC.jpg,sys-mod-file/2025-03-18/app-file/17423623807473159692A-3098-4E84-A8D1-1F46873F1EB8-10680-00000CFBBA2219EF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236237430999C1E485-566B-4253-B1A5-DD1C5C5BD5E9-4312-000002C20C273B30.jpg,sys-mod-file/2025-03-18/app-file/1742362375459C01C80DA-C80C-4912-81C3-3741D65017CA-4312-000002C217798282.jpg,sys-mod-file/2025-03-18/app-file/1742362376523DA93293B-A937-490F-AFC2-7F8F43C5A19F-4312-000002C1FDEF45AC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362374673EEE4EF93-AB39-4D5D-A40C-411F509178B5-10680-00000CFB72B2F5D9.jpg,sys-mod-file/2025-03-18/app-file/1742362374941059E7A10-A8E0-4C72-8334-F230FDB5BD06-10680-00000CFB78C8138A.jpg,sys-mod-file/2025-03-18/app-file/17423623765048FE7FCCC-66C6-46CE-94B5-231F2159A652-10680-00000CFB4A171714.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362374116268B9F2C-D91D-425C-897D-3617CE6AA82D-5434-0000043905E13757.jpg,sys-mod-file/2025-03-18/app-file/17423623766174A93D195-E01C-465D-AE28-4C9173D72EBF-5434-0000043935FC2026.jpg,sys-mod-file/2025-03-18/app-file/174236237699248F5636C-1022-464C-B63D-ECE221DF0C3E-5434-000004389417237C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362373592D136C656-8D90-4419-8F1A-AC5C1C34D166.jpg,sys-mod-file/2025-03-18/app-file/17423623734221EF9CC57-5B3E-4E88-80FC-C1004AF8E916.jpg,sys-mod-file/2025-03-18/app-file/1742362373891DDFD1C0A-30DB-427D-B918-AF8BF0127A08.jpg,sys-mod-file/2025-03-18/app-file/1742362374791B8196048-E274-439A-BC66-E914FF3AB89A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623479753613E796-5CDC-4925-AED4-B99233CBEDA5-10680-00000CF798BF253D.jpg,sys-mod-file/2025-03-18/app-file/174236234832847CA28A3-BF95-47BC-BE3D-E95F2FD502A2-10680-00000CF79D95B0CD.jpg,sys-mod-file/2025-03-18/app-file/17423623506961D9D3B56-2F53-4AFA-B905-2EFB15C3C886-10680-00000CF77D150D19.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362330338F51DBFBC-4ECC-4CBB-B264-08F9AD96EFDE-3397-0000025B3B5165A6.jpg,sys-mod-file/2025-03-18/app-file/17423623247656FE98DF3-F586-4D1A-8E37-DA8BF6F89F91-3397-0000025B451EFD55.jpg,sys-mod-file/2025-03-18/app-file/17423623248130662C913-F803-4B17-8874-76364E5F9B09-3397-0000025B52339D21.jpg,sys-mod-file/2025-03-18/app-file/17423623495182F0E312E-CF57-42DD-BF4A-AFF3C576577F-3397-0000025B0D7FA138.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362340576E2F3B37D-D4D4-4FF9-8C2D-8EC6A2ACE0D3-2596-000001AAD1CB7C63.jpg,sys-mod-file/2025-03-18/app-file/1742362340938D1217673-DF3C-4D1E-A774-8C0B1F2806ED-2596-000001AADC09AD96.jpg,sys-mod-file/2025-03-18/app-file/17423623407973DD7687D-BE14-4714-875D-FBA076B60860-2596-000001AAE1DA7E2D.jpg,sys-mod-file/2025-03-18/app-file/1742362341710F7FAD59E-B838-4DB5-AAA9-A44009A42E4F-2596-000001AACD638416.jpg,sys-mod-file/2025-03-18/app-file/17423623414816F7975CC-6519-4A67-8EFD-A78834A06A82.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362335879B8271FC7-6177-4041-8D94-C218DF358879-10680-00000CF579B0AF4F.jpg,sys-mod-file/2025-03-18/app-file/174236233573513F25861-E4AA-4AEB-AD90-5CDA83274CF1-10680-00000CF581431668.jpg,sys-mod-file/2025-03-18/app-file/174236233836450051CD4-5510-4B24-9DFB-D174EECA643A-10680-00000CF57016C911.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236234277143F6834E-43EC-4C8A-A86A-257F4B14E925.jpg,sys-mod-file/2025-03-18/app-file/1742362343040BD212B56-AD0A-4F1F-A07F-C00AC3FD85F0.jpg,sys-mod-file/2025-03-18/app-file/17423623434900B634319-FD1E-444D-969D-1EFC3CE44EB7.jpg,sys-mod-file/2025-03-18/app-file/174236234470700C85963-E7C3-47DC-B524-D3EE0CC40810.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236236075177DEEFFC-FD0E-488C-A684-9376E26DEF22-10680-00000CF9E71F4FE2.jpg,sys-mod-file/2025-03-18/app-file/1742362363040E3016968-05C2-4B06-ADAB-F4CF16079A61-10680-00000CF9F31D2D96.jpg,sys-mod-file/2025-03-18/app-file/17423623653992FDBC2A9-383A-40F2-AB16-1BB89929F402-10680-00000CF9DE9D0C56.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362359159A4071C3B-7DEB-4CD1-AA38-017C58267EC2-314-0000001C58A2BFC3.jpg,sys-mod-file/2025-03-18/app-file/17423623583633327762E-A67F-4BE7-8F86-0ECFB8A6890A-314-0000001C5DE2D743.jpg,sys-mod-file/2025-03-18/app-file/17423623607833642AB07-5EE8-49E5-BE85-58CF4BF3DF6C-314-0000001C440275BA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623544494D02A786-E946-4F2E-8B3F-E88C2E13B9B5-10680-00000CF87C43733F.jpg,sys-mod-file/2025-03-18/app-file/17423623554856F1206F1-0205-42C6-A580-6870A657C1F8-10680-00000CF8971714DE.jpg,sys-mod-file/2025-03-18/app-file/17423623576285CDCACC9-1A03-480E-AED4-8D8EFC6D9FBB-10680-00000CF7D8AB148A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236236087951795D01-3885-40DC-B03A-EA1802AC910E.jpg,sys-mod-file/2025-03-18/app-file/1742362361117ACBDEE8D-802D-47B9-8433-18B7409B3702.jpg,sys-mod-file/2025-03-18/app-file/1742362361512D654D68D-57A4-4B11-9C51-03A9C9CB23C5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236235572653268302-956B-40A3-8342-708603EEA525-28363-000004894B3F0EE3.jpg,sys-mod-file/2025-03-18/app-file/17423623562450EF52FAB-B6E4-4CF2-870B-BFB1C1396954-28363-0000048981E2FD45.jpg,sys-mod-file/2025-03-18/app-file/1742362357433744C02F5-9D46-478E-9064-140508DCE50A-28363-0000048945787A54.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623429571E8BA9AE-6575-4C88-9DE2-992CD26C8B85-83361-00004454EC614068.jpg,sys-mod-file/2025-03-18/app-file/17423623450844FCC5C90-4130-4908-988E-12DE50B214F2-83361-000044551549DFD3.jpg,sys-mod-file/2025-03-18/app-file/1742362349217BF3B82A5-CA27-491F-BA77-D9FC93ED95A5-83361-00004454D76D7E3B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623456861FE44856-BD78-41E4-B335-E24B9A3A6AC1-25587-00000CCFF361D24C.jpg,sys-mod-file/2025-03-18/app-file/17423623458486A7A6567-1D72-429C-9E5E-FA3B38D4EF09-25587-00000CCFFCAF6D50.jpg,sys-mod-file/2025-03-18/app-file/17423623464235F3DDDEC-A264-4C68-B6DE-08803BBC8A59-25587-00000CCFE9640929.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236232441572A6367D-34B2-41A4-A1D2-08E846C7F39D-19174-0000022938B0EF01.jpg,sys-mod-file/2025-03-18/app-file/17423623244761CD54049-3CB9-42E0-A7FF-2719091D218E-19174-000002293ED7105B.jpg,sys-mod-file/2025-03-18/app-file/17423623257907EAEA495-3BDC-45BA-A2A6-99CAC88DD9C0-19174-00000229351B2337.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623248251D72ED57-0689-488E-A6EE-38A5AE0F588D-1991-00001D6B2F909E15.jpg,sys-mod-file/2025-03-18/app-file/1742362324785BEA04D0E-83DB-4111-A9AA-E75C652E69B1-1991-00001D6B77BBC1CB.jpg,sys-mod-file/2025-03-18/app-file/174236232501501EF4748-D089-4582-8398-F52C19ACEFFB-1991-00001D6B26492A95.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362311431F1DA8916-7B7C-4FB7-B08E-CD82417135AE-626-000000936BD0D28A.jpg,sys-mod-file/2025-03-18/app-file/1742362312232261B2E3E-9583-4F6E-B46D-EDB0716C6F9E-626-000000937BB305A7.jpg,sys-mod-file/2025-03-18/app-file/1742362315054BC109988-7022-49F5-8979-F68977CC7A74-626-0000009355CC6D4C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362309789A5A27168-A9A2-4765-97AF-422FF3C5A28C.jpg,sys-mod-file/2025-03-18/app-file/174236231266014EA091C-2D45-4F15-93DF-86BCFEE7DC59.jpg,sys-mod-file/2025-03-18/app-file/1742362316135A4F74F8F-D3E2-4339-ACE4-E9DCD6B3D9A1-11170-000008F842758A43.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362318804ckcap4591548591423537783.jpg,sys-mod-file/2025-03-18/app-file/1742362318741ckcap7376230387707294608.jpg,sys-mod-file/2025-03-18/app-file/1742362319649ckcap4908570426561844831.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362313794ckcap6179251990704462685.jpg,sys-mod-file/2025-03-18/app-file/1742362313709ckcap6806812737533672167.jpg,sys-mod-file/2025-03-18/app-file/1742362314945ckcap5051730027753097926.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362344039B6E8848D-DAD6-41FF-AD90-BCA4B906CD6D-626-00000094BB3837EF.jpg,sys-mod-file/2025-03-18/app-file/174236234427443FB4D88-3BB9-4AD7-BF24-72F26407E829-626-00000094C892C5F4.jpg,sys-mod-file/2025-03-18/app-file/174236234475804228425-F657-45B1-84AC-3E0E8F4AD819-626-00000094A83AB6DF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623415176EBC44F8-7FF1-48DD-8F19-5CF832B1D616-10680-00000CF6E0803A0D.jpg,sys-mod-file/2025-03-18/app-file/1742362341914E2F45B57-042F-465A-AEF5-2D698636379A-10680-00000CF6E3CEB454.jpg,sys-mod-file/2025-03-18/app-file/174236234465719B14831-30C5-4B07-B88F-65E62231984C-10680-00000CF6DC11EE02.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362342708ckcap703879688844299471.jpg,sys-mod-file/2025-03-18/app-file/1742362342958ckcap3617342959590395476.jpg,sys-mod-file/2025-03-18/app-file/1742362343185ckcap3159403691597797728.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623409141E8BA9AE-6575-4C88-9DE2-992CD26C8B85-83361-00004454EC614068.jpg,sys-mod-file/2025-03-18/app-file/17423623409434FCC5C90-4130-4908-988E-12DE50B214F2-83361-000044551549DFD3.jpg,sys-mod-file/2025-03-18/app-file/1742362341482725D1C03-A8F1-49F9-A065-49F3E1A4A789-83361-00004454D35C0439.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362329698F9916ACB-9F50-4BD4-B504-7D70F0CF2EC6-10680-00000CF31788E804.jpg,sys-mod-file/2025-03-18/app-file/1742362330035636E87A8-CE5D-4341-8EFB-45A64229F618-10680-00000CF31D819024.jpg,sys-mod-file/2025-03-18/app-file/1742362332126A0DD805D-8FDF-4FBC-AEB9-87474C75092F-10680-00000CF2A2F6962D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362323409CC0ED8C5-A6A9-4CC0-B3DF-F72577616874-50620-00001F5DE924AF6F.jpg,sys-mod-file/2025-03-18/app-file/1742362323441340BC367-C7E1-43EE-885B-20AFCA520BBD-50620-00001F5E09DE1325.jpg,sys-mod-file/2025-03-18/app-file/1742362325129ACE9C3A5-1C2B-41D1-8099-255928111FE4-50620-00001F5DD621CDA7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362323549343194BF-F3F4-458D-920F-D8A324E5BB44-2363-000001606E8899DE.jpg,sys-mod-file/2025-03-18/app-file/1742362323547F09D934A-3184-4CC5-88B2-788541A26B6E-2363-0000016083AC2D1D.jpg,sys-mod-file/2025-03-18/app-file/17423623238799B472843-3F16-45D2-91B2-DE3966D7350A-2363-0000016042A732B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236230587953BFD5B7-832E-44F0-9860-50A7DBA99BB4.jpg,sys-mod-file/2025-03-18/app-file/1742362306508620F45D7-45B3-48B5-9BAC-A2381F79348A.jpg,sys-mod-file/2025-03-18/app-file/1742362306521A6C65B4F-E494-40AA-BD95-CCE2D41D582B.jpg,sys-mod-file/2025-03-18/app-file/1742362307765EB382A47-1E26-41DD-8FA2-2E09D5DB34AD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362319502dm_55D762C0-DFD5-4A57-AA89-F19A8C7E0809-1423-0000007AD44CCF5D.jpg,sys-mod-file/2025-03-18/app-file/17423623194115F875125-D3CE-44E4-AD7D-21849BEEE76C-1423-0000007AD7CD9C35.jpg,sys-mod-file/2025-03-18/app-file/17423623197329C3A8DD8-8708-4C61-BEFA-EAC2299A4A17-1423-0000007AC7198F26.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623048117E27A308-BBBE-4DAB-B1E5-38670E2B0814-1923-00000164BB0FE55A.jpg,sys-mod-file/2025-03-18/app-file/1742362304810DABCE2BB-78F7-4383-9ED6-CFD23968CE5E-1923-00000164CB32450F.jpg,sys-mod-file/2025-03-18/app-file/1742362305418B434D9F5-C36A-40DE-B6C8-A2DB94D03803-1923-00000164961B79B2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362290173E78B62A0-E179-4AAB-8350-473F2D65BBD3-12203-00000B83AC2E2A4F.jpg,sys-mod-file/2025-03-18/app-file/1742362290322F3B743E9-72F3-4A22-8AF3-A600B5B63D05-12203-00000B83BDAABD8E.jpg,sys-mod-file/2025-03-18/app-file/17423622908825D0C3FD8-60FA-490E-B2A2-4324348D34F9-12203-00000B839B86383C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362283856CDFFFABF-3E81-41B3-9325-C8484C67A826-11170-000008F815A85B4E.jpg,sys-mod-file/2025-03-18/app-file/1742362283902C7FCACF2-476F-4C2A-8E35-5FFEE51E2515.jpg,sys-mod-file/2025-03-18/app-file/1742362289136C0FCE2BE-AB98-46FC-B79D-099A69772322-11170-000008F7F4444F39.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236230500231BD1396-4F87-43AF-801A-F030C3D3F219-19098-000037037D634016.jpg,sys-mod-file/2025-03-18/app-file/1742362303348804EC7E8-4F7A-40C7-AE5F-70C5A6F4D2BE-19098-000037038386B8D1.jpg,sys-mod-file/2025-03-18/app-file/1742362305491F5BFB86D-6C2B-4D44-9DF6-075CC74A5C30-19098-000037033F2E3545.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362284943676C259C-0BAC-4320-876F-74834BF58D93-56271-000023857563D30F.jpg,sys-mod-file/2025-03-18/app-file/1742362282245C53B9D9E-C4C9-4507-9BBE-2C421109C33D-56271-000023864B16603F.jpg,sys-mod-file/2025-03-18/app-file/1742362303602D034647F-7C34-459A-8EE3-5AC7775B73F5-56271-0000238565684AEF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423623028281742362268031rn_image_picker_lib_temp_753372de-70bd-4ddd-9692-b0c994662740.jpg,sys-mod-file/2025-03-18/app-file/17423623028731742362280014rn_image_picker_lib_temp_8ab254cc-eda9-42b5-bace-aaf2fa442c49.jpg,sys-mod-file/2025-03-18/app-file/17423623030151742362301083rn_image_picker_lib_temp_098dd633-fc79-4294-b854-3ea97dbd0572.jpg,sys-mod-file/2025-03-18/app-file/1742362303427ckcap1362919318210024113.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423622961438870E8F2-0B0A-4109-87E8-02D7EC9EFC65.jpg,sys-mod-file/2025-03-18/app-file/17423622946261EDBED5A-59BA-4FBF-A776-D17B240B523C.jpg,sys-mod-file/2025-03-18/app-file/1742362297197464FB9B2-978D-46C1-88AA-3017ACFABD4A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423622965292ED8288B-306F-44BE-A8F4-A9E7FF45CAC1-6544-0000031B77A95BE0.jpg,sys-mod-file/2025-03-18/app-file/17423622964604F7AB62D-B32D-4241-8B24-CADB4F807820-6544-0000031B94C65A27.jpg,sys-mod-file/2025-03-18/app-file/174236229676863D37639-DF0B-4620-824B-B7A3AE309FB8-6544-0000031B4D741D36.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362294666ckcap2388776325293827281.jpg,sys-mod-file/2025-03-18/app-file/17423622945341742362275582rn_image_picker_lib_temp_5d048fe6-e864-48b0-95bb-6fc02af88fc4.jpg,sys-mod-file/2025-03-18/app-file/1742362295081ckcap6822131187591980809.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236228280945075F15-8200-433A-9580-D4356962E5E7-65998-00001013EB7705C1.jpg,sys-mod-file/2025-03-18/app-file/174236228256603A52735-82B3-40E7-930D-4DDD84B0FE59-65998-000010140F5E7565.jpg,sys-mod-file/2025-03-18/app-file/1742362286438DB5BB79E-ECA9-4DEB-9937-D83E54493F72-65998-00001013DF1E3B87.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423622799991742362268086rn_image_picker_lib_temp_85502169-0120-4eca-a1ba-c2555248ce91.jpg,sys-mod-file/2025-03-18/app-file/17423622802261742362278012rn_image_picker_lib_temp_a7524615-d7e0-4ca8-b36f-eb12e260f3c3.jpg,sys-mod-file/2025-03-18/app-file/1742362280966ckcap7765962072585001799.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362274744B8C649F8-EAC3-43C3-BA9C-20E91BE660BE-20738-00000BD054DED5BF.jpg,sys-mod-file/2025-03-18/app-file/1742362274236A59303E0-46AB-4195-8709-A5E47AF796B8-20738-00000BD06336ABDB.jpg,sys-mod-file/2025-03-18/app-file/17423622753154E99AAD9-2F51-46E4-B6D8-8602FD42DE82-20738-00000BD04EFC4157.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362274583513BFB9A-98DF-4245-8592-D5B544D74D91-5872-000003677A12F41E.jpg,sys-mod-file/2025-03-18/app-file/1742362274846C19C9790-D361-4A53-AB47-BE6D01C2A7B7.jpg,sys-mod-file/2025-03-18/app-file/174236227517554623A86-63CA-4F7E-A098-253153753D85-5872-0000036697425624.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236226310400861B89-5644-46D6-8D31-E21DDE22EF89.jpg,sys-mod-file/2025-03-18/app-file/1742362263663dm_E0101DC4-8B05-4322-BA4C-95D792699406.jpg,sys-mod-file/2025-03-18/app-file/1742362264978E2F39EF8-4697-42AE-B784-22459D6C7243.jpg,sys-mod-file/2025-03-18/app-file/17423622657870FAF8D72-E1CC-4CBE-96E1-86F641C7A4B0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362244522dm_6C7EEE4D-C798-448B-86D3-5DD6FC75FC3C-24500-0000154CF6A69585.jpg,sys-mod-file/2025-03-18/app-file/17423622450844990698F-71DC-4366-8195-868C91267967-24500-0000154D3689A098.jpg,sys-mod-file/2025-03-18/app-file/1742362244902D93630BF-4AAB-42A1-B4BE-30D582ED2F53-24500-0000154D3D49918E.jpg,sys-mod-file/2025-03-18/app-file/17423622456649F231D5B-50A0-462A-80CC-38EFA661A06F-24500-0000154C7A53C245.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423622534379C5F8E32-C6C0-4829-B21D-6961239A7802.jpg,sys-mod-file/2025-03-18/app-file/1742362253507CE1B2345-EFA1-4C07-BE82-DFE1960079C1.jpg,sys-mod-file/2025-03-18/app-file/174236225381263B32054-5F72-4024-8F5B-FE142E3CA353.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236224857547A415D5-B3F1-449A-8E3B-DE63FA0092AC-4312-000002C15BDC963A.jpg,sys-mod-file/2025-03-18/app-file/1742362249500A8564776-CFC8-4D51-BCA5-AEC655B361B7-4312-000002C163EE37E2.jpg,sys-mod-file/2025-03-18/app-file/1742362250810F6416E05-086B-4894-B0EC-78E904D3F81C-4312-000002C13AA73D4E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362247047869D3365-8035-4710-AC2B-DD7BD6CA52E4-3762-0000026BC4CF1137.jpg,sys-mod-file/2025-03-18/app-file/1742362247023013A19F8-9022-43FA-8DBC-9F12CAC22C39-3762-0000026BD704A3D3.jpg,sys-mod-file/2025-03-18/app-file/1742362248695CE8FFDE8-488C-4789-8C65-EE81173CFB75-3762-0000026BB5BFCED3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423622441948F7A2B9C-EE76-4A13-8BF2-2021599873BB-314-0000001BB3AA9C38.jpg,sys-mod-file/2025-03-18/app-file/17423622436489D205929-F262-42B6-96E6-83D62CD60A2E-314-0000001BBAAC8BF9.jpg,sys-mod-file/2025-03-18/app-file/1742362244707B4B151BA-A0A1-47CA-8A95-2D059ED576F4-314-0000001B9C6421C5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362235059ckcap4985343791876657959.jpg,sys-mod-file/2025-03-18/app-file/1742362235231ckcap4261915837967085949.jpg,sys-mod-file/2025-03-18/app-file/1742362235963ckcap3079374152078832148.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362227316213A0BB8-AD60-4F85-A9ED-79AE942B9337.jpg,sys-mod-file/2025-03-18/app-file/1742362226595dm_5B9AE401-FE1D-4417-B0F9-B75C7D6E4DBB.jpg,sys-mod-file/2025-03-18/app-file/174236222662727ABA891-272B-4084-B6C7-8018C0E05B98.jpg,sys-mod-file/2025-03-18/app-file/1742362228339F8FD56B2-601E-44C4-82AA-12627496492F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236222216715AF5BDF-3C7F-41B0-A591-9CA600A06116-5354-000004260B86AFF8.jpg,sys-mod-file/2025-03-18/app-file/1742362221810554A50F5-20B7-4DEE-9F6E-6BD4EC908AD8-5354-0000042615DA36F7.jpg,sys-mod-file/2025-03-18/app-file/1742362223048433BC6E4-4C5B-45C8-B91A-D1AB0752E281-5354-00000426051E019B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423622215731D5054CC-0EA4-4505-BE8C-6D97F2D50378-4452-0000037A30597A97.jpg,sys-mod-file/2025-03-18/app-file/174236222193710171914-07E5-4E7E-AD1B-DFF3ADB33E4B-4452-0000037A359A9474.jpg,sys-mod-file/2025-03-18/app-file/17423622230653DE58E53-8960-4017-B6D9-3F43119E8BCD-4452-0000037A287F6675.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236218788661B8400E-CD85-4868-8123-45C41D3B1C31-18703-00000A19FBE35740.jpg,sys-mod-file/2025-03-18/app-file/1742362195824C2AE4682-6953-4A7D-A9BC-7D91AD3E1AE0-18703-00000A1A04BDF1DA.jpg,sys-mod-file/2025-03-18/app-file/174236221388138B579E6-A6C7-41D9-A059-6E44E66127CA-18703-00000A19EFCF851D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423622002204AF063D1-A04D-4256-BBD9-E2EA1C023899-7555-00000FD73CA7064A.jpg,sys-mod-file/2025-03-18/app-file/17423622002205DCBA176-53FC-4DC3-B4F0-D72FF02D1AA3-7555-00000FD76C518A1E.jpg,sys-mod-file/2025-03-18/app-file/17423622008558614B6CB-0D6D-487D-9DFE-331F337ACD38-7555-00000FD70F4DD220.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236219631842752869-33EC-4665-9BCA-FDB1877AB2DE.jpg,sys-mod-file/2025-03-18/app-file/1742362196419dm_D4EC7483-01EA-461C-8E70-CBEC8BBE99AC.jpg,sys-mod-file/2025-03-18/app-file/1742362196686dm_53CBA393-8236-4064-8B71-C4C9D84042D7.jpg,sys-mod-file/2025-03-18/app-file/1742362197804412650AE-AA70-4CB1-A0BC-4D8BC4DB4063.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362196499ckcap7326657569866626013.jpg,sys-mod-file/2025-03-18/app-file/1742362196779dm_ckcap3927222189307689795.jpg,sys-mod-file/2025-03-18/app-file/1742362197072ckcap6515646777479076794.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362186563D24A5EFF-91FA-4D6C-AC98-67004A604B4D-9817-000005E16794B967.jpg,sys-mod-file/2025-03-18/app-file/1742362187280E9BC7511-02CE-4D43-BFBE-595587A0423B-9817-000005E17F3F4FF9.jpg,sys-mod-file/2025-03-18/app-file/17423621878255EA73C21-0B99-49F7-AF6F-F5C04233BDCB-9817-000005E144CAC854.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362185088E046CCB7-12A5-4994-B1A9-458100519191-13867-0000060CDCC8E587.jpg,sys-mod-file/2025-03-18/app-file/1742362185228B837DAE9-A5E8-40BB-9B68-DBD6DBB71FAC-13867-0000060CFAD3242F.jpg,sys-mod-file/2025-03-18/app-file/17423621858528B926062-B696-4BAB-B654-90B4AF54474C-13867-0000060CCF0F6B2B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362185047ckcap4866708942818126257.jpg,sys-mod-file/2025-03-18/app-file/1742362185079ckcap8086476925462056576.jpg,sys-mod-file/2025-03-18/app-file/1742362185323ckcap3274038809418454539.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621801015DF0B2C8-9A09-4F60-98C6-9DD8EB81D5A2-8723-000001798E19309C.jpg,sys-mod-file/2025-03-18/app-file/1742362180299DCF3E3F4-1FEC-4E0C-88A5-9CD63625BEF9-8723-00000179A4B305E4.jpg,sys-mod-file/2025-03-18/app-file/17423621811907C40C0E6-3223-4297-B0A1-CA36A22F1B08-8723-000001795A7DBF17.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621672089D8BBCBB-53B3-45ED-B5DC-34E9BD52D07A-10680-00000CF02127E1B0.jpg,sys-mod-file/2025-03-18/app-file/17423621672304D0DEB44-26B2-422D-ADB9-1F20FE0EB3C1-10680-00000CF02BEE9479.jpg,sys-mod-file/2025-03-18/app-file/174236216814016115D91-DB78-4843-974B-9272DBE8AB65-10680-00000CF01A621968.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362169586B7127EE8-3A14-4823-AD73-20F08FC3B154.jpg,sys-mod-file/2025-03-18/app-file/1742362168225BA244B1C-046A-4FF9-A938-85F560C23D05.jpg,sys-mod-file/2025-03-18/app-file/174236217034326B08C0D-7EA7-4415-9069-6233E37233D8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362165969E2ADDC8B-97C5-4010-8C92-14E7CBF26845-2746-0000017943724524.jpg,sys-mod-file/2025-03-18/app-file/1742362165952B266CE45-B29B-4A5F-893D-7FB1813EEE9D-2746-0000017963E42F65.jpg,sys-mod-file/2025-03-18/app-file/174236216631830F5631C-AC43-41CD-9BBB-A7FB780C575F-2746-0000017938202BCA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362159743D5BB1C62-AF47-4070-BD4C-84A4825A094C.jpg,sys-mod-file/2025-03-18/app-file/17423621601998E6DF26D-D442-4F3E-8446-9D7672CF9873.jpg,sys-mod-file/2025-03-18/app-file/174236216070629F988DD-FA24-4FB4-8849-EF99EE07B3CC.jpg,sys-mod-file/2025-03-18/app-file/1742362161799A4ED303C-A216-4432-8932-13C84D8D0B42.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362151302F81BAB64-3794-40B8-9300-3B6AE9F4A735-2785-0000030EDA1B01A7.jpg,sys-mod-file/2025-03-18/app-file/17423621517599DB3ABF5-C67B-4333-97C7-29092757AD29-2785-0000030EE64C7751.jpg,sys-mod-file/2025-03-18/app-file/1742362155469368B2DB6-CBA5-485A-92E8-55F5FF02DF76-2785-0000030EC4985E0B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621556760F619B1D-19AC-45AC-8E14-BFBB846DED9F-13094-00000C047E3AA8EE.jpg,sys-mod-file/2025-03-18/app-file/17423621556983FE4BCEA-D6C3-40D8-8334-5D7F55AAF860-13094-00000C0491E70262.jpg,sys-mod-file/2025-03-18/app-file/1742362156013750DC975-3A2B-49BF-BE9A-130FA4D2E929-13094-00000C045612F8C0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621483933C848D91-112D-4026-9241-943AECE69D5D-1923-00000163DE25AEA5.jpg,sys-mod-file/2025-03-18/app-file/1742362148413A00CFA38-7452-4851-A502-081946245662-1923-00000163E9A6B2E9.jpg,sys-mod-file/2025-03-18/app-file/1742362148696FE070B17-5F0D-46E4-B7B6-E0300FFC3084-1923-00000163CFD7F01B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236214085394FC848C-42AC-4DCF-910A-28B7A9EE6F10.jpg,sys-mod-file/2025-03-18/app-file/17423621419584EA32F77-88A6-4AC5-AA42-3519682EEBB9.jpg,sys-mod-file/2025-03-18/app-file/17423621438151FD435F1-2A6E-4724-8CBF-BE52D859AA80.jpg,sys-mod-file/2025-03-18/app-file/1742362147864BFA8FA20-B7CF-4EAE-B2A8-F566D5004FB9-11170-000008F71923D7B7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621286829F002899-20CA-4A0C-A09A-2A38E583942C-676-0000006CB01D3898.jpg,sys-mod-file/2025-03-18/app-file/1742362125354DD3C79F1-D048-47E9-AEA6-D5E4C21909F2-676-0000006CBA82EA16.jpg,sys-mod-file/2025-03-18/app-file/1742362146871DF2524FB-5F1D-4C1C-9117-4F7513643B74-676-0000006C87F1DB0B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362135036DABECC5E-648F-4949-A3A3-D9C206B0FFE0-10680-00000CEED844577A.jpg,sys-mod-file/2025-03-18/app-file/1742362135832127A6E1F-7880-437D-8FD6-2FF348EC6408-10680-00000CEEDEB84ABE.jpg,sys-mod-file/2025-03-18/app-file/1742362137595D8AD5E41-FE1E-4A70-A162-14FFD3E73AD6.jpg,sys-mod-file/2025-03-18/app-file/1742362142118A105E139-4D4C-46B4-970F-095627829F16-10680-00000CEED31FBB59.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621407018BBDF26E-3DA9-421A-8C3B-267A0A9F234E-1538-000000F3E69B8CCA.jpg,sys-mod-file/2025-03-18/app-file/17423621395514A272E4D-86C7-46A4-BD40-E32E803944D8-1538-000000F4001F6464.jpg,sys-mod-file/2025-03-18/app-file/1742362142628B9410ADF-A9A1-466C-8129-632FC58EF44C-1538-000000F3D42C0E7C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362137679B2195CA2-5EA6-42A4-A29A-5B36E44827A7-3397-0000025A57BD0FD5.jpg,sys-mod-file/2025-03-18/app-file/174236213925558FC653F-24DD-4BF7-8F6D-9F008A4969F2-3397-0000025A61F20FF4.jpg,sys-mod-file/2025-03-18/app-file/17423621408338CFD073D-531B-4325-84BA-C22FBD60D939-3397-0000025A27161F5C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621378283360B50F-1B0C-43A1-940C-9514EDAD2C37-3762-0000026B1E87393E.jpg,sys-mod-file/2025-03-18/app-file/174236213816766C0DD08-407D-42A5-A5A5-1E27AC3D98CC-3762-0000026B33DC5FD3.jpg,sys-mod-file/2025-03-18/app-file/17423621399963D04E4C9-9000-4D22-A12D-AE8069FC0F2A-3762-0000026B0D82F99C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236213214403EB830C-C602-4B78-8F79-7D2CFBE70AD0-433-000000516DCDE6D1.jpg,sys-mod-file/2025-03-18/app-file/1742362132140683054D4-8A15-40D6-8ED6-77E96BEEA7B2-433-000000517A544A93.jpg,sys-mod-file/2025-03-18/app-file/174236213279825FDF612-B556-46AA-80F4-26791B6F5A06-433-00000051593B534F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423621291529A55037D-253A-4A22-BFE1-EE330DC17BDA.jpg,sys-mod-file/2025-03-18/app-file/17423621291223783AB3D-F1A6-4ED9-9CC1-2590CDB5D51D.jpg,sys-mod-file/2025-03-18/app-file/17423621294258F8F0EFA-EEA1-4D68-9BB0-B457D146E20C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362115641F4FE50CF-0343-49D8-A728-86FCDB11C1D5-10680-00000CEE235912F2.jpg,sys-mod-file/2025-03-18/app-file/1742362116562B5D2ACB1-60CA-4F0D-A55F-543CCD6D0E9A-10680-00000CEE35B22973.jpg,sys-mod-file/2025-03-18/app-file/1742362125947355C6329-6C7F-4381-8067-826E6BE30366-10680-00000CEE1CB866B1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236212772086A22248-7A7D-42F4-87FF-6F14D35F8929-7559-00000AA304A7291B.jpg,sys-mod-file/2025-03-18/app-file/1742362127569518F3A14-3DBD-4061-9BD7-EE1243676342-7559-00000AA39AF8692E.jpg,sys-mod-file/2025-03-18/app-file/1742362127953C7B1AFE9-FC99-462A-87C8-410FD61616A6-7559-00000AA2E04BF7FD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362119414ckcap3770472830085384014.jpg,sys-mod-file/2025-03-18/app-file/1742362119438ckcap1963795035687434221.jpg,sys-mod-file/2025-03-18/app-file/1742362119916ckcap2989142072569328621.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236211194043433A9A-7556-4CEB-BF50-BAFB8E03A67D-4312-000002C092B7D26D.jpg,sys-mod-file/2025-03-18/app-file/1742362112336DAFB09DB-F8BE-4864-B7BA-75E70E81DA0F-4312-000002C0A07AC416.jpg,sys-mod-file/2025-03-18/app-file/1742362112942B833802A-65DC-46C5-9C30-3D16669DC00F-4312-000002C0752FC895.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362109642D618966E-E008-4D71-BE41-725568215960-314-0000001AE91E8C77.jpg,sys-mod-file/2025-03-18/app-file/1742362110233723AFBC9-1349-478E-93FB-2322270A3899-314-0000001AF9CF02D4.jpg,sys-mod-file/2025-03-18/app-file/17423621121121DBBF3A7-8AC9-4A07-94D9-B94688E14A6C-314-0000001AD579B0E0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362111496C836F69E-2832-459E-A3A5-40866DF9E40F-6544-0000031A72E77ABE.jpg,sys-mod-file/2025-03-18/app-file/17423621118976793D1F5-4810-463C-A92E-32A9A2390EB3-6544-0000031A91BE4E41.jpg,sys-mod-file/2025-03-18/app-file/17423621122581AE5A3FB-235D-4A74-995B-F58EF1B7A331-6544-0000031A58579292.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423620945566D08C93A-1722-4226-8BC6-BBE183F7C01D-3320-000005E9699D9939.jpg,sys-mod-file/2025-03-18/app-file/1742362091553BCA91081-576A-4DA5-9CD2-C7D58D3AF739-3320-000005E9746044FC.jpg,sys-mod-file/2025-03-18/app-file/17423621081068F4C84C0-369A-411C-9BD7-18B07A757E8B-3320-000005E9646C73EF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362092414ckcap4822690507685968085.jpg,sys-mod-file/2025-03-18/app-file/1742362092976ckcap5809350022883383835.jpg,sys-mod-file/2025-03-18/app-file/1742362095928ckcap2147758657334128445.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423620926436A54D62D-82E6-44F5-8E8C-B6898BB4B344-83361-00004453A5DCBF20.jpg,sys-mod-file/2025-03-18/app-file/1742362092476E5E03396-42C0-45A4-AC4C-21F65F9CC370-83361-00004453B0CDF539.jpg,sys-mod-file/2025-03-18/app-file/17423620952135F8763A0-23BC-45C7-A08F-63DED791BBC6-83361-0000445393EFBF35.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423620757921E18F5BD-93D4-4B38-AE7E-D05FEE79AD09-626-00000092B3918B11.jpg,sys-mod-file/2025-03-18/app-file/174236209084445DBE3CB-35DE-453D-B091-2F51DDBD90FC-626-00000092CBC309BD.jpg,sys-mod-file/2025-03-18/app-file/1742362092543B673684A-E39D-4FB7-9641-7B517B4C87F8-626-00000092A69CD181.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362092561dm_E830F393-89D1-424C-BDE3-1CCF63ED660C-12203-00000B8240B62AF1.jpg,sys-mod-file/2025-03-18/app-file/1742362092813D08C426C-357F-47C5-94D8-D4B7B85E7BCC-12203-00000B825C735169.jpg,sys-mod-file/2025-03-18/app-file/17423620928425C51272E-07F7-4F9C-8BF0-2A9B940E3ACA.jpg,sys-mod-file/2025-03-18/app-file/17423620930654BF7824B-A19D-4E65-953F-1FC8132FCBE0-12203-00000B81E33FACE8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362090943ckcap1055631575182201466.jpg,sys-mod-file/2025-03-18/app-file/1742362090874ckcap2093332745975972348.jpg,sys-mod-file/2025-03-18/app-file/1742362091871ckcap252459190424033436.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236209187449D74392-F486-4C00-BA4D-7CC4260C1965-1423-000000798CDA119E.jpg,sys-mod-file/2025-03-18/app-file/174236209187536264C98-4B84-4B40-A6D8-7CAF5A3EA991-1423-00000079930E5F3D.jpg,sys-mod-file/2025-03-18/app-file/1742362092183F4511830-B50B-4960-B31B-830AAA89E69E-1423-000000798868163A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619822487910FA3E-6AAF-4091-8D49-AB8525EB24C1-3762-0000026A4DB009B3.jpg,sys-mod-file/2025-03-18/app-file/174236198209872E166E5-9AD3-4F74-A685-D5A04B79D68F-3762-0000026A59BD07CE.jpg,sys-mod-file/2025-03-18/app-file/1742361986132E01A9FA9-9FB3-4340-9D53-2CBF180AB3AE-3762-0000026A3022778C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236208646922FDB3A8-75F4-4851-A320-BD437B27793E.jpg,sys-mod-file/2025-03-18/app-file/1742362086624dm_0A4F7577-B549-401A-9A7A-432A61E7DD49.jpg,sys-mod-file/2025-03-18/app-file/1742362087220B5D506E8-A799-47DB-9919-D4895C858BA0.jpg,sys-mod-file/2025-03-18/app-file/17423620881561828822E-AD03-4E1B-AA83-5B8D6D2A38CB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362083389BAADADA0-8439-464A-93A7-1441845820EA-24500-0000154C46E03D43.jpg,sys-mod-file/2025-03-18/app-file/17423620833191DFA2829-5A5F-4E2C-8B77-FED20DCA1FCC-24500-0000154C5B1DFA77.jpg,sys-mod-file/2025-03-18/app-file/1742362084572FC44256E-6D5F-49C2-90E8-E777E43D510D-24500-0000154BDB15EC3A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236206556390262945-FE6A-4CBB-80F5-26FF813D90C0.jpg,sys-mod-file/2025-03-18/app-file/1742362065570C1C50DD7-BBAC-444C-9325-36C46A88AE8F.jpg,sys-mod-file/2025-03-18/app-file/174236206594197B78AB9-7BB2-4784-A8A0-6426E71BF769.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362060967DFEE1B68-D620-432C-A0DF-A1E215DEE34D-1923-000001636479DC80.jpg,sys-mod-file/2025-03-18/app-file/1742362060934E2C9C6EF-678F-42C5-93FE-7C7B88483D82-1923-0000016368FF330F.jpg,sys-mod-file/2025-03-18/app-file/17423620614826EFA669F-B90F-4B5E-B0A7-73336534C846-1923-00000163563D8A75.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423620505464C651BA1-5A73-4BFF-A01F-D20C25A44311.jpg,sys-mod-file/2025-03-18/app-file/17423620510478EC38AB8-4F73-4C70-AFA8-EF3A0ABC9658.jpg,sys-mod-file/2025-03-18/app-file/1742362050616dm_1B90D1E8-841D-4F44-9CFC-A54AC25830A2.jpg,sys-mod-file/2025-03-18/app-file/1742362052333CD664C46-7276-4F41-93A6-A8675AE9A3B5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362048165860FED3F-06EA-4403-ACBF-521EBF9A32E2-4114-0000016D3E99038C.jpg,sys-mod-file/2025-03-18/app-file/1742362048166F989DA9D-8572-4C98-A838-663AA088F50B-4114-0000016D497A7870.jpg,sys-mod-file/2025-03-18/app-file/174236204870691B9ED21-F6F8-4567-8CEF-EF6D850F1436-4114-0000016D323183A7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362044186CF1CF7DA-8D22-4839-8558-13FD33989223-20738-00000BCF080D86A2.jpg,sys-mod-file/2025-03-18/app-file/1742362044900C3D463A0-974B-4494-B076-4A3B6B206F8E-20738-00000BCF19400804.jpg,sys-mod-file/2025-03-18/app-file/1742362045780B5C64750-5E4D-424A-B7B2-C947DC455982-20738-00000BCF04AB014A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423620429211FD476F0-A980-4291-8187-4F5D7237026C-1033-000000D2D982B965.jpg,sys-mod-file/2025-03-18/app-file/174236204311259634E91-C6EE-4A03-BA13-441C173D20D0-1033-000000D2E17725CB.jpg,sys-mod-file/2025-03-18/app-file/1742362045183F0789B17-6742-4F47-889F-021A545CB77C-1033-000000D2D2299E05.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236202965699502B92-24C0-470D-B0C5-8C266894099E.jpg,sys-mod-file/2025-03-18/app-file/1742362031089B6464EBA-D696-4F11-A8A2-FC836237C64F.jpg,sys-mod-file/2025-03-18/app-file/174236203345553AFEB32-7F84-4C82-8343-D1F64D1410B2-11170-000008F6AB5D6D63.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362032159ckcap2355500677244132081.jpg,sys-mod-file/2025-03-18/app-file/1742362032294ckcap839176464874229987.jpg,sys-mod-file/2025-03-18/app-file/1742362033623ckcap2148831791742132815.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362033062CEB9DB07-F0D7-4D34-A881-1619947CD760-1538-000000F34DD0D47E.jpg,sys-mod-file/2025-03-18/app-file/1742362032868BF4C46C8-2B24-4263-859D-55482BF7A796-1538-000000F352B574B2.jpg,sys-mod-file/2025-03-18/app-file/1742362033099CF69548A-D844-4CF1-9C6D-43F9CB2AFC86-1538-000000F3692FCA1D.jpg,sys-mod-file/2025-03-18/app-file/174236203366896ACE677-E70F-4DA3-B9AE-75BC6EB1678B-1538-000000F330529902.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362027565C97FA707-B7AA-42BB-B79F-580F304799DF-19174-000002279126E4C6.jpg,sys-mod-file/2025-03-18/app-file/17423620275754866A8EE-BEBB-49F5-A727-001C2A0E949A-19174-0000022796EB044E.jpg,sys-mod-file/2025-03-18/app-file/174236202799942004CCC-96F2-4F1F-B5DD-602BEE770C39-19174-000002277D1A8D56.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423620257914AA9DB6D-B4C0-4FA6-BFE1-5397EC05294C-2785-0000030E24227E5F.jpg,sys-mod-file/2025-03-18/app-file/17423620255834C106A91-DA6B-454A-ADD1-A83601CB9C50-2785-0000030E36B0E1E3.jpg,sys-mod-file/2025-03-18/app-file/1742362026540731167D4-3469-4EA3-8B40-0EF7663DE2CB-2785-0000030E148CABB1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236202276162F58E3F-8B08-46BE-9C9B-2AB8D47A1099.jpg,sys-mod-file/2025-03-18/app-file/17423620225382C9C9D9F-5E33-4FEC-8E7E-D9190F709518.jpg,sys-mod-file/2025-03-18/app-file/1742362024112D101D226-57D0-4FCA-96FD-021802964DD2.jpg,sys-mod-file/2025-03-18/app-file/1742362024963D1CB18B0-3BCF-49AC-B4C3-F68C2574172C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362021557ACA5B80F-2AC3-49F2-99E1-F086BB008692-50620-00001F5C5032ECC1.jpg,sys-mod-file/2025-03-18/app-file/174236202065958CF700C-43AF-421C-A3DB-4B4E3EA1F923-50620-00001F5C5DD232A6.jpg,sys-mod-file/2025-03-18/app-file/17423620226988A1134A3-47C8-44CE-9233-89CD4B133318-50620-00001F5C483566EB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742362010810B6FEDDF7-46B6-4CF5-A7B7-E00144FE0BFE-1991-00001D69A11C8A87.jpg,sys-mod-file/2025-03-18/app-file/174236201083420773FF7-5E5F-4E30-A059-DEF096689167-1991-00001D69B08605C6.jpg,sys-mod-file/2025-03-18/app-file/174236201149686D66089-5EFA-45EF-A9D0-D06DB6E2E5DE-1991-00001D6992301E9B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423620002730CCD753B-7FEE-4AE6-A6F8-AFE54756F051-4670-00000501330049F3.jpg,sys-mod-file/2025-03-18/app-file/174236200014025DD43FF-523F-44DB-B575-2387B035CCC9-4670-000005013B336312.jpg,sys-mod-file/2025-03-18/app-file/17423620006650560BF1E-E3B2-4FF7-BEC8-3F124B8B7E5A-4670-000005012B2186B0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361991321DEF1DB71-0AB0-4A2D-8D77-7CA52A0C9051-5434-00000433F08910C6.jpg,sys-mod-file/2025-03-18/app-file/17423619900372C844E00-40A1-4124-9915-5F364E39F852-5434-0000043472F90B32.jpg,sys-mod-file/2025-03-18/app-file/1742361992911513198F2-92B3-429C-9407-2035E53A06BA-5434-00000433DE4F9DCB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619900102A394047-EC99-4E83-83FC-88E868C32FF1.jpg,sys-mod-file/2025-03-18/app-file/1742361990038D384DC0F-51E2-47F9-8273-72B7B45829ED.jpg,sys-mod-file/2025-03-18/app-file/1742361990628BD67CDAB-B30C-41B9-86E9-812C62AE98C7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361989387AAEA9FF8-0775-42B9-BA51-4BE8B355ADDE-4452-00000378F21695C8.jpg,sys-mod-file/2025-03-18/app-file/17423619893921350D7FB-B259-49F9-9AB5-D9C251A2A67D-4452-00000378FB10431C.jpg,sys-mod-file/2025-03-18/app-file/17423619911975D78BA3E-24C8-4C32-8088-4B4EB7E7D65C-4452-00000378E7B1CB46.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236198484290C38B79-9AC4-4EC3-8B33-78A26CC85B27-13867-0000060BC972EDF1.jpg,sys-mod-file/2025-03-18/app-file/1742361984805D6D78B87-EB43-4B97-822E-5FC6C74786C6-13867-0000060BE279A838.jpg,sys-mod-file/2025-03-18/app-file/1742361985480E8EB3D69-3C6B-4DCB-B801-C4B13B0A7B00-13867-0000060BA16FE1A1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619797706633B013-4C67-479B-8819-5FE1F5052F97-2746-00000176DB6EAAF0.jpg,sys-mod-file/2025-03-18/app-file/17423619796713AF52385-32CF-48FE-9DAF-7A14C3A22C1A-2746-00000178589D3A3A.jpg,sys-mod-file/2025-03-18/app-file/17423619802343471CA95-76EB-48FB-AC5C-10A00F0D8E09-2746-00000176D78F9987.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619762367324C5D7-3661-4B90-A2F1-5A3D8D054EAA.jpg,sys-mod-file/2025-03-18/app-file/17423619772328ACF73F8-FFCE-418E-97CA-ECF91232370C.jpg,sys-mod-file/2025-03-18/app-file/1742361978794C2D543B6-C559-48FA-9993-4F2B3310785D-11170-000008F6435F599B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361976098AF7137F8-9C9F-4A8F-86B4-E091E756AF9E-13094-00000C035AA093D4.jpg,sys-mod-file/2025-03-18/app-file/1742361976009FD228E82-4A1C-452B-BB90-B65BAC98985A-13094-00000C03716E98D3.jpg,sys-mod-file/2025-03-18/app-file/1742361975855D2ED4A55-3EA2-4BD0-81EC-2844761F9E55.jpg,sys-mod-file/2025-03-18/app-file/1742361976575BBB5C2F3-E5A1-4716-8B10-F7BAB0C489ED-13094-00000C0345781E1B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619722143ED5D65C-F6A3-4E57-8446-6CC0A0EE4205-1923-00000162E3D4A2A4.jpg,sys-mod-file/2025-03-18/app-file/1742361971310E1D64EC4-3017-4DC7-BCD4-715D374C561E-1923-00000162EA4BB07C.jpg,sys-mod-file/2025-03-18/app-file/17423619734414AD8BDAC-1B47-47A1-A433-B238873942C5-1923-00000162CFBFAF8D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361973682ckcap7421012179445956415.jpg,sys-mod-file/2025-03-18/app-file/1742361973721ckcap1025687312515497395.jpg,sys-mod-file/2025-03-18/app-file/1742361973670ckcap9209992990148545458.jpg,sys-mod-file/2025-03-18/app-file/1742361974039ckcap4907112564971955098.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619645070B11E860-3F1C-4BC8-BEC4-1444C6FF582C-65998-000010125FA98B21.jpg,sys-mod-file/2025-03-18/app-file/174236196448123E4B2AF-D811-46B8-B8D8-27DDBD408920-65998-0000101266E1380B.jpg,sys-mod-file/2025-03-18/app-file/1742361965340E5323F3A-6266-481E-BD5F-55C2675904DB-65998-000010125AFCFC5E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361963184DC7C72A8-6CC6-4DAA-A087-C9412A3BEF4B-1536-000000D64197E853.jpg,sys-mod-file/2025-03-18/app-file/1742361963223AFC2A008-9916-4AC0-83FC-39F70105D415-1536-000000D64630E58A.jpg,sys-mod-file/2025-03-18/app-file/17423619637624DAC1326-B9A5-4441-98C1-DEF1157BD27B-1536-000000D63D3946AB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619469452CA17F0A-91C2-435D-A204-52DB3572AF07-6843-00000546BEBBE766.jpg,sys-mod-file/2025-03-18/app-file/1742361947296B0CCB631-5283-4B71-86CB-7085EE3FBD3B.jpg,sys-mod-file/2025-03-18/app-file/174236194837074F4A28B-1568-4E88-8D83-E4DE44FBA278-6843-000005469A81881C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236194480920CBF497-FB1C-43D4-BD73-3704FC277AD6-4312-000002BF99984B49.jpg,sys-mod-file/2025-03-18/app-file/174236194496111B6D84D-715D-4C13-A007-9D29DBCED325-4312-000002BFAD37AC2A.jpg,sys-mod-file/2025-03-18/app-file/1742361946208A3949893-723C-4D67-98F2-D28CA526C71D-4312-000002BF800EC6B4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361926401A24E528C-C504-4A52-8A80-0E9D75802279-50620-00001F5BB9370252.jpg,sys-mod-file/2025-03-18/app-file/1742361926809496DFA10-E035-4658-A6B2-39C0A032701E-50620-00001F5BC7EB5DA4.jpg,sys-mod-file/2025-03-18/app-file/1742361943989C7D76D3E-5E59-4CC3-A47E-DF310E72E36D-50620-00001F5BA81D5965.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361936717D0563399-3C1E-42C3-8D45-12B7BD38CCB3-3320-000005E8BEE21622.jpg,sys-mod-file/2025-03-18/app-file/17423619302894623CEFB-8723-476C-81C7-6BED55B5F278-3320-000005E8CA054B52.jpg,sys-mod-file/2025-03-18/app-file/1742361942753A7670214-2C77-484C-85F3-1AB2B1127BB5-3320-000005E8B89B97DB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361941426870FCF73-10AC-4025-ADC9-B01135B96D3C-7555-00000FD5F4F98AF7.jpg,sys-mod-file/2025-03-18/app-file/1742361941375FB8F4491-38FF-49A8-A180-2EAA15315A1A-7555-00000FD5F96C57DB.jpg,sys-mod-file/2025-03-18/app-file/174236194191967D9721C-2F05-44ED-8EC3-4FA67E6C3F08-7555-00000FD5D3C1B3B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361940732B1581819-3D27-40A0-B637-B9DD1B3B218E.jpg,sys-mod-file/2025-03-18/app-file/1742361941025B16FC472-7B8C-4DC6-969F-68F5DE55CA38.jpg,sys-mod-file/2025-03-18/app-file/1742361941335dm_56398A8F-2EA4-41CC-9372-027046F91CB3.jpg,sys-mod-file/2025-03-18/app-file/17423619417920CA4B671-C5D0-4FDF-A364-4E7889758D40.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361939032ckcap1016622794292570053.jpg,sys-mod-file/2025-03-18/app-file/1742361939036ckcap2681300044901074323.jpg,sys-mod-file/2025-03-18/app-file/1742361939298ckcap5829177499496690632.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618136621742361713826rn_image_picker_lib_temp_edd50ed0-48b4-4a88-8740-fa6e229b7eb6.jpg,sys-mod-file/2025-03-18/app-file/17423618141461742361786505rn_image_picker_lib_temp_becce7b4-793a-46cd-a9b0-6afc7a13f081.jpg,sys-mod-file/2025-03-18/app-file/17423618146081742361802735rn_image_picker_lib_temp_97adad46-ad32-4682-a3d6-e63dc4b55463.jpg,sys-mod-file/2025-03-18/app-file/174236182173317423616922471000003036.png,sys-mod-file/2025-03-18/app-file/17423618179621742361755733rn_image_picker_lib_temp_94cd2675-8017-4cdb-9ee9-d60a3e29fe56.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361924308615352ED-C967-43D2-85DF-EC2589CB9718-626-000000916A1D2981.jpg,sys-mod-file/2025-03-18/app-file/1742361925641ACB4D5D4-F231-41E6-A6DD-46C7E43AA65C-626-0000009178C2BF8F.jpg,sys-mod-file/2025-03-18/app-file/1742361932221262D552E-D887-4642-B8B5-E3DE39AE86D9-626-000000915C003F3A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361932983ckcap121409755044455977.jpg,sys-mod-file/2025-03-18/app-file/1742361933286ckcap1080989614888918029.jpg,sys-mod-file/2025-03-18/app-file/1742361933771ckcap3241542560709344680.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361923748106FD15C-1C49-496C-8B77-B768C35713BB-14352-000002A2B78251F1.jpg,sys-mod-file/2025-03-18/app-file/1742361923949DA07C80D-8815-44E7-B75E-FC5D3A65D006.jpg,sys-mod-file/2025-03-18/app-file/1742361924658EE00A04E-8908-4CEE-BE31-1C88DEA3E92D-14352-000002A2AA9590B4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361919232ckcap1468216049058668638.jpg,sys-mod-file/2025-03-18/app-file/1742361919278ckcap6662733641071094270.jpg,sys-mod-file/2025-03-18/app-file/1742361919732ckcap1397704826560099373.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236191831240AECC5A-50B4-452C-BCE6-013460A7F977.jpg,sys-mod-file/2025-03-18/app-file/17423619178007327F7F4-19E8-4C3A-8A9B-1CE6167146AB.jpg,sys-mod-file/2025-03-18/app-file/1742361919197577BEAC2-7AEF-4B4F-80E3-A050FA9288B3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361908331125EE878-9502-4E40-B7BA-6DA2845C4DC4-25506-00000CCBC65D9655.jpg,sys-mod-file/2025-03-18/app-file/1742361912150B640141F-9D58-410D-A628-4310CE51C2F1-25506-00000CCBCFC83231.jpg,sys-mod-file/2025-03-18/app-file/1742361918738135A8A53-7DFA-48B9-B160-9A5B1CF2E5A2-25506-00000CCBB6473ACC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361916624063F9FFC-382E-4021-A00E-0349254269FE-2363-0000015E2E6B8F91.jpg,sys-mod-file/2025-03-18/app-file/1742361916713dm_B6601A81-E742-4CF7-BC72-987C137C5F2C-2363-0000015E3C2AC4DF.jpg,sys-mod-file/2025-03-18/app-file/1742361917058C9F1A8E9-096C-46F8-A6D6-1E6F87AE53C8-2363-0000015E05EE4892.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236191030358090852-63B6-42E2-ADF5-B1CD92063E65-20738-00000BCE512D55BE.jpg,sys-mod-file/2025-03-18/app-file/1742361912004C3A9FE52-4DB5-4973-89AF-3EA6FA8ADAD1-20738-00000BCE564AFC30.jpg,sys-mod-file/2025-03-18/app-file/174236191506099D9CBE6-9FCF-46BC-8FD0-7F79CF748580-20738-00000BCE4D84BB4F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361914223E36413AA-C813-4AB9-8985-8B5B8707AAE6-35364-00000A1580580DAA.jpg,sys-mod-file/2025-03-18/app-file/1742361914439326F23AB-4FAF-453A-972D-2AFDA5C50B80-35364-00000A1586B493F3.jpg,sys-mod-file/2025-03-18/app-file/174236191503318FF5FA0-BC52-48B1-90FC-F7F40B6EBC3B-35364-00000A1569D911BC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361913763ckcap60156228579884206.jpg,sys-mod-file/2025-03-18/app-file/1742361913914ckcap382703655370780685.jpg,sys-mod-file/2025-03-18/app-file/1742361914249ckcap5584591035347492744.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423619017431742361890772rn_image_picker_lib_temp_e5e709c1-4ce7-4c89-9014-598c319cfcb6.jpg,sys-mod-file/2025-03-18/app-file/17423619019771742361899583rn_image_picker_lib_temp_d8c677a5-f7ef-4824-aff2-7d434829a690.jpg,sys-mod-file/2025-03-18/app-file/1742361902579ckcap2626555872281733566.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361900650B83AFE63-9698-4991-AC06-F6E97478A3E2.jpg,sys-mod-file/2025-03-18/app-file/1742361900589dm_562105CB-0596-437D-A8E0-774CC601E773.jpg,sys-mod-file/2025-03-18/app-file/1742361900457dm_3218408E-B987-4341-BD9A-1E1FFD04612C.jpg,sys-mod-file/2025-03-18/app-file/1742361901835E470ED16-B28D-4AEC-A4FB-16B557AA425C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361892581F75D8512-DD77-40EA-BDB6-53EE1E304ED3-5354-00000424385DCB12.jpg,sys-mod-file/2025-03-18/app-file/1742361892766E5E36680-EFDF-4237-B12E-DD7C3476827A-5354-000004243C2D2E3A.jpg,sys-mod-file/2025-03-18/app-file/1742361893311FA225261-DD83-4698-9692-6A1701B30405-5354-000004242F88BEAB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618900002464FB9D-6F8D-4829-A7DB-94CAEC8B5420-24500-0000154B2C959E65.jpg,sys-mod-file/2025-03-18/app-file/17423618895521F8F937E-C9AF-45DA-B27A-8D56E0FB3A5E-24500-0000154B41953C06.jpg,sys-mod-file/2025-03-18/app-file/1742361890944F184CE66-5EDA-4FD2-9AFF-2A9B6C72F341-24500-0000154A7686CEA2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361888075A639A2D2-4D09-400F-9950-8A3F4551E268-1923-000001626D6A590F.jpg,sys-mod-file/2025-03-18/app-file/17423618880280E178353-9E14-4BFB-B2BF-3E405DD0163F-1923-0000016276E70A5A.jpg,sys-mod-file/2025-03-18/app-file/17423618884021150426A-96AD-460E-B5F9-4CAE68A81816-1923-000001626AC6782C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361879648A47923DA-3DAD-4DE4-83A3-7C295CE2B49B-18703-00000A185E97BF46.jpg,sys-mod-file/2025-03-18/app-file/17423618799442399E7B2-1490-4535-868F-81D5D7848946-18703-00000A18699D8791.jpg,sys-mod-file/2025-03-18/app-file/1742361880615CAD06033-6810-4342-A392-B102BD2C8A39-18703-00000A185036D136.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618771170BD4D562-03DD-4C76-9CEB-6B162416B8DF.jpg,sys-mod-file/2025-03-18/app-file/174236187728834C8CA0A-A228-42C8-8F3F-BD801D3B2212-89746-00002E71431DDC91.jpg,sys-mod-file/2025-03-18/app-file/1742361877547D0F13AF0-984B-40FB-9286-49DDA8E819F4-89746-00002E712AC7D23C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361874369FF5AE354-BE48-44FF-8965-2E19B25663E3-2785-0000030D48C2791B.jpg,sys-mod-file/2025-03-18/app-file/174236187511531769B0C-A78D-42CB-A299-C761F1E889B4-2785-0000030D57713F71.jpg,sys-mod-file/2025-03-18/app-file/1742361876372C8CA4B08-F1D2-428F-9649-910CB9F2F62C-2785-0000030D39AEEA60.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618735836622773F-517C-4A60-8C23-4D10751397B2-1538-000000F25DFA4E6A.jpg,sys-mod-file/2025-03-18/app-file/17423618747137F79E0F4-A8D5-4EA1-B600-9BEBEF0FDF47-1538-000000F27D16CDF6.jpg,sys-mod-file/2025-03-18/app-file/174236187699539BB61F6-F9EE-4140-B98D-5D1174E2690D-1538-000000F2497595F8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361873194713EB4FD-7570-4099-B8F7-4673D58D694C-1991-00001D68E8CA183B.jpg,sys-mod-file/2025-03-18/app-file/174236187302297E1562A-19FF-4D79-9AD9-F560F8BF44D1-1991-00001D68F041853E.jpg,sys-mod-file/2025-03-18/app-file/1742361873470B5FB3C17-60AD-4EB5-9908-73A0D4533025-1991-00001D68DD364BFE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361843914ckcap8133049378464456655.jpg,sys-mod-file/2025-03-18/app-file/17423618419691742361810257rn_image_picker_lib_temp_dfe0da61-744f-47e1-a138-b5e8bfc4306b.jpg,sys-mod-file/2025-03-18/app-file/174236184040217423618323101000068401.jpg,sys-mod-file/2025-03-18/app-file/1742361869881ckcap5651563151727372816.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361866678DE623F41-9047-43BF-872C-B602B3F8860C-9817-000005DFAD5A092D.jpg,sys-mod-file/2025-03-18/app-file/1742361866588FFAA7DC2-B714-4ACD-B5B2-64352784531C.png,sys-mod-file/2025-03-18/app-file/1742361867002EC35A29E-B508-4F1A-8EF3-4D88B09CEA18-9817-000005DF83675B1F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618615658EBE085E-BD07-4C47-AF6D-15B8A1C0BF70-6544-000003190B525CB0.jpg,sys-mod-file/2025-03-18/app-file/174236186172688F325B0-E28B-43BD-B396-61E4C8EE4CE3-6544-0000031929A25A45.jpg,sys-mod-file/2025-03-18/app-file/1742361862017C2976450-BD5B-4484-928B-DDD89B2937B3-6544-00000318CC6A72DD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361826952ckcap5551190011943609946.jpg,sys-mod-file/2025-03-18/app-file/1742361827018ckcap1191126348036869633.jpg,sys-mod-file/2025-03-18/app-file/17423618271631742361825552rn_image_picker_lib_temp_2ba58fdf-952e-4e65-8fdc-696bb9af939c.jpg,sys-mod-file/2025-03-18/app-file/1742361827785ckcap4188463132781665607.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618260812F9BC8B9-B1D9-4999-A223-2D54249D7954-1033-000000D1A6309220.jpg,sys-mod-file/2025-03-18/app-file/17423618259993D7D43C7-6C61-4A05-B4C1-504BA8470146-1033-000000D1B40C3ACD.jpg,sys-mod-file/2025-03-18/app-file/174236182669872607E54-0C31-45E9-B618-DA9EFD6C43E4-1033-000000D1973F0722.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361818791FD97C633-E726-48F0-B98B-B46A0FEE4264.jpg,sys-mod-file/2025-03-18/app-file/174236181639579DF71E4-1CBE-4A95-BC73-3936E5480142.jpg,sys-mod-file/2025-03-18/app-file/17423618207903DE3D8F9-2D50-4914-A3F3-ABF2A633ED8D-11170-000008F4C7A7B4CD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361812959AFAE8EA1-EB4D-47B0-BAFF-1F06535EC981-5872-00000364FB0AC983.jpg,sys-mod-file/2025-03-18/app-file/1742361813165C265B70C-BECC-4F0C-9E6B-279191325C4B-5872-00000364FDB12F3B.jpg,sys-mod-file/2025-03-18/app-file/1742361812898B659625D-12E0-4F17-8688-34860AEB214A-5872-0000036517FE10E2.jpg,sys-mod-file/2025-03-18/app-file/17423618135520D7BFD7B-4745-400D-B04E-4A047BF0FC5F-5872-00000364DA645D17.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618119715855508D-EB14-4DF2-9C99-DA8C6E5DD8C6-5434-00000435E154BDE1.jpg,sys-mod-file/2025-03-18/app-file/1742361812962D50B23F0-3624-498C-B577-81AA55FB21D4-5434-00000435FE232608.jpg,sys-mod-file/2025-03-18/app-file/17423618124454BC84B82-E0E2-4BE6-BFEB-652C6CEAC9FC-5434-000004360F46C615.jpg,sys-mod-file/2025-03-18/app-file/1742361813582BA6261F1-E4FE-4E7A-961E-20AC959933EB-5434-00000435B080C7A0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361810217C8360487-7DD4-40D8-A95A-87B9E2CBBFFD-1923-00000161FB8C5287.jpg,sys-mod-file/2025-03-18/app-file/1742361810689510BDE56-3F08-4777-A841-284DF7AA7EE3-1923-00000162057F1260.jpg,sys-mod-file/2025-03-18/app-file/17423618111777D47407F-76EB-464F-B29B-7247AF799015-1923-00000161EAA3CFA7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423618079975E854FA8-6A6E-4E4A-B968-E05640C37613-3480-0000045E9A644C6A.jpg,sys-mod-file/2025-03-18/app-file/1742361808035584650D1-AAD0-49C2-9CBA-3E5AEFF148AF-3480-0000045E9DF807FB.jpg,sys-mod-file/2025-03-18/app-file/17423618086850A1795ED-70C7-47D2-97C3-0AEEA945A903.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236180127087163980-591D-45C5-B243-EE449904BAD9.jpg,sys-mod-file/2025-03-18/app-file/1742361801219EFFD0CEE-3B8E-4CC5-8DFB-95EE2FD48107.jpg,sys-mod-file/2025-03-18/app-file/1742361801816E0BE81C3-8AFF-4BDD-B050-D8CB7D256798.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617904614A4C95CC-1C35-401D-B703-FB8FCA35152F-2648-000003B5B593AD0B.jpg,sys-mod-file/2025-03-18/app-file/1742361791892F6D0F78B-7152-405B-8B99-59242F0E2246-2648-000003B60A2A0EA1.jpg,sys-mod-file/2025-03-18/app-file/174236179189755841D33-DF82-4FFA-9E8E-5C8B9E770A88-2648-000003B621E57D71.jpg,sys-mod-file/2025-03-18/app-file/17423617991395B25EB7C-7A9C-4C54-8925-38990B79FA86-2648-000003B59BB1200E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361795544600197F7-C805-45B8-A33E-397E099D9D94-12203-00000B80ED2C11D4.jpg,sys-mod-file/2025-03-18/app-file/17423617953256F79E210-1A24-491F-8F80-17255D957066-12203-00000B80F69959CA.jpg,sys-mod-file/2025-03-18/app-file/1742361796161658CF684-AA5D-4726-831F-56AA61346EE7-12203-00000B8098C66793.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361792069ABC9A50D-D960-4934-ABDD-241010CBCEC4-20738-00000BCDA39AB265.jpg,sys-mod-file/2025-03-18/app-file/1742361792156DDC6C0E3-CB1E-4728-9BB1-8FB960B37AD2-20738-00000BCDAF8C9365.jpg,sys-mod-file/2025-03-18/app-file/17423617930808826F8F7-179B-40CA-86A2-28F67F285B77-20738-00000BCD9E27B451.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361785190E867B09A-76AC-46EC-89E9-B9A64910B605-314-000000191C46399C.jpg,sys-mod-file/2025-03-18/app-file/174236178504789E442FD-DF9A-46EB-A48A-C996DB49A4D5-314-000000192D6F590A.jpg,sys-mod-file/2025-03-18/app-file/17423617859701D692381-DF6E-4CEF-A0F4-1738A0F351A5-314-000000190B266E56.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361770234F6BD551C-018C-48B1-A52D-19AC249DF1C0-35364-00000A149E90B017.jpg,sys-mod-file/2025-03-18/app-file/17423617724226731044B-8BC8-46BD-8561-47074716AF23-35364-00000A14B5DE63D3.jpg,sys-mod-file/2025-03-18/app-file/1742361774586AAA57D80-9DA0-4658-B4CC-EB1BC02F8C92-35364-00000A149634E879.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361769785568AA8D9-EF1D-46A4-BEED-5C78DF4ED1A0.jpg,sys-mod-file/2025-03-18/app-file/1742361769596dm_C7FF41F4-4372-43D0-82B7-DC0F7B5F6B88.jpg,sys-mod-file/2025-03-18/app-file/1742361772188B8F99092-0F8F-429C-ABAD-ABB07CA662DE.jpg,sys-mod-file/2025-03-18/app-file/17423617735863C9FF1FB-443F-401D-A565-66D8E8F78F30.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617658342ECDF907-E7E8-47CB-937E-4D5131AAF079-7555-00000FD4BF843A24.jpg,sys-mod-file/2025-03-18/app-file/1742361765684AD611CAB-2663-46C3-9833-946776D455CD-7555-00000FD4EEEBE631.jpg,sys-mod-file/2025-03-18/app-file/1742361764977EFE27424-C7AF-4E24-9E49-89103C633D06.jpg,sys-mod-file/2025-03-18/app-file/17423617667634CEB0785-0834-4A00-984F-C2074BD24C88-7555-00000FD4B6E4E579.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617579081ADE4263-5C9B-4589-AD93-9C663AA0B090-2496-000002DD440FC32C.jpg,sys-mod-file/2025-03-18/app-file/174236175793598A20B41-550A-4523-989B-82D26063376A-2496-000002DD6A0DF656.jpg,sys-mod-file/2025-03-18/app-file/17423617593401B1C6E15-EB24-4B86-82C5-F9D47CE0895C-2496-000002DD1E2A3061.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361749459E90F9B89-3AFE-4591-8349-A7391A93FA50-3320-000005E8343DA756.jpg,sys-mod-file/2025-03-18/app-file/174236174861628EB5507-47B6-4E37-BEDF-39E837DF2AC2-3320-000005E83E1075FF.jpg,sys-mod-file/2025-03-18/app-file/174236175882106A5498F-5D26-4184-81EF-292C553C3432-3320-000005E82DE463D7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617488874F4B8630-27D5-4ABB-8F40-0053A3B45809-4929-0000055C02BC717E.jpg,sys-mod-file/2025-03-18/app-file/1742361748783134EC892-0EDE-43E6-9A5F-AEED713B8B40-4929-0000055C143341B3.jpg,sys-mod-file/2025-03-18/app-file/174236175142030C603E0-E77A-44E1-848E-16C46BCF4565-4929-0000055BDC0BB6FC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361747570ckcap3617177026060308115.jpg,sys-mod-file/2025-03-18/app-file/1742361747532ckcap5473049407536665576.jpg,sys-mod-file/2025-03-18/app-file/1742361747910ckcap6663319618496098388.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617463125895393D-7D49-4A28-AB38-97D9AABB2E9D-2596-000001A7AB0067C4.jpg,sys-mod-file/2025-03-18/app-file/1742361746181F5CCDD54-7063-48F7-9841-4A38D190F6C5-2596-000001A7B11CBD33.jpg,sys-mod-file/2025-03-18/app-file/17423617470288A96142A-78C1-45B5-8E70-938141090A9E-2596-000001A7A29FF269.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617460913193711C-E7CB-492B-BEA0-437C32C30BE6-4114-0000016B810C8252.jpg,sys-mod-file/2025-03-18/app-file/1742361745977B9E158BB-4531-46C5-AB58-D2AE5B7A6907-4114-0000016B93349D3F.jpg,sys-mod-file/2025-03-18/app-file/1742361746806273B4DA5-3D3E-4A58-BAFB-DC907D135935-4114-0000016B7D146DEC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361743356135ED8B7-DCF5-45E4-A2E3-9B32FBF00F84.jpg,sys-mod-file/2025-03-18/app-file/174236174474883F6E4C7-58D4-48B8-ADA2-93033E68DFF1.jpg,sys-mod-file/2025-03-18/app-file/174236174422959BA6DAF-4195-48B5-863C-481F6E9F9E24.jpg,sys-mod-file/2025-03-18/app-file/1742361745344E48102AE-C86E-41B2-8DA9-744798679B7E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236172507301D9EDFD-798C-4857-8349-8F4B53B9F44F-3320-000005E7B203CEF8.jpg,sys-mod-file/2025-03-18/app-file/17423617245680CE7D270-2EA6-4244-870A-206EF1A46AF2-3320-000005E7C25F43A9.jpg,sys-mod-file/2025-03-18/app-file/1742361740030730B29E7-2165-4FED-8706-DF886867F64B-3320-000005E7A94AB201.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617323815FED3139-3C11-4A70-BCEF-F888F4BD8EEF-1538-000000F19F324406.jpg,sys-mod-file/2025-03-18/app-file/1742361732714B96F5034-CDC5-4B8D-B2CB-84CDB7C9DB75-1538-000000F1BBDDD008.jpg,sys-mod-file/2025-03-18/app-file/17423617335520C9781A9-9DED-40FD-B156-351F5CFD8AE8-1538-000000F17F2BA6E3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361728048ckcap5950191895121979604.jpg,sys-mod-file/2025-03-18/app-file/1742361728086ckcap6404185803338839047.jpg,sys-mod-file/2025-03-18/app-file/1742361728915ckcap683049792724286539.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617234086B3AE6C6-5A67-46EE-93D3-18A1EDC96C5C-65998-0000101103020F6D.jpg,sys-mod-file/2025-03-18/app-file/1742361723408819AA80A-3618-4CEC-B5C6-3E6C46C18EF1-65998-00001011083FB2D6.jpg,sys-mod-file/2025-03-18/app-file/17423617237960CE86D7D-FE71-4178-BC39-963E8C665C10-65998-00001010FA50D294.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617231451FD8B272-19B5-4912-B061-9260CE936DB4-2363-0000015CF1F9D69F.jpg,sys-mod-file/2025-03-18/app-file/1742361723151ABB094C5-5C02-43F4-8EF9-4981BA9FA0DC-2363-0000015CFEC97600.jpg,sys-mod-file/2025-03-18/app-file/17423617230231BA48F3B-2FCE-4E5E-9A00-B3EEDEF5C308.jpg,sys-mod-file/2025-03-18/app-file/17423617235065753D83C-87FC-4A93-B132-121D23AA952F-2363-0000015CC7C6512E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361722377ckcap15978423001371828.jpg,sys-mod-file/2025-03-18/app-file/1742361722281ckcap5682474121713915688.jpg,sys-mod-file/2025-03-18/app-file/1742361722775ckcap8772198689460378170.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361715660511EA837-9B76-4328-AFFC-DB75680FD982-24500-0000154A403097F1.jpg,sys-mod-file/2025-03-18/app-file/1742361715397915932FB-992C-4E7B-BE3B-8CF5DA3DA736-24500-0000154A45F054F6.jpg,sys-mod-file/2025-03-18/app-file/17423617172680917DBAB-FC40-4829-8A39-0C3C18204576-24500-0000154A30B6BAB2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617143159D48B8F4-7B19-4914-8419-8BCB27F6B748-8723-00000176FB93A68D.jpg,sys-mod-file/2025-03-18/app-file/17423617145133F43D316-1A52-4874-9FE4-88CE91888757-8723-0000017708FB9237.jpg,sys-mod-file/2025-03-18/app-file/174236171499480A9EF85-881B-497C-978F-97657073DA58-8723-00000176F111B0EC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236171172293982B9F-4129-446C-915C-DF9F76D0C707-4312-000002BE513B14CA.jpg,sys-mod-file/2025-03-18/app-file/174236171102613C5B0BE-CE28-4089-8114-BFB2E2F43EC1-4312-000002BE6114BAF8.jpg,sys-mod-file/2025-03-18/app-file/174236171633046E96176-D2F9-4129-88EE-1B2B980E6F80-4312-000002BE35518531.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361696433CBAA2231-4FD7-4B62-8B43-2ACDBA07C33E-4929-0000055AABF949A4.jpg,sys-mod-file/2025-03-18/app-file/17423616964742931578F-290C-42BD-88F9-3BE192AB3884-4929-0000055AC030992A.jpg,sys-mod-file/2025-03-18/app-file/174236169704673B25FE2-964C-4BB7-B449-26D80E143C76-4929-0000055A7FAAF6C4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423616910123C0AD0FE-AF04-4369-9503-6E650943671F-2695-000001B9334C32B2.jpg,sys-mod-file/2025-03-18/app-file/1742361691077C96D9886-D01B-4DDB-8351-63543CA1D327.jpg,sys-mod-file/2025-03-18/app-file/1742361691379BB5F19E4-73EC-4263-ABB9-E21BDF662C1D-2695-000001B929776BA2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361709625B280D126-4F81-4953-A4AF-5DC387E0A61C-18703-00000A176A639984.jpg,sys-mod-file/2025-03-18/app-file/17423617094187390A798-D263-4F2C-94CA-F04641AC8727-18703-00000A177710721D.jpg,sys-mod-file/2025-03-18/app-file/17423617101175D753DF6-1B3E-450D-A8A8-F2713822BF52-18703-00000A1761BCD3C1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423617073882C2D7BCD-470B-412D-8065-50F8F6E9B68F-1923-000001616375239D.jpg,sys-mod-file/2025-03-18/app-file/1742361707355539F0B8F-95D3-4C5F-81C7-C751C9CA877C-1923-000001617614096F.jpg,sys-mod-file/2025-03-18/app-file/17423617076293E0AFF9D-577A-471B-83BE-DC3CF8A79464-1923-000001615988CE05.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236166846617CF036C-B494-437D-95E5-8B7B1E354EE9-2785-0000030C208AF488.jpg,sys-mod-file/2025-03-18/app-file/174236166886522A117A6-3D50-4701-A05F-73EB7D26AF4D-2785-0000030C2D9A87EB.jpg,sys-mod-file/2025-03-18/app-file/17423616758613DFFB692-9A39-44C1-BF89-95A54F0D88B8-2785-0000030C0C059EDF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361672878E6A249D8-92E2-460C-96CD-D15ECAA68677-19174-00000225937472F4.jpg,sys-mod-file/2025-03-18/app-file/1742361672872C5B8E962-9F9E-490A-8B73-1A693BB7E131-19174-000002259BAB0737.jpg,sys-mod-file/2025-03-18/app-file/1742361673335375FD198-509B-4C37-8B87-4A368379137A-19174-000002258A1322C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423616710499965BFA9-2D05-4EEE-9C05-41B6E1886838-676-0000006A37560C41.jpg,sys-mod-file/2025-03-18/app-file/1742361664820ACCBB0CC-5D34-4810-AD39-E2820A7391BF-676-0000006A507AACA5.jpg,sys-mod-file/2025-03-18/app-file/1742361675786BEA9A0C2-1F3A-4500-B7DE-05CD5AD2B914-676-0000006A1EF3D380.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236167319973161E0D-CF00-4CAC-8A4A-8695F4FCDFE3-1991-00001D67C2F21FA6.jpg,sys-mod-file/2025-03-18/app-file/174236167311464A70890-DA4C-40D1-A64E-FAA1A3057654-1991-00001D67CACE536F.jpg,sys-mod-file/2025-03-18/app-file/17423616735234A34F905-6B14-4CC8-9B60-1603167C2CEA-1991-00001D679EC768FC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423616895387485BA4F-315C-430B-80EC-FA82A908B8C6-62059-000022ACB5F0FDB0.jpg,sys-mod-file/2025-03-18/app-file/17423616896400450F547-09FE-42C0-920F-2DD90F0EB355-62059-000022ACC625D225.jpg,sys-mod-file/2025-03-18/app-file/17423616901239AB31794-C70F-4E37-9D37-9C1476369046-62059-000022AC96A91F78.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361678356E20542AC-8D9B-41F7-8201-07B5CCDDA38C-7559-00000AA0EAF7CD4F.jpg,sys-mod-file/2025-03-18/app-file/17423616786755CBB8554-7ECD-4B2E-B5A4-527E740FF8DE-7559-00000AA10E32C573.jpg,sys-mod-file/2025-03-18/app-file/174236168026787110DB7-9B0B-4D62-946A-AF9C3F5CA05F-7559-00000AA0CA173492.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361666798655598CC-E0C2-4D74-8257-70184F1FE70D-19098-000036FFFCFF5E59.jpg,sys-mod-file/2025-03-18/app-file/174236166678534B2FE08-E1D2-473F-A0C7-9EC9D589570F-19098-00003700046C9915.jpg,sys-mod-file/2025-03-18/app-file/1742361667160E8112E38-911C-4136-A7BE-64E44DF8C83B-19098-000036FFDF11A80A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361665387ckcap3335816761131940559.jpg,sys-mod-file/2025-03-18/app-file/1742361665577ckcap5293425455375868249.jpg,sys-mod-file/2025-03-18/app-file/1742361665432ckcap1171584890830519952.jpg,sys-mod-file/2025-03-18/app-file/1742361666369ckcap2477984064606691955.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361665222ckcap8870094078828950223.jpg,sys-mod-file/2025-03-18/app-file/1742361664885ckcap348093541594189226.jpg,sys-mod-file/2025-03-18/app-file/1742361666361ckcap7078420562782201794.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361659515C4D6BC9F-F882-4907-9CE6-B5E5EFC609D7-18055-000008E55926F2E1.jpg,sys-mod-file/2025-03-18/app-file/17423616594545D01CA1D-F391-4E1C-9900-0B146CE9082F-18055-000008E6330A4426.jpg,sys-mod-file/2025-03-18/app-file/1742361659978EA4FE0B9-4041-4803-85D3-5B2B088C2671-18055-000008E5499A82CF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361607754E276B077-565F-4B44-B420-C917F27F3C8B-5640-000003DDF6828CCF.jpg,sys-mod-file/2025-03-18/app-file/1742361630446A521705F-E83B-4911-AB3A-C047C7D8642A-5640-000003DE05149A37.jpg,sys-mod-file/2025-03-18/app-file/1742361659235BB649B20-3919-4508-A06A-5711FECDFEF7-5640-000003DDA27E6CCF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236164910244349B19-D333-4B7B-84A6-360DA27F3FE6-50444-00001F5A12EFA680.jpg,sys-mod-file/2025-03-18/app-file/1742361639838366E767D-6FC8-400B-83BE-FDA622787448-50444-00001F5A19D9D445.jpg,sys-mod-file/2025-03-18/app-file/17423616621510121BD41-8D0B-40D5-85F0-75AE9640C61B-50444-00001F5A06FD2D3A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361650255BD2D4BDE-945A-4B08-8805-F1FD65BE4C84-24500-00001549E8DE16C9.jpg,sys-mod-file/2025-03-18/app-file/17423616512374ABF151B-69B1-47E4-9E10-AFB1D25C8E01-24500-00001549EF4DAD64.jpg,sys-mod-file/2025-03-18/app-file/1742361652627233B5F24-C144-4799-9A22-5002BBDDD83E-24500-0000154935695927.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361648565ckcap1960301389853216376.jpg,sys-mod-file/2025-03-18/app-file/1742361648403ckcap7073831623252829898.jpg,sys-mod-file/2025-03-18/app-file/1742361648980ckcap8457266444385881525.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423616450691742361622989rn_image_picker_lib_temp_9433454c-88a1-4ba3-b928-22062e3e780d.jpg,sys-mod-file/2025-03-18/app-file/17423616451541742361636989rn_image_picker_lib_temp_33adb8c9-6248-415a-b9f2-db832593b004.jpg,sys-mod-file/2025-03-18/app-file/1742361648417ckcap4836593158491202995.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361641310C63E6B23-3513-47C4-A7F7-875833E5CBCA-2596-000001A70FAC0362.jpg,sys-mod-file/2025-03-18/app-file/17423616412158C594D56-AD5D-4060-822A-A9236860295C-2596-000001A719FFCE1E.jpg,sys-mod-file/2025-03-18/app-file/1742361642498165A1323-D46F-4AE6-8B0D-310F417139B5-2596-000001A70AC90F89.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361632638831616D1-C751-4F28-9F51-3B9B7EC8B2C8-9817-000005DE63BDEA54.jpg,sys-mod-file/2025-03-18/app-file/174236163270634FA8A9B-DA13-4AEF-A5B5-743FBE04465C-9817-000005DE69DBF10B.jpg,sys-mod-file/2025-03-18/app-file/1742361633303047441A6-F241-48AE-B4A9-B57B03261E73-9817-000005DE52F391ED.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423616239341F8DC4A0-A0C1-42F4-8F7C-307A436CE1DC-3320-000005E66ACB9E30.jpg,sys-mod-file/2025-03-18/app-file/174236162633603478A54-D38E-4EE2-AEB8-34073950D01A-3320-000005E675349AE6.jpg,sys-mod-file/2025-03-18/app-file/17423616318079DBEC683-2573-437A-910B-EA953E888AD9-3320-000005E663AFAF99.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361626740DBCE4927-157B-43A3-A7C3-72EFE4E8954A-8723-000001767BBC16DE.jpg,sys-mod-file/2025-03-18/app-file/1742361626632CC529CB3-77AF-4D41-90AB-2AABBD328F64-8723-000001768B931BBD.jpg,sys-mod-file/2025-03-18/app-file/1742361627183D7AD04D3-60D8-46B8-ABCA-173E4DD3060F-8723-000001765E8EF9B6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236161485542DEAC8D-B70D-4EBB-B60B-FDDEB5813D72.jpg,sys-mod-file/2025-03-18/app-file/17423616145463FB8E744-BE59-4444-98D0-60E5BA6E4B47.jpg,sys-mod-file/2025-03-18/app-file/1742361615215D89A8368-0CA3-4392-A532-885ABE60AB2F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361607686ckcap4643779275061540418.jpg,sys-mod-file/2025-03-18/app-file/1742361607618ckcap5253618496320364980.jpg,sys-mod-file/2025-03-18/app-file/1742361608329ckcap4576285078703761821.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361600652F621906B-3950-444B-89E2-771D96DD981B-2496-000002DC72CA49C2.jpg,sys-mod-file/2025-03-18/app-file/1742361600683066E6CA3-6D48-4496-87A4-34740A3A7624-2496-000002DC89A5C916.jpg,sys-mod-file/2025-03-18/app-file/1742361602237E133E557-C724-48AA-9AC8-77B39E518BA3-2496-000002DC5C6DEDCD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361596871ckcap8319964972372690067.jpg,sys-mod-file/2025-03-18/app-file/1742361596841ckcap5061275236665241609.jpg,sys-mod-file/2025-03-18/app-file/1742361597134ckcap6799602409645219354.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423615951974BC72B31-317F-4E11-B296-4F30D9920146-7222-000001778E53D756.jpg,sys-mod-file/2025-03-18/app-file/17423615956175072854C-47A1-497E-A575-CF5E9387AA51-7222-0000017795A57092.jpg,sys-mod-file/2025-03-18/app-file/1742361596035E8073E91-403B-4F3E-8F98-55FB5C48A03B-7222-0000017677F50E3B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423615923837A74F308-705F-4591-8009-E9A3622EE9C7-6544-000003178CF684EE.jpg,sys-mod-file/2025-03-18/app-file/1742361592426BF6CF49D-F7F9-4E52-9B3B-14C2DC13335B-6544-00000317AC2417EB.jpg,sys-mod-file/2025-03-18/app-file/1742361592921A7E29B13-3DB2-48E7-96EC-477A0F7A841C-6544-0000031773C2A034.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361586897001B886B-C5D1-4CFE-ACD1-D6F8147276B6-9817-000005DC1CE4E227.jpg,sys-mod-file/2025-03-18/app-file/1742361587240F51D35C0-D4AC-46FC-B8A3-1CEDF647070A-9817-000005DC7E7ACA40.jpg,sys-mod-file/2025-03-18/app-file/1742361587955F1831623-EF6F-4906-8D46-DE097790493A-9817-000005DBFAD41B0F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361582935D3ECB179-BA74-41ED-A378-53BB8B6A4476-25108-000003DF65237F8D.jpg,sys-mod-file/2025-03-18/app-file/17423615832550E19E253-8A4A-4CAE-AB2A-FF7DEDF8F06C-25108-000003DF767013C9.jpg,sys-mod-file/2025-03-18/app-file/1742361582848CADA7C90-ADA6-44AA-8461-B952048C0974.jpg,sys-mod-file/2025-03-18/app-file/174236158380018B17982-4C38-49C9-8C58-C2EE50D5C3AB-25108-000003DEC8473A44.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361578416ckcap6095231472509002514.jpg,sys-mod-file/2025-03-18/app-file/1742361578335ckcap1625291163856546993.jpg,sys-mod-file/2025-03-18/app-file/1742361578332ckcap5406995617593353759.jpg,sys-mod-file/2025-03-18/app-file/1742361578692ckcap3807409972616079885.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361575996ckcap8274947435333745467.jpg,sys-mod-file/2025-03-18/app-file/1742361576428ckcap6704339429804868306.jpg,sys-mod-file/2025-03-18/app-file/1742361576738ckcap7392729245106069972.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236157459440C71BE8-E8D8-4770-8682-5E9FD359E1FB-12203-00000B800C391C10.jpg,sys-mod-file/2025-03-18/app-file/1742361574635ACDECD22-AAE2-4658-81F7-5F9734C7A9FE-12203-00000B80126656F4.jpg,sys-mod-file/2025-03-18/app-file/174236157513118C32DF2-E8F1-4186-9673-F4D65313AA0E-12203-00000B7FC85C8ADC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423615656666403CE9F-9E6F-42D3-AD3F-E5F4B6B566F5-1538-000000F0AE5D95FD.jpg,sys-mod-file/2025-03-18/app-file/174236156571290E33CD6-12B4-405E-B6FB-80B63245069D-1538-000000F0CE2589F9.jpg,sys-mod-file/2025-03-18/app-file/1742361566071A33DE568-6903-45AA-9C84-B494F76E594A-1538-000000F09CBDFA1E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361563217ckcap2031866597757863413.jpg,sys-mod-file/2025-03-18/app-file/1742361563437ckcap5326329314078836161.jpg,sys-mod-file/2025-03-18/app-file/1742361564084ckcap1330970853021782146.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361556413A296E6FB-DF73-4852-BEE2-FA9300C945F5-35364-00000A13676F3223.jpg,sys-mod-file/2025-03-18/app-file/174236155683487885D02-104D-4DDD-9CCB-F3F392A89332-35364-00000A137081D2C1.jpg,sys-mod-file/2025-03-18/app-file/174236155927323848E5C-67F1-4835-A375-09F17C3BA438-35364-00000A135ED12F61.jpg,sys-mod-file/2025-03-18/app-file/17423615590152E456667-E52C-445B-A8D0-18E5705F0D82.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361557333AFBBEC6A-DC4E-4AEA-9205-8944B6D31A48.jpg,sys-mod-file/2025-03-18/app-file/1742361557278DE19747E-4BB8-435C-A731-167D83688940.jpg,sys-mod-file/2025-03-18/app-file/17423615579910D1E0224-ABE5-470A-BE12-1660180B594F-23536-00001BB2E892B956.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361551787E23F628D-0B6C-4165-97E4-ECBF45F5EC93-1923-000001608C1BB7B1.jpg,sys-mod-file/2025-03-18/app-file/1742361551719F049DCC2-2491-45E7-8CD7-C0DB10251910-1923-00000160946B77E7.jpg,sys-mod-file/2025-03-18/app-file/1742361552431A15C7FC5-4BEB-49B8-96AE-308E2323A369-1923-000001606BAE92DF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361550176C65F49B6-C70A-4899-9C02-18BD7AACBD14-9177-000004786DB31AD2.jpg,sys-mod-file/2025-03-18/app-file/174236154593557831705-4457-4E7A-A5A0-27F5B91CF870-9177-000004788D099E76.jpg,sys-mod-file/2025-03-18/app-file/1742361552059A0FB17F9-835B-4972-BD3E-29DE6FF7526E-9177-0000047866DC7E6C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361548990ckcap8723183614549910575.jpg,sys-mod-file/2025-03-18/app-file/1742361548156ckcap4284838780550729098.jpg,sys-mod-file/2025-03-18/app-file/1742361550426ckcap5672834169184072419.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361550314105C7621-0567-4A82-85FF-5C174D869D6E-27965-00000484F975BDD5.jpg,sys-mod-file/2025-03-18/app-file/1742361550438C461D80A-D090-4634-900B-E43118B62E1D-27965-0000048503DEB85A.jpg,sys-mod-file/2025-03-18/app-file/1742361550928E70DCF43-B094-45A3-B8E2-E545340457B0-27965-00000484EA8E5CE2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361546532620CA7B3-B925-4172-85F1-17A96382177B-614-00004300ED34E3C8.jpg,sys-mod-file/2025-03-18/app-file/1742361546890170219F4-5B17-4B58-ADFF-AED552351774-614-00004300FE599F89.jpg,sys-mod-file/2025-03-18/app-file/17423615497756E70DA89-609B-4C3A-9918-FAB83E700F88-614-00004300D5B11965.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361543246ADCDC0DB-B1E3-420D-B1CA-5C5C6918A821-5872-000003638159186D.jpg,sys-mod-file/2025-03-18/app-file/1742361543013F27C483C-CDEA-4CC9-9B3F-0127950FF8E2.png,sys-mod-file/2025-03-18/app-file/1742361543581898E18EC-CDDC-425E-B1E2-36F719D5D47E-5872-000003631D226B9C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361540377BC975FAA-F41B-411B-ABDF-3D907B7C8897-2785-0000030B4DBA28ED.jpg,sys-mod-file/2025-03-18/app-file/17423615393254920F0D2-11C6-4C95-960D-B351A925732C-2785-0000030B69AD28CC.jpg,sys-mod-file/2025-03-18/app-file/17423615442355A9F4E03-5500-4DD6-923D-F4806C7C0C3E-2785-0000030B37DC706E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361541325A97C74F4-B1D8-4608-8449-189D6E43224C-7555-00000FD391D569C3.jpg,sys-mod-file/2025-03-18/app-file/17423615413456D043B23-5A72-4F29-A17C-DE91EAD03CA3-7555-00000FD3A0AD55D8.jpg,sys-mod-file/2025-03-18/app-file/1742361541576E47968BD-F786-4438-A7C1-7D0C56EE81BC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361520742CBAA2231-4FD7-4B62-8B43-2ACDBA07C33E-4929-0000055AABF949A4.jpg,sys-mod-file/2025-03-18/app-file/17423615207522931578F-290C-42BD-88F9-3BE192AB3884-4929-0000055AC030992A.jpg,sys-mod-file/2025-03-18/app-file/1742361541204FB701729-BFD1-48FB-B09C-91E3E0835232-4929-0000055A75D0FB4A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423615404759B0D9820-8EE5-4E2E-84C9-DA8610B40299.jpg,sys-mod-file/2025-03-18/app-file/17423615404314C6DB8E8-7611-4247-9D3B-DB5F3A44B5F6.jpg,sys-mod-file/2025-03-18/app-file/174236154090596E17F68-A467-4B8C-AF30-5AE1AB64A31B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423615355995E93F8E4-861F-4B64-9CA0-8CA259E27985-913-0000003259467E56.jpg,sys-mod-file/2025-03-18/app-file/17423615359388C441E4A-6E8C-4329-A933-E1547F7BB220-913-000000326209DF0A.jpg,sys-mod-file/2025-03-18/app-file/17423615380548CD8BD68-3710-4F21-83E7-1412DEBA268B-913-000000324D9A613C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361533976581AC07D-EDB2-481D-962D-56DB9ED0D65B-8723-00000175E379D0F8.jpg,sys-mod-file/2025-03-18/app-file/1742361533730E6F363F4-34DF-4667-AB8B-9A064A615DC7-8723-00000176035E833E.jpg,sys-mod-file/2025-03-18/app-file/1742361534540976CC86C-380B-4A89-B47A-56C435C02CDF-8723-00000175BA4F5893.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361533054B498E99C-6970-4B60-A147-63BEE3421D5A-65998-0000100FED950A6B.jpg,sys-mod-file/2025-03-18/app-file/1742361533543C46DAEA3-AAB2-4AA9-9C8B-EFADF7AEC390-65998-0000100FF3C6631D.jpg,sys-mod-file/2025-03-18/app-file/174236153440308CCF812-EE69-45EF-8CDA-A486DF9CF0B4-65998-0000100FE7D8EA7E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361534115ckcap319928607378942981.jpg,sys-mod-file/2025-03-18/app-file/1742361533708ckcap6288791335914347209.jpg,sys-mod-file/2025-03-18/app-file/1742361534571ckcap4853696480442976268.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361533600F0754081-0068-41E1-B356-F8B74E35866A.jpg,sys-mod-file/2025-03-18/app-file/17423615336982A3AAEFF-0BF6-445C-88AE-3C1A0315405E.jpg,sys-mod-file/2025-03-18/app-file/1742361534183DE932B29-2C5B-43CC-AE57-35FE2D7D3256.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361533314E70C5B4A-2E71-45AE-ADF5-80E4554B33C7-2359-000006A31E77735B.jpg,sys-mod-file/2025-03-18/app-file/174236153289506A09383-A135-4963-B1A8-E2A112566FF6-2359-000006A3316FC147.jpg,sys-mod-file/2025-03-18/app-file/1742361533943B633BEF6-881F-4AD6-8BBC-88A1E533DBEA-2359-000006A2D1020C46.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361533509E0D51000-C813-4D57-A3E0-CFDD9EECD4E1-3397-00000257DDE1CD5C.jpg,sys-mod-file/2025-03-18/app-file/17423615335542C2A8052-E8FD-4EBB-A54D-21BC09944EA6-3397-000002580AD5D535.jpg,sys-mod-file/2025-03-18/app-file/1742361533480D4651F98-78DF-494F-BFFC-90BB15B8AFC0-3397-00000258301AA55A.jpg,sys-mod-file/2025-03-18/app-file/174236153392968FF5325-1F22-43F8-B691-37DBF16BA78B-3397-00000257D792F432.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361528814B498E99C-6970-4B60-A147-63BEE3421D5A-65998-0000100FED950A6B.jpg,sys-mod-file/2025-03-18/app-file/1742361531257C46DAEA3-AAB2-4AA9-9C8B-EFADF7AEC390-65998-0000100FF3C6631D.jpg,sys-mod-file/2025-03-18/app-file/174236153228830FB4D86-BD55-457E-9AC7-EBF5239AB566-65998-0000100FE014DCF6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361522814EED4C178-8308-40E8-B9D8-0947CBE5E7B2-50444-00001F59898AC4B1.jpg,sys-mod-file/2025-03-18/app-file/1742361524076B8D29D2F-F004-482B-8E85-BA58EE7B2411-50444-00001F59959BD8C4.jpg,sys-mod-file/2025-03-18/app-file/1742361524434C292D4C7-E692-4334-9080-B6B4A6A2302A-50444-00001F597797E803.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236152218287BBC1FD-FB67-4E84-A439-B518F9A7891B-13094-00000C00B3EE99EA.jpg,sys-mod-file/2025-03-18/app-file/1742361522810C0AA354B-D1BB-4936-A47D-60FC3DCB1778-13094-00000C00C71B5E1B.jpg,sys-mod-file/2025-03-18/app-file/1742361523745456B4446-2DAF-489D-8EDC-34C1D22B2B98-13094-00000C007AB860B1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361521029EED4C178-8308-40E8-B9D8-0947CBE5E7B2-50444-00001F59898AC4B1.jpg,sys-mod-file/2025-03-18/app-file/1742361521269B8D29D2F-F004-482B-8E85-BA58EE7B2411-50444-00001F59959BD8C4.jpg,sys-mod-file/2025-03-18/app-file/17423615217205460E765-FDE7-4096-87D1-E95E83E35994-50444-00001F5973241F8E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361519770ckcap8580626826601602375.jpg,sys-mod-file/2025-03-18/app-file/1742361519655ckcap5414692875476882227.jpg,sys-mod-file/2025-03-18/app-file/1742361520381ckcap1088553088051754229.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361516860ckcap2247140174523470958.jpg,sys-mod-file/2025-03-18/app-file/1742361516978ckcap7237857172972530034.jpg,sys-mod-file/2025-03-18/app-file/1742361517229ckcap5388668659282010451.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423615151785DE21576-4BDF-481D-8A89-C49D260D6E8D-18703-00000A16517EC2F9.jpg,sys-mod-file/2025-03-18/app-file/17423615150558216C991-9EA0-4BC1-AA1C-3969788545D7-18703-00000A165FA2BBE6.jpg,sys-mod-file/2025-03-18/app-file/17423615155418B4EE38E-D541-4F83-8162-2B90DBD8AA77-18703-00000A16433C31B2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361494841ckcap5526348897090723862.jpg,sys-mod-file/2025-03-18/app-file/1742361495402ckcap1288712834010920099.jpg,sys-mod-file/2025-03-18/app-file/1742361496605ckcap7056475379613732393.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361493932F4F9E289-8612-4928-A59E-39CD8FB0DEA4-11170-000008F3AD123EA5.jpg,sys-mod-file/2025-03-18/app-file/17423614939512158E794-27B4-47D5-837C-9D7124B09CF7.jpg,sys-mod-file/2025-03-18/app-file/1742361496224517AA78E-B3A9-4DFF-8311-C0D406D85234-11170-000008F39EBBA865.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361494630DA9AE5DE-11A1-4DDE-868A-9A8C440F27C9-2363-0000015BBD6DD0BB.jpg,sys-mod-file/2025-03-18/app-file/1742361494533106C82C3-94CD-470A-9275-680C2F1B5AC8-2363-0000015BC317FA9C.jpg,sys-mod-file/2025-03-18/app-file/1742361494753E33770C8-3ECC-4508-94CA-9B3C586C4D9D.jpg,sys-mod-file/2025-03-18/app-file/1742361495095F9559620-0F97-49F1-B699-82F08BDC75AE-2363-0000015B2AC14938.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423614907242BBF59E6-E8AD-4675-935E-E328CB1FBA8D-2596-000001A63B8ABB1F.jpg,sys-mod-file/2025-03-18/app-file/17423614904431B8B8D6F-3063-4F87-9CA5-3E156BC9F406-2596-000001A642D99A23.jpg,sys-mod-file/2025-03-18/app-file/1742361491675F96C6373-A78D-4757-B12C-16C6DB987B34-2596-000001A62C1C336F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361485057E4331E5F-74E7-4F0E-A252-B26F73A83E37-10309-000002C68E364C48.jpg,sys-mod-file/2025-03-18/app-file/1742361485630F287E014-2463-4024-B914-C8A858D86671-10309-000002C69D73335D.jpg,sys-mod-file/2025-03-18/app-file/174236148787989AF4ED4-4D63-4499-B4DE-D3C404C6B014-10309-000002C66F5F4E13.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361485157F97083BD-81B4-488A-BF21-2B9AE714ECF9-2648-000003B3E6D9EAEC.jpg,sys-mod-file/2025-03-18/app-file/174236148558724BB4CF0-45D3-422B-A861-9626A896DB17.jpg,sys-mod-file/2025-03-18/app-file/174236148486744E4EB81-237E-43A8-9043-BC0F3DE2DE33.jpg,sys-mod-file/2025-03-18/app-file/17423614871008CACE26A-5880-4ED7-A108-C42F2C8D7C79-2648-000003B3D191A212.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361481145ckcap550643532873250162.jpg,sys-mod-file/2025-03-18/app-file/1742361481055ckcap6086512855096130629.jpg,sys-mod-file/2025-03-18/app-file/1742361480746ckcap7980537803805256034.jpg,sys-mod-file/2025-03-18/app-file/1742361482461ckcap5113874725133709395.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361480423A920312F-0D42-4321-8B46-2BC2B7A0AB86.jpg,sys-mod-file/2025-03-18/app-file/1742361480605C9C5AF08-9065-45A6-8A09-7B0D388E23C1.jpg,sys-mod-file/2025-03-18/app-file/1742361481708D182AFAF-3CFB-40A2-AD36-BBF16453DA97.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361459449CD0653DA-D2EB-4C35-98BD-DE56FED0651A-6843-00000543E3CB0E60.jpg,sys-mod-file/2025-03-18/app-file/1742361465819185EC53C-D4E0-435A-A1A9-3DCED57D37A4-6843-0000054417693064.jpg,sys-mod-file/2025-03-18/app-file/1742361472835E7BF174B-56E4-4CB0-A62D-155984E9268D-6843-00000543D0F1A610.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236147031664763798-B0F5-4A7F-B21A-8E5DBF8F202C.jpg,sys-mod-file/2025-03-18/app-file/174236147000476DF1382-E82D-45A4-A5F2-7A61F313B680.jpg,sys-mod-file/2025-03-18/app-file/1742361469794396CCB99-B4BD-4FD1-A73C-8BBD79EBEDA9.jpg,sys-mod-file/2025-03-18/app-file/1742361471744BB7F1E72-8943-4E96-9CD2-3249911DEEA7-11170-000008F279614AA1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423614688305205C3E1-304B-40E2-A0AE-7ABFEBFE113D-11673-000002A114D03DCD.jpg,sys-mod-file/2025-03-18/app-file/17423614705933D948210-26F4-4C38-B222-2C5AD77DF35E-11673-000002A150E09262.jpg,sys-mod-file/2025-03-18/app-file/1742361471379F2AD27A7-D38A-4D40-BB47-CE8683031C2E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361468816ckcap4959324262732589146.jpg,sys-mod-file/2025-03-18/app-file/1742361468804ckcap7415973255246347231.jpg,sys-mod-file/2025-03-18/app-file/1742361469169ckcap8043185764887465979.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361453568634E073D-50EF-4824-B750-C8E743F1EC41.jpg,sys-mod-file/2025-03-18/app-file/1742361453293A9DB0B08-B391-4C4A-95E6-1CDB575921BA.jpg,sys-mod-file/2025-03-18/app-file/17423614676254EDB5556-C1C4-4971-ACA4-DE233413F654-11170-000008F18E06CDAC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361432237AFF5BC41-3916-4C8D-AD16-098079C98CB9-2785-0000030AA6652C2B.jpg,sys-mod-file/2025-03-18/app-file/1742361422667DDC48FEA-C2CD-4164-AFB8-E6BA6DE0B296-2785-0000030AB28BE24A.jpg,sys-mod-file/2025-03-18/app-file/17423614659554A1BF01E-35A0-4C8A-8E3F-5D2005B05CE4-2785-0000030A884D628E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361462489DA11A0F6-E1FB-4185-BF4D-3FF00A149C97-1991-00001D6697F344CD.jpg,sys-mod-file/2025-03-18/app-file/1742361462487E6C27928-C433-4A63-8A88-C35739FCDAE2-1991-00001D66A4E7A57B.jpg,sys-mod-file/2025-03-18/app-file/1742361462797FB130ACF-BE1F-4C7C-B61A-C8B0B30B0180-1991-00001D668588DFF6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361459496E92CA53A-365A-4929-B94A-346CB4A4A98E.jpg,sys-mod-file/2025-03-18/app-file/174236145949627531869-4E9C-4BF2-997D-9D407F153CED.jpg,sys-mod-file/2025-03-18/app-file/1742361459992E10BBE20-4E39-49C3-A954-57F88AF5F21A-62059-000022AB36AA6B66.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236145238903BAC18B-1C10-4E01-8488-8433BF02647A-1033-000000CF84C268EC.jpg,sys-mod-file/2025-03-18/app-file/1742361453755916248C5-3734-474A-AC9B-247491DCDF33-1033-000000CF9ADA884A.jpg,sys-mod-file/2025-03-18/app-file/1742361457011E47B5463-8416-4461-8C37-1A3C206ADF09-1033-000000CF784F7867.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423614544460A3B44C5-60FE-457B-A70F-ACA9BD1FC78A-24500-000015483462618B.jpg,sys-mod-file/2025-03-18/app-file/17423614547269BEA0A65-6023-451E-9901-3CC9E19F8C9F-24500-00001548CB4FF075.jpg,sys-mod-file/2025-03-18/app-file/1742361454803C12FC840-7FE6-49BA-A189-86B122A3BB66-24500-00001548D483F702.jpg,sys-mod-file/2025-03-18/app-file/174236145619696E88B24-69FB-42CC-9A97-F153DCCA1560-24500-000015477986F7C9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361447001ckcap6513696293952378234.jpg,sys-mod-file/2025-03-18/app-file/1742361447675ckcap7496498230011204760.jpg,sys-mod-file/2025-03-18/app-file/1742361449525ckcap3419341554662174738.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236143692450A42E95-42FA-4154-90E4-23DAD58442A1-18703-00000A15D6C21961.jpg,sys-mod-file/2025-03-18/app-file/1742361436298C1FAC680-1C9B-4415-88D0-B9EE7504D4C7-18703-00000A15E6567B4B.jpg,sys-mod-file/2025-03-18/app-file/1742361445854895970C3-B752-43C8-A365-C95DCFFD3CA8-18703-00000A15C6E716A7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236144499343C362CD-374A-47B2-89AA-0110325ED29B-835-0000006AF2C4168B.jpg,sys-mod-file/2025-03-18/app-file/1742361445063DCE36516-E82A-449F-BE7E-BD4AC19E733C.jpg,sys-mod-file/2025-03-18/app-file/174236144564773462E56-EFC2-4EA1-828D-59CD598BA3BC-835-0000006AE5A76F3C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423614413605BC65D2A-DAD6-427E-83A9-57EC8D260527-6544-00000316BB082A18.jpg,sys-mod-file/2025-03-18/app-file/1742361441700D84A8D88-80FD-409A-A914-0CB27FE9A123-6544-00000316D27AECEA.jpg,sys-mod-file/2025-03-18/app-file/1742361442560C4464F05-7CA3-4D37-8FE3-AD01425E0D7F-6544-00000316A682E1CC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423614355659C02777F-E1B8-4E6E-95C6-4CCFB4C09D9E-7559-00000A9FA11D7F7E.jpg,sys-mod-file/2025-03-18/app-file/174236143689515AAE332-BEB4-4F41-9EBE-F789867146E7-7559-00000A9FBF972258.jpg,sys-mod-file/2025-03-18/app-file/1742361437556B22BED41-E5C8-47E1-96B3-73462129A084-7559-00000A9F6B4F1B3C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361434074ckcap2623763045730635922.jpg,sys-mod-file/2025-03-18/app-file/1742361434072ckcap6892280748337960447.jpg,sys-mod-file/2025-03-18/app-file/1742361434332ckcap791834453102759636.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423614191295D5FACB5-BC82-45F6-9E28-001C1BA0AA77-27965-0000048431EAF359.jpg,sys-mod-file/2025-03-18/app-file/1742361419078B6A96791-34BD-46D9-B014-F554B10E9080-27965-000004843BBD930B.jpg,sys-mod-file/2025-03-18/app-file/1742361421137B8D810FD-7758-406D-9361-88CCD387D259-27965-000004840B8C34F7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361409049D73A0BFC-926B-4AF4-AFDE-8E89C235F4A5-913-00000031BFB5925B.jpg,sys-mod-file/2025-03-18/app-file/17423614090404386B54E-F6B8-459B-A935-447A1C5E9B46-913-00000031C53DED1E.jpg,sys-mod-file/2025-03-18/app-file/174236140925909AA388D-685D-4F28-B707-3025F9D38CE8-913-00000031B814B6D2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423614023488035EAA8-E5BF-4544-8951-3A126393FB0C-314-00000017024AB468.jpg,sys-mod-file/2025-03-18/app-file/17423614031846330F8DC-C460-4059-A49B-785D1097C6DC-314-0000001709F30678.jpg,sys-mod-file/2025-03-18/app-file/17423614036470636CC33-32A4-4516-BB23-F333D8409394-314-00000016EFB2A2F6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361394861ckcap1714486402944930916.jpg,sys-mod-file/2025-03-18/app-file/1742361394612ckcap3027346963465853293.jpg,sys-mod-file/2025-03-18/app-file/1742361395742ckcap2373092564380884260.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361393301dm_ckcap4670870315100701551.jpg,sys-mod-file/2025-03-18/app-file/1742361393153ckcap5149749940116054352.jpg,sys-mod-file/2025-03-18/app-file/1742361392791ckcap1223033324792278278.jpg,sys-mod-file/2025-03-18/app-file/1742361393842ckcap7284567217840368087.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613901701742361358501rn_image_picker_lib_temp_67c44fd2-bc38-4387-89c9-b594db68b39f.jpg,sys-mod-file/2025-03-18/app-file/17423613902291742361380983rn_image_picker_lib_temp_3208f6dd-a31f-498f-9466-c05b2b954ef1.jpg,sys-mod-file/2025-03-18/app-file/1742361393164ckcap5492071460402877183.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613855940EDD4A6B-AE09-473F-A451-FA06BE1537BA-913-000000319BE0A93B.jpg,sys-mod-file/2025-03-18/app-file/1742361385607851EB75E-5340-44D2-BA72-12105837EA25-913-00000031A4322CE8.jpg,sys-mod-file/2025-03-18/app-file/17423613857975CDACE04-FE87-428C-A503-52111BDE6522-913-0000003193AEAD2B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361384617C2E40F0E-CA36-472D-ADB1-A70A9D8BBA9E-4114-000001698B2E3759.jpg,sys-mod-file/2025-03-18/app-file/17423613841964B958E74-4647-44ED-A81C-555CB8D07A36-4114-00000169935A425D.jpg,sys-mod-file/2025-03-18/app-file/1742361385929AFD720F2-0984-4F60-9958-3EB23FD20E6D-4114-00000169803F99C3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361384285FBC5E624-3478-49EA-846E-890B14849B60-19098-000036FE692FA63F.jpg,sys-mod-file/2025-03-18/app-file/174236138437160DBEB78-FD31-4003-8A8C-CD1035001280-19098-000036FE7312D591.jpg,sys-mod-file/2025-03-18/app-file/1742361384870BCDDE353-257F-40EA-ABB0-03BB03E1ED49-19098-000036FE5A73461B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361383468706E530A-722A-472F-82A1-E05BC3EB0A95-2596-000001A59F023387.jpg,sys-mod-file/2025-03-18/app-file/174236138354322A30396-F451-4325-9E12-0C33BFF8A886-2596-000001A5A8F10407.jpg,sys-mod-file/2025-03-18/app-file/17423613841742D95AB3B-0BF8-47F2-8FF3-ED813487CE1F-2596-000001A5880345D9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361382048ckcap633952339108818206.jpg,sys-mod-file/2025-03-18/app-file/1742361382065ckcap8138297774209552659.jpg,sys-mod-file/2025-03-18/app-file/1742361382767ckcap1238374673262590157.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361379315ckcap1149698606354655643.jpg,sys-mod-file/2025-03-18/app-file/1742361379320ckcap6868575747955442261.jpg,sys-mod-file/2025-03-18/app-file/1742361379528ckcap2006267448736353045.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236136944217C3C9CE-FB53-43A6-AEF0-65E1006883F6-1844-0000010EA7335AB7.jpg,sys-mod-file/2025-03-18/app-file/1742361369852408558F2-B1DE-434E-A85E-D87BB88731DA-1844-0000010F0C0C85E6.jpg,sys-mod-file/2025-03-18/app-file/17423613712103A2392D3-639C-428E-B128-88140A3B1318-1844-0000010EA00D3DC0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361366751B44D9722-02B9-41FD-A8B6-22EA3CBCDCD3-8723-0000017511AA4F52.jpg,sys-mod-file/2025-03-18/app-file/174236136683970E86ECE-C280-4372-8867-68E891B69135-8723-000001751A21B071.jpg,sys-mod-file/2025-03-18/app-file/1742361367320F7F9B9FD-CBED-4389-BED4-4271573AD528-8723-00000174F41987B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361366170ckcap5261136960557717870.jpg,sys-mod-file/2025-03-18/app-file/1742361365690ckcap5313223726850327712.jpg,sys-mod-file/2025-03-18/app-file/1742361366981ckcap5928140993102784707.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361347770ckcap1933738044488952821.jpg,sys-mod-file/2025-03-18/app-file/1742361354340ckcap1303660321981315439.jpg,sys-mod-file/2025-03-18/app-file/1742361362204ckcap1339151988527079285.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613583014DF96DF7-2B2A-4205-85F6-2CFE1AC1CEEE-913-0000003166D9CC42.jpg,sys-mod-file/2025-03-18/app-file/17423613582842746F714-D374-426D-BF9A-DEF307CF808F-913-000000317CEC325C.jpg,sys-mod-file/2025-03-18/app-file/17423613584755FAFA979-1CF7-472D-89ED-AEF53FB7E3C7-913-000000315E54B004.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613532718974234B-D230-4726-A2D3-5C39C0B4E66F-35364-00000A1208DD2FAC.jpg,sys-mod-file/2025-03-18/app-file/17423613520458F3D3DF1-23D7-4E70-9430-5FA34243A300-35364-00000A12161C818F.jpg,sys-mod-file/2025-03-18/app-file/17423613573993199369C-1FCB-488D-A665-80E751044C27-35364-00000A12026CBDD1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361353920EDC5932B-A01E-4997-A293-2AEA022A1DAC-4312-000002BC52E00891.jpg,sys-mod-file/2025-03-18/app-file/174236135331261ABDA32-40FB-44E6-8CBB-942E7E91A40F-4312-000002BC608AA0B3.jpg,sys-mod-file/2025-03-18/app-file/1742361354905669E3C95-D00F-43E3-8EA4-606B79A19332-4312-000002BC2F84BF91.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236133544368D9E5A6-06FF-4FE3-BE2A-60C4EB276101-3762-00000266B187F5A0.jpg,sys-mod-file/2025-03-18/app-file/174236133675132C8FC40-6432-43F1-9AA6-8A1C1FE6A97C-3762-00000266BCE03214.jpg,sys-mod-file/2025-03-18/app-file/1742361350262822022C2-5D21-4B4B-9485-D622FCCAFD6E-3762-00000266986FE59C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236134638058ACC678-F028-440C-BD15-9C8497FAE67E-676-00000068692A8C55.jpg,sys-mod-file/2025-03-18/app-file/17423613464446BA97386-5418-4F22-9519-EBF5E03FF14A-676-00000068767CCDCA.jpg,sys-mod-file/2025-03-18/app-file/17423613472614430D383-9B9B-458B-95F5-D03B167C913F-676-00000068524F68F3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361340796ckcap905652161979127440.jpg,sys-mod-file/2025-03-18/app-file/1742361340828ckcap8768344107949232943.jpg,sys-mod-file/2025-03-18/app-file/1742361341364ckcap6843424163355870484.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613375701742361164787rn_image_picker_lib_temp_d2a1188d-9973-437b-bdef-c7722abcf67a.jpg,sys-mod-file/2025-03-18/app-file/17423613375981742361176561rn_image_picker_lib_temp_8d43dc95-e975-439d-92f0-fbaaa5b6b17e.jpg,sys-mod-file/2025-03-18/app-file/17423613376821742361332555rn_image_picker_lib_temp_a96d5320-a797-4ef2-ba0a-3eaa85eae74e.jpg,sys-mod-file/2025-03-18/app-file/17423613379571742361045622rn_image_picker_lib_temp_99723bec-ef1c-4d48-b884-f67e7022c28a.jpg,sys-mod-file/2025-03-18/app-file/17423613379911742361059125rn_image_picker_lib_temp_1c6e4841-9446-4381-9f59-06f10ca8f7c7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236133585941AD6373-2099-4C6E-9710-943C55959A8C-314-0000001695F46BB4.jpg,sys-mod-file/2025-03-18/app-file/17423613358528E8A5613-6AED-4F5E-9277-67A0FCD81C7D-314-00000016A3A36F14.jpg,sys-mod-file/2025-03-18/app-file/174236133636820076F9B-0AF5-4BCB-B40B-3C0272D886F7-314-0000001681189E1B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613363561742361164787rn_image_picker_lib_temp_d2a1188d-9973-437b-bdef-c7722abcf67a.jpg,sys-mod-file/2025-03-18/app-file/17423613363531742361176561rn_image_picker_lib_temp_8d43dc95-e975-439d-92f0-fbaaa5b6b17e.jpg,sys-mod-file/2025-03-18/app-file/17423613364701742361332555rn_image_picker_lib_temp_a96d5320-a797-4ef2-ba0a-3eaa85eae74e.jpg,sys-mod-file/2025-03-18/app-file/174236133701717423610338441000003027.png,sys-mod-file/2025-03-18/app-file/17423613370441742361135149rn_image_picker_lib_temp_95d210dd-ba47-4510-b48f-3695244f042e.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361332329D201BA52-CFD4-48E5-ABE6-4FA3D25DF5C6-9177-00000476DF5249DB.jpg,sys-mod-file/2025-03-18/app-file/1742361332386CFE81DC5-591C-41D2-B891-4E7D61581BFD-9177-00000476EDC98D61.jpg,sys-mod-file/2025-03-18/app-file/1742361332445E25078FF-D1CE-4ADC-9E5F-0AF6A4F345A5.png,sys-mod-file/2025-03-18/app-file/1742361332841FE3C746E-771F-4583-821F-0C68BAA5E66F-9177-00000476D51A36F2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361330710D43861FE-D5CA-4EFA-BCF9-BC7AF8545141-626-0000008F1403B1C1.jpg,sys-mod-file/2025-03-18/app-file/17423613307424A36C700-A5F5-432E-AA1C-20F04C59572A-626-0000008F1D035C54.jpg,sys-mod-file/2025-03-18/app-file/1742361331324EE42FBAE-F555-402C-AF64-23880ED79ADA-626-0000008EF3E5CA2C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361322537ACF89776-42BF-4A3C-A161-1C5FA6A21246-12203-00000B7EB2DE9B02.jpg,sys-mod-file/2025-03-18/app-file/17423613224946449A5B1-B701-451E-9FCC-2CBE34B1C970-12203-00000B7EB6E23791.jpg,sys-mod-file/2025-03-18/app-file/1742361322961B04F822E-B230-43B6-B709-368784F68AF2-12203-00000B7E93A21771.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361312011ckcap4462478545682593707.jpg,sys-mod-file/2025-03-18/app-file/1742361312282ckcap4504702874226146553.jpg,sys-mod-file/2025-03-18/app-file/1742361313704ckcap675820899552958486.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361311403D1C1770E-FC6A-4290-9780-C984E43170EE-1923-0000015F31E85695.jpg,sys-mod-file/2025-03-18/app-file/174236131156630738A9C-2C81-48CF-8684-65659216187E-1923-0000015F3F9775BD.jpg,sys-mod-file/2025-03-18/app-file/1742361311780BFD4A33E-6317-4F9E-ABDB-9DCE095AFB34-1923-0000015F192C2056.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236130799399C4B246-8BEE-4556-9870-BA69AF44CE07-7054-000003757520CDC4.jpg,sys-mod-file/2025-03-18/app-file/1742361308213F4019D2A-2214-4C32-9B1B-B81F9CAED688-7054-000003766E38C9FE.jpg,sys-mod-file/2025-03-18/app-file/1742361310710E7D9AABF-B1EF-4316-8097-1EBEF72B32B9-7054-0000037566A1BA58.jpg,sys-mod-file/2025-03-18/app-file/17423613105394C4B8308-8D53-42B5-A55E-B0639C088FA9.png</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613084949C2EB7EF-0A64-4958-9212-16B95F949B0E-1991-00001D65BE4C2C7F.jpg,sys-mod-file/2025-03-18/app-file/17423613085137B17CB9C-A8B6-4A56-B31E-5AC69C24A84A-1991-00001D65C8E07BE6.jpg,sys-mod-file/2025-03-18/app-file/1742361309131D5AA85BD-A9FB-480C-BACD-B0BC92D70ADB-1991-00001D65AB2668D2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236130228905FECCD3-310D-4712-B1E3-026731462E2E-614-000042FF51AF7B55.jpg,sys-mod-file/2025-03-18/app-file/1742361301808ED059541-EFC3-418D-9BE9-A702F505BC22-614-000042FF654528EF.jpg,sys-mod-file/2025-03-18/app-file/1742361301955DC8D353A-C767-4AAD-AE95-E926BF9AD999.jpg,sys-mod-file/2025-03-18/app-file/17423613033787BF0AF9B-F218-44EF-A0BE-EFED0F249F26-614-000042FF43645742.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361300981871E4C6D-BCAF-467D-AFFB-9E08D627366D.jpg,sys-mod-file/2025-03-18/app-file/17423613009247B7691F6-87FA-45EA-BD0C-1795C2B39929.jpg,sys-mod-file/2025-03-18/app-file/1742361301954F021ADA4-0C77-4ED4-B54E-3AB2A54C06FF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423613004674ABA4AAC-3413-4C52-BDD5-02FC21AF3540.jpg,sys-mod-file/2025-03-18/app-file/17423613004533DA6D40C-E6B6-4868-8AFF-8142C7EAA26E.jpg,sys-mod-file/2025-03-18/app-file/1742361300763DAC79836-7DD1-44B8-A575-3CB58F7EAAFA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361298294CA8A4836-94EA-4656-827B-032476CC989A-913-000000311987727F.jpg,sys-mod-file/2025-03-18/app-file/174236129827707C516B0-90FF-4F4B-9EFC-4023DEA14EA1-913-00000031223F94D4.jpg,sys-mod-file/2025-03-18/app-file/17423612984843FD01B38-42DB-4DEF-9512-9FCBDBAD9038-913-000000310F173CB4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361298122ckcap9169055392225794432.jpg,sys-mod-file/2025-03-18/app-file/1742361298125ckcap3883041454901229180.jpg,sys-mod-file/2025-03-18/app-file/1742361298350ckcap1874343081874060940.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361295096712B24AA-ECA7-414C-8B17-3D2785A7693A-626-0000008D3F46CBC3.jpg,sys-mod-file/2025-03-18/app-file/17423612943814F220B61-5E61-47C8-8595-AB85AFA72503-626-0000008D537A86DB.jpg,sys-mod-file/2025-03-18/app-file/1742361296967740FF90C-D364-439C-8851-542D693C5240-626-0000008D2AC53816.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361282976EA140C99-613E-4398-8611-59D9F32A1247-5574-000003D4572B4491.jpg,sys-mod-file/2025-03-18/app-file/1742361269563A1952833-9636-4025-94CD-8090587C26CF-5574-000003D472401F4A.jpg,sys-mod-file/2025-03-18/app-file/17423612965922C0C429A-DDFA-4144-AD7E-97C0B41E0AC0-5574-000003D43D144084.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361290568EE2D7B5A-7D50-41D8-8A26-091B458EA68B-5354-0000042147365D86.jpg,sys-mod-file/2025-03-18/app-file/17423612911229A0E038B-1729-437F-A8E3-7FC5FDD86AC5-5354-000004214BFAF44E.jpg,sys-mod-file/2025-03-18/app-file/1742361292918C6197A0B-9A3E-441C-9901-BAA21F4494E6-5354-0000042139E81815.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361292442ckcap3322358013329692602.jpg,sys-mod-file/2025-03-18/app-file/1742361292171ckcap9220690710259992623.jpg,sys-mod-file/2025-03-18/app-file/1742361292681ckcap7950577828521805750.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361269052C82D4998-8A7E-416A-BED9-864CCD4DA97E.jpg,sys-mod-file/2025-03-18/app-file/174236126453659D92837-8BD8-45F6-A431-59F978EB10C3.jpg,sys-mod-file/2025-03-18/app-file/17423612887355BFE901B-82D5-4C45-87AA-E71FF3FAFCE9-11170-000008F0C7C5A6EF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361287211ckcap2114621308504360182.jpg,sys-mod-file/2025-03-18/app-file/1742361286510ckcap3909365132590545549.jpg,sys-mod-file/2025-03-18/app-file/1742361288521ckcap3929871153931214748.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236128528511B8E8B5-8088-4031-82AA-3354FC1822F6-3320-000005E5A0ABE50E.jpg,sys-mod-file/2025-03-18/app-file/174236128429987A00417-4CF5-4506-87AC-EF36BDBD9650-3320-000005E5ADF009E2.jpg,sys-mod-file/2025-03-18/app-file/1742361287383144DF61A-FC5D-4FD9-963F-553F9BFB7BE8-3320-000005E59C9D7DC9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361205029F1D55DB4-A760-45F9-B9F1-9EB55A3BADF5-2785-000003098F8468AB.jpg,sys-mod-file/2025-03-18/app-file/174236124505290E79C93-9D26-4C66-9337-89F2E4006604-2785-000003099B19AFBB.jpg,sys-mod-file/2025-03-18/app-file/17423612815700CB164A4-B127-49D0-A3CE-A94D68C6E35A-2785-000003097B2DA137.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361275618A089474D-0929-4B1A-9CD6-BD665D064ED2-50444-00001F583356D2B1.jpg,sys-mod-file/2025-03-18/app-file/1742361275889DF9A6F60-1E94-47BE-B5A8-982892424FC5-50444-00001F583659D36A.jpg,sys-mod-file/2025-03-18/app-file/174236127644097608A90-CA21-4EAD-BDFD-6057D53DDB91-50444-00001F58292BF331.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236127412771CF568D-79E6-46D0-9341-C3D0348702EB-432-00000074FBB66DCE.jpg,sys-mod-file/2025-03-18/app-file/1742361274143CFBC3ED3-2972-4B9E-A707-1A4DEBFA7026-432-0000007500D2C024.jpg,sys-mod-file/2025-03-18/app-file/1742361274669D88FD81D-B99F-4593-8C17-FE1DD47E2FA3-432-00000074EDC17B4B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236127148356857396-1E3E-4CBC-896E-66B47210B7F2.jpg,sys-mod-file/2025-03-18/app-file/1742361270762F2EFCB5C-1395-4488-B378-E470B2512F4F.jpg,sys-mod-file/2025-03-18/app-file/174236127220939108116-2232-46E4-B47F-6265B9DCE11C-14489-000003CBEDEDFEEE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361266849D675E005-517F-430A-B09C-5AB95F8FDD85-44426-00002B781F81650C.jpg,sys-mod-file/2025-03-18/app-file/1742361261174323D9DD1-5A44-4863-B3DE-9803CD495CF3-44426-00002B783331ACE7.jpg,sys-mod-file/2025-03-18/app-file/174236127032974152A15-8478-41D3-888B-00FCEAFE58E1-44426-00002B77E79E6C5C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236126679640CB5213-C25B-465B-BD42-E0CCF6210AF2-913-00000030F2103133.jpg,sys-mod-file/2025-03-18/app-file/17423612667780C63B90F-3DD6-4845-8F42-D6211CE54827-913-00000030F9E1FFF6.jpg,sys-mod-file/2025-03-18/app-file/1742361267011B3D400C4-E092-45EF-8F17-E8DA3E0FAE1F-913-00000030DA934162.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423612664449CC69140-375B-4606-BF2F-42396D7B391F.jpg,sys-mod-file/2025-03-18/app-file/1742361266485255BFF19-E946-48AC-B59E-D98C278D762F.jpg,sys-mod-file/2025-03-18/app-file/1742361266802BF5350B1-FCE6-464D-B446-C0BE10D789FA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423612525884C62D464-BB52-42DD-A9D2-5BDD9DB483A8-3320-000005E4FBF1B62A.jpg,sys-mod-file/2025-03-18/app-file/174236125316062F2716B-C49D-4258-9428-402D84B57D2F-3320-000005E50DD86267.jpg,sys-mod-file/2025-03-18/app-file/1742361264359F178FB60-12CB-4BE8-A2CE-3A3D6F2A1AAD-3320-000005E4F774F518.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361255143EAF05270-8126-466E-9A55-FDE99D6CE9DD-4929-00000559247F2EDF.jpg,sys-mod-file/2025-03-18/app-file/17423612567694871A934-F940-46C1-A9BA-181AA0946429-4929-00000559396F8965.jpg,sys-mod-file/2025-03-18/app-file/1742361262260EA9876E2-726A-4842-80C0-4FE4B267E841-4929-000005591EF59FDC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361258985F0111087-04CE-4B93-AE1B-A87CC4A19A71-89746-00002E6F1BC790CD.jpg,sys-mod-file/2025-03-18/app-file/17423612590529CCFC760-59AF-4176-9DBC-507E9CD24BD9-89746-00002E6F2D4F5BB8.jpg,sys-mod-file/2025-03-18/app-file/17423612593746FDD2866-C97E-476C-8F47-3E1AC984DE19-89746-00002E6F17917FE1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361256825F87BCDC2-C505-4806-B55E-F36C889577B8-65998-0000100E6C0C4545.jpg,sys-mod-file/2025-03-18/app-file/1742361257383AD803FDF-CC98-475A-AB93-B7DD36E51AF0-65998-0000100E72D0BAFF.jpg,sys-mod-file/2025-03-18/app-file/174236125801723C184EF-223D-46DA-86E0-F71826CBFAFD-65998-0000100E5EFF2A12.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361255267B7F09BCD-5EA8-4896-8EAD-EF785A1D7AB2-7222-00000175492AE612.jpg,sys-mod-file/2025-03-18/app-file/174236125483074239DDF-65A9-484D-AD4F-023923FB69CC-7222-00000175ED75F47E.jpg,sys-mod-file/2025-03-18/app-file/1742361256185A9C0F7A1-963E-4321-AEE6-74F368120923-7222-00000174A25BA9CA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361254197ckcap4159913141689744743.jpg,sys-mod-file/2025-03-18/app-file/1742361254501ckcap674594764489041862.jpg,sys-mod-file/2025-03-18/app-file/17423612543631742361246097rn_image_picker_lib_temp_a9f251e9-2b08-4b56-839f-6eb94f43d2c3.jpg,sys-mod-file/2025-03-18/app-file/1742361254884ckcap5094575622342613119.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361251761BB4760F9-4894-4A22-9771-E614AB1258D1-18055-000008E459F0BC95.jpg,sys-mod-file/2025-03-18/app-file/17423612515166D080CEA-2546-4221-8A5C-95806F06495E-18055-000008E45E9E970D.jpg,sys-mod-file/2025-03-18/app-file/1742361252657CD495001-B6C6-4991-93B6-D6CCC5A392CE-18055-000008E3DEE90BE2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236124827820CA1988-2B68-4784-8ABC-5955B592C14C-314-000000161D2CAB68.jpg,sys-mod-file/2025-03-18/app-file/17423612487007FFF470A-C131-49DD-B948-7F87512E5623-314-0000001628D5CBB8.jpg,sys-mod-file/2025-03-18/app-file/17423612520318DD0F406-4F8F-49AF-8CD4-D20EA725024A-314-00000016062CA2C5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236124794420DD4B97-2BFD-47DE-9121-DC4F9BB4F1F2-5872-00000361D7E3A447.jpg,sys-mod-file/2025-03-18/app-file/174236124938527EFB91D-46E0-42EA-A3CD-68A25DE796FE-5872-00000361FE48839D.jpg,sys-mod-file/2025-03-18/app-file/1742361250011C28EBD5F-D365-49F0-9426-8CAA71F64DFA-5872-000003619EF86660.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423612476706E15268A-B29F-4EB2-B78E-22CD7A366921-2596-000001A4DB166F16.jpg,sys-mod-file/2025-03-18/app-file/17423612474667BDD3DEF-4C03-43D0-8995-31AE2980D385-2596-000001A4E2EBCFA9.jpg,sys-mod-file/2025-03-18/app-file/174236124755945092169-FC2D-4D64-883F-545314B762CF-2596-000001A4E78876C2.jpg,sys-mod-file/2025-03-18/app-file/1742361248898372AE11C-5B0F-4A20-AC31-2CB1D1ABEC2C-2596-000001A4870DC92C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236124004766569335-AA29-4CC2-B6C0-C9B11FE03EE7-4114-00000168B0003074.jpg,sys-mod-file/2025-03-18/app-file/1742361242080FB9E33DE-64DC-47BB-BBB3-73C258E7932D-4114-00000168B6CB6EFD.jpg,sys-mod-file/2025-03-18/app-file/1742361242501103442EB-6881-4973-A448-B9C88A330323-4114-00000168A894530C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361230904FDE9829E-B62D-45AA-8BC6-A679E72D7400-913-00000030BEA6F921.jpg,sys-mod-file/2025-03-18/app-file/1742361230872721522B3-0D4C-4165-BC47-A41629DAA5DB-913-00000030C6BFF268.jpg,sys-mod-file/2025-03-18/app-file/174236123126402B86CA9-DAD3-4F58-9F77-397471BECD5F-913-00000030B39BCB6A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423612308782FF3FC6C-F68A-4801-ABB6-137CE647A562-6544-000003158245536D.jpg,sys-mod-file/2025-03-18/app-file/17423612307169B25CE37-4E53-4491-907B-576A27A5AB3F-6544-000003159E6230D1.jpg,sys-mod-file/2025-03-18/app-file/17423612306928E162A3A-61D6-4060-AB49-84C125AF7334-6544-00000315A5919FD2.jpg,sys-mod-file/2025-03-18/app-file/174236123145666A9C988-743D-412A-9C5E-C9ACDC6D7D1E-6544-0000031567F318C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236122612006F2E3D2-EB97-4C7A-BF31-87F37ABAF79A-7555-00000FD1F7FA13DE.jpg,sys-mod-file/2025-03-18/app-file/174236122669808177CB4-2F2C-4EF0-90B8-B8470802BBF5-7555-00000FD1FC50CBC6.jpg,sys-mod-file/2025-03-18/app-file/17423612276717353F112-17A3-47D8-8370-519A3D79196C-7555-00000FD1D590730C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361227744ckcap5740007500329279932.jpg,sys-mod-file/2025-03-18/app-file/1742361227739ckcap7660408957366216076.jpg,sys-mod-file/2025-03-18/app-file/1742361228342ckcap3110749472689554971.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361218299ckcap4594274278456748901.jpg,sys-mod-file/2025-03-18/app-file/1742361218590ckcap3420544261514045361.jpg,sys-mod-file/2025-03-18/app-file/1742361218923ckcap3565329813014482181.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423612129441742361186875rn_image_picker_lib_temp_28e4cc6e-9de9-4b8c-9dc3-b70a6420b32f.jpg,sys-mod-file/2025-03-18/app-file/17423612143921742361209611rn_image_picker_lib_temp_cb87ba9f-a3ad-4937-8b1f-337b78545f8f.jpg,sys-mod-file/2025-03-18/app-file/1742361218050ckcap7060874414497024246.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236121524025FD58D9-8219-4EC8-B582-8E9EB6C7C24F-7230-0000036C975E84AD.jpg,sys-mod-file/2025-03-18/app-file/1742361215330E0CF2C8E-D01A-4EDF-8E01-053F17BBAB38-7230-0000036CA0071D91.jpg,sys-mod-file/2025-03-18/app-file/1742361216073E0B7C63D-51FA-4F0E-981C-63A23EC22EE7-7230-0000036C84D87373.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361210895CDB8E1D6-6625-4A93-B99A-B5226AE22A69-1536-000000D1F59F87FE.jpg,sys-mod-file/2025-03-18/app-file/1742361211361274A183D-D1EC-46AF-ABD7-11B90073FE83-1536-000000D1FE358355.jpg,sys-mod-file/2025-03-18/app-file/17423612148102972B247-21AB-436B-BD8A-6DBBE3A9BB3C-1536-000000D1EBFCF201.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361212313E6804F76-6880-47CC-AEB2-BA03156234A1-18703-00000A14A48DA91B.jpg,sys-mod-file/2025-03-18/app-file/17423612126740B3446A8-87A0-4C00-A0DA-4E15F409FE62-18703-00000A14A805DE6F.jpg,sys-mod-file/2025-03-18/app-file/1742361212962D122CAAF-C646-492D-BEA9-3384B9054D7C.png,sys-mod-file/2025-03-18/app-file/174236121335710F39268-C52D-4725-AA00-85D71CBB984C-18703-00000A142D09B151.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361210979282A069A-77C9-499F-875B-5639BAA2BC42-3762-00000265FF290E27.jpg,sys-mod-file/2025-03-18/app-file/1742361210279FF0F44B1-65C9-4157-AF61-265073A2ACDF-3762-000002660A388D0E.jpg,sys-mod-file/2025-03-18/app-file/17423612120602B978BF6-FE8B-471D-9775-00BB91BC4945-3762-00000265EB67B04B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611998030BA7F5BC-8909-4629-BF55-4FC94A52AC53-32675-000010F295E9E6A5.jpg,sys-mod-file/2025-03-18/app-file/174236120013675688C5C-3117-43F3-BB68-1144DC91931C-32675-000010F29E2F57F7.jpg,sys-mod-file/2025-03-18/app-file/17423612012332CDAA42D-3B17-4412-B0F9-084D1522AD41-32675-000010F1D0C24C51.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611980531998F6DA-4372-46BB-9CD8-8111B273A07C-913-000000308C148BC6.jpg,sys-mod-file/2025-03-18/app-file/17423611979128EA087DB-F740-4379-B497-3F08723FDDDC-913-0000003093D4626A.jpg,sys-mod-file/2025-03-18/app-file/17423611982413C7C40C0-EB25-4C95-A4E9-59647DBB1287-913-000000307FE987AC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611913699A43EF6D-14FB-4A4A-81B7-666D98AC0D57-5434-000004328C5845B7.jpg,sys-mod-file/2025-03-18/app-file/1742361191722D283A9F1-A164-468F-9F8C-E733BD9A71DC-5434-00000432ACBD9BDC.jpg,sys-mod-file/2025-03-18/app-file/1742361192593E0D7CC31-E953-4FF6-BE20-881FD3A57F3F-5434-000004327AB07C93.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236118856996FB4EBF-BB82-4647-B813-65454F5D39ED-5434-00000430DDA37B61.jpg,sys-mod-file/2025-03-18/app-file/174236118972700F9D6B6-3815-4B29-A31F-BF53C49AAAA4-5434-00000431085739D2.jpg,sys-mod-file/2025-03-18/app-file/1742361190330B5D381C7-1E58-4FA9-B268-86D937E4AAD3-5434-0000042FC1838457.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236118932307B8A9AF-30CF-4111-A5DB-FDB88D0A5D4E-12203-00000B7DDF37BDC7.jpg,sys-mod-file/2025-03-18/app-file/1742361189491A142824E-FF65-411E-92CB-FD4BD0C8B550-12203-00000B7DF799938A.jpg,sys-mod-file/2025-03-18/app-file/1742361189991235D7CFC-534B-4A4F-A710-0E9985BAFC64-12203-00000B7DCA17150C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236118939737BDF7C7-A5E1-4C1A-8EA0-FB31FE8EC01A-27965-000004828CB98855.jpg,sys-mod-file/2025-03-18/app-file/1742361189307635B7E0B-8656-47A4-BF7D-0AA3AAFF4A34-27965-0000048301A23B71.jpg,sys-mod-file/2025-03-18/app-file/17423611898982FF28A32-A7DE-465F-B85E-5A92A8AC8902-27965-0000048153900B5F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361187955A7AF325F-FF45-41D0-B374-CCF739C0DAD0-24500-0000154712A7486E.jpg,sys-mod-file/2025-03-18/app-file/1742361188927B1E62587-2085-42A4-8E78-AD596E241DBB-24500-000015474C5A007C.jpg,sys-mod-file/2025-03-18/app-file/17423611885426DF6C645-DC86-4731-8BFA-C7F5A936C5BF-24500-000015475B701D17.jpg,sys-mod-file/2025-03-18/app-file/17423611893591F684C19-A768-4487-87A2-DA335568D303-24500-000015468704AC4E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361184110141B54BB-CE8A-46C1-A2D7-95FE26AB65F3-4312-000002BB63AE0334.jpg,sys-mod-file/2025-03-18/app-file/174236118356882908AF8-F7D5-4D38-AE43-BD4979DA4089-4312-000002BB6E0B9432.jpg,sys-mod-file/2025-03-18/app-file/1742361185378AA1B56D1-CD11-4AD2-86F3-932B2D919ECB-4312-000002BB4C4D8B85.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361181347ckcap7791032394644695699.jpg,sys-mod-file/2025-03-18/app-file/1742361181089ckcap4301820172404698164.jpg,sys-mod-file/2025-03-18/app-file/1742361182434ckcap8392924299022198315.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361174390433CFA28-A0A2-45DB-9EF6-ECCD1D680EAE-69301-00000C00C6A74CF3.jpg,sys-mod-file/2025-03-18/app-file/17423611745881B91817F-1515-4714-9636-800DD840B53F-69301-00000C00DB1D8E79.jpg,sys-mod-file/2025-03-18/app-file/1742361174872CEA3A8A7-6CAB-4409-BEE0-840BC14DE18B-69301-00000C00AF692DCD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236117259890988109-6227-405A-828D-A024DB3729EE-19098-000036FD38A89DCE.jpg,sys-mod-file/2025-03-18/app-file/1742361171561BF3D3925-8BDD-407C-B7BA-E6F238296B54-19098-000036FD3F806B3B.jpg,sys-mod-file/2025-03-18/app-file/1742361174267544F44FD-9564-49FB-848E-D914EFD390DB-19098-000036FCFE47A9BF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611734015BEF013C-5700-43E6-BB33-EE82519722AE-10309-000002C4C4E14643.jpg,sys-mod-file/2025-03-18/app-file/17423611735961385A465-91C9-42C3-A5C4-1B0FCDA9F9F2-10309-000002C4E3A2E790.jpg,sys-mod-file/2025-03-18/app-file/174236117383295476092-6465-4CCA-98B8-436FC664EC7C-10309-000002C461BF6503.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236116456376D1597E-00C9-460D-82F0-7E565F4882F1-913-0000003056E6CEAA.jpg,sys-mod-file/2025-03-18/app-file/17423611647274BDBC0C9-5F27-4A79-AAED-0F743EA1143A-913-0000003063D44B7F.jpg,sys-mod-file/2025-03-18/app-file/1742361166600B059DD3D-80C9-481B-9B4B-055E583A8B20-913-000000304617CF61.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361159870ckcap4885409775312031152.jpg,sys-mod-file/2025-03-18/app-file/1742361160018ckcap492195456724213726.jpg,sys-mod-file/2025-03-18/app-file/1742361160629ckcap1161615967529496861.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236115019056AAA514-3432-4A2B-9427-411D77D100F9-1923-0000015E4CF991C7.jpg,sys-mod-file/2025-03-18/app-file/174236115016285EFFE41-17D3-4FB9-BD59-FCAAFC776E0B-1923-0000015E58366A97.jpg,sys-mod-file/2025-03-18/app-file/174236115054768DB4BF5-ED66-45FF-B755-116C0C93E600-1923-0000015E263E858E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361148497E5F75EE9-B618-4759-A632-8DE767A62FEE-3480-0000045B1442CD51.jpg,sys-mod-file/2025-03-18/app-file/1742361148364908D099D-4277-4CEF-B060-0036AD59A966.jpg,sys-mod-file/2025-03-18/app-file/17423611479158C60D938-FFBC-43BF-9F1C-8DD72ED6FF4E.jpg,sys-mod-file/2025-03-18/app-file/174236115017960AAE796-3736-4BA5-B4A4-657C044C1893.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611427420D23EB80-E0E0-46FC-ADA1-CE2871BC8764-1386-000000E093C9500D.jpg,sys-mod-file/2025-03-18/app-file/17423611430836D403759-7515-4711-A2FE-289295B626FA-1386-000000E0B8417621.jpg,sys-mod-file/2025-03-18/app-file/174236114419126C6860C-288F-4989-B359-6770DA5AD7EC-1386-000000E0862D449B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361129110B5A3E515-B43A-4A20-A60F-135A71EE9188-65998-0000100DB44FA636.jpg,sys-mod-file/2025-03-18/app-file/1742361129107880566C3-2758-4333-9D2E-E693B77C9A43-65998-0000100DBA1B00B2.jpg,sys-mod-file/2025-03-18/app-file/1742361130918B57A44DE-3CAC-4A38-9BB1-3E0AC3AA50C6-65998-0000100DB0430AC2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361120680dm_6DF71BB7-36A8-4573-AC53-30F825F997A4-7555-00000FD15C153205.jpg,sys-mod-file/2025-03-18/app-file/1742361121084CE38ACE4-AC9C-41AA-A9C3-338B58FAFD04-7555-00000FD161350F89.jpg,sys-mod-file/2025-03-18/app-file/17423611224634FC7C2DF-058E-415D-83BF-A747731D2CF5-7555-00000FD12C4C6F87.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611011261BCCFABE-CBF3-45C1-A378-2FB75B2054D5-20738-00000BC9B0EC82C5.jpg,sys-mod-file/2025-03-18/app-file/1742361099077A91A1B5C-B4B9-4E3E-AEA8-CCA405064042-20738-00000BC9BBFA40AC.jpg,sys-mod-file/2025-03-18/app-file/174236112197212A0AD78-9E03-434C-86E6-C5BC7C2B02E2-20738-00000BC9AC91C166.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611140910259FC73-75DA-40C5-ABCD-4E425A2FF8DB-6843-0000054158D87815.jpg,sys-mod-file/2025-03-18/app-file/17423611173256A2D022F-F228-4DA5-8965-3E72B3E80A5A-6843-000005421296CEAB.jpg,sys-mod-file/2025-03-18/app-file/1742361121693D85639EB-8469-42B3-B039-3582BF4FE58C-6843-0000054120C1DF5F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236111594067CDAC18-9DA0-4CCD-88C1-7B58D99A285D-1538-000000EE29ED690A.jpg,sys-mod-file/2025-03-18/app-file/1742361115523AA19FF55-FFCA-42F6-9ECF-2829E62EB1B3-1538-000000EE41EB9023.jpg,sys-mod-file/2025-03-18/app-file/174236112003519B19955-913E-4567-AF32-C9F5E7C205E4-1538-000000EE1429A00B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361116791A05EB342-C194-4DD5-B0EE-4200955E0E04-1033-000000CDB7B79FF8.jpg,sys-mod-file/2025-03-18/app-file/17423611175603B4B26AB-0761-4DF3-9B17-90B13E45D9D5-1033-000000CDBCB6B203.jpg,sys-mod-file/2025-03-18/app-file/1742361118816337E27DE-8258-4EDF-B975-BD1BD202D83E-1033-000000CDA78B176A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361116622451E3FA6-04FB-486A-B9DC-15AF496462C3-1991-00001D64800E7B17.jpg,sys-mod-file/2025-03-18/app-file/174236111589538EDBF7B-2FF7-4FBA-9EB7-0C1BB1FB537A.jpg,sys-mod-file/2025-03-18/app-file/1742361117592550432A4-7BB0-4931-9CFB-C6AED5BEB211-1991-00001D645C78E1AE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611156818C528157-B82A-48E2-9B66-7E2DCE70F383-44426-00002B774EA5EF61.jpg,sys-mod-file/2025-03-18/app-file/1742361116147B10CFA5E-B980-4335-8F12-2A6D256A8DE1-44426-00002B776557D182.jpg,sys-mod-file/2025-03-18/app-file/17423611170306C76FCAD-A928-4972-91DB-9156282B8305-44426-00002B772522EE89.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236110609331832644-1950-4BD8-A154-06F3B11863F0-27096-00001A2ED2100805.jpg,sys-mod-file/2025-03-18/app-file/174236110437332B568C5-DDEA-46DE-B1C6-3223F6E81EE7-27096-00001A2EDDB169E6.jpg,sys-mod-file/2025-03-18/app-file/174236110855913B867D2-C201-4013-B111-95F4A0994363-27096-00001A2EAAEE7B0E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361106006AC398400-6A5B-48FF-9CCA-EF7A13FADCB7-2596-000001A4159810AB.jpg,sys-mod-file/2025-03-18/app-file/17423611059300794E0CF-431D-442F-A24A-E10E8E7FC479-2596-000001A41BE106A2.jpg,sys-mod-file/2025-03-18/app-file/174236110707218D10F7A-8A57-40A7-84C2-2BBF7FC7E69A-2596-000001A3FA158B30.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423611005881E02D253-7386-424C-835F-92BD1EE61A0F-62059-000022A96E327C3F.jpg,sys-mod-file/2025-03-18/app-file/1742361100832D5014E11-5504-4BDA-A91D-1CAFA5934F00-62059-000022A97D68363C.jpg,sys-mod-file/2025-03-18/app-file/1742361101305ADBFE9C6-9B72-4637-8A40-012AAFD2934D-62059-000022A94D246112.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361098669ckcap4912749960264219690.jpg,sys-mod-file/2025-03-18/app-file/1742361098678ckcap2625144941238895640.jpg,sys-mod-file/2025-03-18/app-file/1742361099225ckcap8898485550943102091.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236109006704BB2D61-C419-43E6-AFC5-F385C0C92054.png,sys-mod-file/2025-03-18/app-file/174236109026484C6347E-1EDD-46CA-B63D-ED6A1054D42B-8723-000001738F65EE65.jpg,sys-mod-file/2025-03-18/app-file/17423610908228C601CC5-3702-4042-A1E4-9CF0EED7BFC3-8723-00000172FFC49EA1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361088796D5D687DC-0601-4F02-A2BE-8DED90FD0739.jpg,sys-mod-file/2025-03-18/app-file/1742361089113DC72D24B-A878-41E4-B3DE-60BBCC1592BF.jpg,sys-mod-file/2025-03-18/app-file/17423610896242B78FFD2-94BD-4379-9382-D28D4E328F75.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236108692301EEE996-B08C-40B9-BB96-F018C918B9B2-4929-000005585737F3FF.jpg,sys-mod-file/2025-03-18/app-file/1742361086710D61CE791-DCE6-44F2-8444-8492F6E2F8F2-4929-000005585DA84F72.jpg,sys-mod-file/2025-03-18/app-file/1742361087618AB849456-1577-4A0F-AF40-EEA4FAD4855B-4929-000005583C67BB07.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361081891EAD86F2F-32DE-4742-BC3A-4257D4B97242-2785-00000308E8B3FB05.jpg,sys-mod-file/2025-03-18/app-file/1742361083117D3AE6CD3-8117-4741-83FB-AFF195111721-2785-00000308EF48EB5E.jpg,sys-mod-file/2025-03-18/app-file/17423610861678FC1F58F-D332-4BBB-90BA-F68D691D5A64-2785-00000308D3E523CE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361077463B6AD8D37-0491-491B-97A5-1DF12FF8DB77-5354-000004200DCABFBB.jpg,sys-mod-file/2025-03-18/app-file/174236107610899C73EF2-E356-4D6A-BE81-CCFB2AEB2C62-5354-0000042016925D9D.jpg,sys-mod-file/2025-03-18/app-file/1742361079507FD7D2009-63DA-48A6-B290-AAD6A7955D0F-5354-0000041FFB71A446.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361079648DE0801C6-F181-4ABD-8D81-D89E161E4B36-7230-0000036BD91E9EF1.jpg,sys-mod-file/2025-03-18/app-file/174236107959263E4A7D9-3DAA-467F-A466-E066F3133173-7230-0000036BE17C238F.jpg,sys-mod-file/2025-03-18/app-file/17423610798582D6F59FC-CA74-4250-B51C-534A222DA9FE-7230-0000036BC6B7C522.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236107730052976B6A-F6F4-4B76-A758-3BE3017732EE-3762-00000265421BAF23.jpg,sys-mod-file/2025-03-18/app-file/1742361076833941A011A-611B-4EDF-8B98-540D5E10ADB0-3762-000002654F18792C.jpg,sys-mod-file/2025-03-18/app-file/1742361078690D7B7D320-D445-4C95-983F-DE3A88D8772C-3762-00000265276CC81D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423610759600CD59988-07F0-4A6E-84C3-80D09422AA0F.jpg,sys-mod-file/2025-03-18/app-file/1742361075817D2F1DB8E-E102-497C-B2D3-DC96740E81DA.jpg,sys-mod-file/2025-03-18/app-file/1742361076203611B021C-6A52-468B-AD5A-5216AD56CB73.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236106936122796652-CFFA-4D9C-A51F-C7E3E3FFE3FF-4312-000002BAB75E6564.jpg,sys-mod-file/2025-03-18/app-file/1742361069293953D6393-A704-478B-B67A-F8585AA93A0C-4312-000002BAC6678FD6.jpg,sys-mod-file/2025-03-18/app-file/17423610710201DA2D2F1-F4EE-4697-AC5F-D00370B93BE5-4312-000002BA9F6E1C2B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236106239326817B08-16BC-4B24-A093-1847F1FBA9D4-4579-00000491509D1562.jpg,sys-mod-file/2025-03-18/app-file/1742361061071510993E2-D8AF-4411-B7C4-C363309F373B-4579-00000492020BD40A.jpg,sys-mod-file/2025-03-18/app-file/17423610631227E317E61-5070-41B0-9A12-2A8A2CAF40EE-4579-00000490DABA9552.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361060113ckcap4056860069951302096.jpg,sys-mod-file/2025-03-18/app-file/1742361060315ckcap7512942247970212366.jpg,sys-mod-file/2025-03-18/app-file/1742361059481ckcap667864716750971379.jpg,sys-mod-file/2025-03-18/app-file/1742361061084ckcap7261024786956084639.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361059971F76196C6-4E50-4116-889F-56ECD2653D1F-50453-00000343AD667FCD.jpg,sys-mod-file/2025-03-18/app-file/17423610601549818EAC1-5974-4612-A083-0314FFDD70A0-50453-00000343B2CBE85A.jpg,sys-mod-file/2025-03-18/app-file/1742361060822B35E58F0-E7BE-4DAA-BCF0-D59E30B9A312-50453-000003438B85EC31.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423610586141FD17D8D-D611-414E-B4BB-A72B35566789-2496-000002D97B781FEB.jpg,sys-mod-file/2025-03-18/app-file/1742361058612B8839B7C-5978-439B-B7C6-4CCAD5FE8534-2496-000002D9826136EF.jpg,sys-mod-file/2025-03-18/app-file/1742361059757C7B18044-DD0E-4D1C-ACA1-1662203122EA-2496-000002D966A75280.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423610589493F3C2407-F9B7-4051-9B10-7D4D30FDBD9A-9817-000005DB110399D7.jpg,sys-mod-file/2025-03-18/app-file/17423610591554F94EB71-1BB7-4DCB-A04A-80E582F410F0-9817-000005DB3436D4BF.jpg,sys-mod-file/2025-03-18/app-file/174236105987937B983B9-C83C-4049-A001-83A4F65525F9-9817-000005DB01857098.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236104945236C3BA9F-FB95-41D8-A677-B405E35F5476-3320-000005E44ECAEEAD.jpg,sys-mod-file/2025-03-18/app-file/174236104872268C9BF46-4C53-4BBD-A999-30FF66E608D6-3320-000005E4612F969B.jpg,sys-mod-file/2025-03-18/app-file/1742361056927AEB10D0C-5BD1-422B-B13C-35B0309912BA-3320-000005E44A169DD0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361052947CA5AAFC7-B267-4C20-A2D0-6EF7F6433A3F-1015-00000077D6A47A58.jpg,sys-mod-file/2025-03-18/app-file/1742361052866382758AA-9873-4CCA-8630-20E4B8B894C5-1015-00000077DFED716B.jpg,sys-mod-file/2025-03-18/app-file/1742361053452C8CF8DFC-A01D-4DED-89DE-0C041FC7B417-1015-00000077C7E5BF97.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361051943C06BD82A-F8EE-452B-8047-671609CE0BB2-2359-000006A06B24C792.jpg,sys-mod-file/2025-03-18/app-file/17423610525916F46980E-818F-46F4-AC24-543CEC49790E-2359-000006A0846A9F03.jpg,sys-mod-file/2025-03-18/app-file/17423610535430A8A39A4-C8E9-452A-BBD8-0DDC9ADF6B5A-2359-000006A019A1A6B9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361036860ckcap5624827427997579526.jpg,sys-mod-file/2025-03-18/app-file/1742361036887ckcap2868514629369863849.jpg,sys-mod-file/2025-03-18/app-file/17423610367731742361034798rn_image_picker_lib_temp_8b113998-4448-4156-ac6a-b1d7f57c659d.jpg,sys-mod-file/2025-03-18/app-file/1742361037232ckcap7957796486653577714.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423610369646C8F8818-FC55-4FC9-9E38-2F474C55A14A-1923-0000015DB0CE376A.jpg,sys-mod-file/2025-03-18/app-file/1742361036972110D7ABA-7D84-4E75-AAA6-0BED55FFB915-1923-0000015DB52495E0.jpg,sys-mod-file/2025-03-18/app-file/1742361037190247D0650-A5DB-4CFC-AE96-0F2F841BA20D-1923-0000015D984EF92E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361035632ckcap2872849479040244246.jpg,sys-mod-file/2025-03-18/app-file/1742361035629ckcap739755587224739842.jpg,sys-mod-file/2025-03-18/app-file/1742361035814ckcap6814066291897237916.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236103318438C48D99-1671-4EB2-A42C-291F3427420A-2045-00000140FBC7AC9E.jpg,sys-mod-file/2025-03-18/app-file/1742361033186CB6B4C14-CCFC-405B-8B37-EFBF2A9B824D-2045-0000014108FA8032.jpg,sys-mod-file/2025-03-18/app-file/174236103386309EBF239-5AD0-4A9E-A518-B633AFC36C52-2045-00000140BBBCD2FA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423610291170EAD3A44-F719-47D6-A411-55BB5074EBFA-11673-0000029EBC1F6A49.jpg,sys-mod-file/2025-03-18/app-file/1742361030377ACD9DB84-9DA0-4AD8-88B9-DDC42659522A-11673-0000029ED60A9C34.jpg,sys-mod-file/2025-03-18/app-file/17423610313828D7EFEB4-8A3F-490D-942E-06B6669CEFC6-11673-0000029E9E4E7790.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361029001AEEE59CC-6729-4B04-848D-27DFC4568FD3-614-000042FE049C27F5.jpg,sys-mod-file/2025-03-18/app-file/1742361029340B2D32231-5C5F-40EC-BD22-19C325728C4B-614-000042FE14882D32.jpg,sys-mod-file/2025-03-18/app-file/1742361030167840FAF1F-65BF-4342-BE29-3362F646B1CF-614-000042FDFAAE1AFE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361025709CF618887-3052-4E62-B03C-94EE51A5C5AA-2596-000001A3A11E2A8C.jpg,sys-mod-file/2025-03-18/app-file/174236102591646A5B164-2C69-4315-AB25-E9B507DA8979-2596-000001A3A93397A4.jpg,sys-mod-file/2025-03-18/app-file/1742361026892A0489B76-C08E-4457-B87A-A09A7F59DA04-2596-000001A39453B7D4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361023727FECF1AB3-1737-4B18-8DBF-BA3E8A19675A-24500-0000154651AC8F42.jpg,sys-mod-file/2025-03-18/app-file/1742361023616EBDCB68D-9090-4FE6-8F74-F4D7FC75D3B5-24500-0000154669ECF324.jpg,sys-mod-file/2025-03-18/app-file/1742361024520DF99A5D7-CB2B-4E03-8425-4A4F941E6306-24500-00001545DD58CF73.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361020869413CE1FA-1D3F-454F-984B-58658ED55207-1536-000000D0FD79BCD2.jpg,sys-mod-file/2025-03-18/app-file/174236102100222DD97EE-F93D-48D3-86C5-F3A2C3EBCBCA-1536-000000D1038FB351.jpg,sys-mod-file/2025-03-18/app-file/1742361021438FD7CC153-DC9A-471B-9686-CE5262BC3CAF-1536-000000D0F4785DEC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742361018427ckcap7898772017161533717.jpg,sys-mod-file/2025-03-18/app-file/1742361018433ckcap4071504425824082803.jpg,sys-mod-file/2025-03-18/app-file/1742361018824ckcap7128373121534187492.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423610002892C26DAFC-07E4-4DC5-A985-2AA7320C86FE-5574-000003D662023C21.jpg,sys-mod-file/2025-03-18/app-file/174236099313811D918CC-EBFC-4430-9B20-D524A2843A20-5574-000003D67C13956A.jpg,sys-mod-file/2025-03-18/app-file/1742361018052C1D69F97-4307-4D8B-BBD8-973B45D07BB0-5574-000003D6458D526B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236101435532C12638-53F5-4AA7-8FDA-9AC5FADAF535.jpg,sys-mod-file/2025-03-18/app-file/1742361016254B5CB6B21-1608-4177-82C5-FE63154A4F54.jpg,sys-mod-file/2025-03-18/app-file/1742361015664dm_3843047C-7173-4889-8B45-E479B8B539AD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236100898411EE5983-7044-4C87-9C05-BB03B7CC5533-9817-000005D9DEEE204A.jpg,sys-mod-file/2025-03-18/app-file/17423610087118815D342-A586-42FC-A8CA-065FE6A970ED-9817-000005D9F85CC627.jpg,sys-mod-file/2025-03-18/app-file/1742361010059DFCF735C-8F52-478D-925E-6D97D0791062-9817-000005D9BF33E295.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360995865C035BFC0-E8B7-4694-B119-AF44EA91A874-19174-00000221C3024A5D.jpg,sys-mod-file/2025-03-18/app-file/1742360997400C2BBBE7A-9E13-45A4-A029-84A7D033BDB6-19174-00000221CA7AB0B9.jpg,sys-mod-file/2025-03-18/app-file/17423609999557F65F643-0C9D-40A7-B621-394F3A1284E9-19174-00000221B392C494.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360999393ckcap3202424626503072818.jpg,sys-mod-file/2025-03-18/app-file/1742360999598ckcap7711964556817851129.jpg,sys-mod-file/2025-03-18/app-file/1742360999941ckcap180986757851504362.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360997568ckcap3894923056031668204.jpg,sys-mod-file/2025-03-18/app-file/1742360997704ckcap8659144811657153201.jpg,sys-mod-file/2025-03-18/app-file/1742360998538ckcap1659271803145625632.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360995229BA7CE5CE-73D8-4965-A99F-E55A6E62EAE7-2648-000003B192DE8CA1.jpg,sys-mod-file/2025-03-18/app-file/17423609952313075D4A2-C57B-4BAB-AFDE-E6F9BF6A49F1-2648-000003B1B028B3DF.jpg,sys-mod-file/2025-03-18/app-file/1742360995680711AF8A7-4EEE-44A6-9893-F291AB60F1F4-2648-000003B13FBCCEC2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360978770FB4F989D-5FE8-48F9-BDDC-7A1436A0B4F4.jpg,sys-mod-file/2025-03-18/app-file/1742360981790C400A9CD-B9CD-48D0-92D2-B70BA4731031.jpg,sys-mod-file/2025-03-18/app-file/17423609794610C7D1660-EB0F-4246-BFC4-1259B232EE50.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360981726D1C096EE-3E22-45F5-A077-B0EF13E20396-18055-000008E2D5F37716.jpg,sys-mod-file/2025-03-18/app-file/1742360981649EEEAC045-DF3B-4E65-8940-3C97C83DFEB4-18055-000008E2DC5901C8.jpg,sys-mod-file/2025-03-18/app-file/17423609821734F11A909-B8C3-4AD6-8C42-A68B931898EA-18055-000008E2A4F7AD52.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609779131CAAC077-194D-46E5-9559-0A4285AB7E2B-4452-000003733C47F2F5.jpg,sys-mod-file/2025-03-18/app-file/1742360976588CC98D5DB-8043-4D9C-8B10-AAE2F4EB68E3-4452-0000037349A5D188.jpg,sys-mod-file/2025-03-18/app-file/17423609796425F44F437-160F-4A0D-B717-D8EBE645CE5D-4452-0000037332DDB997.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609740434EA55A09-0CD7-4E60-8762-F56D851F559C-2496-000002D8FE331C79.jpg,sys-mod-file/2025-03-18/app-file/174236097409657054EE4-CE98-4E72-B280-7322ABF73B38-2496-000002D90913A0F3.jpg,sys-mod-file/2025-03-18/app-file/174236097539412190E70-AC96-4738-94FD-0824A9E3ECAF-2496-000002D8DD75489B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360973089924036A6-0AD3-4B0A-8A19-76FC59216F71-6544-000003141623E1F1.jpg,sys-mod-file/2025-03-18/app-file/1742360972925C0E58ECB-75CE-41DB-8891-1EA90083A0CD-6544-0000031434ED58B0.jpg,sys-mod-file/2025-03-18/app-file/17423609734175637B49E-3177-46D3-814B-85FDE64EEF31-6544-000003140E1D82D5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609726386029D343-952C-495E-BC46-134C2921998F-7230-0000036B42F1CA67.jpg,sys-mod-file/2025-03-18/app-file/174236097299657776E31-36DE-4205-99BB-B8824766DAEC-7230-0000036B478D96AF.jpg,sys-mod-file/2025-03-18/app-file/17423609732522C956A2C-511C-4E44-AB89-B6EE6AABC2F4-7230-0000036B3342C351.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360967605ckcap1966014604141304537.jpg,sys-mod-file/2025-03-18/app-file/1742360966786ckcap1309380148544179011.jpg,sys-mod-file/2025-03-18/app-file/1742360970404ckcap4705312626744532537.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360962141CCC2E81C-9DE7-45E5-8ED9-449496759C9B-835-000000686ED0DE2C.jpg,sys-mod-file/2025-03-18/app-file/174236096209164E53194-4623-40F2-A03A-D96B1A6E74C6-835-0000006896B36CCB.jpg,sys-mod-file/2025-03-18/app-file/1742360962236B3699FBD-674C-4CA0-87F0-A99DE1ECFC73-835-00000068AC89CE86.jpg,sys-mod-file/2025-03-18/app-file/1742360962876BED7DF22-A2A8-45DF-8BEF-94BC0676E3AA-835-00000068510A06C3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360961279A0E02898-D459-4244-8416-09DA28708C61.jpg,sys-mod-file/2025-03-18/app-file/174236096142028798CF7-D516-4102-8607-162131FFB0F3.jpg,sys-mod-file/2025-03-18/app-file/17423609616410806C73D-9D30-4941-AF73-4A5F0E09468B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236095706926BE5E64-4826-4B98-8CF6-D521DD331AA6-12203-00000B7CA2631783.jpg,sys-mod-file/2025-03-18/app-file/17423609574793B128CA4-F296-4A78-BC42-1F206715594C-12203-00000B7CAC1937EC.jpg,sys-mod-file/2025-03-18/app-file/17423609577525DBBCE44-0CA6-4173-9606-C1D5761D7BB2-12203-00000B7C8DC64F53.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360953042C63450E9-9D63-455E-928D-4282456D7F3E-7222-00000173D18525D3.jpg,sys-mod-file/2025-03-18/app-file/17423609532550E549B59-0026-4724-BD8F-A627C2FC46FC-7222-00000173ECB1E70A.jpg,sys-mod-file/2025-03-18/app-file/1742360953821280989AF-88DD-42AE-8DE0-542D2FBA1B2B-7222-00000173AE1B8AFB.jpg,sys-mod-file/2025-03-18/app-file/1742360954050C8E78405-A9A2-41FA-8163-83BF7900B5F5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360952987ckcap439796207714934797.jpg,sys-mod-file/2025-03-18/app-file/1742360952829ckcap1174519977813058996.jpg,sys-mod-file/2025-03-18/app-file/1742360953101ckcap354685604547917708.jpg,sys-mod-file/2025-03-18/app-file/1742360953354ckcap1013601646476446412.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609510093C37F101-16C7-4199-931E-DE9CE042FCAD-4312-000002BA0BC8493F.jpg,sys-mod-file/2025-03-18/app-file/1742360951206CC6CA0B9-3AA1-4672-B1A2-41775087E6B2-4312-000002BA20B47E9B.jpg,sys-mod-file/2025-03-18/app-file/17423609521066BD6A9B8-941F-446F-8DE9-8EAC011B19BA-4312-000002B9FBB05204.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360949227400D88C1-457B-41CE-96C4-BF9056C9F948-27096-00001A2DE187D9E9.jpg,sys-mod-file/2025-03-18/app-file/174236095044894C43C15-F4D2-4323-80AC-BC294286722F-27096-00001A2DF01C2B31.jpg,sys-mod-file/2025-03-18/app-file/17423609520749751B475-DBBD-4CEC-B02D-76621DD8122E-27096-00001A2DBA926D0E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360946908915C5391-C23E-48E1-8C51-A2AACD8CBF0A.jpg,sys-mod-file/2025-03-18/app-file/17423609467683BE4C261-ADEE-4367-8276-85A87DB26FA9.jpg,sys-mod-file/2025-03-18/app-file/17423609474593FECA8C3-27E6-480E-AB4F-19565DED1C91.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360942763400D88C1-457B-41CE-96C4-BF9056C9F948-27096-00001A2DE187D9E9.jpg,sys-mod-file/2025-03-18/app-file/174236094161894C43C15-F4D2-4323-80AC-BC294286722F-27096-00001A2DF01C2B31.jpg,sys-mod-file/2025-03-18/app-file/174236094526948382FFB-3C6C-4F11-9366-30FDAB6AE19B-27096-00001A2DB26478B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609452331004AD87-4FDA-4C56-B4A2-6EE0AD6B23CC-65998-0000100CB07A8ECF.jpg,sys-mod-file/2025-03-18/app-file/174236094539149C97765-BC02-4EC0-8381-6523FB00D121-65998-0000100CB4C75C6C.jpg,sys-mod-file/2025-03-18/app-file/17423609459444918A15E-36B9-4880-89D6-7A90686AA907-65998-0000100C8EC228E6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609437451742360912737rn_image_picker_lib_temp_450bbcb3-5b1e-4661-957d-b30341944b61.jpg,sys-mod-file/2025-03-18/app-file/17423609437401742360941231rn_image_picker_lib_temp_45fdf2ff-8d9b-4990-b3ad-7caca1d37287.jpg,sys-mod-file/2025-03-18/app-file/1742360944494ckcap801616373372545102.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609453178A285D35-981B-4AE3-971D-EAEE427C01D5.jpg,sys-mod-file/2025-03-18/app-file/1742360945315935CF18D-511E-4A9F-92D1-980EE9CDBAE9.jpg,sys-mod-file/2025-03-18/app-file/17423609458220F4DE3B7-9895-42CD-8E90-DDBD9D810A74.jpg,sys-mod-file/2025-03-18/app-file/17423609460981380E960-A88C-4F75-9265-D1C45BE92F59-14489-000003CA16F67344.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609439654DA21787-BC38-4228-A857-0E28D01E4461.jpg,sys-mod-file/2025-03-18/app-file/1742360944250A30FEC64-23E3-49B6-A8AB-EBD2D2B7578A.jpg,sys-mod-file/2025-03-18/app-file/17423609445983B9B7B66-A701-46DC-A84E-679469D95033-14489-000003C9D55C362C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609431421FB21A6A-0437-4983-AEA7-1199D6CE62BB-14489-000003C8E947558D.jpg,sys-mod-file/2025-03-18/app-file/1742360940463B970DC47-CB1A-4C00-AAAB-44DE8A7CCF68-14489-000003C8FD95DF26.jpg,sys-mod-file/2025-03-18/app-file/1742360943546DDA4ACF3-C18F-4D92-8D62-DEF860E0EBC8-14489-000003C8E53C4BCD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609338181BC50369-97B6-4CCA-82A2-C5F8868A9434.jpg,sys-mod-file/2025-03-18/app-file/1742360936149304576EC-C3BF-43D1-99B5-1BA90E568A2B.jpg,sys-mod-file/2025-03-18/app-file/1742360939584923B66E8-CC2D-4079-8D13-D9A653415131.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360938678ckcap124181442267982136.jpg,sys-mod-file/2025-03-18/app-file/1742360938949ckcap4044645628643387900.jpg,sys-mod-file/2025-03-18/app-file/1742360939300ckcap3560419322965890028.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609326947D4B15F4-605D-4210-8E6E-965D62C88F15-1923-0000015D1B3AABCF.jpg,sys-mod-file/2025-03-18/app-file/1742360933341C2A9712D-6ABA-4462-9038-620F91E25CE2-1923-0000015D1FDCFDF4.jpg,sys-mod-file/2025-03-18/app-file/174236093378534DE86AE-A67C-4CBC-AF1F-13DE8368C722-1923-0000015D0053F16D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236092282443B8B3F1-A30E-405A-9E37-B2B98ED02664-1538-000000ED0CF136A8.jpg,sys-mod-file/2025-03-18/app-file/1742360922392F2061594-2005-4ACD-A687-FF5FB6056573.jpg,sys-mod-file/2025-03-18/app-file/17423609248703EA9081B-381B-4FEC-944F-97950B822F2D-1538-000000ED01D9FAE1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360921526134448AC-3A87-4509-B077-69DFBE3AC5EC-50444-00001F56362AAAC1.jpg,sys-mod-file/2025-03-18/app-file/1742360921293F937E6A7-F3F8-4F8A-BC26-5B1E83DE8805-50444-00001F563999EEE1.jpg,sys-mod-file/2025-03-18/app-file/17423609229119C70CA4F-7D68-430C-97CE-096CD5D6CE1E-50444-00001F56201700CC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609192324FEB57BD-E995-402D-B8AB-F2059773F17F-3762-0000026465A6299C.jpg,sys-mod-file/2025-03-18/app-file/1742360919370FC38EABF-7B48-4BA6-9228-57E2B438B4CD-3762-000002646F9E26D8.jpg,sys-mod-file/2025-03-18/app-file/174236092068033B1C9ED-597E-458A-8EAE-E70D12DD7E71-3762-00000264498CBD7A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360919233C78AD9A2-74D2-4759-B477-C08ECF471D36-4929-00000557651687DA.jpg,sys-mod-file/2025-03-18/app-file/174236091908019B426B5-232C-4702-A376-8F7A43D9017B-4929-00000557704A401A.jpg,sys-mod-file/2025-03-18/app-file/174236092002893DAF92D-B3E4-4069-A698-3209DE9CB9BB-4929-0000055745FB0137.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236089259569AA24E6-8967-4F3B-AAE6-188D56D245AF-3320-000005E376815F76.jpg,sys-mod-file/2025-03-18/app-file/1742360891176BE8C7468-0668-4152-8D06-487A008BC9E0-3320-000005E37D3C9E51.jpg,sys-mod-file/2025-03-18/app-file/1742360917286CED8A2E7-4785-4018-86D1-A4636FB62C61-3320-000005E36CF1BACB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360917332EDFD9B49-F0E9-4D1F-AB7D-24F8157573E9-1991-00001D6384DAA1E2.jpg,sys-mod-file/2025-03-18/app-file/17423609170157AB41464-E2CB-4DA7-85C3-FD871BD10C1A-1991-00001D6398D9B1CE.jpg,sys-mod-file/2025-03-18/app-file/174236091815875F6FB99-BB12-4301-9BB9-83A8B860A2E2-1991-00001D637E196EC6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609159321742360805913rn_image_picker_lib_temp_690451c4-e44d-4d15-9d0b-34d4f1a946ca.jpg,sys-mod-file/2025-03-18/app-file/17423609159541742360904823rn_image_picker_lib_temp_91e58293-bb42-4e42-85a8-ac2cd3760a0f.jpg,sys-mod-file/2025-03-18/app-file/1742360917118ckcap7139923215286927712.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360913833ckcap507984213738188706.jpg,sys-mod-file/2025-03-18/app-file/1742360913774ckcap1815663221895146211.jpg,sys-mod-file/2025-03-18/app-file/1742360914153ckcap9100300083375137804.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360912232ckcap7194622573820705636.jpg,sys-mod-file/2025-03-18/app-file/1742360912003ckcap6160121808760703226.jpg,sys-mod-file/2025-03-18/app-file/1742360913691ckcap1077134187242084825.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360905746ckcap7080602133778598417.jpg,sys-mod-file/2025-03-18/app-file/1742360905744ckcap3687319259223371519.jpg,sys-mod-file/2025-03-18/app-file/1742360906048ckcap9182031747255733602.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360904683936545B6-BF45-404A-8202-04D1BCB0D457-24500-00001545AF767B75.jpg,sys-mod-file/2025-03-18/app-file/1742360904376885A3802-824E-48F3-9614-45F8C271AF08-24500-00001545C0DD238E.jpg,sys-mod-file/2025-03-18/app-file/1742360904415B83FAF28-543F-422B-B233-EB51B9B0880D-24500-00001545C3B49006.jpg,sys-mod-file/2025-03-18/app-file/1742360905306C6A90B40-D264-49EE-A9EE-0F6A29081833-24500-00001545532232E0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360901659ckcap3214556806483142604.jpg,sys-mod-file/2025-03-18/app-file/1742360901810ckcap8452407725174069542.jpg,sys-mod-file/2025-03-18/app-file/1742360902452ckcap2434874084132877872.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609021479537D2AA-27E1-40DD-99E7-387C8D876AF6-676-00000065F7BF9244.jpg,sys-mod-file/2025-03-18/app-file/1742360902325319F0FC4-E949-4719-B86B-8A398BB37779-676-0000006610F8B338.jpg,sys-mod-file/2025-03-18/app-file/1742360902798F7897134-7A08-4BFF-B353-31F48EC215EB-676-00000065B441D25A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423609002847A3CC206-5E7D-4BF9-BA1D-3C6D790B0646-314-000000142D259C6F.jpg,sys-mod-file/2025-03-18/app-file/174236090022855658644-A70F-41BF-BB5A-CE5AA6C31DC5-314-000000143BC6FD31.jpg,sys-mod-file/2025-03-18/app-file/1742360900786594ADABF-4DE3-4962-9A49-4CE059F68C62-314-0000001423D37840.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360899791754B570B-59D8-44AA-8AC4-8846793194C7-1603-00000166C41CBDC6.jpg,sys-mod-file/2025-03-18/app-file/17423608996595A603C6E-FB6B-43DE-AA3D-677419FD2AA8-1603-00000166D7184443.jpg,sys-mod-file/2025-03-18/app-file/174236090015043AA3352-14DA-4E2C-A4C8-13AEF1AC69EE-1603-00000166AFF6567E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360892929C836CEE0-C113-4EF8-AB9D-4F5A1739E429.jpg,sys-mod-file/2025-03-18/app-file/174236089369716A1DE46-52B5-4A06-90A7-8DCF99F6DC1A.jpg,sys-mod-file/2025-03-18/app-file/17423608964931FDA305F-260C-43CB-8E19-84568719DC5E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236086704667D278E6-588B-4F90-8BF7-9FEB55CFF4E2-3320-000005E2F4CBEF0D.jpg,sys-mod-file/2025-03-18/app-file/1742360868859F2636E92-2504-4CB7-B545-9CE935E43C44-3320-000005E3073DB5DB.jpg,sys-mod-file/2025-03-18/app-file/17423608732937A20956C-173F-4657-BA8D-B96B280BDA49-3320-000005E2F12D6D84.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608757426376BDB1-C25E-46FD-880A-0A47AE389CA9-2363-00000158691986A3.jpg,sys-mod-file/2025-03-18/app-file/17423608760010BF42C3B-D4CB-46B7-961E-FDB3E46964EB-2363-000001586D1D2314.jpg,sys-mod-file/2025-03-18/app-file/17423608763862BC48B5F-BC20-44C8-8AE9-109DBFFBC882-2363-00000158649F008B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608722246761D5F6-7E0D-4603-BD94-BD3292FADDEF-5872-0000035FD603B1B8.jpg,sys-mod-file/2025-03-18/app-file/1742360870908B47E8259-7E21-425A-A752-A69AA8D8F719-5872-0000035FE4193E1C.jpg,sys-mod-file/2025-03-18/app-file/17423608734173FF9DA9A-93E1-4DE2-9EAD-21A561DC2A61-5872-0000035F20672E80.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360870641A681739E-1A44-4A98-9051-39ECFC9ACA6E-913-0000002EBB371C8A.jpg,sys-mod-file/2025-03-18/app-file/174236087063007C4E479-4BC1-4DC5-AC67-877F7B17A41A-913-0000002EC1F433C1.jpg,sys-mod-file/2025-03-18/app-file/174236087259150B76470-E5AE-4E81-BC36-1382A24C4633-913-0000002EB5714B39.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608698021BA633C6-9738-431E-8731-D844AA2D678D-20738-00000BC8761A59EE.jpg,sys-mod-file/2025-03-18/app-file/1742360869003F20F7500-5B56-4D02-9DF3-8A86B2639985-20738-00000BC8857491A7.jpg,sys-mod-file/2025-03-18/app-file/1742360871780D6B4E69F-2227-4C0A-93C0-A6B7F2A72A69-20738-00000BC86F3FA4B5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236085701466B977A3-0A7A-4DEE-83AC-7B094D4FFE80-3397-00000254DF0D3680.jpg,sys-mod-file/2025-03-18/app-file/174236085754424AAFFE3-B2A0-4AE6-BFA9-45FEC4BD40F9-3397-00000255086397B5.jpg,sys-mod-file/2025-03-18/app-file/17423608570560B9B0FD3-3F9D-43EF-A8AE-7AFBE254CF9C-3397-000002551332FF8E.jpg,sys-mod-file/2025-03-18/app-file/1742360861494C287DB59-6495-4FDB-97C7-04791E3F5DC3-3397-00000254CA41E8CF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360858391564D4496-71E0-4575-8B4A-296DDF2475A4.jpg,sys-mod-file/2025-03-18/app-file/1742360860037AFBDC7B5-59D4-4126-9150-BD1E6DE0DCDB.jpg,sys-mod-file/2025-03-18/app-file/1742360860464ABCD0045-8E82-4383-BFC0-746DC53C690F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608565326FBF87CD-47B6-4F83-AFAA-6DFC53999C41-19098-000036FB704D7FAC.jpg,sys-mod-file/2025-03-18/app-file/17423608565328D4A07FF-350D-4483-9955-CF8DE6003EC8-19098-000036FB7F2844FE.jpg,sys-mod-file/2025-03-18/app-file/1742360858351CDF51695-7D64-4A31-90E4-C9D6CD215568-19098-000036FB5FFB585D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608558705E3E765E-21A9-4549-A88F-6C63321DF1EB-7230-0000036A980A69A8.jpg,sys-mod-file/2025-03-18/app-file/1742360855794552EED70-625A-4C2B-A171-455939865F06-7230-0000036AA0A55DA4.jpg,sys-mod-file/2025-03-18/app-file/1742360856151D82FC071-7120-42CB-BE6C-E74996090D4D-7230-0000036A7B1B1457.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236085414790219FF5-4245-46AE-8877-DA9427A5C674-432-000000729E006ADA.jpg,sys-mod-file/2025-03-18/app-file/174236085412276A4B155-5F37-43DF-96FF-695F578AA75A-432-00000072A880BFA5.jpg,sys-mod-file/2025-03-18/app-file/1742360854452dm_78701EDC-D839-4560-B282-79A7097A28AF-432-0000007296CE9220.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608525978656F0C8-3705-457E-AEEB-E595C0B3E85E-7559-00000A9BE4C05E4D.jpg,sys-mod-file/2025-03-18/app-file/174236085248092663191-8CD8-4A8C-B77C-AC091991BFCA-7559-00000A9C7DC8CD93.jpg,sys-mod-file/2025-03-18/app-file/1742360853142C42BE9AC-ADBC-4EFF-83BD-8523ECF47311-7559-00000A9BD866A566.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360827396ECDE6784-DF81-4AE2-B8F3-EA1EDED58DF1-50453-0000034259939F25.jpg,sys-mod-file/2025-03-18/app-file/174236084612355D32AF2-58C0-470D-AEDE-23F230E34694-50453-000003425FC69168.jpg,sys-mod-file/2025-03-18/app-file/174236085136965275C1B-83C0-4A85-8410-C0C03EBE8F19-50453-000003423A2F5B6A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360844024F92F226E-9A5F-48BE-8784-69D752B7B524-4312-000002B97DA67829.jpg,sys-mod-file/2025-03-18/app-file/1742360845184A57E09DE-7D08-4C81-84BE-D930A60F08DD-4312-000002B989F297DE.jpg,sys-mod-file/2025-03-18/app-file/174236084657688B3B779-96C3-4EC2-943C-D9AC870B4706-4312-000002B9678DB904.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608446399343EF6C-1255-4B7A-BCCD-3BAF5F5C3A47-89746-00002E6CC403DA4A.jpg,sys-mod-file/2025-03-18/app-file/17423608445717D692C23-7894-4397-BF5A-BFE6F3EFC3FC-89746-00002E6CE680E421.jpg,sys-mod-file/2025-03-18/app-file/1742360844960BD73126C-E40B-4637-BBA8-483EB52A0F41-89746-00002E6CB518C878.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360837046ckcap6406868807561947886.jpg,sys-mod-file/2025-03-18/app-file/1742360837066ckcap2412731314198554383.jpg,sys-mod-file/2025-03-18/app-file/1742360837374ckcap7592868101818110674.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360836367B27A8561-16C2-4E12-B103-0D2AF5905A1D-913-0000002E8AF29249.jpg,sys-mod-file/2025-03-18/app-file/17423608363403ADFBDBA-8AB6-46AA-B253-CE7691417EE5-913-0000002E924388AD.jpg,sys-mod-file/2025-03-18/app-file/17423608367018E6CC878-3CEB-49C3-9F81-F0A90D4DCFDE-913-0000002E7F11927F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360834069ED6F6FD3-FA97-485B-9E8D-D774E734BBAB-6544-000003134F1AE98D.jpg,sys-mod-file/2025-03-18/app-file/174236083414740D4B580-D36C-4750-9C9C-C7BE128A3356-6544-000003136EB080C4.jpg,sys-mod-file/2025-03-18/app-file/17423608346183B5F35DA-BAA8-418C-81E6-7D3F1D7B2F70-6544-0000031332B78422.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360831595ckcap7021657271360752386.jpg,sys-mod-file/2025-03-18/app-file/1742360831598ckcap2371576714606575704.jpg,sys-mod-file/2025-03-18/app-file/1742360832058ckcap1432494753600093064.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360821537F9994DF0-CADD-48CD-9789-EBD5ACA39ECE.jpg,sys-mod-file/2025-03-18/app-file/1742360821819040729E7-11B1-4761-BA81-70161BFC9AEA.jpg,sys-mod-file/2025-03-18/app-file/17423608224707FC7F14D-5EFF-458C-B61E-3EFFECDF1D1E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608195370667FEE2-7983-47F7-8608-73972BF58779.jpg,sys-mod-file/2025-03-18/app-file/1742360819751989A8B3C-61C5-4A53-9DC6-F8F2FBDC436C.jpg,sys-mod-file/2025-03-18/app-file/174236082004557FA8BD1-00E5-40C9-9862-4A33A961B244-18055-000008E1AF58D0D2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236081862188BC859F-5100-4955-8451-E86F7841ABCB-62059-000022A7CBFFB34E.jpg,sys-mod-file/2025-03-18/app-file/1742360818757BFA1085B-E805-43DF-89AC-ECA1F22BBE4B-62059-000022A7E52D8ABC.jpg,sys-mod-file/2025-03-18/app-file/17423608191237FB55223-939F-4214-96EC-0A254C359D31-62059-000022A7A45A45EB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236081567690F19A47-CB7A-4E8F-A5B1-882F0E3DBCE9-7555-00000FCFAD1E38AA.jpg,sys-mod-file/2025-03-18/app-file/174236081628598FB9EDD-7EC1-473A-AEA8-B3E1782DC6AF-7555-00000FCFB09E875B.jpg,sys-mod-file/2025-03-18/app-file/17423608172255E3A85E0-E754-43B3-BBFD-3967B155FC2C-7555-00000FCF786C1CA1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360813739DCCD8924-3D70-498B-8771-733B2C90B18F-83361-0000444C8967AFD2.jpg,sys-mod-file/2025-03-18/app-file/174236081357116C312EF-F291-44BE-AE0E-FCA8265968BB-83361-0000444C8D0069E1.jpg,sys-mod-file/2025-03-18/app-file/1742360814696A91DC17C-7002-4758-B832-FD724231FDFA-83361-0000444C6271B67D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423608124448885F0D6-1208-48BA-A498-2E6DCF20675E-25108-000003DB8658CFBE.jpg,sys-mod-file/2025-03-18/app-file/1742360812601166F7B7C-E9DD-498E-B7B5-7D005E51FCD3-25108-000003DB9A66772F.jpg,sys-mod-file/2025-03-18/app-file/17423608138639118A419-0755-44AB-9B5B-033402450605-25108-000003DB267E386E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360806985D31CAFBE-CC6A-4BEC-B460-ADDD4F3A96E0-24500-000015451D95E328.jpg,sys-mod-file/2025-03-18/app-file/1742360806961C22207A1-1B4A-4FFC-8286-14C2A03CE35F-24500-000015453978AD31.jpg,sys-mod-file/2025-03-18/app-file/1742360807443B6BED7BE-304F-4A2F-841C-47EC52741034-24500-0000154482550EC3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360806075CADD1C89-C3A4-43F1-A94D-37B77D01DE8A-913-0000002E5DFAE6CA.jpg,sys-mod-file/2025-03-18/app-file/1742360806063957A37CF-7329-4B8A-83F0-211DFC95654A-913-0000002E6635D69C.jpg,sys-mod-file/2025-03-18/app-file/174236080632836B30AE6-FF48-4932-B483-1934BF42FAF0-913-0000002E56A1EFC7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360798053D7140959-50E7-40AE-A48B-7CFC58EFC76A-835-000000677D7059AB.jpg,sys-mod-file/2025-03-18/app-file/1742360799209141837CC-66BC-41FA-A3FF-D7DA9362156D-835-00000067ABAD28D2.jpg,sys-mod-file/2025-03-18/app-file/1742360799785B32BC274-F1C1-4E3D-85B3-23E6ACFA1517-835-00000067B829FF60.jpg,sys-mod-file/2025-03-18/app-file/17423608018070E9B1853-514B-45FE-87F3-97C1838B624E-835-0000006778E7CED1.jpg,sys-mod-file/2025-03-18/app-file/1742360800656534CB1E8-9AB7-4B33-8382-0C1ABE720FE6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236079459203117C6C-69CC-4FB0-953B-7211E3D2028F-1536-000000CFA8FD0AA8.jpg,sys-mod-file/2025-03-18/app-file/1742360795851315AEE29-6609-4A58-B90C-EE2384BDED9D-1536-000000CFB5146941.jpg,sys-mod-file/2025-03-18/app-file/1742360797755D52C4995-D8DC-49A2-BBFC-D3DB2F6E71A8-1536-000000CF9892F2A7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360794554ckcap3457960055301067421.jpg,sys-mod-file/2025-03-18/app-file/1742360794790ckcap7174562730518829025.jpg,sys-mod-file/2025-03-18/app-file/1742360795702ckcap1035937133943294884.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236079190766C8AD5C-53E4-4D12-A986-04FAC53F7004-1474-0000010BC57F28A9.jpg,sys-mod-file/2025-03-18/app-file/17423607916910BC6869D-DD17-4AE9-BBED-9E667C774B37-1474-0000010BCBBBAB65.jpg,sys-mod-file/2025-03-18/app-file/17423607948382D8B9AAD-87C3-47D3-9D14-6B8746708664-1474-0000010BC13D7E06.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360791975135644E0-F174-4E39-9141-E83ACBD0D55F.jpg,sys-mod-file/2025-03-18/app-file/1742360793826BA888D5C-239C-4370-97AA-3312B769BD53.jpg,sys-mod-file/2025-03-18/app-file/174236079345320ED9A76-2A4A-46FA-ACA6-525C17E616EB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607933891DC16D56-E2FE-4EBE-8936-FD2BD375FB92-12203-00000B7BAD68D765.jpg,sys-mod-file/2025-03-18/app-file/174236079335168B37D90-7B79-482D-98A8-179D0CD156D5-12203-00000B7BC201C7CB.jpg,sys-mod-file/2025-03-18/app-file/1742360793704B0C0F696-78EF-4012-98D6-98447B8DCE1C-12203-00000B7B9E8C9562.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360789204870D903B-0A16-4931-A75C-726E9167FE18-4929-00000556AAE25499.jpg,sys-mod-file/2025-03-18/app-file/1742360789070D2DE9F1E-6F15-4090-886C-377C78EA244E-4929-00000556B58C0F2A.jpg,sys-mod-file/2025-03-18/app-file/17423607899780C399691-6B74-42E4-AA83-BD285CF28FB1-4929-000005568C674FEF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607852516CE90557-B4BC-47A0-B02A-A282D78CB2A3-314-000000138E684B6B.jpg,sys-mod-file/2025-03-18/app-file/1742360785810392BF434-3F62-470F-A890-7EB09E708CD1-314-000000139789DC0E.jpg,sys-mod-file/2025-03-18/app-file/174236078631162005212-2DEC-4172-A7DB-672B1E0875DD-314-000000136445CA54.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360776958FA390A25-1161-41ED-AC8A-26EA7A3888C7-18703-00000A122EB32300.jpg,sys-mod-file/2025-03-18/app-file/174236077711132536A5F-F99F-45DC-86F5-1855CED0EB5D-18703-00000A123B4F8F5B.jpg,sys-mod-file/2025-03-18/app-file/1742360781101549CDBC7-B355-4507-962A-06D0B43AF883-18703-00000A122358DDEF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360776850E8DF10EA-1F71-4EF8-8285-E8D3E7765414-19174-000002208E3C9957.jpg,sys-mod-file/2025-03-18/app-file/174236077669422F51DA5-6C89-46A9-8BDC-1F1FBB65ECD4.png,sys-mod-file/2025-03-18/app-file/17423607772482A798B0D-8CCB-415F-9CCA-A1129439F69C-19174-00000220826164D7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360771894A2989C81-8327-4DB5-839A-D6F713FD2388.jpg,sys-mod-file/2025-03-18/app-file/174236077284473791BBC-12A2-460A-BB1D-D564C9CED0F7-8723-00000171C0942C92.jpg,sys-mod-file/2025-03-18/app-file/17423607754834CECFB00-FDA2-4EB7-AF30-288E87A31B05-8723-000001715A70258E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607711621FCBAE30-7596-4B60-9260-50C2A0265B2E-913-0000002E2C2D615B.jpg,sys-mod-file/2025-03-18/app-file/174236077114880D0AFA2-7350-4C4F-92F9-3D94498C49E5-913-0000002E35136748.jpg,sys-mod-file/2025-03-18/app-file/1742360771362685BBC3A-7209-4F14-A550-E6D75AA4D412-913-0000002E2312C94B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607725697CCF3278-BE99-4C15-8899-64971B5DFF3A-1923-0000015C30CA1E3D.jpg,sys-mod-file/2025-03-18/app-file/174236077264250363833-2563-48C1-B44F-DB0B946F8BB0-1923-0000015C3AFE0E72.jpg,sys-mod-file/2025-03-18/app-file/174236077287875184A4E-FBA8-4E50-B7F4-6AD338873EAB-1923-0000015C27EFC6EF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607667223F0D2A03-D59E-43A9-9FB5-0C3D98EBA62A-2596-000001A22850E449.jpg,sys-mod-file/2025-03-18/app-file/174236076677408FE4E11-D810-4426-A725-D90027987A0E-2596-000001A22DC89844.jpg,sys-mod-file/2025-03-18/app-file/17423607668371663219B-EE4E-4DAC-9C7E-A0AFFFB8560F-2596-000001A2324480C2.jpg,sys-mod-file/2025-03-18/app-file/1742360767861CDF2A4C7-4E34-4B13-9B35-C2550DC7EE2D-2596-000001A224E0521F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607645041A9192F3-B232-4DCC-A0D0-80F78F1264AE-1991-00001D62B474859C.jpg,sys-mod-file/2025-03-18/app-file/1742360764462E1B07B6D-C0ED-4AF2-B116-9F76C84F3D88-1991-00001D62BF0B0F66.jpg,sys-mod-file/2025-03-18/app-file/174236076506839C1A63C-8F63-46FB-B902-3901B1752CB4-1991-00001D62A3143693.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360764754DB45F191-E774-4217-9EE1-73D457E084A6-69301-00000BFE8A6F98DA.jpg,sys-mod-file/2025-03-18/app-file/1742360764565B4EC2EFF-CA7F-4EB7-A7C9-57CE741057AB-69301-00000BFE94720017.jpg,sys-mod-file/2025-03-18/app-file/1742360765029EFC9376D-93D1-401B-8066-2A81FF6F8815-69301-00000BFE4D2558DA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607518794E01E826-B2D4-427E-B861-0EF2358A7EB7-50444-00001F551EEF7BB3.jpg,sys-mod-file/2025-03-18/app-file/1742360751900425D654D-9023-4E0B-83B4-BEC2CB7DED01-50444-00001F5545C3C38D.jpg,sys-mod-file/2025-03-18/app-file/174236075357563404D50-7EDE-47C2-AEF7-754651EC03B9-50444-00001F550988F57D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236074019527A72C2A-F3A5-4D02-8B5F-2C4828B2505D-913-0000002DF9EE7B8D.jpg,sys-mod-file/2025-03-18/app-file/174236074020879EEEC67-9A95-46CD-9A8D-1F7668AB246F-913-0000002E05172E80.jpg,sys-mod-file/2025-03-18/app-file/17423607409903CCC5302-5280-4D09-9844-AC38B3774FBF-913-0000002DEF59E43F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360740312DD3F54C0-FD8B-4E81-B50E-7D599B9ADA73-4312-000002B8E7D71820.jpg,sys-mod-file/2025-03-18/app-file/1742360740421DCC9CA29-CC54-4DD6-A8BF-937919C207E0-4312-000002B8F4B3AE9F.jpg,sys-mod-file/2025-03-18/app-file/1742360741163CDA467C9-D2EB-48ED-BCBB-33597F9F46B2-4312-000002B8D03FE5B2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607397321180A5D8-20CD-46E6-A4AE-C4FB99ECBEED-10309-000002C260353229.jpg,sys-mod-file/2025-03-18/app-file/1742360739484774445C8-13F1-4E4D-97D1-BE654E467DF3.jpg,sys-mod-file/2025-03-18/app-file/1742360740172F523E3B5-956F-4221-8E3C-EAF59A2723F0-10309-000002C2218C4ED4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360738147EEFFD65B-DC50-47AE-B957-F0E412BB7F71-1923-0000015C01AA642D.jpg,sys-mod-file/2025-03-18/app-file/17423607383087B4C4F45-1D5A-49F7-80F2-810EF924A04C-1923-0000015C0C6DB5CE.jpg,sys-mod-file/2025-03-18/app-file/174236073852159FE918E-7A69-48C9-BB95-D38891DE22A4-1923-0000015BF48A9874.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607350602B322D2A-5992-4121-9185-A3D644956C58.png,sys-mod-file/2025-03-18/app-file/17423607350497D74334C-57C5-4333-A218-BBD7BFFC65AC.jpg,sys-mod-file/2025-03-18/app-file/17423607353725B7633E2-2201-46BA-8CE6-26DD858D9878-2695-000001B81FC6F52E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360727987ckcap4373022701840089582.jpg,sys-mod-file/2025-03-18/app-file/1742360727883ckcap4132733163635315331.jpg,sys-mod-file/2025-03-18/app-file/1742360728409ckcap8834302922124899468.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360710759A5442E37-95C5-417E-BBA5-7B723071C20B-12422-000007B5E36D3157.jpg,sys-mod-file/2025-03-18/app-file/1742360719882156C60E7-50E5-4192-88A5-F45CC6CD6397-12422-000007B5F2A93929.jpg,sys-mod-file/2025-03-18/app-file/174236072394098388230-0B84-4F53-87AD-61921E49EF16-12422-000007B5BB7C6748.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360720977AABB4AFC-1B5F-4F1C-B019-E26A00975215-7694-000001BBA2921A5D.jpg,sys-mod-file/2025-03-18/app-file/1742360721125A5E9D1E3-D242-458C-83B3-F8C78F9BD670-7694-000001BBAA444E70.jpg,sys-mod-file/2025-03-18/app-file/1742360722456B12EF478-F7F0-47A5-83E6-E8C42BECB999-7694-000001BB5F037DC6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607185258F3F22CE-287E-4D91-BB23-667A02019352-18703-00000A11E0BD5EB4.jpg,sys-mod-file/2025-03-18/app-file/17423607180711776A217-C4AD-43FE-8F03-6C7A01B04C2F-18703-00000A11E97E632C.jpg,sys-mod-file/2025-03-18/app-file/1742360720624B46B0806-4D87-4808-AB33-55E306E9E81C-18703-00000A11D32D7022.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360714383ckcap1356090630360156783.jpg,sys-mod-file/2025-03-18/app-file/1742360714385ckcap1139328397844256549.jpg,sys-mod-file/2025-03-18/app-file/1742360714687ckcap3844523542812071885.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360713431132FDB10-6471-4E9B-8135-199FB04E7FD9.jpg,sys-mod-file/2025-03-18/app-file/17423607138274D701A63-80FE-4969-97EC-1FA8DB1A5932.jpg,sys-mod-file/2025-03-18/app-file/17423607142119A997093-B2CD-4C7F-879E-70209C6D8C4F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423588036225F11F6F5-C879-43BB-9E04-464383673B9E.jpg,sys-mod-file/2025-03-18/app-file/17423607041024AC3759F-FC89-4397-B161-C47E6504E4F1.jpg,sys-mod-file/2025-03-18/app-file/17423607036233DEA4084-73A7-40DA-856E-6C6532F134E6.jpg,sys-mod-file/2025-03-18/app-file/1742360704410962083EA-73BC-464D-A72B-A80A409AEC83.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607024540E794552-C0E2-47A2-8F70-B285B7E03B26.jpg,sys-mod-file/2025-03-18/app-file/17423607031228EF29F92-940F-4C78-A4C3-5A5BC6C6583C.jpg,sys-mod-file/2025-03-18/app-file/174236070307408143E90-193A-4100-9D7D-AD9ECFF42FD0.jpg,sys-mod-file/2025-03-18/app-file/1742360704594B71A9863-BEF8-4FE7-A153-D227A8B48EEB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423607014888ECDC333-077C-407F-9011-58ACC40C681E-913-0000002DC5BA3D42.jpg,sys-mod-file/2025-03-18/app-file/1742360701627F1384FC0-5962-4A02-8443-37DBBC6D420B-913-0000002DCFB96B1B.jpg,sys-mod-file/2025-03-18/app-file/1742360702066C0CEF401-5E2E-410A-8199-FAA62A7165EB-913-0000002DBD41536F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360694230114B2568-A8AE-452F-9D8E-F39D6224CE22-27096-00001A2C853668C4.jpg,sys-mod-file/2025-03-18/app-file/17423606941734083AB05-8F51-4E1C-B6B7-8BE77742FB02-27096-00001A2C9022B60B.jpg,sys-mod-file/2025-03-18/app-file/174236069559768B8DB5E-1E60-4913-B296-34F58D285B96-27096-00001A2C645EAF8F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606920420BE114CF-D486-41A3-BA3F-81C23D1FC8AF-12203-00000B7B1B461A65.jpg,sys-mod-file/2025-03-18/app-file/1742360692135A8CA6516-3616-419C-9DFB-4DC990197D02-12203-00000B7B2C142267.jpg,sys-mod-file/2025-03-18/app-file/1742360692627F1AB68A5-5AEC-4861-AA64-5EE614B7486B-12203-00000B7AEA03621E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360681387C4F256EB-D03A-42EF-B859-E1B492FED05B-3320-000005E248922FEC.jpg,sys-mod-file/2025-03-18/app-file/17423606822502271F8D1-6BC1-4661-85EC-DD57AA7A5B19-3320-000005E257E6613E.jpg,sys-mod-file/2025-03-18/app-file/174236068357340D42718-1FFA-4CD1-94FE-12EF643E0A6D-3320-000005E24380E7DE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606801585576A93B-57E6-4A3B-A713-65F1E12E5B32-50444-00001F54AFB5876B.jpg,sys-mod-file/2025-03-18/app-file/1742360680619F936792D-9EA8-46E8-B7BC-87D204DBCD4B-50444-00001F54E072C895.jpg,sys-mod-file/2025-03-18/app-file/17423606811010ACBDB60-3E8C-4EA9-957F-276468EED03B-50444-00001F54AC29842E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360678833ckcap2211417281744798006.jpg,sys-mod-file/2025-03-18/app-file/1742360678924ckcap5698844852657197077.jpg,sys-mod-file/2025-03-18/app-file/1742360679849ckcap5166699382433087640.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360678228E317856F-4FD6-429A-99A5-A3784611C03A-7230-000003698A53B6A6.jpg,sys-mod-file/2025-03-18/app-file/1742360677636EA369000-D6FD-4CFD-A849-4E9B315A9525.jpg,sys-mod-file/2025-03-18/app-file/1742360678759B472FCD6-830F-48DC-AD79-DDE9A5A0E617-7230-000003696786E36B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606717052436260D-351D-47AE-B31A-CAA8688FDE66.jpg,sys-mod-file/2025-03-18/app-file/1742360672543780D811D-ED77-471C-B126-89A95D2B00D8.jpg,sys-mod-file/2025-03-18/app-file/1742360677261AE355FAA-6AD4-446D-B6E1-35110336A2C5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606725586E2C2808-0042-4214-B480-300FA9B7B839.jpg,sys-mod-file/2025-03-18/app-file/17423606724279627D394-975F-4C17-9C4E-355C0E4638B9.jpg,sys-mod-file/2025-03-18/app-file/1742360673238953DCD46-0B52-49A6-A8D0-18CE93984642.jpg,sys-mod-file/2025-03-18/app-file/1742360674163868981A0-53CF-40A4-ADC0-F62DFA58B534.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236067024597E6BBE4-AD79-49FA-A2F9-DA835CC4427A-2749-000000E3394C4142.jpg,sys-mod-file/2025-03-18/app-file/1742360669854AE07EDCB-A0DA-4FB2-A0BF-F0E022DF030B-2749-000000E3435802F0.jpg,sys-mod-file/2025-03-18/app-file/17423606718430287217B-DAD7-4C44-9FA9-F9721D840D42-2749-000000E330C00BE1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606680547A009CDD-4BA0-48EF-BC76-92D461C77413-4312-000002B87B1F562B.jpg,sys-mod-file/2025-03-18/app-file/174236066820911943D3A-01C1-417B-9BC3-6E40FFE91C4D-4312-000002B88CB46C4B.jpg,sys-mod-file/2025-03-18/app-file/1742360668797E02EF9BA-50EE-400F-BE8B-3CC6A71A160A-4312-000002B863D3F111.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606662187019D70E-9110-4A91-AE66-B6680636A499-913-0000002D9597B7D4.jpg,sys-mod-file/2025-03-18/app-file/174236066632041DD9263-EB7A-4FEA-A122-DFA8BB5B5C7F-913-0000002D9E7F600B.jpg,sys-mod-file/2025-03-18/app-file/1742360666902BAA0E3A2-3124-42CE-8F24-BF0B97B33C33-913-0000002D83531191.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360664992591CA07D-AF26-4BE3-94EB-D844362A9F77-24500-000015445DFBE96C.jpg,sys-mod-file/2025-03-18/app-file/174236066487603196DAB-8822-431B-9BA9-8A6E214C3109-24500-000015446EAF9C26.jpg,sys-mod-file/2025-03-18/app-file/174236066530293C6575A-C33C-4D10-9535-A12E365BEDFB-24500-000015438887C435.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360663268ckcap1416616613954063575.jpg,sys-mod-file/2025-03-18/app-file/1742360663262ckcap7497832194707565318.jpg,sys-mod-file/2025-03-18/app-file/1742360664026ckcap4957689624316704794.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360658731565286F5-3DE0-4DE2-BBB9-6DC914FC46B7.jpg,sys-mod-file/2025-03-18/app-file/1742360661132A89893F3-4B93-4572-AAC8-6E96B3F43CCD.jpg,sys-mod-file/2025-03-18/app-file/1742360660465990371C6-F1FB-4309-AC8E-625F71CADE04.jpg,sys-mod-file/2025-03-18/app-file/1742360661166dm_E2583260-D973-4DEC-9C5C-13F1CDDCE51B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360658839ckcap2659254754769271803.jpg,sys-mod-file/2025-03-18/app-file/1742360658915ckcap4948138967555704600.jpg,sys-mod-file/2025-03-18/app-file/1742360659199ckcap1684164553305774395.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360658279A6966F38-5076-4507-9647-B7A8AEB419C4-25108-000003DA9B042F9E.jpg,sys-mod-file/2025-03-18/app-file/174236065865846120C9C-EE4E-4D09-BB7F-E5A80F2ECD87.jpg,sys-mod-file/2025-03-18/app-file/1742360658966E8BA3531-B74D-4273-BB02-42C2A427320B-25108-000003D9C43C3BA2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360655648446839FA-02FC-4865-B65B-62358FAE33C3-7694-000001BAB96F91B2.jpg,sys-mod-file/2025-03-18/app-file/17423606559240F6FCE1E-BB5B-4CBA-9206-633746D72385-7694-000001BAC5C26F63.jpg,sys-mod-file/2025-03-18/app-file/17423606563992835A8E8-FC4B-4402-9A2D-4F44EBD452C1-7694-000001BA5F07AC51.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606548507EC974A7-9F4A-4686-B65D-67FEFA7A70DC-4929-00000555E63990E9.jpg,sys-mod-file/2025-03-18/app-file/17423606550713B4B410D-178B-4A3D-B485-792BF1D280A2-4929-00000555F83BBEA1.jpg,sys-mod-file/2025-03-18/app-file/1742360655362420AD9CA-4B2B-401C-B2E0-FC099DDBE6C1-4929-00000555C49136FC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360651324208786DC-F85C-47C1-BB4E-08AED849A7D6-2359-0000069E332FC3EE.jpg,sys-mod-file/2025-03-18/app-file/174236064995941DA7E7F-2A3C-492F-9716-4E581899505F-2359-0000069E3D3EB0B5.jpg,sys-mod-file/2025-03-18/app-file/1742360653911C3F2331E-C73C-459D-A897-C61C2644EA6A-2359-0000069DF6A94546.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360651425432AD41B-6012-4F2E-B18A-E1447FDC570B.jpg,sys-mod-file/2025-03-18/app-file/1742360651605F27B4960-11DB-42EF-886A-EFD3BC72941F.jpg,sys-mod-file/2025-03-18/app-file/17423606528474D68E8AF-BF11-4B53-8975-D71641BF64C0-7555-00000FCE5BEE6A6F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360651126EFB7DB26-3B75-4F59-A66A-645F2F342ECC-4452-000003716F71F0F8.jpg,sys-mod-file/2025-03-18/app-file/1742360651359D88A911C-9473-4036-8384-18468967C4D6-4452-000003718177AD14.jpg,sys-mod-file/2025-03-18/app-file/17423606520813B7415F9-7C73-4105-B131-E62D16A635DE-4452-00000371634960F2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606504758E34FB0D-B1AC-4294-ABCA-B568FD9C5BFE-6544-00000312481A26DF.jpg,sys-mod-file/2025-03-18/app-file/1742360650728348B898C-E6B7-44E8-B3FF-315EF0BA5F6E-6544-0000031268790649.jpg,sys-mod-file/2025-03-18/app-file/174236065104796153301-2034-4A48-AB37-DEAB05861369-6544-000003123040562B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606473763A42C9CB-1FEF-44FE-800C-CB260F94415B-65998-0000100B076DB6F6.jpg,sys-mod-file/2025-03-18/app-file/174236064737323AE8254-6414-4FFF-B9B3-1EDBBDB9D83B-65998-0000100B0B1BAE23.jpg,sys-mod-file/2025-03-18/app-file/1742360648022165A7D1A-87F1-401E-9117-AD63A3C0FE74-65998-0000100B0151035F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360638936755E68D3-8B9D-4E6E-949E-397AA6127936.jpg,sys-mod-file/2025-03-18/app-file/1742360640489dm_D175E726-9054-4E56-9899-1D0119DACEAC.jpg,sys-mod-file/2025-03-18/app-file/174236063967404740A5B-087B-4032-9828-957BD5A7D951.jpg,sys-mod-file/2025-03-18/app-file/174236064239704F940A6-A40B-47C5-A5FA-C758CBA18DB1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236064068124AABBBA-DDB2-4311-8651-C1A848792E5A-4579-0000048F98C3910A.jpg,sys-mod-file/2025-03-18/app-file/17423606412731218B5CA-E34C-4B99-A743-55E2A90ED0DC-4579-0000048FACBC05A9.jpg,sys-mod-file/2025-03-18/app-file/17423606422416EC8E9DD-3B8D-4753-837D-5AF2AEDC59E8-4579-0000048F84DB761D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360637694764E71A9-94B2-4C1C-B2DF-05F889448D3F-5434-0000042F758099E8.jpg,sys-mod-file/2025-03-18/app-file/1742360636465636759E4-7E4D-4C9A-901D-A0D4A7E5386E-5434-0000042F934270B4.jpg,sys-mod-file/2025-03-18/app-file/1742360638450FECF8AE0-1E9B-44F9-9B3A-F74ACABCAEE6-5434-0000042EAB1F22D4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236063559697F58952-8E86-43BF-A51F-F70A441DF543-408-00000050DA71F5F0.jpg,sys-mod-file/2025-03-18/app-file/17423606364639FD69E28-3A45-4410-B3A0-3BD8884C661E-408-00000050EB6ECCA0.jpg,sys-mod-file/2025-03-18/app-file/1742360637921740B5093-DB99-4AB4-B13E-78C78B4328B1-408-00000050D69AAED1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360630979FCE876A3-4F2C-4A8D-8BE9-D497C6FEEB6B-20738-00000BC710DA01CC.jpg,sys-mod-file/2025-03-18/app-file/17423606315953172DBFD-36CD-482B-A2B0-1C82AF5095C4-20738-00000BC72B5D0660.jpg,sys-mod-file/2025-03-18/app-file/174236063640276099859-661D-41C0-A56F-1164E07AFFE0-20738-00000BC70CCD9B74.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236063663117423605336511000077722.jpg,sys-mod-file/2025-03-18/app-file/174236063664417423605387281000077722.jpg,sys-mod-file/2025-03-18/app-file/1742360636870ckcap3306307884667304818.jpg,sys-mod-file/2025-03-18/app-file/174236063684817423606343161000077723.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360631868C1863364-BFD2-4452-8E79-9B373035570C-1538-000000EB79EA5B88.jpg,sys-mod-file/2025-03-18/app-file/1742360631770A3DB5B4F-BF8B-4603-B440-1ED067559100-1538-000000EB944D1FEA.jpg,sys-mod-file/2025-03-18/app-file/17423606339595C5ED5E7-17BF-44CF-BDF3-640BC2CA1014-1538-000000EB60382F68.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606280221742360511205rn_image_picker_lib_temp_bb49f13d-74c2-49e8-b6c7-162176855c60.jpg,sys-mod-file/2025-03-18/app-file/17423606279251742360591437rn_image_picker_lib_temp_c9aee867-22b3-4b79-b4d1-c684f585d48e.jpg,sys-mod-file/2025-03-18/app-file/17423606281791742360622375rn_image_picker_lib_temp_91bf8759-884f-48c3-a487-61203e0088d6.jpg,sys-mod-file/2025-03-18/app-file/174236062888017423605020221000003022.png,sys-mod-file/2025-03-18/app-file/17423606288311742360532232rn_image_picker_lib_temp_f3ba5498-663f-4f3d-9d11-4d5c670867b4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606147976A479BA4-32D8-43CD-BE9D-B8E5C673B46C-2695-000001B73965535B.jpg,sys-mod-file/2025-03-18/app-file/1742360615221dm_C763FCBD-57B1-4573-B95A-A2979401F32C-2695-000001B780117BA7.jpg,sys-mod-file/2025-03-18/app-file/1742360616016F8637D04-F111-4D41-ACE0-8C54A87DCB58-2695-000001B68E66343B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360612807F5163F8E-90DE-4EFF-91B5-4E94C7483C73-89746-00002E6B6D3B9E0C.jpg,sys-mod-file/2025-03-18/app-file/17423606130354A69115A-5CDC-449B-BADA-EDB46301DCE9-89746-00002E6B9CEA18BE.jpg,sys-mod-file/2025-03-18/app-file/17423606135685D55A3C6-FAAC-4C82-8CDD-B822D4A9A022-89746-00002E6B55474C87.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360611049CE18AE7A-E52C-4206-934C-80E925F3DB6D-3762-000002633405E4F5.jpg,sys-mod-file/2025-03-18/app-file/1742360610495179604EE-5EFF-40F9-9EB9-FA5B6CAC798A-3762-000002633C835F80.jpg,sys-mod-file/2025-03-18/app-file/17423606117641D21A546-C3E6-4FFC-A0F4-058314204539-3762-000002631E67AE15.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236060899380EA6880-40F3-43AA-A147-5AC86F86AFB4.jpg,sys-mod-file/2025-03-18/app-file/1742360608887A03EBE6D-587A-4AC6-A295-A73F41D2CFEC.jpg,sys-mod-file/2025-03-18/app-file/17423606101937B99F234-42B2-434D-83A7-C03AB24C90D3-2496-000002D4EC4317D6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360607372ckcap5725363159886715949.jpg,sys-mod-file/2025-03-18/app-file/1742360607443ckcap7670978337820768112.jpg,sys-mod-file/2025-03-18/app-file/1742360608187ckcap5266293151909372843.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606050985B27E7F5-C9B7-4033-9D09-84D672BEA7E7.jpg,sys-mod-file/2025-03-18/app-file/1742360605071E0A68B16-B2AC-4916-A572-339565E90FE4.jpg,sys-mod-file/2025-03-18/app-file/1742360605642901A3296-7EF8-4211-BB5D-A94E5DEB94FD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360595711DE775DD8-15A5-4D06-8E86-83504B04479C-3397-00000253C1413F3D.jpg,sys-mod-file/2025-03-18/app-file/17423605983338A2A7681-7564-47A3-A18E-8099F8CD0698-3397-00000253CF77C5D1.jpg,sys-mod-file/2025-03-18/app-file/17423605987729BCAB1E6-A8FF-4266-AF2E-101BC3FBC46F-3397-00000253DE755FB3.jpg,sys-mod-file/2025-03-18/app-file/17423606034355BCCE53D-12AA-4E13-A658-EF6FA4CADC91-3397-00000253B160019B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360601177AE9EC786-090F-4F57-9748-55805EB9F9E5-2596-000001A13ED2F975.jpg,sys-mod-file/2025-03-18/app-file/174236060123544CD11CC-BD44-4D56-A908-F8DEEFE65A70-2596-000001A145E1D1A8.jpg,sys-mod-file/2025-03-18/app-file/1742360602613EBC86F80-B4FC-496C-BA9C-C3AE654200E6-2596-000001A134847739.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423606002556338BDC3-F5D2-4C39-91D7-1937BC196A78-18703-00000A1129B699B2.jpg,sys-mod-file/2025-03-18/app-file/1742360600097BB3D0EDE-D339-42FE-A9C8-9A2AB9A3EDC3-18703-00000A114173245E.jpg,sys-mod-file/2025-03-18/app-file/1742360600833836574C4-8A24-428E-BF61-2C9C25C1A68B-18703-00000A111D7D991A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605918240A889929-DD38-48BE-B2FE-70B8D08FD828.png,sys-mod-file/2025-03-18/app-file/174236058852391B7BF68-F0FB-4361-927B-A36774361265-7993-00000170AEEAAF85.jpg,sys-mod-file/2025-03-18/app-file/1742360599698B7D09BFC-280D-4AC8-B9CD-0EE99B583181-7993-0000017063CE5E3F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360596393D590699D-662D-4956-89C8-F3EAE15C6CDA-35126-00000A0E20B5D576.jpg,sys-mod-file/2025-03-18/app-file/17423605976517D57AC2B-EBE7-4B8E-9FD9-78439FF8104E-35126-00000A0E26B84119.jpg,sys-mod-file/2025-03-18/app-file/174236059974465B18605-7D06-443E-83F1-82297F4142CF-35126-00000A0E16D7A296.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236059825243C54DE1-C408-414D-B05E-6E5FDE630562-2045-0000013E95FCABB4.jpg,sys-mod-file/2025-03-18/app-file/174236059808789C4D7F8-84A2-42D7-B34B-6A7B20773F72-2045-0000013E9D4E41D2.jpg,sys-mod-file/2025-03-18/app-file/17423605988854A559D3D-A414-44F9-9EBC-7251CE4D5918-2045-0000013E7CBB247E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605972589FE6CFED-EE5C-433C-9F62-95BD1AF377D5.jpg,sys-mod-file/2025-03-18/app-file/1742360597737889D9204-6CD2-490D-B52C-D697F44C32C7.jpg,sys-mod-file/2025-03-18/app-file/1742360597403C03CEE31-DD89-410D-B93E-DD858E37D459.jpg,sys-mod-file/2025-03-18/app-file/1742360598715820FEB9B-4DDF-473A-884E-C22272644F2B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360596862CE1AFD7F-966C-486F-B980-91852341B03D-83361-0000444B53E0523F.jpg,sys-mod-file/2025-03-18/app-file/1742360596955D8D8C155-8048-4BE3-A735-282BCF82D6FD-83361-0000444B58DA0025.jpg,sys-mod-file/2025-03-18/app-file/174236059723040C689FF-67FF-405A-A218-718A41B3742D-83361-0000444AE93E7D15.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360591646C8885340-60BC-48A6-8D54-83647B5E0671-913-0000002D28700712.jpg,sys-mod-file/2025-03-18/app-file/1742360591829F883C9B6-FAF1-4565-9E54-02E54FF6C4DA-913-0000002D2F60BCAC.jpg,sys-mod-file/2025-03-18/app-file/1742360593931E9FBF410-53E5-441A-BBDB-E2713D002B42-913-0000002D20F541B4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360582141B5A1BE95-3DEB-429C-9542-5E5BB42DC915-5354-0000041D3A3D25BA.jpg,sys-mod-file/2025-03-18/app-file/1742360582852655E1712-C5B1-45BB-A86C-E27FCD5BF6CF-5354-0000041D47A60E84.jpg,sys-mod-file/2025-03-18/app-file/1742360591139E74B24B4-E559-4F0D-8424-C8619E877281-5354-0000041D2D4E6F85.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360589709B51555F3-A3F3-4FA0-9E93-31485C1F38E0-676-0000006434489D53.jpg,sys-mod-file/2025-03-18/app-file/17423605897465B4705D2-7AFF-4EF0-84F5-FE025C7C26F2-676-0000006452DD20AE.jpg,sys-mod-file/2025-03-18/app-file/174236059073838B7A74F-5E84-4695-B0F4-4DA882230C5B-676-000000642076B76E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360589228705E620F-AA28-4EA0-8355-D1876159F7AC.jpg,sys-mod-file/2025-03-18/app-file/17423605882408452E2ED-3AB7-458D-85C8-B7AD4AC026B3-2785-000003060B9AC42B.jpg,sys-mod-file/2025-03-18/app-file/17423605880440B5A3234-3C61-4868-A8E5-CFF0B1AC8480-2785-0000030611929BAA.jpg,sys-mod-file/2025-03-18/app-file/17423605897171F5B6C01-2998-4E9C-A9EA-FE184FEE9C00-2785-00000305EFE5DC7F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236058844990B94AA4-6698-44F0-A680-2ECE91E44D1B-614-000042FB783A0AAD.jpg,sys-mod-file/2025-03-18/app-file/1742360588131E3D711D8-687F-4D35-9E35-8718410E92E6-614-000042FBACEBB3CB.jpg,sys-mod-file/2025-03-18/app-file/1742360588788D553E573-BD1C-492F-B796-F71F7048FFCD-614-000042FB6AC33A81.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236058848079293C8D-813C-4825-8BD5-4A9A67549DDE-11673-0000029C4972B730.jpg,sys-mod-file/2025-03-18/app-file/174236058830986CB0A2D-31FE-47CF-A75C-ED1BEF560AC2.jpg,sys-mod-file/2025-03-18/app-file/1742360589297C131AC0C-1990-42D0-A249-002535F5A625-11673-0000029BFB19817E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360585908CAE02D85-9696-4E63-B631-E0A45171C947.jpg,sys-mod-file/2025-03-18/app-file/17423605864740296A5DF-8CBF-473F-90BC-DC0B8B9A4B05.jpg,sys-mod-file/2025-03-18/app-file/1742360586419A5C8091F-5B48-4719-A1BA-2505E72D8AE3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360585726B04A4A95-5D29-42DD-85F4-8FC1AEE3AF03-1991-00001D61B4DE08B1.jpg,sys-mod-file/2025-03-18/app-file/1742360585720201EF7EF-32D5-410D-A686-726E0A9A383E-1991-00001D61BFC1B0C5.jpg,sys-mod-file/2025-03-18/app-file/17423605859278539289B-3671-4F61-8225-FF33F826DB22-1991-00001D619EE325DF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360574899EF76B29E-05E2-4951-A8DA-B2207529617E-1474-0000010A933293EF.jpg,sys-mod-file/2025-03-18/app-file/1742360573990DAE16452-C7E5-435F-ACB8-365A26398DE1-1474-0000010A994E63D6.jpg,sys-mod-file/2025-03-18/app-file/1742360577471F7E2214E-361C-4EA2-9438-D5418A3C92CC-1474-0000010A8F711B57.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236057317204320FE7-AB39-444B-953B-A945D00529A9.jpg,sys-mod-file/2025-03-18/app-file/17423605734838CF9E99C-74CA-4839-8372-9373C8E86E25.jpg,sys-mod-file/2025-03-18/app-file/174236057303953622D6B-1321-4FEC-A8BF-9ADB03FF280E.jpg,sys-mod-file/2025-03-18/app-file/1742360574541DE5ABECA-40C0-4D30-B3DD-CF3AC6EB1EFF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605676109880F238-D7E3-46BA-9E94-242DCC890299-27965-0000047F7C9E0B19.jpg,sys-mod-file/2025-03-18/app-file/1742360567266dm_270951DB-BFFB-4DB4-8545-11BCEAF7B3B5-27965-0000047F822BFC47.jpg,sys-mod-file/2025-03-18/app-file/174236056863535666A8A-900C-429C-9B53-45BB9193D9BE-27965-0000047F6E5D2669.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360567146dm_22285797-7F7C-4D73-BBE6-0F6689D4C880-1536-000000CE62DEB44F.jpg,sys-mod-file/2025-03-18/app-file/17423605672532ED140AF-ADF9-49FF-B01A-87536F9B8901-1536-000000CE78F97697.jpg,sys-mod-file/2025-03-18/app-file/17423605680786A14ACF5-834B-43C7-98C5-D78480EB43AB-1536-000000CE4FA6B78B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236056668994F29D72-7119-4B2B-826E-8AA6164DA61C-433-0000004BF9E44420.jpg,sys-mod-file/2025-03-18/app-file/1742360566509953DB074-DB19-42FE-BC3B-E1940EDE6504-433-0000004C023D0901.jpg,sys-mod-file/2025-03-18/app-file/1742360567706A36D0204-4496-4069-87EE-93A27B7621EE-433-0000004BEEB43AD7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360566127AB2AD8C2-AEF9-402F-87D7-2F35C2B0FA1C-835-000000661FD56848.jpg,sys-mod-file/2025-03-18/app-file/17423605663240153FCE4-0BCE-43B6-8ACB-777239EA0E78-835-0000006676FB0121.jpg,sys-mod-file/2025-03-18/app-file/1742360567223063F2328-0E46-4049-844C-D7F7F2674196-835-00000065FB4A1209.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360563432ckcap4986951719565353757.jpg,sys-mod-file/2025-03-18/app-file/1742360563415ckcap2955534649341259806.jpg,sys-mod-file/2025-03-18/app-file/1742360563633ckcap1645700640992050788.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360560099237B741E-61DF-495E-855F-F5AF504B9B2B-913-0000002CFACB00DC.jpg,sys-mod-file/2025-03-18/app-file/17423605601301E5007D3-16C9-4469-BE83-8DECAC5E1FB0-913-0000002D06625003.jpg,sys-mod-file/2025-03-18/app-file/1742360560292EC620351-114B-4C48-8232-B46550C5FA28-913-0000002CF43FCE67.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605614161742360525326rn_image_picker_lib_temp_28374107-7d7d-4707-9e78-6c0c24f226f7.jpg,sys-mod-file/2025-03-18/app-file/17423605614031742360558015rn_image_picker_lib_temp_005c4075-cdfa-4852-a9ce-da54f097641c.jpg,sys-mod-file/2025-03-18/app-file/1742360561804ckcap3901448941939239265.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236055875872692F68-2E9A-424B-A57E-E472898BE964-12422-000007B51C356157.jpg,sys-mod-file/2025-03-18/app-file/1742360559190DEAF146A-7F88-4917-B00A-4D773670F330-12422-000007B5326464B1.jpg,sys-mod-file/2025-03-18/app-file/174236056054088D69AD9-5C28-4D2C-9581-AA6E5B6A62C2-12422-000007B4FF326DCF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360555455F09D7ED9-A645-44DD-85FA-34B9DFAE720F-1033-000000CA88445802.jpg,sys-mod-file/2025-03-18/app-file/1742360555266D007C5D5-6613-42C7-980E-359909637C31-1033-000000CA997452AB.jpg,sys-mod-file/2025-03-18/app-file/17423605563265599CBA6-13D9-451F-8554-51D4382978E4-1033-000000CA73D7830A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605544577AA3F81B-CEFA-4663-A131-ACA57CCE802F.jpg,sys-mod-file/2025-03-18/app-file/1742360555235211B20EE-6DA9-413B-92B6-E69EDBAB793D.jpg,sys-mod-file/2025-03-18/app-file/17423605560014E77970E-B758-48F4-BC27-690E0C1FB48F-69301-00000BFD2F2276D9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236055233971767507-1415-4D83-8E92-25B1AE5219C8-1923-0000015AFC9F6998.jpg,sys-mod-file/2025-03-18/app-file/174236055264817CF75A8-9C94-4C0F-A8D4-AF1983C7860E-1923-0000015B016F5817.jpg,sys-mod-file/2025-03-18/app-file/1742360553031030B506C-0551-4984-8246-B13BF325E3B9-1923-0000015ADB9E0F72.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605505821B452FAF-02CC-4145-8338-B219A2867BDD-2596-000001A0EF288A3D.jpg,sys-mod-file/2025-03-18/app-file/1742360550681209122B1-506D-4989-909E-FA194B126611-2596-000001A0F5ACA4AB.jpg,sys-mod-file/2025-03-18/app-file/174236055068599E58294-1201-465D-BF13-7A4B7D9A3898-2596-000001A0FA26187D.jpg,sys-mod-file/2025-03-18/app-file/1742360551619E5ADB3A8-AD23-4BD5-937F-5D3457E13168-2596-000001A0D0E88870.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236054928289FB2AD8-1359-4E9C-A3C0-D9F640700272.jpg,sys-mod-file/2025-03-18/app-file/1742360548750dm_3738181A-A9D9-4DE1-A913-8A0340A3376A.jpg,sys-mod-file/2025-03-18/app-file/1742360549230AFD5081A-058A-4CAF-8093-2AA7D699B267.jpg,sys-mod-file/2025-03-18/app-file/1742360550291BA2F75F4-8AFD-44AA-8309-68A79219E71B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360546921B5AB36D5-09BC-48D7-B931-0A231B747C22-3320-000005E190046250.jpg,sys-mod-file/2025-03-18/app-file/174236054656912B96946-F6E2-40AD-8C23-242B84EC23ED-3320-000005E194F3C94A.jpg,sys-mod-file/2025-03-18/app-file/174236054855129B94DB0-6FE7-42D5-8AA6-1BF9EC913C9C-3320-000005E186B2F6F8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360545923DEA18609-7E96-40C2-BB4E-F88CE160F247-9817-000005D829B0D6CF.jpg,sys-mod-file/2025-03-18/app-file/17423605442094709F3B0-5A5F-47D9-9DF0-5A4CC7061354-9817-000005D84F70B5F1.jpg,sys-mod-file/2025-03-18/app-file/174236054782467694A91-EC93-4C71-880C-3DC7E55A5909-9817-000005D7CBF3E343.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360542758793E02BA-E1A5-4AA7-8BA3-5E707D137C55-18703-00000A10EB3A121E.jpg,sys-mod-file/2025-03-18/app-file/174236054493287002EA5-38EE-41DA-8F7A-7F7F61FB9C84-18703-00000A10EF2108DB.jpg,sys-mod-file/2025-03-18/app-file/1742360546773FF82ED53-A0CE-46A9-92AC-48964D8B3AB7-18703-00000A10DC744E27.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605365849A543E22-B354-4C5F-8D45-D25AA8171733.jpg,sys-mod-file/2025-03-18/app-file/174236054481890DE9A81-3C4B-464F-97D5-DD89369DA09D.jpg,sys-mod-file/2025-03-18/app-file/174236053853931DD4CC8-B23B-47DD-94E4-65B8190ACC93.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360540959ckcap6838430184661869269.jpg,sys-mod-file/2025-03-18/app-file/1742360540652ckcap7464689838508721067.jpg,sys-mod-file/2025-03-18/app-file/1742360540571ckcap3125517859522461398.jpg,sys-mod-file/2025-03-18/app-file/1742360541208ckcap9191054095658722766.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360536307EFF85793-DB68-4EFC-8ACC-06A5C3B79968-7420-000002E9BB910C28.jpg,sys-mod-file/2025-03-18/app-file/1742360537068B91673A8-16A3-49EB-9DCD-8ACA6BA2E24D-7420-000002E9C0A4624C.jpg,sys-mod-file/2025-03-18/app-file/174236053695831DD6EB9-89F2-4D5E-8C2D-94FBF68ECDB8.jpg,sys-mod-file/2025-03-18/app-file/1742360537664FAE1F82B-2FBE-40A9-81AE-F27A864026B7-7420-000002E9A88BFDA8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236053571374CDA3EB-F324-49F5-9025-BA1A44902C72-4452-00000370D4CF7F8F.jpg,sys-mod-file/2025-03-18/app-file/17423605350767ABB3A65-E9AF-46D3-888D-4B6DE76A9E63-4452-00000370DCD427E0.jpg,sys-mod-file/2025-03-18/app-file/1742360536353AA89CF5A-B5F5-4836-A6C3-5E41A9A5828E-4452-00000370C781DC99.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605345381182CC63-BF8C-4338-9324-F1CE0D1CD3CA-10309-000002C1331A513B.jpg,sys-mod-file/2025-03-18/app-file/1742360533798F80DCBCF-0992-4DD1-B320-17159F84E184-10309-000002C13C0D924E.jpg,sys-mod-file/2025-03-18/app-file/17423605363914B843C0F-EFBB-4571-B6A2-515C03DFD2D2-10309-000002C11D13976B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423605324370C677F16-A979-4651-B49B-BF2322614838-913-0000002CD7A63339.jpg,sys-mod-file/2025-03-18/app-file/1742360532424D5F02CFD-9C7A-48BD-85CE-7A7FCA4FA90A-913-0000002CDEF3CD61.jpg,sys-mod-file/2025-03-18/app-file/17423605326185C783DC2-ACB7-4985-9BBE-86280449BB7A-913-0000002CCD97BFE4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360532918F2DE14E7-E1E3-4EEE-9B76-3AB2B4D6B5FD-4929-000005553939F69D.jpg,sys-mod-file/2025-03-18/app-file/1742360533049BDE9A2F3-A206-4A9B-B10B-6672F04AAA77-4929-0000055544B69E21.jpg,sys-mod-file/2025-03-18/app-file/1742360533359908C76B0-E4AE-4769-9E5A-2A1B4CE40B59-4929-000005551E0C3AF1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360532315ckcap1576611079598048179.jpg,sys-mod-file/2025-03-18/app-file/1742360532358ckcap7564409327759263240.jpg,sys-mod-file/2025-03-18/app-file/1742360533164ckcap8314044880799276004.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236052970017A9ACF2-EDDC-4CBA-A2FB-C43EDE18F1D8-19098-000036F9A72369A0.jpg,sys-mod-file/2025-03-18/app-file/1742360529474BC2E3EDD-9A8A-4C78-AC33-75B90589A42A-19098-000036F9AC711A27.jpg,sys-mod-file/2025-03-18/app-file/174236053156434836C1E-1D16-4CB5-A327-EA7C609A08D3-19098-000036F97D321032.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360527614D7CF698B-7E06-4893-86A1-B55FBD482D1B-1015-000000754B56E73D.jpg,sys-mod-file/2025-03-18/app-file/17423605275775BD8B52B-B661-40A6-AD9F-EDF5A66EE769-1015-000000754F83BCA8.jpg,sys-mod-file/2025-03-18/app-file/17423605282294722CC23-C673-48B0-85B1-A8CBECAC487C-1015-0000007532740129.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236052363184F030A7-314F-438F-9997-F12980214D80-50453-000003409BA553E8.jpg,sys-mod-file/2025-03-18/app-file/1742360523613373814F1-ECCB-420B-945F-329E1D9B6AB3-50453-000003409FFE14EF.jpg,sys-mod-file/2025-03-18/app-file/17423605226518D7D66CF-043B-46A8-A828-0584D7ABD5BA-50453-00000340A4A75443.jpg,sys-mod-file/2025-03-18/app-file/1742360523920663564E9-5331-4C43-BBF3-76991021D3F9-50453-00000340797EF596.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360513572CC3E798E-8964-4660-952B-902872E2F564-6843-0000053E5546EB5C.jpg,sys-mod-file/2025-03-18/app-file/1742360505090DFB86118-7F2D-4A96-B7D5-4F5ED4AA8E5D-6843-0000053EB9B97276.jpg,sys-mod-file/2025-03-18/app-file/174236051874257A684F2-FBEC-47E4-B56A-73F448596EF2-6843-0000053E323748E9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360515087F040E30B-3C43-426C-984F-37B2282AFE61-4579-0000048EEE536A39.jpg,sys-mod-file/2025-03-18/app-file/1742360515596E47F1511-7F74-4F9F-8CFE-42CDDA96D474-4579-0000048EF9CF0FBC.jpg,sys-mod-file/2025-03-18/app-file/17423605163002E0D7AF4-FFA3-42BF-9A15-9682CA73FECC-4579-0000048EDCDA4D4A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360509693B4EF82E6-8824-4BA0-86F9-75360386FA6C.jpg,sys-mod-file/2025-03-18/app-file/1742360509798C14378B2-F4A9-4CA5-AFA1-8720AE5F52DE.jpg,sys-mod-file/2025-03-18/app-file/1742360510391dm_B9E5696D-5AAA-4BA1-864C-1F56A361C07A.jpg,sys-mod-file/2025-03-18/app-file/1742360511214AF2C9FD2-3AB9-4943-B3EE-CA15D483720C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360509099ckcap6669501356248351987.jpg,sys-mod-file/2025-03-18/app-file/1742360509054ckcap5264220706105454463.jpg,sys-mod-file/2025-03-18/app-file/1742360509526ckcap5813037647271528042.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236050456465AA6EB9-08EF-4F12-992A-9A9E52D25A86-913-0000002C96F61261.jpg,sys-mod-file/2025-03-18/app-file/17423605048846F1B73F3-FB96-4DBB-8A90-FFB2717CE94F-913-0000002CA93B6070.jpg,sys-mod-file/2025-03-18/app-file/17423605048912B6E5F34-1AF3-442D-BFE3-0150BDD816E5.jpg,sys-mod-file/2025-03-18/app-file/174236050522403815D1A-92A4-4980-B88F-1668D07BF7B8-913-0000002C8BF3A69D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604946349BD4B893-5E95-47D3-B4B2-55B987FD86F0.jpg,sys-mod-file/2025-03-18/app-file/1742360492800363867DA-4F71-47EB-B793-6EFF34C40DBA.jpg,sys-mod-file/2025-03-18/app-file/17423605030632CFC6B1A-99E0-4BD8-B7A8-74EF5E337C7F-11170-000008EE03A9CA60.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604998661D880AEA-93FE-4D45-A1B6-5C910D33F1D0-12203-00000B79E7CB56C4.jpg,sys-mod-file/2025-03-18/app-file/174236050005356EF30E9-C858-4D48-96B3-29A04E7731C7.jpg,sys-mod-file/2025-03-18/app-file/17423605004874FA49A88-5167-4060-BA89-C483D2C687FC-12203-00000B79E068D47B.jpg,sys-mod-file/2025-03-18/app-file/1742360500359F01B7305-9F32-4606-81C4-A0333B2A9093.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604996996D36A6F4-3C98-40B0-A1E9-56DC79B6396B-1538-000000EACD6A07DE.jpg,sys-mod-file/2025-03-18/app-file/17423605000809BDA04D7-B6B8-4E8D-B73D-1B0AA963892E-1538-000000EADA0105CA.jpg,sys-mod-file/2025-03-18/app-file/17423605005644AA27B14-C62C-4CCD-9E05-6D49EBF23FD1-1538-000000EAAC7EE4DC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604984347358F88C-0785-4702-A73D-F833AB10D61E-27096-00001A2B64DF3532.jpg,sys-mod-file/2025-03-18/app-file/17423604979706F87113B-CA75-4AFB-B4A7-F064C63D723A-27096-00001A2B78A767DA.jpg,sys-mod-file/2025-03-18/app-file/1742360499234F73F4739-2079-42E1-B09A-92C2787A7C39-27096-00001A2B34ADD609.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360493803AFA5B445-38A5-408B-8EFE-989DEEC2D2EB-4312-000002B783E9932E.jpg,sys-mod-file/2025-03-18/app-file/1742360494260C628F58D-64EA-49FC-B880-F6FFD1652C45-4312-000002B795A01B95.jpg,sys-mod-file/2025-03-18/app-file/17423604951057F2AE4F0-4F86-483A-9DBE-C48C9FF97956-4312-000002B7699E5887.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604898347751E667-7F3C-4AD5-9445-C84C06426677.jpg,sys-mod-file/2025-03-18/app-file/1742360489767A4D48ACC-89B0-4993-AA14-BF401E548ABB.jpg,sys-mod-file/2025-03-18/app-file/17423604903925D80C779-6515-44C2-8809-3BA1263BC60A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604881748B2333C9-CC13-4A41-84C0-E757C63F69CD-6544-000003115AC89A1C.jpg,sys-mod-file/2025-03-18/app-file/1742360488075C7286808-6C9A-428C-8923-DC65C469F9AE-6544-000003117EFE4002.jpg,sys-mod-file/2025-03-18/app-file/17423604885839B3B3FE4-6D6D-4ED2-96C8-5A528C2BFB02-6544-000003113DC0B415.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360487703235C2363-9C8A-4025-9C45-E087A546574B.jpg,sys-mod-file/2025-03-18/app-file/1742360487951dm_F70AB454-3509-4DED-9E62-DFF9B934FF44.jpg,sys-mod-file/2025-03-18/app-file/17423604886256CC6242F-4C60-40A1-8DD9-E41611BFA43D.jpg,sys-mod-file/2025-03-18/app-file/17423604890582A0C75BB-C380-41B0-BA21-E6A73383BB8A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360486837513704DB-17B1-4460-8473-CF5F697FA52B-24500-000015431EB8407C.jpg,sys-mod-file/2025-03-18/app-file/1742360487082E1DFCB93-5F73-4DEA-8EF8-9D4A60D550F6-24500-00001543642520CA.jpg,sys-mod-file/2025-03-18/app-file/17423604870483F5EF59F-0630-41DD-A602-5E2E116C3EA6-24500-00001543708E61E0.jpg,sys-mod-file/2025-03-18/app-file/1742360487411F3320095-86FC-4990-860F-5627C6FECE73-24500-00001542D0F5DAF5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360475793ckcap2577393056169911454.jpg,sys-mod-file/2025-03-18/app-file/174236047543517423604697511000035679.jpg,sys-mod-file/2025-03-18/app-file/1742360476240ckcap7014162796520707163.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604749152BD84661-21BC-4AB6-82BA-B9B04BC1D51F-1474-00000109EF95966E.jpg,sys-mod-file/2025-03-18/app-file/17423604751919BF5B8F3-1021-496D-8819-C573159573A0-1474-0000010A0BB3AF45.jpg,sys-mod-file/2025-03-18/app-file/17423604758773EC61963-DFAB-4CF9-830A-FD3272551CDD-1474-00000109EB25E561.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360472032ckcap139841494357417795.jpg,sys-mod-file/2025-03-18/app-file/1742360472211ckcap8015183325988059444.jpg,sys-mod-file/2025-03-18/app-file/1742360473696ckcap6929447363714774507.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604730912BD84661-21BC-4AB6-82BA-B9B04BC1D51F-1474-00000109EF95966E.jpg,sys-mod-file/2025-03-18/app-file/17423604728759BF5B8F3-1021-496D-8819-C573159573A0-1474-0000010A0BB3AF45.jpg,sys-mod-file/2025-03-18/app-file/174236047405879F63190-F4F8-40AC-A6B7-9342DE32414B-1474-00000109E795CEE1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360467505ckcap2594732421549321778.jpg,sys-mod-file/2025-03-18/app-file/1742360467502ckcap1781773504365852443.jpg,sys-mod-file/2025-03-18/app-file/1742360467846ckcap8077708350601113152.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604655014D353908-7ED7-4576-8BFC-E70E4CC2C327.jpg,sys-mod-file/2025-03-18/app-file/1742360465940dm_EF6C3BBA-737A-466D-8E22-3578F300E890.jpg,sys-mod-file/2025-03-18/app-file/174236046609027AF42A4-3363-42A3-B89F-EC53F5D4435D.jpg,sys-mod-file/2025-03-18/app-file/17423604673170D7FE81C-73E6-4812-8B79-93A5EAE2E5A7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360457620627FDE85-08D6-425F-9B4E-E1E817ACFC14-408-0000004FE2BD163B.jpg,sys-mod-file/2025-03-18/app-file/17423604576517E405192-E0D5-48E4-BC5F-07448C6EAAAD-408-0000004FEE92F815.jpg,sys-mod-file/2025-03-18/app-file/1742360457961A2C2AEBC-19B8-430A-B207-72A78CF1C3F4-408-0000004FD98DD0A5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360454987847B92EB-10F3-4825-A6E9-B119291A4092-913-0000002C42F182F1.jpg,sys-mod-file/2025-03-18/app-file/174236045535875D689B2-F835-4FDB-BACA-0222C91C3D79-913-0000002C4C36716E.jpg,sys-mod-file/2025-03-18/app-file/1742360455326C491EB59-6D8B-4E87-826C-ACF6B0DF11C1-913-0000002C54DE8ECF.jpg,sys-mod-file/2025-03-18/app-file/1742360455695D31A8337-1FD3-4126-994C-1F47BB4D8887-913-0000002C3A4D2463.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360451393E01CEA8D-B218-4064-8113-ACA7D5B46DB4-3762-000002624AAC536B.jpg,sys-mod-file/2025-03-18/app-file/17423604512294C517607-4E37-41BE-B385-39A28E6CFBF7-3762-000002625946C89C.jpg,sys-mod-file/2025-03-18/app-file/174236045193638E85EEB-640E-42AA-AC50-55E16EEE3C37-3762-000002622ED7D613.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236044883957D9D873-C5FC-4382-95BB-6710E6F749CC-65998-00001009E0AA3061.jpg,sys-mod-file/2025-03-18/app-file/1742360449006EBEFF793-13A4-427D-938F-91D5D3D6DA70-65998-00001009EDBC8D39.jpg,sys-mod-file/2025-03-18/app-file/17423604494462873E67B-AC2D-43AA-9B0F-B3961E27DF85-65998-00001009CC1FBDFD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236044562712380CB4-264B-49BA-BC65-96A5885FD731-44426-00002B7389DBA553.jpg,sys-mod-file/2025-03-18/app-file/1742360445926875B5AF4-CBF6-42D4-9781-64AC3B205878-44426-00002B73A6F414B2.jpg,sys-mod-file/2025-03-18/app-file/174236044662567390358-F888-4310-AE1B-D46577344857-44426-00002B724387BA15.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604361481CA207A9-F4BA-4337-991B-6DB6512A63C3-5434-0000042E511B5C45.jpg,sys-mod-file/2025-03-18/app-file/17423604367504DEE5E96-FFDE-487B-AA86-F69BBB7EB986-5434-0000042E73C45248.jpg,sys-mod-file/2025-03-18/app-file/1742360444415BFFB00E7-DC6C-44F8-9FE5-E80127DD8F6F-5434-0000042DD6AF9AB8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236043775886E21330-C70B-4B89-BE44-8C6D866B8AA7-4452-000003702AF3913F.jpg,sys-mod-file/2025-03-18/app-file/1742360437809AAA73AFF-9F7D-46D0-9E00-1EA9F04B0D48-4452-00000370521686B7.jpg,sys-mod-file/2025-03-18/app-file/1742360438452FCBE6BB6-319F-4E4E-A839-6E7C23A9AD3B-4452-000003701E3678F0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236043476508EF0E2B-AF57-4EE0-B280-1FBE504D89D7.jpg,sys-mod-file/2025-03-18/app-file/1742360433368CA891109-C69E-4E5E-AD49-EF2E7513997C.jpg,sys-mod-file/2025-03-18/app-file/1742360433586AE2D6553-9815-4060-BD6B-313E3312CF32.jpg,sys-mod-file/2025-03-18/app-file/17423604354272C89E452-B169-48AB-822E-38B4F5BABCD0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360428021ckcap1109170215703660263.jpg,sys-mod-file/2025-03-18/app-file/1742360427867ckcap2983786628748478759.jpg,sys-mod-file/2025-03-18/app-file/1742360427876ckcap1484069818596432757.jpg,sys-mod-file/2025-03-18/app-file/1742360428443ckcap7424763320515290716.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360427356ckcap3829215717529500553.jpg,sys-mod-file/2025-03-18/app-file/1742360427656ckcap7652609651377441632.jpg,sys-mod-file/2025-03-18/app-file/1742360428598ckcap8762792598179226764.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604215690B7FB79B-7B96-444F-A652-CD625ABFDEAA-2596-000001A03EC43B0D.jpg,sys-mod-file/2025-03-18/app-file/1742360422368AAA795F5-3A4E-4953-AB34-44D6D6CDD28C-2596-000001A04660C516.jpg,sys-mod-file/2025-03-18/app-file/1742360423402D53A84EA-DA8A-4BB8-97BE-E23116D53C08-2596-000001A0281A102F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360419574C73BBC44-9D96-4766-9B87-89387C40673F.jpg,sys-mod-file/2025-03-18/app-file/17423604203751CE290E2-2888-4B5F-8BCE-BC732A2699D4.jpg,sys-mod-file/2025-03-18/app-file/1742360421090E5D7F1D3-C24E-4156-A997-064EA628C39B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236041917549BE4EDD-75D5-44B7-BBDF-E25B2BCAA9ED-7559-00000A99ED8C3694.jpg,sys-mod-file/2025-03-18/app-file/1742360419092346FD12B-5550-43A1-B7EB-01C8CCB83AF9-7559-00000A9A11663D9D.jpg,sys-mod-file/2025-03-18/app-file/17423604194258D283728-97FF-455A-8AB5-679E148FC289-7559-00000A99C9A76E19.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236041240505024BDC-5931-464B-B9D9-2A519FC47906-2045-0000013D8A67E5CB.jpg,sys-mod-file/2025-03-18/app-file/1742360412496D85D7D8D-569A-45B6-92E6-CB04174744BE-2045-0000013D95D406AB.jpg,sys-mod-file/2025-03-18/app-file/1742360413444AA0B6C91-370A-47CA-9783-11545576ECA2-2045-0000013D822D9B32.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423604006046FD24E48-7937-46EF-8F5C-6EE4E3E1EA30-913-0000002C1D11D6FD.jpg,sys-mod-file/2025-03-18/app-file/17423604007342CCFBF30-A16B-4115-A768-A83F2CCA4FCC-913-0000002C23187A5A.jpg,sys-mod-file/2025-03-18/app-file/1742360400878836A7693-9DE9-4F99-A5DC-03D608E2C97F-913-0000002C1754680B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603979499CE8A6EA-159D-4768-AC32-4719F6EBFA9D-12422-000007B441CBB607.jpg,sys-mod-file/2025-03-18/app-file/1742360398339C28122C1-414C-42F7-99F7-BBDE980DA545-12422-000007B44BEDC463.jpg,sys-mod-file/2025-03-18/app-file/1742360400405566E07DA-BD30-40EF-861F-37D08AA82C5F-12422-000007B42C8D95A8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360397212E2C36353-39FA-4C13-822F-2BF3AD5D7D6E-7694-000001B9D441D64D.jpg,sys-mod-file/2025-03-18/app-file/17423603988723FF6FE77-BE9F-4A0F-A8D7-4863E2AEE00B-7694-000001B9D74FD0A0.jpg,sys-mod-file/2025-03-18/app-file/174236039955530F61EEC-AA92-467E-9D84-495BC29A239C-7694-000001B96072F30A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236039852607459CDC-4369-41C8-92C0-11347B53CAE2-1923-0000015A032B31B2.jpg,sys-mod-file/2025-03-18/app-file/17423603987071865E66D-43CB-42B7-9301-76013DBB0153-1923-0000015A2523DD52.jpg,sys-mod-file/2025-03-18/app-file/174236039919795BA468F-43FD-4DE3-8F1A-1A98BCE1F71A-1923-00000159FC923E44.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360395882A4B6517E-E821-4CDC-B68D-511D51D7C44D.jpg,sys-mod-file/2025-03-18/app-file/1742360395748C49A5A63-0B16-4684-9C2B-96E5E9717A50.jpg,sys-mod-file/2025-03-18/app-file/17423603966894EB875C1-6BAF-4EC3-A69D-7D513AC51C09.jpg,sys-mod-file/2025-03-18/app-file/17423603974112A77E2E1-617A-4025-A622-B18D520E0B42.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360396576DC58DF5C-82F4-437F-9BF9-B9CEE9CE5F82-19174-0000021E604ABC94.jpg,sys-mod-file/2025-03-18/app-file/17423603964510D3D5470-7B40-4F49-BC1D-12A553B85272-19174-0000021E7950AA3A.jpg,sys-mod-file/2025-03-18/app-file/1742360396956F89D6691-DFD9-4C65-9AF9-A69DB8796DDA-19174-0000021E5AE18B52.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603906949EF159B0-846E-4488-B03F-56AAB1B7061E-27965-0000047EBA55D47A.jpg,sys-mod-file/2025-03-18/app-file/174236039060265423EEA-FFA9-4672-8D2E-038991CAA2FD-27965-0000047EBFECDC39.jpg,sys-mod-file/2025-03-18/app-file/17423603912982DC4ED0A-5D7E-47A7-BAA9-8EEA82E86280-27965-0000047EB15D5870.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360389187ckcap7740705881441502480.jpg,sys-mod-file/2025-03-18/app-file/1742360389602ckcap2486788142736066663.jpg,sys-mod-file/2025-03-18/app-file/1742360390344ckcap7021759150346036158.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236036940374FC981D-51A6-4DF6-870C-BD15675B6EA5.jpg,sys-mod-file/2025-03-18/app-file/17423603827501F7B8C60-354B-4B06-B3B6-C8D93660D6D0.jpg,sys-mod-file/2025-03-18/app-file/174236038266458188148-29E6-42FF-AC5F-565D202F3D4C.jpg,sys-mod-file/2025-03-18/app-file/17423603852033C265DF3-EA4D-4F34-936F-066ACCF0A095.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360381121ckcap4537611756085915526.jpg,sys-mod-file/2025-03-18/app-file/1742360381224ckcap7504787285984534776.jpg,sys-mod-file/2025-03-18/app-file/1742360382239ckcap1137118241279153641.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360379107E7F06C02-8839-45C8-967A-27C6D8636EB1-913-0000002BEE0274AF.jpg,sys-mod-file/2025-03-18/app-file/1742360379396752B4845-C845-4F40-9FA5-C325778AC48B-913-0000002BF7BADC1B.jpg,sys-mod-file/2025-03-18/app-file/17423603793851A9005BF-1AF3-4409-9E05-B96FD5D3390C-913-0000002C03FD85B7.jpg,sys-mod-file/2025-03-18/app-file/174236038069130A71318-8FD3-45E9-8C76-5037AE6A327C-913-0000002BE0C4C301.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603761050A7E8990-2131-4472-A9F4-380D41122856-2359-0000069C92877A21.jpg,sys-mod-file/2025-03-18/app-file/1742360375989BF4CFBBA-7534-4406-8951-BC2234CBB4C0-2359-0000069CBBAC2019.jpg,sys-mod-file/2025-03-18/app-file/17423603783591C7F24FB-B7B2-4C8E-9B64-A434265E3F0A-2359-0000069C78081A07.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236037512757DD8290-95C6-402A-9E7E-404D574E4CEF.jpg,sys-mod-file/2025-03-18/app-file/1742360374461F50BBB88-5B81-4F80-9B6E-BB7E310BFA53.jpg,sys-mod-file/2025-03-18/app-file/174236037635140F6647D-830C-48B1-83E4-1F24F817143B-25506-00000CC4D5CB61DC.jpg,sys-mod-file/2025-03-18/app-file/174236037656114B6338A-5FCD-4BCF-831D-E842E4DA7E82-25506-00000CC4DF454D0F.jpg,sys-mod-file/2025-03-18/app-file/174236037773679DB02D2-CB26-4C6A-8CEE-678B2B685C0D-25506-00000CC4E481A7D6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236037284541F062A8-1C38-4AA1-81DA-52BB8527F6BB.jpg,sys-mod-file/2025-03-18/app-file/1742360376984D1D5157D-A498-4DD2-89DF-697100ACB7B1.jpg,sys-mod-file/2025-03-18/app-file/1742360374282dm_F5C9BBD2-BD81-4927-A0A9-119F4FC4C8B8.jpg,sys-mod-file/2025-03-18/app-file/17423603748584A13588E-2591-405C-91ED-34D8340358B1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360372664C43CFF71-9C0E-4C2A-8EF5-EE99626817C5.jpg,sys-mod-file/2025-03-18/app-file/1742360372450dm_00EE1D6B-7C10-4D98-AE45-708FA90B3F6A.jpg,sys-mod-file/2025-03-18/app-file/17423603729325A9889E3-1023-4E72-A7F3-B0207D727DC5.jpg,sys-mod-file/2025-03-18/app-file/1742360373437DAAB1C0C-EB6B-4E2F-BF0E-9C4653E3F934.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603413636C8A671D-4162-4AF5-98DC-0C4B648464B9-626-00000089866BB637.jpg,sys-mod-file/2025-03-18/app-file/17423603520363571FBC9-10C5-49D6-90D2-3E22380171BF-626-0000008993DBCB1A.jpg,sys-mod-file/2025-03-18/app-file/1742360372372AAF86D5D-61A7-4A94-9F98-793699BAA808-626-0000008976C3BA37.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360372037ckcap5956893977427513423.jpg,sys-mod-file/2025-03-18/app-file/1742360372047ckcap4284026375882642264.jpg,sys-mod-file/2025-03-18/app-file/1742360372335ckcap2305706797214883384.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236037242523A25E8B-79C9-47C7-8E37-C3EBC8BC3125-18703-00000A0FF8FC1CD9.jpg,sys-mod-file/2025-03-18/app-file/174236037267326B80EA3-51DB-4AAF-AF43-50A36207042B-18703-00000A0FFD6B8734.jpg,sys-mod-file/2025-03-18/app-file/1742360373006CE07269B-E758-4E84-A7A6-B8E46B514AC7-18703-00000A0FE88CE584.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236036653073B0F0E4-B64F-4C02-8961-2264E448428F-7555-00000FCD2A16A1F5.jpg,sys-mod-file/2025-03-18/app-file/17423603664479BE15AE8-B162-46E9-8D07-180FDF811673-7555-00000FCD2E28DC74.jpg,sys-mod-file/2025-03-18/app-file/1742360367385EBF7C3CC-F3B2-4CF7-BA1F-137BE71B7999-7555-00000FCCD7A671EE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360365772E8CE4B48-7223-4BC7-BF8E-F4F96F4450EA.jpg,sys-mod-file/2025-03-18/app-file/1742360365822E9C11E87-8220-4FFD-997D-B193EB178A72.jpg,sys-mod-file/2025-03-18/app-file/17423603663103669D6DC-5571-473D-A412-F8843897DD95.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360363376982DD393-B12B-48CF-B6EF-718D378F539F-19012-0000110CBC721834.jpg,sys-mod-file/2025-03-18/app-file/1742360363441118E9975-5691-421E-8F8E-7B03FE4A886A-19012-0000110CCA1FAAB2.jpg,sys-mod-file/2025-03-18/app-file/1742360364020412F1890-9924-40AF-A450-5BAE747784A6-19012-0000110C9D99F8A2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603615301742360343808rn_image_picker_lib_temp_15cfd639-bc6f-4404-b632-bcc1f00a1e69.jpg,sys-mod-file/2025-03-18/app-file/17423603620311742360358086rn_image_picker_lib_temp_7a4022d9-d747-40b8-a3df-692cdf609366.jpg,sys-mod-file/2025-03-18/app-file/1742360363946ckcap8957583886461890932.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603613711742360340382rn_image_picker_lib_temp_4375a9a7-994f-4acb-a168-23b2cd4cb860.jpg,sys-mod-file/2025-03-18/app-file/17423603589551742360351232rn_image_picker_lib_temp_4d9a062f-d967-457c-a1cb-81bb5af1cb2c.jpg,sys-mod-file/2025-03-18/app-file/17423603615971742360273393rn_image_picker_lib_temp_8134b94c-aeb1-420b-a2af-59ecf66b7804.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360350978BBF44A30-3C92-4C4D-9B4F-4D2AB48E881E-69301-00000BFBDF1F0C14.jpg,sys-mod-file/2025-03-18/app-file/17423603489916D0E4926-A4AF-49C0-A1E4-FF1F8B8556DC-69301-00000BFC3D96D711.jpg,sys-mod-file/2025-03-18/app-file/174236035199144151ADC-2E58-4332-9460-9F2A5A0427A6-69301-00000BFBD0319EA2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603462855129A876-257A-4E74-AE57-2403CEF22729.jpg,sys-mod-file/2025-03-18/app-file/17423603455627536742C-3012-400D-A109-4F25B3EEB7AA.jpg,sys-mod-file/2025-03-18/app-file/1742360345785F72A6610-8237-4C39-A4E5-B8673DC5ABAF.jpg,sys-mod-file/2025-03-18/app-file/1742360347230774F505F-7459-41BC-A173-8EA92F7C1212.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360343807BD527183-527D-4E3A-8D90-3B88A4513438-24500-000015428226867A.jpg,sys-mod-file/2025-03-18/app-file/1742360343726802B064F-8F3D-4EED-A499-F66351C956B5-24500-00001542A347798A.jpg,sys-mod-file/2025-03-18/app-file/17423603441746063F876-91DD-499F-A032-1E65AE4FABA3-24500-00001541CB4ED908.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236034247431C99858-E152-49F3-AE91-359B822A52B1-7230-00000367AA2BB81C.jpg,sys-mod-file/2025-03-18/app-file/1742360342471E9D5EF64-F68D-4BC2-AEEF-8F79E372AD12-7230-00000367BD2C703E.jpg,sys-mod-file/2025-03-18/app-file/17423603427288288CE0E-D010-40AE-98E6-B4C40ED68CF1-7230-000003678B759F49.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360342918B8B436D1-AC57-49A0-B3B9-C3D8EF2A1082-13815-00000602A77315A1.jpg,sys-mod-file/2025-03-18/app-file/17423603428155BEFC9AD-6E07-439F-BA19-65B3F5195ABB-13815-00000602B8907EC1.jpg,sys-mod-file/2025-03-18/app-file/1742360343312757F62C7-3B57-4678-974F-441756732F93-13815-0000060259F33728.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360339036ckcap8845590098378547482.jpg,sys-mod-file/2025-03-18/app-file/1742360341287ckcap2190467453165088373.jpg,sys-mod-file/2025-03-18/app-file/1742360342320ckcap8542734537795194951.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603391990FF16780-D9A1-41B9-A3F4-FE8A035E18CF-4579-0000048DEF4B6EF6.jpg,sys-mod-file/2025-03-18/app-file/17423603386262980EB56-D78C-479A-92F0-60B6D18F15F1-4579-0000048DFD3EBFC8.jpg,sys-mod-file/2025-03-18/app-file/174236033963589A6F2E3-79AA-4772-9288-72CABD7F8280-4579-0000048DDB0E117B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603319176EC9F8D6-51F4-4DE7-8F35-273A14FB4BB9-2359-0000069B70F0AA5A.jpg,sys-mod-file/2025-03-18/app-file/1742360330715BB5DE550-8A9B-4D3E-BA3C-6F961D91FD92-2359-0000069BAE24377A.jpg,sys-mod-file/2025-03-18/app-file/1742360335697A382B9FE-2C85-4F18-A25F-260A94EB56AE-2359-0000069B5CAE3937.jpg,sys-mod-file/2025-03-18/app-file/1742360334195367B6339-EF38-4173-BE6D-5AEAEE315D0B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236033211013C667D9-6D52-4EE7-BC73-54D05B2E4E59.jpg,sys-mod-file/2025-03-18/app-file/1742360332702CC7BD61B-FDED-4FD1-AE33-03482692D2F5.jpg,sys-mod-file/2025-03-18/app-file/17423603336866197EF5C-337C-47D4-8BFE-D2CB7A02E24C.jpg,sys-mod-file/2025-03-18/app-file/1742360334275AD99DF12-229D-4FBA-A97E-4A1ACB52D899.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603264888FA0EB39-D7D2-4819-AFE4-C5DE145324B3-1538-000000E9B85321A6.jpg,sys-mod-file/2025-03-18/app-file/17423603267157C1F8542-214A-47BF-A094-490C7EA0EF67-1538-000000E9D5D26726.jpg,sys-mod-file/2025-03-18/app-file/17423603264396CBDDB2E-AEA3-4211-8589-3DB6689171BC-1538-000000E9DF586878.jpg,sys-mod-file/2025-03-18/app-file/1742360332600EDC78590-9E0B-48D9-9637-FF544E82D6BA-1538-000000E9AC433AC7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603314729A520B4E-A92C-478C-A02F-010BC1526D19-913-0000002BB95F6FC7.jpg,sys-mod-file/2025-03-18/app-file/17423603314852E41569F-98B8-4F8F-8CF8-744AC0BAEFEF-913-0000002BBFAB5C45.jpg,sys-mod-file/2025-03-18/app-file/17423603316661704E3B0-3648-4638-9157-382C7ED3D6C7-913-0000002BAAC88F7B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603304325671086D-D77D-423B-8560-6DF6B7771F13-1474-000001092E4B28F2.jpg,sys-mod-file/2025-03-18/app-file/1742360331056C79888BB-54BB-46FA-98E9-8FFFE4CCE746-1474-000001093F4CE7C3.jpg,sys-mod-file/2025-03-18/app-file/174236033221668BA429A-DCD3-41B5-8103-F9CA7DB22719-1474-00000109287C3FF3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603279530B5200EF-2798-4C74-A1E8-AB4C5646B683-62059-000022A50CD30258.jpg,sys-mod-file/2025-03-18/app-file/1742360328462A742BDBC-FA44-4A2C-994F-56EED10DC0C3-62059-000022A529DB1DDF.jpg,sys-mod-file/2025-03-18/app-file/174236032962819B8BCA5-8C30-4964-A3F0-EB04F9E08D38-62059-000022A48FC8FFDF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360323048D03D46C3-1CF9-4881-BBBA-3EFF906A3022-7598-00000637DF5B126C.jpg,sys-mod-file/2025-03-18/app-file/1742360322915A0F60D3A-B238-4261-B880-05CAABC01EE4-7598-00000637E9929849.jpg,sys-mod-file/2025-03-18/app-file/17423603241425C881752-3C3C-42D7-96A2-24F0CA203813-7598-00000637DA0F9D95.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603232113397A7B8-E85F-4CB3-8A4A-FDDE472F1C2B-7222-000001711CD7391B.jpg,sys-mod-file/2025-03-18/app-file/174236032327860574DE2-4997-4C3B-A6D8-CC02A0286257-7222-000001712C9A68AB.jpg,sys-mod-file/2025-03-18/app-file/1742360323624FE05C9A1-5B55-407E-BFCF-B2564F03E0D7-7222-000001701D096361.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603211409C31ACEA-CC19-4C90-9B89-75CA50B847AC.jpg,sys-mod-file/2025-03-18/app-file/1742360321768dm_30CBC5BD-51A0-4A77-AAF5-5F20D864DB0E.jpg,sys-mod-file/2025-03-18/app-file/17423603217076F66D61C-7387-42F5-9647-CCD4649C1A52.jpg,sys-mod-file/2025-03-18/app-file/1742360322270C7339E3E-B28F-4F63-B873-7E5965832D7F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236032087021C524C1-9680-4FCE-8AF3-15BC1A2DCA9F-314-00000010F5C29E28.jpg,sys-mod-file/2025-03-18/app-file/1742360320834099029FA-9E85-4CDD-A7AB-F6907C154705-314-00000010FEC44858.jpg,sys-mod-file/2025-03-18/app-file/17423603211553B0F0980-6035-453F-B8A3-7D8392E8AD3A-314-00000010EF197D94.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360319701DBAA8965-D4DF-4CDB-B0C5-459260A840BA.jpg,sys-mod-file/2025-03-18/app-file/1742360319179FEE7994A-7D53-4C34-B4A7-41C9F0F80D97-89746-00002E69E238C4A9.jpg,sys-mod-file/2025-03-18/app-file/17423603195407C4B7594-9BA4-4D56-91F9-278392A03038.jpg,sys-mod-file/2025-03-18/app-file/174236032031778CA0D90-9A21-4B65-936E-D054840E3980-89746-00002E69CA70D0E3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360318023F4A1FCA9-1359-45B1-85F1-22376C4C4EE9.jpg,sys-mod-file/2025-03-18/app-file/17423603178501D984F35-8A9E-4A2E-82F3-5CCAD976A414.jpg,sys-mod-file/2025-03-18/app-file/1742360318799AAD96362-4CF4-4023-ACB7-6009571F1EF8-11142-000008ED16A6421B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603147690F58DBB7-8B3F-4AF9-8CD9-1A05103316F5-10457-00000814138722E7.jpg,sys-mod-file/2025-03-18/app-file/1742360315123934F5886-D8FC-454A-A395-E097CE0F5BB9-10457-0000081416206DEB.jpg,sys-mod-file/2025-03-18/app-file/1742360317958433C1014-E8D8-40B7-AB72-C212DCA0D04C-10457-00000814037AABB2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360308555ckcap6793034008909543565.jpg,sys-mod-file/2025-03-18/app-file/1742360308498ckcap3400788697993891886.jpg,sys-mod-file/2025-03-18/app-file/1742360309007ckcap613082097612182766.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423603032326E34D325-542B-4AAC-B9DE-7BA3D21D1ECA-2695-000001B50A8A7E63.jpg,sys-mod-file/2025-03-18/app-file/1742360303402E179C121-5B92-4EEF-9CAF-686295D9EFC8.png,sys-mod-file/2025-03-18/app-file/17423603037651B544925-1101-4E29-ACAF-E531EB044060-2695-000001B3AFF13689.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360299367216F4709-DED1-4F31-BF18-B84B167ADC36-7420-000002E86AE86530.jpg,sys-mod-file/2025-03-18/app-file/174236030016614170A98-E661-4194-8096-FE56AC837E54-7420-000002E873880B26.jpg,sys-mod-file/2025-03-18/app-file/174236029998569AD86AC-EFDA-4DC1-B01C-3C5ED199AF29.jpg,sys-mod-file/2025-03-18/app-file/1742360300683A0B01B4C-37F2-4B0D-B2E1-0F4DA960634C-7420-000002E853B68024.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602987698571A492-F3F8-4A54-8540-E6A4957BDAF4-913-0000002B449FCA87.jpg,sys-mod-file/2025-03-18/app-file/1742360299039E2E789FF-FC8D-43DA-AADB-B1D1A252732C-913-0000002B893EBF0F.jpg,sys-mod-file/2025-03-18/app-file/1742360299334F0A18DAB-F326-4F6A-99AC-97EBE8698BE7-913-0000002B3AA2A4A7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360299509E95E4BAD-0D8A-4260-9AB4-9CF36A901F90.jpg,sys-mod-file/2025-03-18/app-file/1742360299283dm_1ADEB322-BD3B-473E-826A-A722F9CDE5E7.jpg,sys-mod-file/2025-03-18/app-file/174236029905877CAB853-01B8-4C64-8C66-B6AC808F9A99.jpg,sys-mod-file/2025-03-18/app-file/1742360300148E67F8E03-688B-4327-942A-93A5EB5F10C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360283660F8CF440A-D5B0-4F08-8BEA-2EEC36966CD9-50453-0000033F2BFA5B71.jpg,sys-mod-file/2025-03-18/app-file/174236026980971F5B29C-1806-4024-8D80-C8151270C1E6-50453-0000033F34B3C907.jpg,sys-mod-file/2025-03-18/app-file/1742360296635E143CEF9-CED0-4F32-BDAF-3642FC7831D7-50453-0000033F048854D9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602897785A8D3349-2038-4955-90FF-9EB6421A33C9-19098-000036F8409B881B.jpg,sys-mod-file/2025-03-18/app-file/1742360289755C45E9B83-C722-443E-9191-FDEDD7B317ED-19098-000036F851399DC7.jpg,sys-mod-file/2025-03-18/app-file/17423602903576DDCA5F2-AC19-4F58-B49E-DBD6BD253BA1-19098-000036F829F32AE7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236028251006B37D72-4663-40AF-8C4D-A89EAEEB365F-3320-000005E00C77CFC3.jpg,sys-mod-file/2025-03-18/app-file/1742360281209F184887A-7AD2-43A1-9B63-4A0B70E4902F-3320-000005E01728BD08.jpg,sys-mod-file/2025-03-18/app-file/1742360283982A3A4A17E-8863-46AD-ABBA-F0A4D7B09215-3320-000005E007F677C9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602811463856D66B-9F53-42F9-99A3-8BF6CDCAA31C-4312-000002B658F290F1.jpg,sys-mod-file/2025-03-18/app-file/17423602811518BCD42B2-CBBE-486A-820D-733ABA1D20AD-4312-000002B6640C5699.jpg,sys-mod-file/2025-03-18/app-file/174236028248456ADF7B4-28FE-4C53-BEC5-A68130939C69-4312-000002B64044651D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360282985912883CD-FF2C-46B6-9886-3EE324FEC550-408-0000004EE8DE27B8.jpg,sys-mod-file/2025-03-18/app-file/174236028296649B05994-E743-4AA3-A01B-BE99B4F84AB1-408-0000004EF325FA6B.jpg,sys-mod-file/2025-03-18/app-file/17423602832866C1D33FA-841A-4D98-A1FD-E86CB3319DBD-408-0000004EA176FF09.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602750841333F5D1-3C51-4F98-A9DC-D16E69F92FCD-3762-00000261537C2A1B.jpg,sys-mod-file/2025-03-18/app-file/174236027593976BA1A57-B76C-45E4-8C18-01DF57847F4F-3762-000002615CC577B3.jpg,sys-mod-file/2025-03-18/app-file/174236027712107EC11FB-206C-4F57-9004-9E092158E7AA-3762-000002612C065722.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602762715C531E1C-DE07-4AC6-A9CC-A261AF1333ED.jpg,sys-mod-file/2025-03-18/app-file/174236027640505E94902-175F-499B-80AE-61130E9A38BD.jpg,sys-mod-file/2025-03-18/app-file/17423602766813C12CF89-199C-4AAF-BD16-D9158C4C4451.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602755439EA93E23-5355-46AC-A07B-6D447B947BD1-27096-00001A2A24774FC1.jpg,sys-mod-file/2025-03-18/app-file/17423602750292BCFC9C6-325D-4905-ADE5-180A5AE907DF-27096-00001A2A360C93C8.jpg,sys-mod-file/2025-03-18/app-file/17423602767731973C2CD-4C3D-4EF4-B1F0-2A9711F6BE2E-27096-00001A2A1376D196.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360274408EA852A7D-C4F5-45FE-B29E-6DD16F3967C3-5434-0000042C7907CC7A.jpg,sys-mod-file/2025-03-18/app-file/1742360274502E268C278-3988-41A0-9870-3054BD466620-5434-0000042CB667B5B1.jpg,sys-mod-file/2025-03-18/app-file/174236027485959A72472-BD8B-4015-8CE3-17007BFE2361-5434-0000042C58B38F73.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360268564178FBC49-94FF-44B8-BCBC-FA116549EB1A.jpg,sys-mod-file/2025-03-18/app-file/1742360269346969A4A95-C2DE-465F-A014-AC994E7F2BFF.jpg,sys-mod-file/2025-03-18/app-file/1742360273503ECA54DED-9ED6-42AA-B9BC-D7FB980F103A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602709666BBF15C9-A6E4-483B-9D76-B6C4CD143297-2746-0000016EABC199F6.jpg,sys-mod-file/2025-03-18/app-file/17423602710284921AED7-6775-4649-88D5-402B5380E0BF-2746-0000016EC628DD6D.jpg,sys-mod-file/2025-03-18/app-file/1742360273215E8DC2E90-52DA-45FC-BDAA-4D0CCB1D32E6-2746-0000016EA4DDDD5D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360269094CE791906-E65C-4490-B187-B0CF812CBA03.jpg,sys-mod-file/2025-03-18/app-file/1742360269792dm_DA15C1E6-5390-48AB-B6EB-359019AF4BBA.jpg,sys-mod-file/2025-03-18/app-file/174236027022038FFB292-4BC0-41BA-8717-EB4AAFF14820.jpg,sys-mod-file/2025-03-18/app-file/174236027296207FEEC5A-830B-4A0D-8284-4BA92BDC4393.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602670351742360243969rn_image_picker_lib_temp_b08dca6a-dacf-4f87-9456-d14f9b62cb82.jpg,sys-mod-file/2025-03-18/app-file/17423602671001742360265723rn_image_picker_lib_temp_f722b618-1c97-4fd1-a620-8d1961e86a6d.jpg,sys-mod-file/2025-03-18/app-file/1742360267398ckcap1118977029697194411.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360266809ckcap4912869565345424428.jpg,sys-mod-file/2025-03-18/app-file/1742360266749ckcap9204457748120857609.jpg,sys-mod-file/2025-03-18/app-file/1742360266745ckcap7359998289984408382.jpg,sys-mod-file/2025-03-18/app-file/1742360267273ckcap7479851563865783911.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602651037785F0C9-72CC-4A89-BACE-4B0712E2E70A.jpg,sys-mod-file/2025-03-18/app-file/1742360264942E112D97D-1AAE-4F01-8736-61AD904C1050.jpg,sys-mod-file/2025-03-18/app-file/17423602663642F3E2DCA-C97B-47A0-B0DB-330B1A6549D1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360263351BE719CBF-5E64-45E4-8E39-16B9016183F1.jpg,sys-mod-file/2025-03-18/app-file/17423602630360CE74440-9780-4371-8E0C-58F874FBD3C4.jpg,sys-mod-file/2025-03-18/app-file/1742360264081AC221B09-6979-4EDF-A353-D10080BE5C7B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360257309E97D7703-B834-4C56-898A-7566A95346F1-7993-0000016ED91B9757.jpg,sys-mod-file/2025-03-18/app-file/1742360257484A85A319B-FEBC-4FDC-A93D-2466AFE72F98-7993-0000016EE8FD6AC3.jpg,sys-mod-file/2025-03-18/app-file/1742360257815306EB122-DE47-4297-8435-6C87D96ABBDC-7993-0000016ECD3CCE4D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360256133C4AE3524-3F2A-4F47-86D4-C9089AE63594-12203-00000B78AA5E88DE.jpg,sys-mod-file/2025-03-18/app-file/1742360255947D46A685F-AD64-4EA6-AE85-F11227A47B5B-12203-00000B78B11C8E6D.jpg,sys-mod-file/2025-03-18/app-file/17423602569576E6C5E94-491E-4742-8EAC-7CAB5B73662C-12203-00000B788EC8EE97.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360255043CF9F6013-C63C-4392-A8D5-139903260CBD-1923-00000159490B1041.jpg,sys-mod-file/2025-03-18/app-file/17423602550878CAF8C1F-3FCB-44AB-BE04-B1B779C6CBB1-1923-0000015958278425.jpg,sys-mod-file/2025-03-18/app-file/17423602552834A85AE42-AA4F-4A74-9587-B7AA718B8E2E-1923-000001593E77524F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602506274EEE3199-58D1-4092-BE87-205E7FB3A991-2700-0000022BEE4BF09E.jpg,sys-mod-file/2025-03-18/app-file/17423602504526DB3A867-39DF-4E88-AA92-E349ADB66CB2-2700-0000022BFB25678A.jpg,sys-mod-file/2025-03-18/app-file/1742360250850BD32F076-9DF5-481A-8E58-8F862F2CE2E7-2700-0000022B9EB02271.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236024791048144A8D-4E74-437C-98A4-D93215929464-314-0000001079D821A6.jpg,sys-mod-file/2025-03-18/app-file/1742360248454E488CD1A-4203-4314-8351-854F69F13259-314-0000001084652B22.jpg,sys-mod-file/2025-03-18/app-file/174236024797129DBFD07-E593-4232-8B49-6B266B6F9A43.jpg,sys-mod-file/2025-03-18/app-file/174236024880705A211CD-DBA0-4A0A-A110-137BAAB2D0FA-314-00000010719B5EFD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602475300C039CEC-6609-4395-A329-A941F58B2A5B-4452-0000036F1D81C46F.jpg,sys-mod-file/2025-03-18/app-file/17423602477653D826DF7-0AFE-496A-AD98-E7C12E91A32E-4452-0000036F3D816C1F.jpg,sys-mod-file/2025-03-18/app-file/1742360248997A99AA5D7-4EA5-48FD-A9D8-E247CF88A9C3-4452-0000036F15FD59A8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360248755ckcap2581572224132509246.jpg,sys-mod-file/2025-03-18/app-file/1742360248912ckcap6786275751412578470.jpg,sys-mod-file/2025-03-18/app-file/1742360249133ckcap1868571487846678369.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602466024607AE96-FF0C-469F-92C7-F6AD8F8CEDA7-433-0000004A26D4A25C.jpg,sys-mod-file/2025-03-18/app-file/1742360246607DB36D9D0-67FA-47B8-92B2-1F101A7CF3D1.jpg,sys-mod-file/2025-03-18/app-file/174236024685787CFDD69-3081-4F4B-B5BF-4F8CEFEB83E6-433-0000004A14CCF5F6.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236023829410A88502-E689-49DE-BD38-0747A0916A41.jpg,sys-mod-file/2025-03-18/app-file/17423602404208327E639-9545-4A77-8AB8-758FEC910570.jpg,sys-mod-file/2025-03-18/app-file/17423602416577A2FD58D-5024-40A1-A1F8-5BF13EB52294.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236022970312AA9B1A-E52E-4F23-8F30-61575762401E-4579-0000048D5E38F912.jpg,sys-mod-file/2025-03-18/app-file/1742360229807B6FB9649-38FD-4AE0-8D56-C1CF862A2ADD-4579-0000048D62BA610A.jpg,sys-mod-file/2025-03-18/app-file/1742360230061D14D5EC9-A353-40AC-9DE4-B86BBFBF22C6-4579-0000048D428C8809.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602271721742360077984rn_image_picker_lib_temp_a4fa47f1-f171-4797-a06b-30ff8fa85ac7.jpg,sys-mod-file/2025-03-18/app-file/17423602271551742360143070rn_image_picker_lib_temp_9e0cb086-d48a-4730-96cc-056827759b22.jpg,sys-mod-file/2025-03-18/app-file/17423602272311742360225488rn_image_picker_lib_temp_816156b1-288a-4687-8e0f-2d398b21d0f6.jpg,sys-mod-file/2025-03-18/app-file/174236022789117423600713001000003016.png,sys-mod-file/2025-03-18/app-file/17423602278551742360127026rn_image_picker_lib_temp_168aa88e-f1cf-43c3-9e19-ba1134520a21.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360226875F640DA3F-53FA-4C2C-B23C-306C7D59AA6F-432-0000006F01026A50.jpg,sys-mod-file/2025-03-18/app-file/1742360226873EDC30E66-F5AA-4018-9646-DC20FCDEA59E-432-0000006F135B7444.jpg,sys-mod-file/2025-03-18/app-file/1742360227443EA1977C0-5A15-4712-9DDB-6FD6628E6BBE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602228089FDF3208-B905-4B18-B13B-5F5887564CFE-7694-000001B8D4BB248E.jpg,sys-mod-file/2025-03-18/app-file/17423602242849971CAF4-0511-45AC-8C7F-1D6131FA51F1-7694-000001B8DE617CD9.jpg,sys-mod-file/2025-03-18/app-file/1742360225282611F07B2-6E82-417E-B70B-B6BDC8ACDFE5-7694-000001B8BC55DEF2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360222789dm_F09245D7-5D9D-45EF-9B28-17822ADE771E.jpg,sys-mod-file/2025-03-18/app-file/17423602239169A8C8FFE-84FB-4FB9-A9F4-CCB0FBDC7DF0.jpg,sys-mod-file/2025-03-18/app-file/1742360222861770D1F2E-B9A0-4E1A-B03E-E4E1A3641652.jpg,sys-mod-file/2025-03-18/app-file/1742360224471dm_0457C823-3D4B-4373-B153-FED2895FEB28.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602209491742360204160rn_image_picker_lib_temp_2a7d0e15-915e-4368-adc3-575225df295e.jpg,sys-mod-file/2025-03-18/app-file/17423602203101742360217086rn_image_picker_lib_temp_c8b18cbd-a0ec-4d81-9175-c5e24c6b5e7f.jpg,sys-mod-file/2025-03-18/app-file/1742360222753ckcap7138078120888124693.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423602164817423801B-B314-43EE-8291-B11D3298A441-65998-000010089C0B3936.jpg,sys-mod-file/2025-03-18/app-file/1742360216497150B5482-FB10-483F-A35B-9D3DB24D478D-65998-00001008A1013CE4.jpg,sys-mod-file/2025-03-18/app-file/1742360217035C866E7F3-4778-4351-9C58-F35B6AD60751-65998-0000100894EA8C53.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236021050599DBEB16-BC04-48E6-98D0-51E98387B361-1033-000000C89F71BB38.jpg,sys-mod-file/2025-03-18/app-file/1742360210969BAA73C86-201B-48CF-A3FD-7B8F22FA05CE-1033-000000C8AC8A589D.jpg,sys-mod-file/2025-03-18/app-file/174236021275461D0CBA6-14C1-481D-A821-DA5B40807537-1033-000000C890092934.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601962955C44FFB9-01F0-425F-A314-C2BA6D2E4E79-4929-000005535B36B614.jpg,sys-mod-file/2025-03-18/app-file/174236019844295EE41EC-E15A-4AAB-B741-BB8F1B1DEDDD-4929-0000055366654022.jpg,sys-mod-file/2025-03-18/app-file/17423602118794BCF593B-74B4-44D5-BC8F-EE15C6390954-4929-000005534265AFF7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360206273A6928846-7375-429F-9B8F-35A9ED45A5D4.jpg,sys-mod-file/2025-03-18/app-file/174236020627525E5A9B2-2121-4A58-A2C9-A17973FECAD8.jpg,sys-mod-file/2025-03-18/app-file/1742360206504456C08B1-5812-4783-B1CF-4EB4846AD003.jpg,sys-mod-file/2025-03-18/app-file/174236020806875866FBC-1806-4C2D-9CE6-275C7D4BDFF1-11142-000008EC63F3616B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360205672ckcap6559696572712457288.jpg,sys-mod-file/2025-03-18/app-file/1742360205722ckcap962352019943288989.jpg,sys-mod-file/2025-03-18/app-file/1742360206132ckcap3593684009239029508.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601966143F9A7A9B-3B11-4E61-A7F8-1BAFA5EB2ADF.jpg,sys-mod-file/2025-03-18/app-file/1742360195221A161640E-7C5B-402B-88B9-9CD28F9FCDFB-2785-00000303FBCF5D73.jpg,sys-mod-file/2025-03-18/app-file/17423601991149C6C020D-4F71-4E6D-B716-2CBEA125FEA1-2785-00000303DB1CE6C0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360197884B709577D-5A42-4A6E-AF2E-DC0531B57451-1991-00001D5F83E2A1AE.jpg,sys-mod-file/2025-03-18/app-file/17423601975809C690C48-9672-4BB6-A2B1-79B1F20D53FE-1991-00001D5F926E7B9A.jpg,sys-mod-file/2025-03-18/app-file/1742360198326257C983A-F3FC-4492-97B5-78D09D0F8807-1991-00001D5F69C894E0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360197721EFB03CED-9D53-434A-B6CD-E85027863874.jpg,sys-mod-file/2025-03-18/app-file/1742360197343dm_9B303828-5B4D-484D-B939-5CB4DD507659.jpg,sys-mod-file/2025-03-18/app-file/1742360197216886C9EE9-69FE-48E0-81DB-DE99B1B629DB.jpg,sys-mod-file/2025-03-18/app-file/17423601983289D7CC7E1-DD2F-4DAA-BEF8-28CD2BC4195F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601951868890D28D-20BF-4460-BE4B-4BCB81EE06FF-2596-0000019EF4FA2554.jpg,sys-mod-file/2025-03-18/app-file/174236019600037BB667C-D4E0-4043-BB50-2C266CD5CF63-2596-0000019EF9411746.jpg,sys-mod-file/2025-03-18/app-file/1742360195900E33F3E9C-C6EB-4418-8830-A5C8ACF87735-2596-0000019EFFCB5D83.jpg,sys-mod-file/2025-03-18/app-file/1742360196338C98EB180-9AC5-4A30-8336-B789AE371F1D-2596-0000019ED838F212.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360195287F525B9A3-142F-4DF0-8C49-96CF792CD2B8-7993-0000016E7E16840C.jpg,sys-mod-file/2025-03-18/app-file/174236019521785E3492D-B141-4D3A-BC51-66E4374D4FF9-7993-0000016E8E080D99.jpg,sys-mod-file/2025-03-18/app-file/1742360195696CED0C34F-75F8-49A6-8726-95C47186F649-7993-0000016E6B229740.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601937838890D28D-20BF-4460-BE4B-4BCB81EE06FF-2596-0000019EF4FA2554.jpg,sys-mod-file/2025-03-18/app-file/174236019289337BB667C-D4E0-4043-BB50-2C266CD5CF63-2596-0000019EF9411746.jpg,sys-mod-file/2025-03-18/app-file/1742360193764E33F3E9C-C6EB-4418-8830-A5C8ACF87735-2596-0000019EFFCB5D83.jpg,sys-mod-file/2025-03-18/app-file/174236019444824BF83B7-361D-46D3-9C35-A46D4E686FF5-2596-0000019ED475DEE4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360194235896ACAFA-7D02-4B62-814C-A9A66F04A01F.jpg,sys-mod-file/2025-03-18/app-file/17423601935781A2A79A8-37F3-458B-B111-843C78B3A58E-89746-00002E69313C6CF6.jpg,sys-mod-file/2025-03-18/app-file/17423601944747DBE8F76-C350-42A8-AB29-FBFE420F6F2F.jpg,sys-mod-file/2025-03-18/app-file/17423601948593B864978-FF6A-4724-AE2B-66C023FBC5FD-89746-00002E691C9C08CB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236018863039635EE1-7644-4C53-8D29-537CCDA381B7.jpg,sys-mod-file/2025-03-18/app-file/1742360189461F1D2569B-B278-4D94-BC20-5091BCFBBC9B.jpg,sys-mod-file/2025-03-18/app-file/17423601939530436D008-8156-4F54-909B-240C1F6672E0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236018979764DD8806-B4B0-43C9-8F01-DF344FD158F9-4312-000002B5CE8E76C5.jpg,sys-mod-file/2025-03-18/app-file/174236018994289137AAD-77F8-45A6-AE82-CBD3F2FDBD1A-4312-000002B5DCC239C4.jpg,sys-mod-file/2025-03-18/app-file/1742360192275A28803AE-1B1F-44AD-A717-7D21B440501F-4312-000002B5BB75BF99.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360189891E096CEC5-52F5-4BAD-ADB2-76377D3A31E5-19098-000036F7BC16E0E5.jpg,sys-mod-file/2025-03-18/app-file/1742360189745BCC2E6DD-E90B-470F-921B-527FC7B77F98-19098-000036F7C65B8260.jpg,sys-mod-file/2025-03-18/app-file/1742360190593338F46C2-8ADD-4CE4-A550-C93805BF3B5D-19098-000036F7AADCF094.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360187839540D2178-D253-4DBE-8A0D-31895EF35842-913-0000002ABE6C6EB8.jpg,sys-mod-file/2025-03-18/app-file/17423601881638BAED114-5699-4A3E-B697-D234CE073203-913-0000002AD07FFF54.jpg,sys-mod-file/2025-03-18/app-file/17423601886415F40E7E2-2FEA-424A-997A-0457438F7C8F-913-0000002AB04F0DD1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360188551EBC52133-93A2-4ED0-9D77-D2E8FC5705F0-10309-000002BF4D95FC29.jpg,sys-mod-file/2025-03-18/app-file/17423601885656B52C873-6C23-4973-A983-B783E7BC166A-10309-000002BF5FDE7048.jpg,sys-mod-file/2025-03-18/app-file/1742360188816FBCF1A78-3D21-43AE-A5B3-126F762E058C-10309-000002BF2D1C55D0.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360187080ckcap6741501691840938829.jpg,sys-mod-file/2025-03-18/app-file/1742360187323ckcap3324018622204993178.jpg,sys-mod-file/2025-03-18/app-file/174236018731117423601848281000068363.jpg,sys-mod-file/2025-03-18/app-file/1742360188028ckcap4340680318691880778.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360182347AE2AB4C5-4CD5-4C55-AF55-58EF0CFAA530-19012-0000110BB117F789.jpg,sys-mod-file/2025-03-18/app-file/1742360182359933C37E4-E197-4AE0-A4EE-588956F65152-19012-0000110BC56DFFF2.jpg,sys-mod-file/2025-03-18/app-file/1742360182589EFD15312-3AF5-4BEC-892B-8F5B6CAE3805-19012-0000110BABC9074F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360180314F3EE1992-D52F-486A-B34E-8084AC5204E0-12422-000007B3088D386D.jpg,sys-mod-file/2025-03-18/app-file/1742360180533BF7B797C-1DAB-41AA-A8A0-A539B492ED3B-12422-000007B316A4B0C4.jpg,sys-mod-file/2025-03-18/app-file/17423601809398B67A6FE-2378-4BFF-9A39-FD6F5CCB668B-12422-000007B2FBED93C3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236017233932191085-EE4A-408E-9464-AEE9F8E06995.jpg,sys-mod-file/2025-03-18/app-file/1742360172414E6DBB6AE-6388-4F09-8E2D-2E3A5C04AA1F-24500-00001541A0FD0507.jpg,sys-mod-file/2025-03-18/app-file/1742360172323229E3EAA-6CF5-4EB5-A836-92CEFD4D8D2B-24500-00001541AEDF366C.jpg,sys-mod-file/2025-03-18/app-file/1742360173141CD3E15D9-65E1-43ED-B1D0-3EE6B5234823-24500-000015414687D9B7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601666302C0B0971-0FC2-46D6-B614-99A94EEB79F4.jpg,sys-mod-file/2025-03-18/app-file/1742360167291181D557A-C999-418A-83C3-BECB25F55B64.jpg,sys-mod-file/2025-03-18/app-file/174236016755496506147-8C8E-463C-9CAF-287FFABA9C21.jpg,sys-mod-file/2025-03-18/app-file/1742360167689AD70EB38-B64D-43D7-8A28-3204B11FE319.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360165432C7165BA8-1C70-4C6F-B441-6E464BB75C2B-676-00000061F0A0137D.jpg,sys-mod-file/2025-03-18/app-file/1742360165407B4A25D4F-206A-4A6A-AC42-76A35E653D95-676-00000061F523D67A.jpg,sys-mod-file/2025-03-18/app-file/174236016598364A508E4-310F-464D-954F-0DD34F1D5812-676-000000608BA42772.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360164695035DE39C-5622-482D-9C50-1ABE8787E4A8-7401-000003B6D4070456.jpg,sys-mod-file/2025-03-18/app-file/17423601647726CFFD0A2-1AFE-4630-8E1B-F2668BDA07EB-7401-000003B6E15FC4E7.jpg,sys-mod-file/2025-03-18/app-file/174236016518795C39FA7-4700-4681-AFE1-9B46A968B39E-7401-000003B6890E56B0.jpg,sys-mod-file/2025-03-18/app-file/1742360165160AEA83EA0-3F1A-4913-8CDA-B67665550326.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601569290C36B08F-C357-4C2E-A4B4-1142F3B53995-5354-0000041AF0E3A3A4.jpg,sys-mod-file/2025-03-18/app-file/174236015740253A92BE5-99F9-437C-A37E-6AA2ADF7ED4F-5354-0000041AF8FB6213.jpg,sys-mod-file/2025-03-18/app-file/1742360157702BFFEB436-DCCB-4288-93B6-394831DA4D87-5354-0000041AE61F9C2D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360152988D412B917-4FC7-446D-B9B1-BBBE6C8E20F4.jpg,sys-mod-file/2025-03-18/app-file/1742360153812688C59AF-583C-4DB4-90FC-710A90BF61AC.jpg,sys-mod-file/2025-03-18/app-file/1742360155625F32BCA79-962C-4CEF-AFE7-EC8DDE3FA4BD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360149246C3C43E04-3F2A-4E01-996A-37192C305E6A-626-000000886DBE7A17.jpg,sys-mod-file/2025-03-18/app-file/174236015263480BA6996-E5D5-46B1-9EB8-696BFC52E6DD-626-000000887A7E1A1C.jpg,sys-mod-file/2025-03-18/app-file/1742360155579A8638497-2960-4DCB-BB0E-7F81E55D338E-626-00000087DF60F58B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360153032A3E6425F-79A4-462B-85BE-82624250E87F-12203-00000B781EF68071.jpg,sys-mod-file/2025-03-18/app-file/1742360153079B42302A7-BA98-4F1B-AFF7-8396F2E143B9-12203-00000B782D6B9A2D.jpg,sys-mod-file/2025-03-18/app-file/174236015349379DF81CE-8074-4D57-9D53-DB1259F887A7-12203-00000B780DF6C935.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360147054CF1DF675-F609-4250-BE34-CAB7AFA26BC9-4114-000001625CA25BD6.jpg,sys-mod-file/2025-03-18/app-file/1742360146538CF268944-FBD9-4CEF-A94D-29F6405FE0CF-4114-00000162A71E6F95.jpg,sys-mod-file/2025-03-18/app-file/174236014954926532C55-C32A-4277-BD38-CB01D59B442A-4114-0000016253004BBB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236014416997614072-3103-4B5E-B49D-2115F946C264-9817-000005D5FACACCE1.jpg,sys-mod-file/2025-03-18/app-file/174236014354688F8DF13-A687-406B-9163-AE5F00E6B2B6-9817-000005D6101D2E4C.jpg,sys-mod-file/2025-03-18/app-file/1742360145426EB719FCC-31B9-46F2-BD7E-5E44F87C92AB-9817-000005D5EBE3A1AD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601421225C36A025-8031-4182-8D4E-E0E86AAAB7B8-7555-00000FCBE5B8D1FC.jpg,sys-mod-file/2025-03-18/app-file/1742360142304FC2DC4AA-2286-4520-92DE-3D6C3649A1FA-7555-00000FCBE9E2ADAB.jpg,sys-mod-file/2025-03-18/app-file/1742360143064209649B9-9D88-4E5A-AE0A-E519909B1E84-7555-00000FCBC290EFFF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360133874A0C029FB-37BC-4146-99CB-A71E7BC4D3CB-4452-0000036E8C17733D.jpg,sys-mod-file/2025-03-18/app-file/1742360137953AE39A1C8-DE4F-40ED-8B64-F52C678BBAF9-4452-0000036E9A25D3B0.jpg,sys-mod-file/2025-03-18/app-file/17423601406951906EA05-F446-4511-9A85-A2C5AF6A3BC0-4452-0000036E84EEE2A9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601390437CD44837-C478-403D-851B-67D4AF94C374-69301-00000BFAECD2E107.jpg,sys-mod-file/2025-03-18/app-file/17423601395929737EAF4-9FC2-4068-81A1-E4594A0B18DD-69301-00000BFB14809B49.jpg,sys-mod-file/2025-03-18/app-file/174236014024970A673A3-C088-4C56-8E8F-F5563963A13E-69301-00000BFAE8417106.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360134712FE735CB8-865A-4858-9757-D4320219DDC6-19174-0000021CFABD8492.jpg,sys-mod-file/2025-03-18/app-file/17423601349258DA7C0DB-D9E1-4808-B9F2-A0E5F1BA2FF8-19174-0000021D02012903.jpg,sys-mod-file/2025-03-18/app-file/174236013528124BA66A8-F111-4FFA-BF6A-949E819D6137-19174-0000021C62227D6D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601315897C86CCF6-AB26-4D39-932F-60C1AC339A34.jpg,sys-mod-file/2025-03-18/app-file/1742360131511558393CC-33FE-4837-B45B-40B713AB1ADE.jpg,sys-mod-file/2025-03-18/app-file/1742360132175E8C243DF-77C2-4268-BCDE-8D909FB0966F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601149342A8E204A-CAD6-4B48-9279-8CFC195921DC.png,sys-mod-file/2025-03-18/app-file/1742360120898812ED052-841C-46EC-8FB5-52C121455A15-7121-0000053E5933E585.jpg,sys-mod-file/2025-03-18/app-file/17423601313752F8556BA-2665-4F90-99DB-5A14A8E14383-7121-0000053E353D92C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360127877D6A7C94D-05E9-434C-B78B-7DAB8897AC64-5872-0000035B8C7312F0.jpg,sys-mod-file/2025-03-18/app-file/17423601277504ADFEBAB-F4C9-4DAB-9642-28D910315433.png,sys-mod-file/2025-03-18/app-file/1742360128338957DD329-34A2-46C1-81F5-8FC6FA33EF97-5872-0000035B208E47B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360124494D080AFA8-A697-4739-AAF0-6B1F6338FD9C-25108-000003D7AEAE8774.jpg,sys-mod-file/2025-03-18/app-file/1742360124260CE9F32BE-79E9-4251-BEBC-835865C5DA06-25108-000003D7BE026AD5.jpg,sys-mod-file/2025-03-18/app-file/17423601283294061256D-7F62-4E0D-9D00-62306478B261-25108-000003D644AF2BDE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360124782A02492B9-C69F-4262-940B-F16A3979BC24-25506-00000CC384536CCD.jpg,sys-mod-file/2025-03-18/app-file/1742360124616FF3ABA74-449B-40A6-9EC6-66946A22A7DD.jpg,sys-mod-file/2025-03-18/app-file/1742360127285DB9316CB-C68D-4F73-BF17-98E9074F7EF1-25506-00000CC37EE9AACE.jpg,sys-mod-file/2025-03-18/app-file/174236012678500519FF4-B41A-4756-9059-54D54E8D01E8-25506-00000CC37FD1649C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601238029958F1D9-AC25-47F9-A500-32C512F1774C.jpg,sys-mod-file/2025-03-18/app-file/174236012502611AE33D2-DC1A-4D19-B188-D0B6D01886A1.jpg,sys-mod-file/2025-03-18/app-file/1742360125768BDB7EEAD-4C3B-49C0-8E1D-1ED65BE2476A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601011978DECBDE8-04A8-4175-B4C6-CFE6C5334023-50453-0000033E4A519CE3.jpg,sys-mod-file/2025-03-18/app-file/1742360111766DF17D5DF-2177-4464-8B6E-CDCFB8902E1C-50453-0000033E4EE02E42.jpg,sys-mod-file/2025-03-18/app-file/17423601211343C7185AA-FF0F-477A-8F95-C8B80E869C75-50453-0000033E596458EC.jpg,sys-mod-file/2025-03-18/app-file/1742360125346A4D9A945-78B7-43A0-A823-A5D036CCA19D-50453-0000033E2FAE5CE7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360121397ED2A551E-97C0-4EA0-A357-50AE5600DD9E-1923-000001587C6D7251.jpg,sys-mod-file/2025-03-18/app-file/17423601214176CCF2D09-92D2-4D00-86FC-47C6A2A1347F-1923-00000158986C3BE5.jpg,sys-mod-file/2025-03-18/app-file/17423601217658A63242A-3E5B-4C73-972A-4C0EEF67EC99-1923-0000015859C65365.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601122502E8A20FA-85AF-4B6E-8823-716BFC4AB2D9-10457-00000812E341A18C.jpg,sys-mod-file/2025-03-18/app-file/17423601134075AF152D5-7277-4C99-8E11-0FD993788414-10457-00000812E5D5EEE3.jpg,sys-mod-file/2025-03-18/app-file/174236011678261C0B921-60CA-4D23-A4CC-2445026A0BF0-10457-00000812D94505D2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236011354229394BC1-974C-4E49-9156-4BEE0ACD8225-1538-000000E89C125BC3.jpg,sys-mod-file/2025-03-18/app-file/1742360113639CC288FD1-D3CB-4D37-BD5E-FE9DCB4F3CCD-1538-000000E8AF5361DB.jpg,sys-mod-file/2025-03-18/app-file/17423601142120E6B2269-A580-45F1-ABE8-33C4165502A7-1538-000000E88D17667D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601056937306ED1E-6632-4BE5-AD05-0368402A67E9-2596-0000019E8255CD5B.jpg,sys-mod-file/2025-03-18/app-file/1742360105873BDD7B4A8-CBDC-410B-9278-F7AFD818037E-2596-0000019E85072196.jpg,sys-mod-file/2025-03-18/app-file/1742360106743195D7E21-B12B-41A7-AEC4-B31CF2A366DD-2596-0000019E7D8A8703.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236010362282F7D8C5-C1FE-45FD-BB79-6BE90ADCB025-6858-0000035CA4C78425.jpg,sys-mod-file/2025-03-18/app-file/1742360103472E222EE6D-85B1-425E-A703-58ED8ECBF11F-6858-0000035CD13C918A.jpg,sys-mod-file/2025-03-18/app-file/17423601052672C769152-3F20-40DC-8101-EA5242E78D7F-6858-0000035C9A98EFCD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236010129426C838AB-BC5F-49EF-AC86-19C60365DE3B-7694-000001B8222400E1.jpg,sys-mod-file/2025-03-18/app-file/17423601012712BC3116A-2F9F-4096-B39A-F55943D54D1E-7694-000001B83455E62C.jpg,sys-mod-file/2025-03-18/app-file/174236010173448173880-3809-4AC1-AFB9-7F34111D55AF-7694-000001B7FC91B1DE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423601007871742360050345rn_image_picker_lib_temp_817c9f14-a032-4d80-8971-be1e7386d751.jpg,sys-mod-file/2025-03-18/app-file/17423601011151742360074068rn_image_picker_lib_temp_36581042-a2e0-4cbe-a5b7-46c07a58882e.jpg,sys-mod-file/2025-03-18/app-file/17423601016021742360042751rn_image_picker_lib_temp_b1027e24-586d-4565-8376-6208524a5f2c.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600990647492D286-9BA0-44F1-9FE0-3ED8A0EEB3BD-4452-0000036DFB815600.jpg,sys-mod-file/2025-03-18/app-file/1742360097499B8539EEF-5674-4914-864B-2DB6F3F1134D-4452-0000036E07A4DD53.jpg,sys-mod-file/2025-03-18/app-file/17423601001115E8A8477-CC76-4AE3-8A3A-2FDD08A22FF1-4452-0000036DEFC318D1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600960322D080778-1200-477A-A1EC-DDBE6E19C555-27096-00001A29303F20CA.jpg,sys-mod-file/2025-03-18/app-file/1742360096369CF9E240C-C6E6-4439-BF7F-433157E47490-27096-00001A293960E431.jpg,sys-mod-file/2025-03-18/app-file/17423600974792B8769E5-B4DB-47EF-8BA6-D1132BCBD998-27096-00001A29008A8C95.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600922366FAEBB1B-E3FC-4CEE-98F1-8F6E5BC70AFA.jpg,sys-mod-file/2025-03-18/app-file/17423600930801009F6AF-1D78-4461-BCD7-03A582716788.jpg,sys-mod-file/2025-03-18/app-file/1742360095756dm_0830370C-8BD6-44B5-A62F-AB9633C481F4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600943927194B924-0BE7-4DE3-8DE6-770EE3E02CDA.jpg,sys-mod-file/2025-03-18/app-file/1742360094505A7B65461-6C94-4269-B7C9-B526877A83E4-89746-00002E68A3C849C5.jpg,sys-mod-file/2025-03-18/app-file/1742360094563A693CB2E-3F8B-486B-AF31-9EAA1D0E98BF.jpg,sys-mod-file/2025-03-18/app-file/1742360094762F61FC440-D981-4B66-A971-F44E9D3009B2-89746-00002E687A4119A2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600908103EF0136F-73B5-4EF1-9E78-A93E64B33D5F-19098-000036F73356102B.jpg,sys-mod-file/2025-03-18/app-file/17423600909956EBC92B4-0206-4412-A3F8-BC6E956236B3-19098-000036F738F66053.jpg,sys-mod-file/2025-03-18/app-file/1742360092242B66A1140-AB7C-4342-8E24-94C0FBADDB9F-19098-000036F7241270CF.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600894526FF17486-2687-43F2-AF4C-083BA953C21A-18703-00000A0E658A1B17.jpg,sys-mod-file/2025-03-18/app-file/1742360089618F8603E2A-6986-4535-BA2D-AAB83ADE5425-18703-00000A0E69C66E46.jpg,sys-mod-file/2025-03-18/app-file/1742360090078E8549EDA-DB71-4F4A-B8D6-FC9681B36C5C-18703-00000A0E5572D722.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360082888FFC4BCC5-3C25-4788-916D-8EF4E2AD1C58-4470-000002C2B5E0495B.jpg,sys-mod-file/2025-03-18/app-file/17423600837170ACEA128-A4FE-4FF3-A095-0C791C3D8795-4470-000002C2C06DD135.jpg,sys-mod-file/2025-03-18/app-file/1742360085208B5314ABE-FA28-4161-AC1D-B530B8603274-4470-000002C288322E60.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360081541032CF94A-735F-4954-87EB-6293782CB82B.jpg,sys-mod-file/2025-03-18/app-file/1742360081986FA16D8D0-6A11-4931-9534-46E0F48FC4A2-24500-0000154113637E4A.jpg,sys-mod-file/2025-03-18/app-file/1742360082258BD364369-7227-4C41-9053-29475D7D170B-24500-00001541277419CA.jpg,sys-mod-file/2025-03-18/app-file/174236008305999DD18F0-EAEA-42B7-959C-7DB4849B8D91-24500-00001541072644AB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360077157FCCE628C-4412-4FB2-9B6E-EFC3A670AB9C.jpg,sys-mod-file/2025-03-18/app-file/1742360078250A9999A11-3901-4A67-B08A-F843C759B815.png,sys-mod-file/2025-03-18/app-file/17423600809157D4200EC-BA5E-495B-895A-6B954C4D2E12-7121-0000053C3641272E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600625950B17DD6E-98EF-4364-BF51-FAFEBEE17175-3340-00000380F169FD75.jpg,sys-mod-file/2025-03-18/app-file/17423600695740A1059C6-B7C5-4F24-9FE1-0DD20A2A41D5-3340-000003810866F68C.jpg,sys-mod-file/2025-03-18/app-file/174236007882054A2DC7E-48AC-45CA-9233-42961F10921E-3340-00000380DD8A1935.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235998479730A16C0C-C486-4336-B03C-54190775D897-2045-0000013B131CE163.jpg,sys-mod-file/2025-03-18/app-file/1742360033353027B3B69-EDDD-4013-A170-9658A424F1A6-2045-0000013B21A27EC0.jpg,sys-mod-file/2025-03-18/app-file/174236007382723413A34-CC22-43BB-BBED-D42F2FA50157-2045-0000013B044AB0E5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360061617CF9FFF62-124A-4431-8BD0-A683F1912FBC.jpg,sys-mod-file/2025-03-18/app-file/1742360065826AA4F9099-2A3B-4C5D-98B4-B37173CF4808.jpg,sys-mod-file/2025-03-18/app-file/17423600635079B6DB4F0-DA76-4FAF-B763-F211B58AF687.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360060399BB79FF84-F364-455C-B962-BCC2861EB306-10457-00000810466C80BC.jpg,sys-mod-file/2025-03-18/app-file/17423600604309863E331-2942-4DF3-86CC-15904D4515E7-10457-0000081048EF5CD9.jpg,sys-mod-file/2025-03-18/app-file/174236006327651ED289A-D7D1-4E9A-A021-BD56F56786EB-10457-00000810385B38CB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236006080993CF858D-D4D1-4A67-8F8C-D68689F439B1-11142-000008EBBAC3E9C4.jpg,sys-mod-file/2025-03-18/app-file/17423600606131B9B9AE8-5D6A-4C30-8D92-947563DE8280.jpg,sys-mod-file/2025-03-18/app-file/1742360061308D1460950-B081-432B-B162-52995CEB4E7C-11142-000008EBB03B0D7C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360059301ckcap3086898815157737084.jpg,sys-mod-file/2025-03-18/app-file/1742360059055ckcap2199332124626175176.jpg,sys-mod-file/2025-03-18/app-file/1742360060198ckcap1975093843824368074.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360054237F5886AD0-F77A-4CC6-AC75-3E66CCFF3963-1474-00000107A0138769.jpg,sys-mod-file/2025-03-18/app-file/174236005430909CCFD8C-A093-4C70-A812-C1161BA943C9-1474-00000107AC1587DE.jpg,sys-mod-file/2025-03-18/app-file/1742360055161177F23AE-F0A1-436B-A006-76BFF888D598-1474-000001079C48CA68.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600528403D36028F-ED5C-4C7D-825A-C0D33864AA97-4579-0000048C5C2CE6EC.jpg,sys-mod-file/2025-03-18/app-file/1742360052932195B9E4E-2A21-4FEE-97A7-FC1A43C6A7CA-4579-0000048C64ED00A1.jpg,sys-mod-file/2025-03-18/app-file/17423600537880E643E57-B87D-41F4-8AD7-5C59CBD9AC41-4579-0000048C2E83D0B4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360049651BEDA7646-0429-4747-8EFC-5B7612C5818E-7222-0000016F6B21D15E.jpg,sys-mod-file/2025-03-18/app-file/1742360049944A715543C-99C9-471B-AA33-38DA210BE446-7222-0000016FA8388926.jpg,sys-mod-file/2025-03-18/app-file/174236005041156915728-34D9-4C28-9A92-0311C0D5BAF8-7222-0000016EC09F50B8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360048336ckcap7296377481132998841.jpg,sys-mod-file/2025-03-18/app-file/1742360048345ckcap4754214695640602435.jpg,sys-mod-file/2025-03-18/app-file/1742360048536ckcap5192142089724446286.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600470921742360003916rn_image_picker_lib_temp_e3a5ec69-91b3-44ac-ac72-1e8764b482cc.jpg,sys-mod-file/2025-03-18/app-file/174236004570817423600431771000002487.jpg,sys-mod-file/2025-03-18/app-file/1742360047964ckcap5595565235820163592.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360043483207F0E0B-BD72-4BD1-ACAC-DCBAB791D1D2-4312-000002B5056A8596.jpg,sys-mod-file/2025-03-18/app-file/1742360045078E850EA77-93D9-4B78-A472-7E10A739D03B-4312-000002B50F17B7B2.jpg,sys-mod-file/2025-03-18/app-file/1742360046243D21BFC1D-2CF9-4424-9EC5-63B4FFDC168A-4312-000002B4F284FF4A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360043575FC1C3BFA-C7C9-490F-8CC7-6ADAB2CDEC03-89023-00002AE230F6D93D.jpg,sys-mod-file/2025-03-18/app-file/17423600436119A1D682F-305A-452F-9140-4887330730CD-89023-00002AE25305F2C9.jpg,sys-mod-file/2025-03-18/app-file/1742360044554F20DEE29-36A3-42EF-BC28-4E9EAECD4B3D-89023-00002AE11BA79FC7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360034448CEFAEDBC-49A5-4B13-A51E-26D8B0D214C4.jpg,sys-mod-file/2025-03-18/app-file/1742360034513dm_9BAEA5D1-91CC-43AE-8A5E-F80DF1BDCE46.jpg,sys-mod-file/2025-03-18/app-file/17423600346384A40812A-85A9-4985-BBA8-D45173A9F006.jpg,sys-mod-file/2025-03-18/app-file/1742360036121749D6D69-C905-4087-B232-4C3357D8878A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360023649E1DCDB7F-3379-4C6B-8E73-50FB34BAE79A.jpg,sys-mod-file/2025-03-18/app-file/17423600242327F81F0E9-5693-4A41-B7C4-6F2A83BC5D6F.jpg,sys-mod-file/2025-03-18/app-file/17423600278411CF8550C-EE2A-487C-89EC-CE49A29E8C96.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360026726CE7EEB5E-BE3A-470E-9D76-C4DF7A384FB2-7598-0000063631153A40.jpg,sys-mod-file/2025-03-18/app-file/1742360026748D2B56245-8C38-4FF9-964D-FEF3D73BF4FC-7598-000006363D815BA5.jpg,sys-mod-file/2025-03-18/app-file/174236002707971A819C5-9C61-406A-BECC-B89D8FFFB347-7598-0000063624C5B369.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600258619BF3B558-75CA-4F7B-9B14-94841CC6F261-7230-00000365F5D11AB7.jpg,sys-mod-file/2025-03-18/app-file/17423600258749C86AE98-444F-4735-ADA0-945CE0491017-7230-00000365FBBA0097.jpg,sys-mod-file/2025-03-18/app-file/1742360026254A1216CA9-7316-490A-A43A-2E8D3C9C1E5D-7230-00000365E0A58683.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360024387FA9943CC-4012-46A5-8644-9D26072CEABC-65998-0000100787ECE5E8.jpg,sys-mod-file/2025-03-18/app-file/1742360024387BD302C5B-B9BF-4D41-BF55-35159B8C7ECF-65998-000010078FDA44A4.jpg,sys-mod-file/2025-03-18/app-file/174236002486158898BC3-5B40-4E43-9928-456BAEB17FBD-65998-00001007806E54C5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423600216489784C9DB-9063-4D71-B1B9-07B1EAEC61B7.jpg,sys-mod-file/2025-03-18/app-file/1742360021762C4554817-1E26-464D-88CC-EBE9D9DC4D64.jpg,sys-mod-file/2025-03-18/app-file/1742360022096FD168FC7-BE87-4E6E-8256-E8BD8CEDD333-12203-00000B75E9CFC2FD.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360013028F41FE36D-BD6E-405F-BE30-0BF26C6183C3.jpg,sys-mod-file/2025-03-18/app-file/1742360013377dm_891E379E-5744-41B9-ABEF-83974276FF00.jpg,sys-mod-file/2025-03-18/app-file/17423600136501BAB062E-E065-44D9-AE20-2E81E2D6CD66.jpg,sys-mod-file/2025-03-18/app-file/1742360014598E1147FA6-B8BE-4982-84DA-6BDB3DC41ECA.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360014856BF62E787-1837-4B75-ACFE-7ADBB66C1554-6544-0000030EA97FB2E4.jpg,sys-mod-file/2025-03-18/app-file/17423600143962178D7BA-79FC-481D-BFEE-EDE7D7106266-6544-0000030EBC547E22.jpg,sys-mod-file/2025-03-18/app-file/174236001517865226848-A605-48BA-A003-2B6A584DDFBF-6544-0000030E2B17F95C.jpg,sys-mod-file/2025-03-18/app-file/1742360015277dm_48AD779B-70B8-4B57-B381-A720E70FE316.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236000208848740A15-C2C8-4E83-B84F-E98010B13AA0-1015-000000725243443E.jpg,sys-mod-file/2025-03-18/app-file/1742360001122050AF39D-A0A7-48DB-BC85-2B6F9BDB3820-1015-00000072565D1D24.jpg,sys-mod-file/2025-03-18/app-file/1742360012146EABDA8CB-02E3-49EC-80E3-B9F1B0A5D980-1015-00000072127AA649.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742360011136ckcap3542171625417896625.jpg,sys-mod-file/2025-03-18/app-file/1742360011128ckcap4276801618036785628.jpg,sys-mod-file/2025-03-18/app-file/1742360011432ckcap1932402335592483126.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236000898781D48621-0FBF-4725-A1D7-5CBEF04780F7-2700-0000022AAC5DCC9E.jpg,sys-mod-file/2025-03-18/app-file/1742360009251B05B4027-40E5-46E1-83CD-82A44776449A-2700-0000022B3B1C0490.jpg,sys-mod-file/2025-03-18/app-file/1742360009556D6DE016A-7BB4-4682-BF58-4B4DEC5464FD-2700-0000022A2AB82742.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174236000406477D608FA-7D26-4A57-B391-B3E59E327CD3.jpg,sys-mod-file/2025-03-18/app-file/1742360002368305F3006-A945-4A0B-B206-180D16BC1A3F.jpg,sys-mod-file/2025-03-18/app-file/17423600025129A32B70F-3AD0-49FA-927E-1AAE61FCFA5A.jpg,sys-mod-file/2025-03-18/app-file/1742360005723CAF0C326-F1D3-497A-B021-F2BBB6F51D3C-11142-000008EB36C52E61.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359997343EA446374-CC7B-41F2-AD9B-30C74864494A-3608-000003D11703946F.jpg,sys-mod-file/2025-03-18/app-file/174235999745691E9FB49-962A-4F17-BED1-D01067F70586-3608-000003D128E2A15B.jpg,sys-mod-file/2025-03-18/app-file/17423599997720A28875C-4764-4833-9442-BED25EDB57AB-3608-000003D1046E9A35.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599960593B1E7594-F93A-4DD6-AAE3-4E48FE031A3B-314-0000000F24294678.jpg,sys-mod-file/2025-03-18/app-file/1742359996083C3CF7B0E-1DBC-4DBD-BE61-19C929D9007E-314-0000000F2EF1679A.jpg,sys-mod-file/2025-03-18/app-file/1742359996601BDCD89FD-FBE2-4229-AA8C-501B22D01813-314-0000000F1B4748AC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359990855AF18C4C8-AB5E-45FC-A7B3-14A8CD61C90E.jpg,sys-mod-file/2025-03-18/app-file/17423599919732563584C-DC86-43FF-9A70-C76691362443.jpg,sys-mod-file/2025-03-18/app-file/1742359991480FEC574AF-A928-426A-B066-58396F0EDD4A.jpg,sys-mod-file/2025-03-18/app-file/17423599929855681AFEB-2F87-4912-A179-978B347F7B79.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235998592627731203-4AAB-4838-B256-24725B63FFF5-19012-0000110A97CE2E66.jpg,sys-mod-file/2025-03-18/app-file/1742359985960BC5C3317-C9EA-4DF7-952C-C3FD74F012A1-19012-0000110AA47B13F7.jpg,sys-mod-file/2025-03-18/app-file/174235998630790481554-B13C-4891-883C-3FEE40FD55D0-19012-0000110A79A79CD7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359974832AF7AD93F-A7B3-4650-B309-ACEDC064AE93-4452-0000036D8A1C86BC.jpg,sys-mod-file/2025-03-18/app-file/1742359975850C7B68E86-65E1-4A6C-B27E-1DE873B0490D-4452-0000036DA66E38EA.jpg,sys-mod-file/2025-03-18/app-file/17423599853870BB8C04A-8E11-4B95-9FBD-2B9C632D3B3E-4452-0000036D804DDC14.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599837870821CA3C-8583-41C4-AB0B-D8A4B5AAE189-2596-0000019DD1104D90.jpg,sys-mod-file/2025-03-18/app-file/1742359983698BD90D519-14FC-483E-8EB9-19B34FAE7E8C-2596-0000019DD7ED129F.jpg,sys-mod-file/2025-03-18/app-file/17423599846657D3316A7-CEBB-471A-8B60-B99CEE83F928-2596-0000019DC95F97F5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599782121EF80950-C454-4C8B-BAE9-7B91F7A59EBD.jpg,sys-mod-file/2025-03-18/app-file/17423599790946A08F611-4C69-4F71-9C0D-836620000006.jpg,sys-mod-file/2025-03-18/app-file/1742359982935A771CD8C-36FC-4870-8E32-E50F462CE237.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359981218ckcap2509654102509758620.jpg,sys-mod-file/2025-03-18/app-file/1742359981182ckcap580326435637080874.jpg,sys-mod-file/2025-03-18/app-file/1742359980999ckcap733563820034279009.jpg,sys-mod-file/2025-03-18/app-file/1742359981687ckcap7220598265601272126.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359979070ckcap2509654102509758620.jpg,sys-mod-file/2025-03-18/app-file/1742359979054ckcap580326435637080874.jpg,sys-mod-file/2025-03-18/app-file/1742359978756ckcap733563820034279009.jpg,sys-mod-file/2025-03-18/app-file/1742359980011ckcap958530661599825976.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599790673C29950C-7B0A-4E16-B7E1-3ACE8B5E04E5-1923-00000157CA8100D3.jpg,sys-mod-file/2025-03-18/app-file/1742359979176E50CEBEA-E058-4CF4-80B4-37B7DF62F8D9-1923-00000157CDF337F6.jpg,sys-mod-file/2025-03-18/app-file/174235997946455BCE324-38B4-4A63-A1A3-46C1A21E0C1C-1923-00000157BDB1B876.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235997770859118D14-D53A-4EB0-ABE2-84E3A88A78C7-7559-00000A9758F722E4.jpg,sys-mod-file/2025-03-18/app-file/1742359977757CBB7309D-3FA5-4867-8FF3-8189686F69A6-7559-00000A9791F27B26.jpg,sys-mod-file/2025-03-18/app-file/17423599780694DEE74A1-4406-4300-B658-A01B4434ECA5-7559-00000A9744F3598D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359971193ckcap4410757006544104069.jpg,sys-mod-file/2025-03-18/app-file/1742359972258ckcap6202988019127993026.jpg,sys-mod-file/2025-03-18/app-file/1742359971883ckcap6698839305690671872.jpg,sys-mod-file/2025-03-18/app-file/1742359973548ckcap3878076813643594758.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359969413519270D4-7CDA-4AA4-B5CC-1EBB5A0BD050.jpg,sys-mod-file/2025-03-18/app-file/174235996968232467515-1928-44D3-B3ED-330487254509.jpg,sys-mod-file/2025-03-18/app-file/1742359969222dm_4D26C3C0-4EEE-4C6E-A4B3-16EF543445E9.jpg,sys-mod-file/2025-03-18/app-file/1742359971105136B986F-2973-4D3C-8A11-31347D54479E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235996397909FD4651-B5C4-4402-B775-AFCF64258C1B-65998-000010072EF1DFFB.jpg,sys-mod-file/2025-03-18/app-file/1742359964029BE4E470C-6E4C-4375-90AC-415D6A8B4FEF-65998-000010073304CD4C.jpg,sys-mod-file/2025-03-18/app-file/17423599643162EE7C066-1B6B-4E92-B486-B7A07ACEABA0-65998-000010071D208397.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235996308609FD4651-B5C4-4402-B775-AFCF64258C1B-65998-000010072EF1DFFB.jpg,sys-mod-file/2025-03-18/app-file/1742359963091BE4E470C-6E4C-4375-90AC-415D6A8B4FEF-65998-000010073304CD4C.jpg,sys-mod-file/2025-03-18/app-file/174235996347896686C00-4F92-4F35-AEC9-0342234EC9E9-65998-000010071761A03C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359955593F1235748-670F-40F1-8F68-A449F17A499C-19098-000036F66E606504.jpg,sys-mod-file/2025-03-18/app-file/1742359955634F3BF26FB-A899-4116-B318-370769F78A71-19098-000036F6775D2E98.jpg,sys-mod-file/2025-03-18/app-file/17423599566154EC7A6AD-28BB-4518-AB17-4806E70DFFB1-19098-000036F6625782BB.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359955850ckcap7220022221095205337.jpg,sys-mod-file/2025-03-18/app-file/1742359956135ckcap1859361799819206493.jpg,sys-mod-file/2025-03-18/app-file/17423599559501742359953879rn_image_picker_lib_temp_af284f79-f346-4ed9-a83c-e05a3c1a8fe2.jpg,sys-mod-file/2025-03-18/app-file/1742359956790ckcap5221993269156037735.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599483469771D380-7ACF-4B83-A681-C949A86980C2-1474-000001070CFB62F1.jpg,sys-mod-file/2025-03-18/app-file/174235994834911B034D1-6DA9-4BCC-826D-6FF60524CAF0-1474-0000010718C5C2B7.jpg,sys-mod-file/2025-03-18/app-file/174235995102664EAE550-BCC4-4DE0-B4C0-72FAB4DC2BB8-1474-000001070622029B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359943995829C486E-5FF4-42A8-986E-FF60B99779DC.jpg,sys-mod-file/2025-03-18/app-file/1742359944990DA70C798-AD7C-46E2-A9F8-31546659EC61.jpg,sys-mod-file/2025-03-18/app-file/17423599482311EF2CCF0-9C54-414D-8CBB-5120AA92FAF5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599353794B5C0B44-1C11-4FA8-9818-CF6C9EF27CEE-3340-000003803EBF10B0.jpg,sys-mod-file/2025-03-18/app-file/174235993865089D69D79-E731-4BD7-902E-D364BC863BF5-3340-00000380551A7936.jpg,sys-mod-file/2025-03-18/app-file/1742359946213864352D8-DC10-44D6-9BA3-E3580D58FF2B-3340-000003802244A479.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359945458ckcap8019782065185209928.jpg,sys-mod-file/2025-03-18/app-file/1742359945585ckcap479787729896445129.jpg,sys-mod-file/2025-03-18/app-file/1742359945785ckcap1978811699183450576.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599433096E0E0598-8AD7-4B54-92C6-51EC7E09B04F.jpg,sys-mod-file/2025-03-18/app-file/1742359943055dm_C7687BE0-D6B9-4A72-825E-A774027FF317.jpg,sys-mod-file/2025-03-18/app-file/174235994442601E7D724-1E28-40C3-A7E9-41061A7268A5.jpg,sys-mod-file/2025-03-18/app-file/1742359945456B28633ED-62F4-4959-9C2F-AB6ED5457696.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599406912E929393-675D-4D04-93E9-C18A30B8FCDB.jpg,sys-mod-file/2025-03-18/app-file/174235994096006DA9489-9096-4343-9E6B-899BD8F46F8F.jpg,sys-mod-file/2025-03-18/app-file/174235994145226AA52DB-2F0E-4600-9626-E69F1E543FF9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359936276ckcap8763798425616313856.jpg,sys-mod-file/2025-03-18/app-file/1742359936276ckcap5247660552896632355.jpg,sys-mod-file/2025-03-18/app-file/1742359936963ckcap5836862066984515911.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359935304908FF9A7-90AE-435E-A5C6-B56778D9EA4A-13122-000006005657D71B.jpg,sys-mod-file/2025-03-18/app-file/174235993534337A48EDC-17E0-4D8C-8329-82420A6213C6-13122-000006006C3476F3.jpg,sys-mod-file/2025-03-18/app-file/1742359935903F1913B54-5B87-428D-9EE2-2464E28ED3A3-13122-000006004E4DE39B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359933936448BE3ED-BCB5-4E2E-ABE9-A09D130FD1BC-4470-000002C1E0AFC2B0.jpg,sys-mod-file/2025-03-18/app-file/17423599335298BECDF24-C4BD-42CB-B2BC-9203EE8EB219-4470-000002C1E5E65A75.jpg,sys-mod-file/2025-03-18/app-file/174235993570239627993-B55A-4E1E-8457-89AD465D133A-4470-000002C17521ED7C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359929157A7472999-915A-4EBC-98EA-4CA290ED6CE4-19098-000036F517E1DDAE.jpg,sys-mod-file/2025-03-18/app-file/1742359929535740894C0-8298-4581-8F85-F0E0BABE46FE-19098-000036F52BC1A8BE.jpg,sys-mod-file/2025-03-18/app-file/17423599321775AEE6B0C-43EE-485B-AE19-13582DE9BCEC-19098-000036F4FAE5E028.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359931863A4E6903C-37AC-440B-859A-448C9208E704-69301-00000BF9CEE74115.jpg,sys-mod-file/2025-03-18/app-file/174235993206697CC7513-9C77-4AF2-99E6-0522ABB5D104.jpg,sys-mod-file/2025-03-18/app-file/174235993252070B4BC91-4AB3-47D4-9D18-499A855DA5D9-69301-00000BF96396C02A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235992927619D2A91E-F0A7-4630-92B1-56CDDD8C6421-1991-00001D5E0B594AB1.jpg,sys-mod-file/2025-03-18/app-file/17423599291318DEBB321-9885-499E-AFE8-14F677B7AF2D-1991-00001D5E149A950F.jpg,sys-mod-file/2025-03-18/app-file/174235992964599BAAC0D-4261-49C0-9C21-34A333F36AFC-1991-00001D5DFCE59570.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359919832A7472999-915A-4EBC-98EA-4CA290ED6CE4-19098-000036F517E1DDAE.jpg,sys-mod-file/2025-03-18/app-file/1742359918454740894C0-8298-4581-8F85-F0E0BABE46FE-19098-000036F52BC1A8BE.jpg,sys-mod-file/2025-03-18/app-file/1742359926352A2963A16-7DFD-4250-A84B-E87F7A96D082-19098-000036F4FF5C4771.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599266063370C96D-2AC1-4B87-A1D0-B931AF3F9949-4929-00000551CD687C53.jpg,sys-mod-file/2025-03-18/app-file/1742359926590645BF8EA-4209-4DD3-99A1-BE84043CA6D1-4929-00000551DFCF5E90.jpg,sys-mod-file/2025-03-18/app-file/17423599275003AC8430E-6262-4315-8220-803E7E0642D3-4929-0000055167FE6936.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359927823A5162B8E-556B-400F-95E5-5417AD599B10-62059-000022A2E0F4E5B9.jpg,sys-mod-file/2025-03-18/app-file/1742359927870C2E11709-313D-4816-BEC0-BADCB611A3ED-62059-000022A2F003C969.jpg,sys-mod-file/2025-03-18/app-file/17423599281070B377B8A-C09A-4EB3-A5E3-9174FB466865-62059-000022A2C7601F1A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359924103176E1698-54AF-4960-A8A1-D2B362D5CF03.jpg,sys-mod-file/2025-03-18/app-file/1742359923933AFE740B0-0866-4540-9C53-97B198694B85.jpg,sys-mod-file/2025-03-18/app-file/1742359924526F6484440-32C3-42B0-84A9-42992181D8A9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359923348EB734E6D-F6F9-41BF-9F91-B73C43067AFF.jpg,sys-mod-file/2025-03-18/app-file/1742359923117643463AF-3E59-48CE-A5A6-2881FFF16160.jpg,sys-mod-file/2025-03-18/app-file/17423599243310AAD9121-65B9-467E-B177-4E1A4C4051EF.jpg,sys-mod-file/2025-03-18/app-file/1742359924930EE14062D-F80A-4D7D-9078-95E07C2C3D73.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599224283775CC8D-9260-4361-8B1D-1F7D86BC1C65-50453-0000033D52CBF487.jpg,sys-mod-file/2025-03-18/app-file/1742359922444D4935CA8-8C09-410E-B438-84AC5C658986-50453-0000033D57B6D797.jpg,sys-mod-file/2025-03-18/app-file/1742359923610DED3908B-10AC-43C4-B2F1-793C498E2F26-50453-0000033D16A32C93.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235983660612C2D0DA-A3BC-47B0-8615-51C253E33870-4452-0000036CD2406F1F.jpg,sys-mod-file/2025-03-18/app-file/1742359836317ED66B782-8929-4EE4-8B54-0A69B9C71122-4452-0000036CDBB51E2E.jpg,sys-mod-file/2025-03-18/app-file/1742359921461F585A09B-138B-4774-95E6-57B83504B562-4452-0000036CCAA390D5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235992155699723467-D9F1-4A8D-B46C-4FDC8E59F5E2-2070-0000015342E78F9C.jpg,sys-mod-file/2025-03-18/app-file/17423599215697CD81511-BAE8-4ABC-99CE-906049B7D5A2-2070-00000153575599AB.jpg,sys-mod-file/2025-03-18/app-file/17423599219173D0F828C-C9C8-46E2-B94A-D47CC6CCC10C-2070-0000015282F24C2D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423599142813307C866-EEC0-42C7-BA70-3B570C6A6FD6.jpg,sys-mod-file/2025-03-18/app-file/1742359915180D46474C4-8181-4B6A-A5E4-A16A2AB27D6A.jpg,sys-mod-file/2025-03-18/app-file/174235991586610678094-DAD4-4D33-82A8-601175EA775A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359914698ckcap8640074632236547009.jpg,sys-mod-file/2025-03-18/app-file/1742359914690ckcap69806024900882640.jpg,sys-mod-file/2025-03-18/app-file/1742359915143ckcap9047195211660097611.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359910258E59D5E5A-325A-4219-9757-0CFD30389570-10074-000012B63A042464.jpg,sys-mod-file/2025-03-18/app-file/1742359909609060E4763-3AFB-4515-B1C8-1C0F5B4491CE-10074-000012B65299145A.jpg,sys-mod-file/2025-03-18/app-file/17423599111774DFD0E91-AF25-4E4E-8064-8DF59D55183D-10074-000012B6285631C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359904285E9CA8B25-F731-4B7F-9D69-284F6CF31F81-1538-000000E76DA93268.jpg,sys-mod-file/2025-03-18/app-file/1742359904007A8CFFB06-B066-489E-9CFC-49C4FE51F8EC-1538-000000E78387746B.jpg,sys-mod-file/2025-03-18/app-file/174235990517650FA5BAD-73D7-4B0B-BDA6-C9B9049B66E2-1538-000000E74F954DD8.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235990314713A33987-65D3-4D0E-AD1A-A657F331CCB5.jpg,sys-mod-file/2025-03-18/app-file/174235990312201D87C94-B394-407F-BBEC-AF69F9241A91-89746-00002E679478EF4E.jpg,sys-mod-file/2025-03-18/app-file/1742359902794C45F9031-E5A4-45E1-8618-F4E8575DF3FC.jpg,sys-mod-file/2025-03-18/app-file/17423599039198E557F21-A326-490F-A3E6-8212F46A5726-89746-00002E67852EB384.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359900666341C3235-34C4-4BE4-BF0E-203C3086D8EF.jpg,sys-mod-file/2025-03-18/app-file/1742359900218dm_BBF877B5-AADA-43EA-95EF-598E7185B9F4.jpg,sys-mod-file/2025-03-18/app-file/174235990095164DFB6C4-224C-4521-B8D6-F7325BAB2987.jpg,sys-mod-file/2025-03-18/app-file/174235990143147547391-EDC7-4F12-A630-3B519044E7D3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359894239EEB5F3AC-ACEE-4B42-AC95-8C66991E2F3A-2359-00000699E58030AC.jpg,sys-mod-file/2025-03-18/app-file/1742359896998C7E8263D-45CF-4168-8014-9134A45CE9DA-2359-0000069A065E8BD9.jpg,sys-mod-file/2025-03-18/app-file/1742359901052A257038C-2AE6-43C6-AF9F-DB72918ABE68-2359-00000699A85759CE.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359900245ckcap2941539050010545183.jpg,sys-mod-file/2025-03-18/app-file/1742359900457ckcap998793128379327403.jpg,sys-mod-file/2025-03-18/app-file/1742359900881ckcap3166793595833390076.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235989502512FEE0B6-7ADA-4DAE-9134-FB4D6886C4DB.jpg,sys-mod-file/2025-03-18/app-file/1742359890985DBFD22FA-8D07-4C5D-8303-E675E2B799EE.jpg,sys-mod-file/2025-03-18/app-file/1742359897470D403C917-F821-47E6-A9C9-68BBFAAE3FFC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598887700862D312-9629-4D18-BEB2-9A3FA617F0BA-4579-0000048B7066EEED.jpg,sys-mod-file/2025-03-18/app-file/1742359889044AC18D56D-DC6E-4BA9-B4A8-4C7D12E138D0-4579-0000048B765C69F9.jpg,sys-mod-file/2025-03-18/app-file/174235988935305DCF173-8875-467E-828C-9045E9FC1658-4579-0000048B5E9BD72A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359883542BA7594D2-8D71-4A14-93B0-338066F84972.jpg,sys-mod-file/2025-03-18/app-file/174235988615670C9D7BA-C0AF-450C-A7B6-91CD248615F3.jpg,sys-mod-file/2025-03-18/app-file/1742359885151A9FD063F-0897-46CE-AFA2-68CED4727523.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359874376C2A831E7-C564-45C6-87DA-12F9F006EE96-913-0000002924FFA79C.jpg,sys-mod-file/2025-03-18/app-file/1742359874388A35D9FF1-A9DE-4FEE-B2F4-E4D36A627B40-913-000000292D31E0A1.jpg,sys-mod-file/2025-03-18/app-file/1742359874607E732945D-9C88-471D-806A-FA9EE3A714BB-913-00000029146B42FC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359873015FB64D682-67C0-4726-A4E5-B727165395C2-24500-0000153FF0C9039B.jpg,sys-mod-file/2025-03-18/app-file/174235987325318DFD3B4-4202-4D48-9CD5-145EB64CB3EA-24500-000015400122848B.jpg,sys-mod-file/2025-03-18/app-file/1742359873653EC11BDB9-CB77-4693-9759-3343B6FC8BE2-24500-0000153FD1755908.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359872978A1045072-B6DE-475E-BABD-C785A3C56677.jpg,sys-mod-file/2025-03-18/app-file/174235987124350243466-5625-4485-9984-55FB7546A2EC.jpg,sys-mod-file/2025-03-18/app-file/174235987206272826F0C-BC83-4AFD-AEB3-EF33DA10C7CF.jpg,sys-mod-file/2025-03-18/app-file/1742359873923F00061A8-1FF8-484C-BDB5-C757F2ED276E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598668403F540618-B33B-448E-81C3-C55989D575A8-50453-0000033C1D56902B.jpg,sys-mod-file/2025-03-18/app-file/17423598694239035A524-A97B-4A6D-A2E6-F07B03F4A94B-50453-0000033C1FDD8880.jpg,sys-mod-file/2025-03-18/app-file/17423598681378BD688B6-3324-4CF7-A817-6C0C149B4F06-50453-0000033C246E9D31.jpg,sys-mod-file/2025-03-18/app-file/1742359871224405BE152-DC9A-4654-9FDC-BF9FFECC1F21-50453-0000033C0D75B145.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359869883ckcap7519099900580663767.jpg,sys-mod-file/2025-03-18/app-file/1742359869846ckcap5754171105053797277.jpg,sys-mod-file/2025-03-18/app-file/1742359870898ckcap6238965438623379564.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359857448DC6BB0D1-1D30-4AC1-A35E-AA3F5DAF500C-2596-0000019CEEFC8C97.jpg,sys-mod-file/2025-03-18/app-file/1742359866076C27C425A-B849-4A67-9C03-B2267B4D9253.jpg,sys-mod-file/2025-03-18/app-file/1742359870180DC67F537-70EE-4722-AB1F-2ED5B4D5723F-2596-0000019CE04A525D.jpg,sys-mod-file/2025-03-18/app-file/1742359867990DE8F6ED0-60CD-4448-AB4E-D04AC3671A9C-2596-0000019CE488D931.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598551825F5A1B8F-3BB2-4C35-8536-4938A26CDA85-5434-0000042B03E5BFC7.jpg,sys-mod-file/2025-03-18/app-file/17423598589530994D4D3-BC99-4711-99E5-67B50E86B4FA-5434-0000042B687C2BED.jpg,sys-mod-file/2025-03-18/app-file/17423598607026B6DE55E-703A-45BC-AFF2-CA9CF0FBB04A-5434-0000042AB71223C4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598582989A29F676-CD02-489C-88C5-BD42DFF0FB14-4288-000002DE2DD02B27.jpg,sys-mod-file/2025-03-18/app-file/174235985819705BD9C4A-DB69-4140-8E1D-05CE3C8E2BB9-4288-000002DE5380B0E7.jpg,sys-mod-file/2025-03-18/app-file/1742359858981B7911612-553F-438C-864F-EAFD8A5D76E4-4288-000002DE270D642A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598528097BC21FD5-499F-4FF3-B119-406A2838AE01-9177-0000046F0574CAF8.jpg,sys-mod-file/2025-03-18/app-file/1742359852788E2A70F0E-C496-4F6D-8BD8-862220B3E9D2-9177-0000046F124F0A4E.jpg,sys-mod-file/2025-03-18/app-file/17423598526185F62E4F8-DCCA-4F7A-9361-7121036F5260.jpg,sys-mod-file/2025-03-18/app-file/174235985317761DC3AF6-0C1E-444A-A6D2-D856DBE6E56B-9177-0000046EF8FAC417.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359841290869C8198-EA06-4E80-A3D2-2BD1FB272D30.jpg,sys-mod-file/2025-03-18/app-file/1742359842698CEA01678-86FF-42C9-A916-CA40413121E0.jpg,sys-mod-file/2025-03-18/app-file/17423598428150FDC9E8F-3D0A-4F01-A886-533E097F4B7E.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598412296C815D85-B63B-404C-B29F-1D05A43AD9C3.png,sys-mod-file/2025-03-18/app-file/17423598412103C5CF36E-BD58-4AAB-8610-DF7CA2AE8737-7993-0000016C93B152DE.jpg,sys-mod-file/2025-03-18/app-file/174235984151536359B4E-0BB1-4331-BF01-A582792F8A0C-7993-0000016C78B74F35.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359840778ckcap2644236435170555595.jpg,sys-mod-file/2025-03-18/app-file/1742359840908ckcap981508125340025028.jpg,sys-mod-file/2025-03-18/app-file/1742359841337ckcap2887360818273853119.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359839448ckcap8706627945048650834.jpg,sys-mod-file/2025-03-18/app-file/1742359839452ckcap5135549480729198193.jpg,sys-mod-file/2025-03-18/app-file/1742359839807ckcap3746905491319499775.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359832947156D38AD-64C8-4F45-AFB3-168664455E36.jpg,sys-mod-file/2025-03-18/app-file/17423598342061456D329-47B5-4CA0-8645-7A10A38FADAD.jpg,sys-mod-file/2025-03-18/app-file/1742359833163dm_92E4D4B5-B286-46B4-9C2D-C9D85F35E012.jpg,sys-mod-file/2025-03-18/app-file/174235983618031C0C928-D663-478C-A7AC-783A6C9F56F1.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359834370A84B0930-3F75-4D7E-B7A3-C4A4A5DC6508-5872-00000359E8584EC8.jpg,sys-mod-file/2025-03-18/app-file/17423598344886EEC83E2-491E-417F-8367-AE6100504E7C.jpg,sys-mod-file/2025-03-18/app-file/1742359835477F6B1A7D0-1D7A-4626-9C8B-28E8674F9DD5-5872-00000359B93FC846.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598344676263D28D-98A8-4A04-A6F4-FEB6E0368982-11673-000002980E4C040B.jpg,sys-mod-file/2025-03-18/app-file/17423598345220D94830A-0C19-425C-86E5-8C1F1578692D-11673-000002982C4BAF30.jpg,sys-mod-file/2025-03-18/app-file/1742359836045DDC508DA-AF15-407B-913A-F7E63749E09F-11673-0000029808E86F12.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359830305B2FF75F3-BD1C-459B-BDB4-F5CA7890442E-7694-000001B6997FB7F9.jpg,sys-mod-file/2025-03-18/app-file/174235983020271611B5A-EB9A-4806-9371-E3DDEF797201-7694-000001B6AEC8E2C3.jpg,sys-mod-file/2025-03-18/app-file/17423598308754E74517E-959C-4BA7-A6C2-A6B24D80E540-7694-000001B5C16FD7E9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598300387594DAAC-6DBF-48AD-96EA-C83755AF8604-10309-000002BD52C23405.jpg,sys-mod-file/2025-03-18/app-file/17423598299861B723132-AA18-435E-832F-D896B13DD48A-10309-000002BD616810F2.jpg,sys-mod-file/2025-03-18/app-file/1742359830300EFFEF6C0-E2ED-4DE7-BC79-F17891C40A39-10309-000002BD1F76B4F7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235982819387DAFB95-7FB9-49A0-85F6-3AE3EEF2E842-7222-0000016E47428F3F.jpg,sys-mod-file/2025-03-18/app-file/17423598283062F200E3E-7A4E-490B-905E-970CC58FB9B8-7222-0000016E651EB40E.jpg,sys-mod-file/2025-03-18/app-file/1742359829050FB3070F8-5294-4744-9252-B4C34441550D-7222-0000016D1A7C0F3F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359827779BDC6CC23-51C4-4039-B9B4-8DA1ED46A0B0-1923-00000156AC8D3C3F.jpg,sys-mod-file/2025-03-18/app-file/1742359827825BDB57E50-F821-46BB-8303-9A71E69244D4-1923-00000156F463B45A.jpg,sys-mod-file/2025-03-18/app-file/1742359828193886C4C62-8127-4094-98AE-CD02F46C5D1D-1923-0000015691F68243.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598177989A2443CE-0185-4804-89EE-0E28FD224FFF-3608-000003D024E742CF.jpg,sys-mod-file/2025-03-18/app-file/17423598166828376DDE8-48C2-415E-BF78-3A14A8F9DFD6-3608-000003D02F03F418.jpg,sys-mod-file/2025-03-18/app-file/1742359820548F28BB9DA-102D-463C-87C9-A81576F2987C-3608-000003D01EF16271.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359818536933626C9-BCD1-4B03-B108-DE8A4CBF1C35.jpg,sys-mod-file/2025-03-18/app-file/17423598190800D05B328-D291-4DE8-B530-BE661174C70E.jpg,sys-mod-file/2025-03-18/app-file/17423598177064422264D-92E0-4AB6-86E4-95A810162E78.jpg,sys-mod-file/2025-03-18/app-file/174235982001769D5A4FA-0B11-457A-86AD-DD62827D5578.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598133510898DAC9-7BA0-4E06-AE90-580520CB088E.jpg,sys-mod-file/2025-03-18/app-file/174235981333139A8A16B-20B9-4A47-8001-948ED9880641.jpg,sys-mod-file/2025-03-18/app-file/17423598173486369F9CD-844C-4ED8-8ED3-604F1A35CC2A.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359812875522FD8CB-2ED4-4CDA-9CB6-DDDF0F84A04B-7054-0000036D2F50A2C2.jpg,sys-mod-file/2025-03-18/app-file/1742359812732811A09AA-52CA-4D95-9DE5-8EEA4569C104-7054-0000036D9D31DCBA.jpg,sys-mod-file/2025-03-18/app-file/174235981280069E3D984-D016-475E-86B7-3ADD4FDED614-7054-0000036E22382592.jpg,sys-mod-file/2025-03-18/app-file/1742359813851F477A423-F0DA-498F-B560-02742E044E15-7054-0000036D1C350791.jpg,sys-mod-file/2025-03-18/app-file/1742359813929BF78C3B0-BF29-44A1-AF61-86F3101FA412.png</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423598095746D905BCA-E13F-47DE-A2DD-F8C6165910D5-19012-00001109AA06464D.jpg,sys-mod-file/2025-03-18/app-file/17423598095614C563606-A870-40D4-A69C-20AF305954DF-19012-00001109AF291BF2.jpg,sys-mod-file/2025-03-18/app-file/1742359809865B3C69F83-DEA8-458C-9548-116FCA45A412-19012-000011086767C365.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359807610242DC94F-AC80-40C5-904B-4416E7A1F15B-3320-000005DD5D2B7424.jpg,sys-mod-file/2025-03-18/app-file/17423598076959F7B6094-4B6E-4BCE-81F0-C1FDE90AD40C-3320-000005DD72B33186.jpg,sys-mod-file/2025-03-18/app-file/1742359808985C168578A-15DD-4F32-91B7-84C2B108C6E6-3320-000005DD56E5C1AC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235978653478DFFAAC-96E1-4714-954F-50BA1DA1A947-3397-0000024F8975D57D.jpg,sys-mod-file/2025-03-18/app-file/17423597908266C4B29C3-E81E-47A3-AFC6-F04FA078C680-3397-0000024F9726C53F.jpg,sys-mod-file/2025-03-18/app-file/1742359789738846B628F-40AC-4BA0-912A-FE86D1609E76-3397-0000024FA82E3290.jpg,sys-mod-file/2025-03-18/app-file/17423598009557576DE59-4F70-4967-AF00-D070C5B0F44E-3397-0000024F7E46A5CC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359801274B321A253-5FD2-4D4B-9CF0-3302267F5DDD-913-00000028BFE80C8F.jpg,sys-mod-file/2025-03-18/app-file/1742359801281065F32B2-8224-445C-91D6-AA657235CD55-913-00000028C8D6673A.jpg,sys-mod-file/2025-03-18/app-file/174235980148819DDEF0D-F703-4FD8-81BF-3014E712E526-913-00000028B4D8B58D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359797808E921A751-4E32-4F1A-B0D3-CF889164CE62.jpg,sys-mod-file/2025-03-18/app-file/17423597978409120272A-41C7-4FD8-8CCA-029A9731EBAA.jpg,sys-mod-file/2025-03-18/app-file/1742359798343C92A5841-7667-4136-950F-18852355E7C2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359796915BBCA74E4-B9A2-428B-B529-73048A2EF369-1033-000000C64BDEEF79.jpg,sys-mod-file/2025-03-18/app-file/17423597966990F8D3184-A527-452C-B66E-FEED90581ADA-1033-000000C65CAC4533.jpg,sys-mod-file/2025-03-18/app-file/17423597983459EAB254A-BCDF-4A10-8442-9A9ECB1092F6-1033-000000C6212A98D9.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597942399C9F022B-5396-4FC4-AFA6-96E0CBEC7809.jpg,sys-mod-file/2025-03-18/app-file/17423597933438C68BD87-D491-4E48-A384-178689035C43.jpg,sys-mod-file/2025-03-18/app-file/174235979384869AB42FC-C3DA-4B91-8CF2-63EC17304F0B.jpg,sys-mod-file/2025-03-18/app-file/17423597955722CACCB3E-77FD-4385-B664-657095859961.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359792780B1595A28-6422-47E8-83ED-EE6A9E6BEF6C.jpg,sys-mod-file/2025-03-18/app-file/1742359793377EBB4E85B-AB69-4D4C-869E-845352BDA827.jpg,sys-mod-file/2025-03-18/app-file/1742359794146dm_BEC7974C-DFBF-4116-BB44-5F806FCE1246.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235979135126CE77B2-8AA9-45FD-AD37-CBCBA179DA11-12422-000007B0DAD660A8.jpg,sys-mod-file/2025-03-18/app-file/1742359791954A66DE7A1-81DD-4414-AE1C-3EA5463A81E0-12422-000007B0E9E8257E.jpg,sys-mod-file/2025-03-18/app-file/17423597926007F9F21F6-B7ED-442C-9E4C-FBFB76DF97D9-12422-000007B0B7D04758.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359790404ckcap1056173241611185998.jpg,sys-mod-file/2025-03-18/app-file/1742359790526ckcap1034812295742194372.jpg,sys-mod-file/2025-03-18/app-file/1742359790788ckcap1524759501070342414.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359788846ckcap1056173241611185998.jpg,sys-mod-file/2025-03-18/app-file/1742359788906ckcap1034812295742194372.jpg,sys-mod-file/2025-03-18/app-file/1742359789216ckcap4883247229743560751.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359785340B2D3DD5B-248F-4DF4-B11D-99ED5B987EF8.jpg,sys-mod-file/2025-03-18/app-file/17423597857083A802C3F-7CB7-491D-B51C-FBA769467BCD.jpg,sys-mod-file/2025-03-18/app-file/1742359786176426D778E-8141-4E7D-81CA-66C98E759304.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597781671742359725227rn_image_picker_lib_temp_6d162ec8-99e6-47c6-9997-d77e1a239e1a.jpg,sys-mod-file/2025-03-18/app-file/17423597784541742359775471rn_image_picker_lib_temp_51ecbc1f-d148-4cf5-8617-770c58fa18e3.jpg,sys-mod-file/2025-03-18/app-file/1742359779649ckcap288142175745867813.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597782079BB8B78C-4CA3-4455-8B4F-1DA6E4712295-7598-00000634D15F1C81.jpg,sys-mod-file/2025-03-18/app-file/1742359778507B8AEDE27-8ADD-40E3-8B11-6B55EBBD449C-7598-00000634E0051589.jpg,sys-mod-file/2025-03-18/app-file/17423597792506014097D-4DBC-429D-95DE-F63FB04CE24E-7598-00000634B9F006D7.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597751830164368A-10C4-45C1-B2CC-A5AE3325B13A-80110-000048D427F93E88.jpg,sys-mod-file/2025-03-18/app-file/174235977506477E2F440-3558-44C7-948E-FB4CB0D1E5C0-80110-000048D43251BE4C.jpg,sys-mod-file/2025-03-18/app-file/1742359775826D978AC0B-997D-4A5E-BFB5-DA26C9868B4F-80110-000048D40D20E8CC.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359773111BAF4D7AE-3A78-4F76-8B7E-2FBFF624F4DD-2695-000001B235E4A6F1.jpg,sys-mod-file/2025-03-18/app-file/174235977338891BEA3DF-5B1D-4B18-9D44-6F551220B8B4-2695-000001B2CE0C1996.jpg,sys-mod-file/2025-03-18/app-file/1742359773740477E3F74-4DB4-4BFE-8DF4-D3D3E40A5E4B-2695-000001B2119B0107.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597613746CEE34F7-C657-4E7C-895A-7263464EA3FF.jpg,sys-mod-file/2025-03-18/app-file/17423597598539A351A05-B495-4C7C-96A0-07DE450F2CEA.jpg,sys-mod-file/2025-03-18/app-file/17423597723027EA54284-2011-415F-B70A-6B73693C8CCA-6843-0000053A3656EBE5.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359764634644A11C0-D9CE-4C3F-A508-C0BCA8DAEF1D.jpg,sys-mod-file/2025-03-18/app-file/1742359771359BABC3DAE-B47A-4292-84A0-0A19FF2AF38B.jpg,sys-mod-file/2025-03-18/app-file/1742359766317DE1FAF2E-0EEE-4BE8-A07B-8479A5AF2156.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597700846046626F-058F-49B8-B456-DD41D7C8CA90-913-0000002894405BC2.jpg,sys-mod-file/2025-03-18/app-file/174235977010032888E30-6DF2-4648-BAA0-0146BC05CD99-913-000000289ADE4246.jpg,sys-mod-file/2025-03-18/app-file/1742359770267D5216A99-3005-4723-94D8-6F0FB32522F1-913-000000288BE8E6A3.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597702609792120A-C464-4213-94DB-BAE6BD84018D-7230-00000364851B8899.jpg,sys-mod-file/2025-03-18/app-file/1742359770324F07C0BD9-3FCD-449D-8C04-DAC43422F6F5-7230-000003648D213168.jpg,sys-mod-file/2025-03-18/app-file/17423597709731DEC281C-4A84-4502-9373-4F0FE3115CE8-7230-000003646BCA1E4D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359769964FE87FC37-FF37-4758-BDB6-0D6F695F8672-2596-0000019C95D309B3.jpg,sys-mod-file/2025-03-18/app-file/1742359764578732CA821-8383-4838-983F-C365DCF0F9FF-2596-0000019C9979CA94.jpg,sys-mod-file/2025-03-18/app-file/174235977045275D82CC7-EB13-4892-82F1-529D34881BEF-2596-0000019C90CDFDE2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235976854809708E96-1EB9-4F5E-BC2C-568B4A0BABC4.jpg,sys-mod-file/2025-03-18/app-file/17423597667668916B1D8-21E5-4076-8BB4-8935E3C86602-6700-000003B85CEE3280.jpg,sys-mod-file/2025-03-18/app-file/1742359770176ED14F47B-7F11-497C-9E75-1C75FE8B7C80-6700-000003B8488403A4.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359762344DA1F6C49-28BB-443E-8FE1-E6125F176046-676-0000005FA320F3F6.jpg,sys-mod-file/2025-03-18/app-file/17423597625095D1A4803-0E11-4FF6-9E80-B4711149BD57-676-0000005FB2D3E8B7.jpg,sys-mod-file/2025-03-18/app-file/1742359763410082C8545-1B1F-48C1-81F1-6F336D760D48-676-0000005F61D91258.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597637036178F407-952D-4240-B3EC-F9F4A6FFDD5C-65998-0000100614418392.jpg,sys-mod-file/2025-03-18/app-file/17423597637735532C524-CCB7-478E-BAD1-21872BD49C72-65998-0000100619F7E1E6.jpg,sys-mod-file/2025-03-18/app-file/1742359763969A2540498-9568-4F54-B82C-DE6C4C19E27E-65998-0000100608D4DC1D.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597611723D40D707-4D21-4A5C-8EC9-33EBBFBC63CE.jpg,sys-mod-file/2025-03-18/app-file/174235976093832B141DD-070C-4F2F-ACF3-DFD8FA54AE28.jpg,sys-mod-file/2025-03-18/app-file/17423597608612DC128BA-5644-4ED3-80A6-FF89F804F2E3.jpg,sys-mod-file/2025-03-18/app-file/17423597617968337FE3F-1D70-4DE8-A6BA-B652C557E99B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235975774992D07E13-2600-4FD7-BA44-89604380A06E.jpg,sys-mod-file/2025-03-18/app-file/174235975773723FEA8DF-1E0D-427A-953F-6E549D54225F.jpg,sys-mod-file/2025-03-18/app-file/17423597579929968D7DE-6C9B-49CB-856A-E6371D6A4717-433-000000471EB0B056.jpg,sys-mod-file/2025-03-18/app-file/174235975816882175A86-C734-4B59-8723-764922E4FEF2.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359751804ckcap2038376149092719283.jpg,sys-mod-file/2025-03-18/app-file/1742359752644ckcap7365968678506364701.jpg,sys-mod-file/2025-03-18/app-file/17423597528681742359749252rn_image_picker_lib_temp_57d5ef70-76ff-4d5a-9bec-2f3580f36738.jpg,sys-mod-file/2025-03-18/app-file/1742359756083ckcap3011515543185006111.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359744581ckcap3242902923035050134.jpg,sys-mod-file/2025-03-18/app-file/1742359744590ckcap7485346582881737078.jpg,sys-mod-file/2025-03-18/app-file/1742359744981ckcap4269188940690469708.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/17423597441907673A000-C834-4732-98D7-2D0159EDF302-10074-000012B557092A57.jpg,sys-mod-file/2025-03-18/app-file/174235974366734F2A060-A4CD-4253-B2B1-E6BD5AAA620F-10074-000012B5643731F5.jpg,sys-mod-file/2025-03-18/app-file/17423597448389F4CABA9-F68F-432D-B907-5120A5C309E6-10074-000012B53E2E0F3B.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/174235974431066A32239-642A-4687-8645-24206C3D9E29-4579-0000048A9A4571F9.jpg,sys-mod-file/2025-03-18/app-file/17423597443850BC4EC1F-D705-4627-95A2-BA2CDAE6A750-4579-0000048AAA13ECC3.jpg,sys-mod-file/2025-03-18/app-file/1742359744903DF5663AF-70EB-4703-85B9-7F284A5CD3BD-4579-0000048A89A6D46C.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359742403019610B9-808F-4CF5-8A43-777C95FA6EDF-913-0000002853F68A59.jpg,sys-mod-file/2025-03-18/app-file/174235974266012DE4F86-9BD2-463B-BA0C-F3EF21386312-913-000000285A089680.jpg,sys-mod-file/2025-03-18/app-file/17423597430207A3B1C6A-43E4-4B43-AD56-6D4121F81EAE-913-000000284D52C19F.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359738573C99B390F-82B2-42E3-93D3-7319DE2B0801.jpg,sys-mod-file/2025-03-18/app-file/17423597378935FBDB470-61D3-4A31-BF4C-C278862E3A5D.jpg,sys-mod-file/2025-03-18/app-file/1742359743592AD9AE2F3-F840-403B-84A0-66EF58D93878.jpg</t>
+  </si>
+  <si>
+    <t>sys-mod-file/2025-03-18/app-file/1742359737131C0C1545F-4D40-4D9C-A33A-1E6DB2ECDC79.jpg,sys-mod-file/2025-03-18/app-file/17423597380281E101F8D-AF4C-42ED-B5DD-E02400CA3088.jpg,sys-mod-file/2025-03-18/app-file/1742359738443E9A11C12-9F8B-4C22-AB09-3B62C79DAC0E.jpg,sys-mod-file/2025-03-18/app-file/1742359739026AAE64418-65CE-40B8-882E-D23219AE8AE5.jpg</t>
   </si>
 </sst>
 </file>
@@ -198,7 +3048,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,11 +3062,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -673,28 +3518,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,125 +3551,121 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1205,15 +4049,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.1" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1226,253 +4070,5003 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" s="1" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
